--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25606"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C829B4E-27C8-4FBF-9E47-372477659516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878CF19-8D03-4985-9C36-90991B33F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -182,13 +180,40 @@
   </si>
   <si>
     <t>Alice Fernandes</t>
+  </si>
+  <si>
+    <t>Nomes</t>
+  </si>
+  <si>
+    <t>Leonardo Oliveira Carvalho</t>
+  </si>
+  <si>
+    <t>Diogo Augusto de Moraes</t>
+  </si>
+  <si>
+    <t>Felipe da Silva Troncoso Lopes</t>
+  </si>
+  <si>
+    <t>Pedro Salustiano dos Santos Moreira</t>
+  </si>
+  <si>
+    <t>Klayton Bruce Pereira do Vale</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Or</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +225,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,10 +258,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,365 +580,3098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="25" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2">
         <v>44762</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44763</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44764</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>44737</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>44738</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>44739</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>44740</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>44741</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>44774</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>44775</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>44776</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>44777</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>44778</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>44781</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>44782</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>44783</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>44784</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>44785</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="U1" s="2">
+        <v>44788</v>
+      </c>
+      <c r="V1" s="2">
+        <v>44789</v>
+      </c>
+      <c r="W1" s="2">
+        <v>44790</v>
+      </c>
+      <c r="X1" s="2">
+        <v>44791</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
       </c>
       <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" t="s">
+        <v>55</v>
+      </c>
+      <c r="U22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>55</v>
+      </c>
+      <c r="R23" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>55</v>
+      </c>
+      <c r="R25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>56</v>
+      </c>
+      <c r="U25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" t="s">
+        <v>56</v>
+      </c>
+      <c r="S26" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" t="s">
+        <v>55</v>
+      </c>
+      <c r="T27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" t="s">
+        <v>55</v>
+      </c>
+      <c r="U32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>55</v>
+      </c>
+      <c r="R33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>55</v>
+      </c>
+      <c r="R35" t="s">
+        <v>55</v>
+      </c>
+      <c r="S35" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" t="s">
+        <v>55</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" t="s">
+        <v>55</v>
+      </c>
+      <c r="O37" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>55</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" t="s">
+        <v>55</v>
+      </c>
+      <c r="T37" t="s">
+        <v>56</v>
+      </c>
+      <c r="U37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>55</v>
+      </c>
+      <c r="R38" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" t="s">
+        <v>55</v>
+      </c>
+      <c r="U38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" t="s">
+        <v>55</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>55</v>
+      </c>
+      <c r="R42" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" t="s">
+        <v>55</v>
+      </c>
+      <c r="T42" t="s">
+        <v>55</v>
+      </c>
+      <c r="U42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" t="s">
+        <v>55</v>
+      </c>
+      <c r="T43" t="s">
+        <v>56</v>
+      </c>
+      <c r="U43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" t="s">
+        <v>55</v>
+      </c>
+      <c r="S44" t="s">
+        <v>56</v>
+      </c>
+      <c r="T44" t="s">
+        <v>56</v>
+      </c>
+      <c r="U44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="R45" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" t="s">
+        <v>55</v>
+      </c>
+      <c r="T45" t="s">
+        <v>55</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="R46" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" t="s">
+        <v>55</v>
+      </c>
+      <c r="T46" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3">
+        <v>45</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>55</v>
+      </c>
+      <c r="R48" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" t="s">
+        <v>55</v>
+      </c>
+      <c r="T48" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>55</v>
+      </c>
+      <c r="R49" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" t="s">
+        <v>55</v>
+      </c>
+      <c r="T49" t="s">
+        <v>55</v>
+      </c>
+      <c r="U49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>55</v>
+      </c>
+      <c r="R50" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" t="s">
+        <v>55</v>
+      </c>
+      <c r="T50" t="s">
+        <v>55</v>
+      </c>
+      <c r="U50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="T51" t="s">
+        <v>55</v>
+      </c>
+      <c r="U51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y51">
+    <sortCondition ref="B2:B51"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A878CF19-8D03-4985-9C36-90991B33F6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB8C1CD-BCD5-420B-AEBD-2D760C3EEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -583,7 +583,10 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +814,9 @@
       <c r="U3" t="s">
         <v>55</v>
       </c>
+      <c r="V3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -876,6 +882,9 @@
       <c r="U4" t="s">
         <v>55</v>
       </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -941,6 +950,9 @@
       <c r="U5" t="s">
         <v>55</v>
       </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1006,6 +1018,9 @@
       <c r="U6" t="s">
         <v>55</v>
       </c>
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1071,6 +1086,9 @@
       <c r="U7" t="s">
         <v>55</v>
       </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1136,6 +1154,9 @@
       <c r="U8" t="s">
         <v>56</v>
       </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1201,6 +1222,9 @@
       <c r="U9" t="s">
         <v>55</v>
       </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1266,6 +1290,9 @@
       <c r="U10" t="s">
         <v>55</v>
       </c>
+      <c r="V10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1331,6 +1358,9 @@
       <c r="U11" t="s">
         <v>55</v>
       </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1396,6 +1426,9 @@
       <c r="U12" t="s">
         <v>56</v>
       </c>
+      <c r="V12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1461,6 +1494,9 @@
       <c r="U13" t="s">
         <v>55</v>
       </c>
+      <c r="V13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1526,6 +1562,9 @@
       <c r="U14" t="s">
         <v>55</v>
       </c>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1591,6 +1630,9 @@
       <c r="U15" t="s">
         <v>55</v>
       </c>
+      <c r="V15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1656,8 +1698,11 @@
       <c r="U16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1721,8 +1766,11 @@
       <c r="U17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1786,8 +1834,11 @@
       <c r="U18" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1851,8 +1902,11 @@
       <c r="U19" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1916,8 +1970,11 @@
       <c r="U20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1981,8 +2038,11 @@
       <c r="U21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2046,8 +2106,11 @@
       <c r="U22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2111,8 +2174,11 @@
       <c r="U23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2176,8 +2242,11 @@
       <c r="U24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2241,8 +2310,11 @@
       <c r="U25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2306,8 +2378,11 @@
       <c r="U26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2371,8 +2446,11 @@
       <c r="U27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2436,8 +2514,11 @@
       <c r="U28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2501,8 +2582,11 @@
       <c r="U29" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2566,8 +2650,11 @@
       <c r="U30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2631,8 +2718,11 @@
       <c r="U31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2696,8 +2786,11 @@
       <c r="U32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2761,8 +2854,11 @@
       <c r="U33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2826,8 +2922,11 @@
       <c r="U34" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2891,8 +2990,11 @@
       <c r="U35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2956,8 +3058,11 @@
       <c r="U36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3021,8 +3126,11 @@
       <c r="U37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3086,8 +3194,11 @@
       <c r="U38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3151,8 +3262,11 @@
       <c r="U39" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3216,8 +3330,11 @@
       <c r="U40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -3281,8 +3398,11 @@
       <c r="U41" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3346,8 +3466,11 @@
       <c r="U42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3399,8 +3522,11 @@
       <c r="U43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3452,8 +3578,11 @@
       <c r="U44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3472,8 +3601,11 @@
       <c r="U45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3492,8 +3624,11 @@
       <c r="U46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -3524,8 +3659,11 @@
       <c r="U47" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3568,8 +3706,11 @@
       <c r="U48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -3612,8 +3753,11 @@
       <c r="U49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3650,8 +3794,11 @@
       <c r="U50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3662,6 +3809,9 @@
         <v>55</v>
       </c>
       <c r="U51" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25603"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB8C1CD-BCD5-420B-AEBD-2D760C3EEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E90F4E-35EB-4A7C-939A-AD56F0C5238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -586,7 +586,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +817,9 @@
       <c r="V3" t="s">
         <v>55</v>
       </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -885,6 +888,9 @@
       <c r="V4" t="s">
         <v>55</v>
       </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -953,6 +959,9 @@
       <c r="V5" t="s">
         <v>55</v>
       </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1021,6 +1030,9 @@
       <c r="V6" t="s">
         <v>55</v>
       </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1089,6 +1101,9 @@
       <c r="V7" t="s">
         <v>55</v>
       </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1157,6 +1172,9 @@
       <c r="V8" t="s">
         <v>56</v>
       </c>
+      <c r="W8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1225,6 +1243,9 @@
       <c r="V9" t="s">
         <v>55</v>
       </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1293,6 +1314,9 @@
       <c r="V10" t="s">
         <v>55</v>
       </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1361,6 +1385,9 @@
       <c r="V11" t="s">
         <v>55</v>
       </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1429,6 +1456,9 @@
       <c r="V12" t="s">
         <v>55</v>
       </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1497,6 +1527,9 @@
       <c r="V13" t="s">
         <v>55</v>
       </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1565,6 +1598,9 @@
       <c r="V14" t="s">
         <v>55</v>
       </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1633,6 +1669,9 @@
       <c r="V15" t="s">
         <v>55</v>
       </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1701,8 +1740,11 @@
       <c r="V16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1769,8 +1811,11 @@
       <c r="V17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="V18" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1905,8 +1953,11 @@
       <c r="V19" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1973,8 +2024,11 @@
       <c r="V20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2041,8 +2095,11 @@
       <c r="V21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2109,8 +2166,11 @@
       <c r="V22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2177,8 +2237,11 @@
       <c r="V23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2245,8 +2308,11 @@
       <c r="V24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2313,8 +2379,11 @@
       <c r="V25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2381,8 +2450,11 @@
       <c r="V26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2449,8 +2521,11 @@
       <c r="V27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2517,8 +2592,11 @@
       <c r="V28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2585,8 +2663,11 @@
       <c r="V29" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2653,8 +2734,11 @@
       <c r="V30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2721,8 +2805,11 @@
       <c r="V31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2789,8 +2876,11 @@
       <c r="V32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2857,8 +2947,11 @@
       <c r="V33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2925,8 +3018,11 @@
       <c r="V34" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2993,8 +3089,11 @@
       <c r="V35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3061,8 +3160,11 @@
       <c r="V36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3129,8 +3231,11 @@
       <c r="V37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3197,8 +3302,11 @@
       <c r="V38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3265,8 +3373,11 @@
       <c r="V39" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3333,8 +3444,11 @@
       <c r="V40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -3401,8 +3515,11 @@
       <c r="V41" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3469,8 +3586,11 @@
       <c r="V42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3525,8 +3645,11 @@
       <c r="V43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3581,8 +3704,11 @@
       <c r="V44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3604,8 +3730,11 @@
       <c r="V45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3627,8 +3756,11 @@
       <c r="V46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -3662,8 +3794,11 @@
       <c r="V47" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3709,8 +3844,11 @@
       <c r="V48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -3756,8 +3894,11 @@
       <c r="V49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3938,11 @@
       <c r="V50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3813,6 +3957,9 @@
       </c>
       <c r="V51" t="s">
         <v>55</v>
+      </c>
+      <c r="W51" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E90F4E-35EB-4A7C-939A-AD56F0C5238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB42E7-9728-4259-9322-D12E8B074C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Or</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -580,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +607,7 @@
     <col min="11" max="25" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -672,8 +681,23 @@
       <c r="Y1" s="2">
         <v>44792</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2">
+        <v>44795</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>44796</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>44797</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>44798</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -749,8 +773,23 @@
       <c r="Y2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -820,8 +859,17 @@
       <c r="W3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -891,8 +939,17 @@
       <c r="W4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -962,8 +1019,17 @@
       <c r="W5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1033,8 +1099,17 @@
       <c r="W6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1104,8 +1179,17 @@
       <c r="W7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1175,8 +1259,17 @@
       <c r="W8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1246,8 +1339,17 @@
       <c r="W9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1317,8 +1419,17 @@
       <c r="W10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1388,8 +1499,17 @@
       <c r="W11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1459,8 +1579,17 @@
       <c r="W12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1530,8 +1659,17 @@
       <c r="W13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1601,8 +1739,17 @@
       <c r="W14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1672,8 +1819,17 @@
       <c r="W15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1743,8 +1899,17 @@
       <c r="W16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1814,8 +1979,17 @@
       <c r="W17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1885,8 +2059,17 @@
       <c r="W18" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -1956,8 +2139,17 @@
       <c r="W19" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2027,8 +2219,17 @@
       <c r="W20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2098,8 +2299,17 @@
       <c r="W21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2169,8 +2379,17 @@
       <c r="W22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2240,8 +2459,17 @@
       <c r="W23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2311,8 +2539,17 @@
       <c r="W24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2382,8 +2619,17 @@
       <c r="W25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2453,8 +2699,17 @@
       <c r="W26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2524,8 +2779,17 @@
       <c r="W27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2595,8 +2859,17 @@
       <c r="W28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2666,8 +2939,17 @@
       <c r="W29" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2737,8 +3019,17 @@
       <c r="W30" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2808,8 +3099,17 @@
       <c r="W31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2879,8 +3179,17 @@
       <c r="W32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2950,8 +3259,17 @@
       <c r="W33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -3021,8 +3339,17 @@
       <c r="W34" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -3092,8 +3419,17 @@
       <c r="W35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3163,8 +3499,17 @@
       <c r="W36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3234,8 +3579,17 @@
       <c r="W37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3305,8 +3659,17 @@
       <c r="W38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3376,8 +3739,17 @@
       <c r="W39" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3447,8 +3819,17 @@
       <c r="W40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -3518,8 +3899,17 @@
       <c r="W41" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3589,8 +3979,17 @@
       <c r="W42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3646,10 +4045,19 @@
         <v>56</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3707,8 +4115,17 @@
       <c r="W44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3733,8 +4150,17 @@
       <c r="W45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3759,8 +4185,17 @@
       <c r="W46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -3797,8 +4232,17 @@
       <c r="W47" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3847,8 +4291,17 @@
       <c r="W48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -3897,8 +4350,17 @@
       <c r="W49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3941,8 +4403,17 @@
       <c r="W50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3960,6 +4431,15 @@
       </c>
       <c r="W51" t="s">
         <v>56</v>
+      </c>
+      <c r="X51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3969,6 +4449,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB42E7-9728-4259-9322-D12E8B074C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2D5A7-ADAC-41C0-A0EC-E6BB425845FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -207,16 +207,13 @@
   </si>
   <si>
     <t>Or</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +233,22 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,6 +282,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +607,10 @@
   <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +619,7 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="30" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -796,7 +811,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D3" t="s">
@@ -866,6 +881,12 @@
         <v>55</v>
       </c>
       <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -948,6 +969,12 @@
       <c r="Z4" t="s">
         <v>55</v>
       </c>
+      <c r="AA4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1028,6 +1055,12 @@
       <c r="Z5" t="s">
         <v>56</v>
       </c>
+      <c r="AA5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1108,6 +1141,12 @@
       <c r="Z6" t="s">
         <v>55</v>
       </c>
+      <c r="AA6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1188,6 +1227,12 @@
       <c r="Z7" t="s">
         <v>55</v>
       </c>
+      <c r="AA7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1268,6 +1313,12 @@
       <c r="Z8" t="s">
         <v>56</v>
       </c>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1348,6 +1399,12 @@
       <c r="Z9" t="s">
         <v>55</v>
       </c>
+      <c r="AA9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1428,6 +1485,12 @@
       <c r="Z10" t="s">
         <v>55</v>
       </c>
+      <c r="AA10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1508,6 +1571,12 @@
       <c r="Z11" t="s">
         <v>55</v>
       </c>
+      <c r="AA11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1588,6 +1657,12 @@
       <c r="Z12" t="s">
         <v>55</v>
       </c>
+      <c r="AA12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1668,6 +1743,12 @@
       <c r="Z13" t="s">
         <v>55</v>
       </c>
+      <c r="AA13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1748,6 +1829,12 @@
       <c r="Z14" t="s">
         <v>55</v>
       </c>
+      <c r="AA14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1828,6 +1915,12 @@
       <c r="Z15" t="s">
         <v>55</v>
       </c>
+      <c r="AA15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1908,8 +2001,14 @@
       <c r="Z16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1988,8 +2087,14 @@
       <c r="Z17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -2069,7 +2174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2149,7 +2254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2228,8 +2333,14 @@
       <c r="Z20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2308,8 +2419,14 @@
       <c r="Z21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2388,8 +2505,14 @@
       <c r="Z22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2468,8 +2591,14 @@
       <c r="Z23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2548,8 +2677,14 @@
       <c r="Z24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2628,8 +2763,14 @@
       <c r="Z25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2708,8 +2849,14 @@
       <c r="Z26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2786,10 +2933,16 @@
         <v>56</v>
       </c>
       <c r="Z27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -2868,8 +3021,14 @@
       <c r="Z28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2949,7 +3108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -3029,7 +3188,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3108,8 +3267,14 @@
       <c r="Z31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3188,8 +3353,14 @@
       <c r="Z32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3439,14 @@
       <c r="Z33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
@@ -3349,7 +3526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -3428,8 +3605,14 @@
       <c r="Z35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3508,8 +3691,14 @@
       <c r="Z36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -3588,8 +3777,14 @@
       <c r="Z37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3668,8 +3863,14 @@
       <c r="Z38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -3748,8 +3949,14 @@
       <c r="Z39" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3828,8 +4035,14 @@
       <c r="Z40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
@@ -3909,7 +4122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -3988,9 +4201,15 @@
       <c r="Z42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="AA42" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B43">
@@ -4056,8 +4275,14 @@
       <c r="Z43" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4124,8 +4349,14 @@
       <c r="Z44" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4390,14 @@
       <c r="Z45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4194,8 +4431,14 @@
       <c r="Z46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -4241,8 +4484,14 @@
       <c r="Z47" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -4300,8 +4549,14 @@
       <c r="Z48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -4359,8 +4614,14 @@
       <c r="Z49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4412,8 +4673,14 @@
       <c r="Z50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -4439,6 +4706,12 @@
         <v>55</v>
       </c>
       <c r="Z51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2D5A7-ADAC-41C0-A0EC-E6BB425845FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F0F03D-E0D8-4D62-ADF7-BF509F8BB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,14 +245,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,21 +266,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -610,7 +616,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -806,56 +812,11 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
       <c r="R3" t="s">
         <v>55</v>
       </c>
@@ -892,7 +853,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -949,7 +910,7 @@
         <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
         <v>55</v>
@@ -978,16 +939,16 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>55</v>
@@ -1005,7 +966,7 @@
         <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
@@ -1053,7 +1014,7 @@
         <v>55</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="s">
         <v>55</v>
@@ -1064,7 +1025,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1115,7 +1076,7 @@
         <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
         <v>55</v>
@@ -1130,7 +1091,7 @@
         <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
         <v>55</v>
@@ -1150,7 +1111,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1201,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S7" t="s">
         <v>55</v>
@@ -1236,7 +1197,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1287,144 +1248,134 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
         <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
       <c r="G10" t="s">
         <v>55</v>
       </c>
@@ -1441,19 +1392,19 @@
         <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
         <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" t="s">
         <v>55</v>
@@ -1465,122 +1416,124 @@
         <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>55</v>
-      </c>
-      <c r="R11" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>55</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1631,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
         <v>55</v>
@@ -1666,7 +1619,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1752,7 +1705,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1812,10 +1765,10 @@
         <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
         <v>55</v>
@@ -1838,7 +1791,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -1889,7 +1842,7 @@
         <v>55</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" t="s">
         <v>55</v>
@@ -1904,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X15" t="s">
         <v>55</v>
@@ -1916,15 +1869,15 @@
         <v>55</v>
       </c>
       <c r="AA15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1981,36 +1934,36 @@
         <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -2022,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
@@ -2061,7 +2014,7 @@
         <v>55</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
         <v>55</v>
@@ -2070,13 +2023,13 @@
         <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
         <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X17" t="s">
         <v>55</v>
@@ -2088,175 +2041,183 @@
         <v>55</v>
       </c>
       <c r="AA17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
+      </c>
+      <c r="X18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>55</v>
+      </c>
+      <c r="R19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC19"/>
+      <c r="AD19"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2307,13 +2268,13 @@
         <v>55</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
         <v>55</v>
@@ -2337,12 +2298,12 @@
         <v>55</v>
       </c>
       <c r="AB20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -2426,95 +2387,97 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" t="s">
-        <v>55</v>
-      </c>
-      <c r="U22" t="s">
-        <v>56</v>
-      </c>
-      <c r="V22" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" t="s">
-        <v>55</v>
-      </c>
-      <c r="X22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -2574,7 +2537,7 @@
         <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
         <v>55</v>
@@ -2598,64 +2561,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" t="s">
-        <v>55</v>
-      </c>
-      <c r="S24" t="s">
-        <v>55</v>
-      </c>
       <c r="T24" t="s">
         <v>55</v>
       </c>
@@ -2684,9 +2596,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -2737,13 +2649,13 @@
         <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
         <v>56</v>
@@ -2758,10 +2670,10 @@
         <v>55</v>
       </c>
       <c r="Y25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="s">
         <v>55</v>
@@ -2770,9 +2682,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -2823,13 +2735,13 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
         <v>55</v>
@@ -2853,12 +2765,12 @@
         <v>55</v>
       </c>
       <c r="AB26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -2918,33 +2830,33 @@
         <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -2995,297 +2907,315 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
         <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" t="s">
+        <v>55</v>
+      </c>
+      <c r="T29" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" t="s">
+        <v>55</v>
+      </c>
+      <c r="V29" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC29"/>
+      <c r="AD29"/>
+    </row>
+    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" t="s">
+        <v>55</v>
+      </c>
+      <c r="T30" t="s">
+        <v>55</v>
+      </c>
+      <c r="U30" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" t="s">
+        <v>55</v>
+      </c>
+      <c r="W30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" t="s">
-        <v>55</v>
-      </c>
-      <c r="O31" t="s">
-        <v>55</v>
-      </c>
-      <c r="P31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>55</v>
-      </c>
-      <c r="R31" t="s">
-        <v>55</v>
-      </c>
-      <c r="S31" t="s">
-        <v>55</v>
-      </c>
-      <c r="T31" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" t="s">
-        <v>55</v>
-      </c>
-      <c r="W31" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
         <v>55</v>
@@ -3360,9 +3290,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -3377,7 +3307,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -3398,7 +3328,7 @@
         <v>55</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N33" t="s">
         <v>55</v>
@@ -3419,7 +3349,7 @@
         <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
@@ -3446,11 +3376,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3">
+        <v>50</v>
+      </c>
+      <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3525,10 +3455,16 @@
       <c r="Z34" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -3555,7 +3491,7 @@
         <v>55</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
         <v>55</v>
@@ -3603,7 +3539,7 @@
         <v>55</v>
       </c>
       <c r="Z35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA35" t="s">
         <v>55</v>
@@ -3612,9 +3548,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -3647,7 +3583,7 @@
         <v>55</v>
       </c>
       <c r="L36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
@@ -3656,7 +3592,7 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P36" t="s">
         <v>55</v>
@@ -3665,7 +3601,7 @@
         <v>55</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S36" t="s">
         <v>55</v>
@@ -3698,9 +3634,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -3715,7 +3651,7 @@
         <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
         <v>55</v>
@@ -3736,7 +3672,7 @@
         <v>55</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" t="s">
         <v>55</v>
@@ -3751,16 +3687,16 @@
         <v>55</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
         <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
         <v>55</v>
@@ -3772,10 +3708,10 @@
         <v>55</v>
       </c>
       <c r="Y37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA37" t="s">
         <v>55</v>
@@ -3784,9 +3720,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -3870,51 +3806,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="N39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>56</v>
@@ -3956,9 +3859,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -4042,11 +3945,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="3">
+        <v>53</v>
+      </c>
+      <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -4121,129 +4024,122 @@
       <c r="Z41" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>27</v>
+      <c r="AA41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B42">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" t="s">
-        <v>55</v>
-      </c>
-      <c r="O42" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>55</v>
-      </c>
-      <c r="R42" t="s">
-        <v>56</v>
-      </c>
-      <c r="S42" t="s">
-        <v>55</v>
-      </c>
-      <c r="T42" t="s">
-        <v>55</v>
-      </c>
-      <c r="U42" t="s">
-        <v>55</v>
-      </c>
-      <c r="V42" t="s">
-        <v>55</v>
-      </c>
-      <c r="W42" t="s">
-        <v>55</v>
-      </c>
-      <c r="X42" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>5</v>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
       </c>
       <c r="B43">
         <v>41</v>
       </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" t="s">
-        <v>55</v>
-      </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N43" t="s">
         <v>55</v>
       </c>
       <c r="O43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q43" t="s">
         <v>55</v>
@@ -4255,45 +4151,57 @@
         <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>56</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="W43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>42</v>
       </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
       <c r="G44" t="s">
         <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s">
         <v>55</v>
@@ -4302,7 +4210,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L44" t="s">
         <v>55</v>
@@ -4326,16 +4234,16 @@
         <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W44" t="s">
         <v>55</v>
@@ -4353,16 +4261,61 @@
         <v>55</v>
       </c>
       <c r="AB44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>43</v>
       </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>55</v>
+      </c>
       <c r="R45" t="s">
         <v>55</v>
       </c>
@@ -4397,7 +4350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4438,66 +4391,108 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3">
+    <row r="47" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
         <v>45</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" t="s">
+        <v>55</v>
+      </c>
+      <c r="T47" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" t="s">
+        <v>55</v>
+      </c>
+      <c r="W47" t="s">
+        <v>55</v>
+      </c>
+      <c r="X47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC47"/>
+      <c r="AD47"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>46</v>
       </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
       <c r="J48" t="s">
         <v>55</v>
       </c>
@@ -4523,16 +4518,16 @@
         <v>55</v>
       </c>
       <c r="R48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V48" t="s">
         <v>55</v>
@@ -4547,7 +4542,7 @@
         <v>55</v>
       </c>
       <c r="Z48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA48" t="s">
         <v>55</v>
@@ -4558,11 +4553,32 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>47</v>
       </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
       <c r="J49" t="s">
         <v>55</v>
       </c>
@@ -4588,7 +4604,7 @@
         <v>55</v>
       </c>
       <c r="R49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S49" t="s">
         <v>55</v>
@@ -4603,7 +4619,7 @@
         <v>55</v>
       </c>
       <c r="W49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X49" t="s">
         <v>55</v>
@@ -4623,11 +4639,17 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B50">
         <v>48</v>
       </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
       <c r="L50" t="s">
         <v>55</v>
       </c>
@@ -4682,11 +4704,62 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B51">
         <v>49</v>
       </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>55</v>
+      </c>
+      <c r="R51" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" t="s">
+        <v>55</v>
+      </c>
       <c r="T51" t="s">
         <v>55</v>
       </c>
@@ -4697,7 +4770,7 @@
         <v>55</v>
       </c>
       <c r="W51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X51" t="s">
         <v>55</v>
@@ -4716,14 +4789,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y51">
-    <sortCondition ref="B2:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AD51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F0F03D-E0D8-4D62-ADF7-BF509F8BB205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C29DD3-FA60-44FF-B1AE-764AEBACF682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -279,12 +279,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -616,7 +611,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +845,9 @@
       <c r="AB3" t="s">
         <v>55</v>
       </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -936,6 +934,9 @@
       <c r="AB4" t="s">
         <v>55</v>
       </c>
+      <c r="AC4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1022,6 +1023,9 @@
       <c r="AB5" t="s">
         <v>55</v>
       </c>
+      <c r="AC5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1108,6 +1112,9 @@
       <c r="AB6" t="s">
         <v>55</v>
       </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1194,6 +1201,9 @@
       <c r="AB7" t="s">
         <v>55</v>
       </c>
+      <c r="AC7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1280,6 +1290,9 @@
       <c r="AB8" t="s">
         <v>55</v>
       </c>
+      <c r="AC8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1616,6 +1629,9 @@
       <c r="AB12" t="s">
         <v>55</v>
       </c>
+      <c r="AC12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1702,6 +1718,9 @@
       <c r="AB13" t="s">
         <v>55</v>
       </c>
+      <c r="AC13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1788,6 +1807,9 @@
       <c r="AB14" t="s">
         <v>55</v>
       </c>
+      <c r="AC14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1874,6 +1896,9 @@
       <c r="AB15" t="s">
         <v>56</v>
       </c>
+      <c r="AC15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1960,6 +1985,9 @@
       <c r="AB16" t="s">
         <v>56</v>
       </c>
+      <c r="AC16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2046,6 +2074,9 @@
       <c r="AB17" t="s">
         <v>55</v>
       </c>
+      <c r="AC17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2132,7 +2163,9 @@
       <c r="AB18" t="s">
         <v>55</v>
       </c>
-      <c r="AC18"/>
+      <c r="AC18" t="s">
+        <v>55</v>
+      </c>
       <c r="AD18"/>
     </row>
     <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2245,9 @@
       <c r="AB19" t="s">
         <v>56</v>
       </c>
-      <c r="AC19"/>
+      <c r="AC19" t="s">
+        <v>55</v>
+      </c>
       <c r="AD19"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -2300,6 +2335,9 @@
       <c r="AB20" t="s">
         <v>56</v>
       </c>
+      <c r="AC20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2386,6 +2424,9 @@
       <c r="AB21" t="s">
         <v>55</v>
       </c>
+      <c r="AC21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2560,6 +2601,9 @@
       <c r="AB23" t="s">
         <v>55</v>
       </c>
+      <c r="AC23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2595,6 +2639,9 @@
       <c r="AB24" t="s">
         <v>55</v>
       </c>
+      <c r="AC24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2681,6 +2728,9 @@
       <c r="AB25" t="s">
         <v>55</v>
       </c>
+      <c r="AC25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2767,6 +2817,9 @@
       <c r="AB26" t="s">
         <v>55</v>
       </c>
+      <c r="AC26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2854,7 +2907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3025,7 +3078,9 @@
       <c r="AB29" t="s">
         <v>55</v>
       </c>
-      <c r="AC29"/>
+      <c r="AC29" t="s">
+        <v>55</v>
+      </c>
       <c r="AD29"/>
     </row>
     <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3113,7 +3168,9 @@
       <c r="AB30" t="s">
         <v>55</v>
       </c>
-      <c r="AC30"/>
+      <c r="AC30" t="s">
+        <v>55</v>
+      </c>
       <c r="AD30"/>
     </row>
     <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
@@ -3289,6 +3346,9 @@
       <c r="AB32" t="s">
         <v>55</v>
       </c>
+      <c r="AC32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3375,6 +3435,9 @@
       <c r="AB33" t="s">
         <v>55</v>
       </c>
+      <c r="AC33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -3547,6 +3610,9 @@
       <c r="AB35" t="s">
         <v>55</v>
       </c>
+      <c r="AC35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3633,6 +3699,9 @@
       <c r="AB36" t="s">
         <v>55</v>
       </c>
+      <c r="AC36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3719,6 +3788,9 @@
       <c r="AB37" t="s">
         <v>55</v>
       </c>
+      <c r="AC37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3805,6 +3877,9 @@
       <c r="AB38" t="s">
         <v>55</v>
       </c>
+      <c r="AC38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -3944,6 +4019,9 @@
       <c r="AB40" t="s">
         <v>55</v>
       </c>
+      <c r="AC40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -4177,6 +4255,9 @@
       <c r="AB43" t="s">
         <v>55</v>
       </c>
+      <c r="AC43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4263,6 +4344,9 @@
       <c r="AB44" t="s">
         <v>55</v>
       </c>
+      <c r="AC44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -4349,6 +4433,9 @@
       <c r="AB45" t="s">
         <v>55</v>
       </c>
+      <c r="AC45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -4388,6 +4475,9 @@
         <v>55</v>
       </c>
       <c r="AB46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4462,7 +4552,9 @@
       <c r="AB47" t="s">
         <v>55</v>
       </c>
-      <c r="AC47"/>
+      <c r="AC47" t="s">
+        <v>55</v>
+      </c>
       <c r="AD47"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
@@ -4550,8 +4642,11 @@
       <c r="AB48" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4636,8 +4731,11 @@
       <c r="AB49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -4701,8 +4799,11 @@
       <c r="AB50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -4785,6 +4886,9 @@
         <v>55</v>
       </c>
       <c r="AB51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4796,10 +4900,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C29DD3-FA60-44FF-B1AE-764AEBACF682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64959A31-57F9-4CEC-ACDB-E40772A47419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -605,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:AD51"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
     <col min="11" max="30" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -712,8 +712,38 @@
       <c r="AD1" s="2">
         <v>44799</v>
       </c>
+      <c r="AE1" s="2">
+        <v>44802</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>44803</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>44804</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>44805</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>44806</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>44809</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>44810</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>44811</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>44812</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>44813</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -804,8 +834,38 @@
       <c r="AD2" t="s">
         <v>43</v>
       </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -848,8 +908,11 @@
       <c r="AC3" t="s">
         <v>55</v>
       </c>
+      <c r="AD3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -937,8 +1000,11 @@
       <c r="AC4" t="s">
         <v>55</v>
       </c>
+      <c r="AD4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1026,8 +1092,11 @@
       <c r="AC5" t="s">
         <v>55</v>
       </c>
+      <c r="AD5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1115,8 +1184,11 @@
       <c r="AC6" t="s">
         <v>55</v>
       </c>
+      <c r="AD6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1204,8 +1276,11 @@
       <c r="AC7" t="s">
         <v>55</v>
       </c>
+      <c r="AD7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1293,8 +1368,11 @@
       <c r="AC8" t="s">
         <v>55</v>
       </c>
+      <c r="AD8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1382,7 +1460,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1544,7 +1622,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1632,8 +1710,11 @@
       <c r="AC12" t="s">
         <v>55</v>
       </c>
+      <c r="AD12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1721,8 +1802,11 @@
       <c r="AC13" t="s">
         <v>55</v>
       </c>
+      <c r="AD13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1810,8 +1894,11 @@
       <c r="AC14" t="s">
         <v>55</v>
       </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1899,8 +1986,11 @@
       <c r="AC15" t="s">
         <v>56</v>
       </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1986,6 +2076,9 @@
         <v>56</v>
       </c>
       <c r="AC16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2077,6 +2170,9 @@
       <c r="AC17" t="s">
         <v>55</v>
       </c>
+      <c r="AD17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2166,7 +2262,9 @@
       <c r="AC18" t="s">
         <v>55</v>
       </c>
-      <c r="AD18"/>
+      <c r="AD18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2248,7 +2346,9 @@
       <c r="AC19" t="s">
         <v>55</v>
       </c>
-      <c r="AD19"/>
+      <c r="AD19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2338,6 +2438,9 @@
       <c r="AC20" t="s">
         <v>56</v>
       </c>
+      <c r="AD20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2425,6 +2528,9 @@
         <v>55</v>
       </c>
       <c r="AC21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2604,6 +2710,9 @@
       <c r="AC23" t="s">
         <v>55</v>
       </c>
+      <c r="AD23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2642,6 +2751,9 @@
       <c r="AC24" t="s">
         <v>55</v>
       </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2731,6 +2843,9 @@
       <c r="AC25" t="s">
         <v>55</v>
       </c>
+      <c r="AD25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2820,8 +2935,11 @@
       <c r="AC26" t="s">
         <v>55</v>
       </c>
+      <c r="AD26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2904,6 +3022,12 @@
         <v>55</v>
       </c>
       <c r="AB27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3081,7 +3205,9 @@
       <c r="AC29" t="s">
         <v>55</v>
       </c>
-      <c r="AD29"/>
+      <c r="AD29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3171,7 +3297,9 @@
       <c r="AC30" t="s">
         <v>55</v>
       </c>
-      <c r="AD30"/>
+      <c r="AD30" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -3349,6 +3477,9 @@
       <c r="AC32" t="s">
         <v>55</v>
       </c>
+      <c r="AD32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3438,6 +3569,9 @@
       <c r="AC33" t="s">
         <v>55</v>
       </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -3613,6 +3747,9 @@
       <c r="AC35" t="s">
         <v>55</v>
       </c>
+      <c r="AD35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -3702,6 +3839,9 @@
       <c r="AC36" t="s">
         <v>55</v>
       </c>
+      <c r="AD36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3791,6 +3931,9 @@
       <c r="AC37" t="s">
         <v>56</v>
       </c>
+      <c r="AD37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3880,6 +4023,9 @@
       <c r="AC38" t="s">
         <v>55</v>
       </c>
+      <c r="AD38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -4020,6 +4166,9 @@
         <v>55</v>
       </c>
       <c r="AC40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD40" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4258,6 +4407,9 @@
       <c r="AC43" t="s">
         <v>55</v>
       </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -4347,6 +4499,9 @@
       <c r="AC44" t="s">
         <v>55</v>
       </c>
+      <c r="AD44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -4436,6 +4591,9 @@
       <c r="AC45" t="s">
         <v>55</v>
       </c>
+      <c r="AD45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -4478,6 +4636,9 @@
         <v>55</v>
       </c>
       <c r="AC46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4555,7 +4716,9 @@
       <c r="AC47" t="s">
         <v>55</v>
       </c>
-      <c r="AD47"/>
+      <c r="AD47" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -4645,8 +4808,11 @@
       <c r="AC48" t="s">
         <v>55</v>
       </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4734,8 +4900,11 @@
       <c r="AC49" t="s">
         <v>55</v>
       </c>
+      <c r="AD49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -4802,8 +4971,11 @@
       <c r="AC50" t="s">
         <v>55</v>
       </c>
+      <c r="AD50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -4889,6 +5061,9 @@
         <v>55</v>
       </c>
       <c r="AC51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64959A31-57F9-4CEC-ACDB-E40772A47419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEBA04A-720D-40B5-B491-3CEAA10B52B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -608,10 +608,10 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,6 +911,12 @@
       <c r="AD3" t="s">
         <v>55</v>
       </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1003,6 +1009,12 @@
       <c r="AD4" t="s">
         <v>55</v>
       </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1095,6 +1107,12 @@
       <c r="AD5" t="s">
         <v>55</v>
       </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1187,6 +1205,12 @@
       <c r="AD6" t="s">
         <v>55</v>
       </c>
+      <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1279,6 +1303,12 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
+      <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1369,6 +1399,12 @@
         <v>55</v>
       </c>
       <c r="AD8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1713,6 +1749,12 @@
       <c r="AD12" t="s">
         <v>55</v>
       </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1805,6 +1847,12 @@
       <c r="AD13" t="s">
         <v>55</v>
       </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1897,6 +1945,12 @@
       <c r="AD14" t="s">
         <v>56</v>
       </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1989,6 +2043,12 @@
       <c r="AD15" t="s">
         <v>56</v>
       </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2081,8 +2141,14 @@
       <c r="AD16" t="s">
         <v>56</v>
       </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2173,8 +2239,14 @@
       <c r="AD17" t="s">
         <v>55</v>
       </c>
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2265,8 +2337,14 @@
       <c r="AD18" t="s">
         <v>55</v>
       </c>
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2349,8 +2427,14 @@
       <c r="AD19" t="s">
         <v>55</v>
       </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2441,8 +2525,14 @@
       <c r="AD20" t="s">
         <v>55</v>
       </c>
+      <c r="AE20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2533,8 +2623,14 @@
       <c r="AD21" t="s">
         <v>55</v>
       </c>
+      <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2718,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2713,8 +2809,14 @@
       <c r="AD23" t="s">
         <v>55</v>
       </c>
+      <c r="AE23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2754,8 +2856,14 @@
       <c r="AD24" t="s">
         <v>56</v>
       </c>
+      <c r="AE24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2846,8 +2954,14 @@
       <c r="AD25" t="s">
         <v>55</v>
       </c>
+      <c r="AE25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2938,8 +3052,14 @@
       <c r="AD26" t="s">
         <v>55</v>
       </c>
+      <c r="AE26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3030,8 +3150,14 @@
       <c r="AD27" t="s">
         <v>55</v>
       </c>
+      <c r="AE27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +3243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3208,8 +3334,14 @@
       <c r="AD29" t="s">
         <v>55</v>
       </c>
+      <c r="AE29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3300,8 +3432,14 @@
       <c r="AD30" t="s">
         <v>55</v>
       </c>
+      <c r="AE30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -3389,7 +3527,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3480,8 +3618,14 @@
       <c r="AD32" t="s">
         <v>55</v>
       </c>
+      <c r="AE32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3572,8 +3716,14 @@
       <c r="AD33" t="s">
         <v>56</v>
       </c>
+      <c r="AE33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3659,7 +3809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3750,8 +3900,14 @@
       <c r="AD35" t="s">
         <v>55</v>
       </c>
+      <c r="AE35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3842,8 +3998,14 @@
       <c r="AD36" t="s">
         <v>55</v>
       </c>
+      <c r="AE36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3934,8 +4096,14 @@
       <c r="AD37" t="s">
         <v>56</v>
       </c>
+      <c r="AE37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -4026,8 +4194,14 @@
       <c r="AD38" t="s">
         <v>55</v>
       </c>
+      <c r="AE38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4080,7 +4254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4171,8 +4345,14 @@
       <c r="AD40" t="s">
         <v>55</v>
       </c>
+      <c r="AE40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -4258,7 +4438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -4346,7 +4526,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4410,8 +4590,14 @@
       <c r="AD43" t="s">
         <v>56</v>
       </c>
+      <c r="AE43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -4502,8 +4688,14 @@
       <c r="AD44" t="s">
         <v>55</v>
       </c>
+      <c r="AE44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -4594,8 +4786,14 @@
       <c r="AD45" t="s">
         <v>55</v>
       </c>
+      <c r="AE45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4641,8 +4839,14 @@
       <c r="AD46" t="s">
         <v>55</v>
       </c>
+      <c r="AE46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -4719,8 +4923,14 @@
       <c r="AD47" t="s">
         <v>55</v>
       </c>
+      <c r="AE47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -4811,8 +5021,14 @@
       <c r="AD48" t="s">
         <v>56</v>
       </c>
+      <c r="AE48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -4903,8 +5119,14 @@
       <c r="AD49" t="s">
         <v>55</v>
       </c>
+      <c r="AE49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -4974,8 +5196,14 @@
       <c r="AD50" t="s">
         <v>55</v>
       </c>
+      <c r="AE50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -5064,6 +5292,12 @@
         <v>55</v>
       </c>
       <c r="AD51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEBA04A-720D-40B5-B491-3CEAA10B52B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6050C38-E0CF-40CC-B03D-EFA2E0B72991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +245,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -275,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +617,10 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +629,8 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="30" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="33" width="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -917,6 +927,9 @@
       <c r="AF3" t="s">
         <v>55</v>
       </c>
+      <c r="AG3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1015,6 +1028,9 @@
       <c r="AF4" t="s">
         <v>55</v>
       </c>
+      <c r="AG4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1113,6 +1129,9 @@
       <c r="AF5" t="s">
         <v>55</v>
       </c>
+      <c r="AG5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1211,6 +1230,9 @@
       <c r="AF6" t="s">
         <v>55</v>
       </c>
+      <c r="AG6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1303,10 +1325,13 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1405,6 +1430,9 @@
         <v>55</v>
       </c>
       <c r="AF8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1755,6 +1783,9 @@
       <c r="AF12" t="s">
         <v>55</v>
       </c>
+      <c r="AG12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1853,6 +1884,9 @@
       <c r="AF13" t="s">
         <v>55</v>
       </c>
+      <c r="AG13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1951,6 +1985,9 @@
       <c r="AF14" t="s">
         <v>56</v>
       </c>
+      <c r="AG14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2049,6 +2086,9 @@
       <c r="AF15" t="s">
         <v>56</v>
       </c>
+      <c r="AG15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2147,8 +2187,11 @@
       <c r="AF16" t="s">
         <v>56</v>
       </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2245,8 +2288,11 @@
       <c r="AF17" t="s">
         <v>55</v>
       </c>
+      <c r="AG17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2343,8 +2389,11 @@
       <c r="AF18" t="s">
         <v>55</v>
       </c>
+      <c r="AG18" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2433,8 +2482,11 @@
       <c r="AF19" t="s">
         <v>55</v>
       </c>
+      <c r="AG19" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2531,8 +2583,11 @@
       <c r="AF20" t="s">
         <v>56</v>
       </c>
+      <c r="AG20" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2629,8 +2684,11 @@
       <c r="AF21" t="s">
         <v>55</v>
       </c>
+      <c r="AG21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2776,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2815,8 +2873,11 @@
       <c r="AF23" t="s">
         <v>55</v>
       </c>
+      <c r="AG23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2862,8 +2923,11 @@
       <c r="AF24" t="s">
         <v>56</v>
       </c>
+      <c r="AG24" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2960,8 +3024,11 @@
       <c r="AF25" t="s">
         <v>55</v>
       </c>
+      <c r="AG25" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3058,8 +3125,11 @@
       <c r="AF26" t="s">
         <v>55</v>
       </c>
+      <c r="AG26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3156,8 +3226,11 @@
       <c r="AF27" t="s">
         <v>56</v>
       </c>
+      <c r="AG27" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3340,8 +3413,11 @@
       <c r="AF29" t="s">
         <v>55</v>
       </c>
+      <c r="AG29" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3438,8 +3514,11 @@
       <c r="AF30" t="s">
         <v>55</v>
       </c>
+      <c r="AG30" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -3527,7 +3606,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3624,8 +3703,11 @@
       <c r="AF32" t="s">
         <v>55</v>
       </c>
+      <c r="AG32" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3722,8 +3804,11 @@
       <c r="AF33" t="s">
         <v>55</v>
       </c>
+      <c r="AG33" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3809,7 +3894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3906,8 +3991,11 @@
       <c r="AF35" t="s">
         <v>55</v>
       </c>
+      <c r="AG35" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -4004,8 +4092,11 @@
       <c r="AF36" t="s">
         <v>55</v>
       </c>
+      <c r="AG36" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4102,8 +4193,11 @@
       <c r="AF37" t="s">
         <v>56</v>
       </c>
+      <c r="AG37" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -4200,8 +4294,11 @@
       <c r="AF38" t="s">
         <v>55</v>
       </c>
+      <c r="AG38" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4254,7 +4351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4351,8 +4448,11 @@
       <c r="AF40" t="s">
         <v>55</v>
       </c>
+      <c r="AG40" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -4438,7 +4538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -4526,7 +4626,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4596,8 +4696,11 @@
       <c r="AF43" t="s">
         <v>55</v>
       </c>
+      <c r="AG43" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -4694,8 +4797,11 @@
       <c r="AF44" t="s">
         <v>55</v>
       </c>
+      <c r="AG44" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -4792,8 +4898,11 @@
       <c r="AF45" t="s">
         <v>55</v>
       </c>
+      <c r="AG45" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4845,8 +4954,11 @@
       <c r="AF46" t="s">
         <v>55</v>
       </c>
+      <c r="AG46" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="47" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -4929,8 +5041,11 @@
       <c r="AF47" t="s">
         <v>55</v>
       </c>
+      <c r="AG47" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -5027,8 +5142,11 @@
       <c r="AF48" t="s">
         <v>56</v>
       </c>
+      <c r="AG48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5125,8 +5243,11 @@
       <c r="AF49" t="s">
         <v>55</v>
       </c>
+      <c r="AG49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -5202,8 +5323,11 @@
       <c r="AF50" t="s">
         <v>55</v>
       </c>
+      <c r="AG50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -5298,6 +5422,9 @@
         <v>55</v>
       </c>
       <c r="AF51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6050C38-E0CF-40CC-B03D-EFA2E0B72991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8B295-7F88-4390-855D-6226B0499C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -280,10 +280,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +617,10 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AF7" t="s">
@@ -1989,7 +1989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8B295-7F88-4390-855D-6226B0499C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91021495-95D7-41E4-8173-8D27B30C5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -617,10 +617,10 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ18" sqref="AJ18"/>
+      <selection pane="bottomRight" activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,6 +930,9 @@
       <c r="AG3" t="s">
         <v>55</v>
       </c>
+      <c r="AH3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1031,6 +1034,9 @@
       <c r="AG4" t="s">
         <v>55</v>
       </c>
+      <c r="AH4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1132,6 +1138,9 @@
       <c r="AG5" t="s">
         <v>55</v>
       </c>
+      <c r="AH5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1233,6 +1242,9 @@
       <c r="AG6" t="s">
         <v>55</v>
       </c>
+      <c r="AH6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1334,6 +1346,9 @@
       <c r="AG7" t="s">
         <v>55</v>
       </c>
+      <c r="AH7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1433,6 +1448,9 @@
         <v>55</v>
       </c>
       <c r="AG8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1786,6 +1804,9 @@
       <c r="AG12" t="s">
         <v>55</v>
       </c>
+      <c r="AH12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1887,6 +1908,9 @@
       <c r="AG13" t="s">
         <v>55</v>
       </c>
+      <c r="AH13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1988,6 +2012,9 @@
       <c r="AG14" t="s">
         <v>56</v>
       </c>
+      <c r="AH14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2190,8 +2217,11 @@
       <c r="AG16" t="s">
         <v>56</v>
       </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2291,8 +2321,11 @@
       <c r="AG17" t="s">
         <v>55</v>
       </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2392,8 +2425,11 @@
       <c r="AG18" t="s">
         <v>55</v>
       </c>
+      <c r="AH18" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2485,8 +2521,11 @@
       <c r="AG19" t="s">
         <v>56</v>
       </c>
+      <c r="AH19" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2586,8 +2625,11 @@
       <c r="AG20" t="s">
         <v>55</v>
       </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2687,8 +2729,11 @@
       <c r="AG21" t="s">
         <v>55</v>
       </c>
+      <c r="AH21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2821,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2876,8 +2921,11 @@
       <c r="AG23" t="s">
         <v>55</v>
       </c>
+      <c r="AH23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2926,8 +2974,11 @@
       <c r="AG24" t="s">
         <v>55</v>
       </c>
+      <c r="AH24" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3027,8 +3078,11 @@
       <c r="AG25" t="s">
         <v>55</v>
       </c>
+      <c r="AH25" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3128,8 +3182,11 @@
       <c r="AG26" t="s">
         <v>55</v>
       </c>
+      <c r="AH26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3229,8 +3286,11 @@
       <c r="AG27" t="s">
         <v>55</v>
       </c>
+      <c r="AH27" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3316,7 +3376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3416,8 +3476,11 @@
       <c r="AG29" t="s">
         <v>55</v>
       </c>
+      <c r="AH29" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3517,8 +3580,11 @@
       <c r="AG30" t="s">
         <v>55</v>
       </c>
+      <c r="AH30" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -3606,7 +3672,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3706,8 +3772,11 @@
       <c r="AG32" t="s">
         <v>55</v>
       </c>
+      <c r="AH32" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3807,8 +3876,11 @@
       <c r="AG33" t="s">
         <v>55</v>
       </c>
+      <c r="AH33" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3893,8 +3965,9 @@
       <c r="AB34" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AH34"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3994,8 +4067,11 @@
       <c r="AG35" t="s">
         <v>55</v>
       </c>
+      <c r="AH35" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -4095,8 +4171,11 @@
       <c r="AG36" t="s">
         <v>55</v>
       </c>
+      <c r="AH36" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4196,8 +4275,11 @@
       <c r="AG37" t="s">
         <v>56</v>
       </c>
+      <c r="AH37" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -4297,8 +4379,11 @@
       <c r="AG38" t="s">
         <v>55</v>
       </c>
+      <c r="AH38" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4350,8 +4435,9 @@
       <c r="AB39" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AH39"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4451,8 +4537,11 @@
       <c r="AG40" t="s">
         <v>55</v>
       </c>
+      <c r="AH40" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -4537,8 +4626,9 @@
       <c r="AB41" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AH41"/>
     </row>
-    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -4626,7 +4716,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4699,8 +4789,11 @@
       <c r="AG43" t="s">
         <v>56</v>
       </c>
+      <c r="AH43" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -4800,8 +4893,11 @@
       <c r="AG44" t="s">
         <v>55</v>
       </c>
+      <c r="AH44" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -4901,8 +4997,11 @@
       <c r="AG45" t="s">
         <v>55</v>
       </c>
+      <c r="AH45" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4957,8 +5056,11 @@
       <c r="AG46" t="s">
         <v>55</v>
       </c>
+      <c r="AH46" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -5044,8 +5146,11 @@
       <c r="AG47" t="s">
         <v>55</v>
       </c>
+      <c r="AH47" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -5145,8 +5250,11 @@
       <c r="AG48" t="s">
         <v>56</v>
       </c>
+      <c r="AH48" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5246,8 +5354,11 @@
       <c r="AG49" t="s">
         <v>55</v>
       </c>
+      <c r="AH49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -5326,8 +5437,11 @@
       <c r="AG50" t="s">
         <v>55</v>
       </c>
+      <c r="AH50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -5425,6 +5539,9 @@
         <v>55</v>
       </c>
       <c r="AG51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91021495-95D7-41E4-8173-8D27B30C5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF84C60-5232-4A7C-9E0F-2B61AE205E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
   <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK23" sqref="AK23"/>
+      <selection pane="bottomRight" activeCell="AJ46" sqref="AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5251,7 +5251,7 @@
         <v>56</v>
       </c>
       <c r="AH48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF84C60-5232-4A7C-9E0F-2B61AE205E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A14CB24-8ED5-438A-BFAF-6E1BE65A04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -284,6 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ46" sqref="AJ46"/>
+      <selection pane="bottomRight" activeCell="AJ51" sqref="AJ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +934,9 @@
       <c r="AH3" t="s">
         <v>55</v>
       </c>
+      <c r="AI3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1037,6 +1041,9 @@
       <c r="AH4" t="s">
         <v>55</v>
       </c>
+      <c r="AI4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1141,6 +1148,9 @@
       <c r="AH5" t="s">
         <v>55</v>
       </c>
+      <c r="AI5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1245,6 +1255,9 @@
       <c r="AH6" t="s">
         <v>55</v>
       </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1349,6 +1362,9 @@
       <c r="AH7" t="s">
         <v>55</v>
       </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1451,6 +1467,9 @@
         <v>55</v>
       </c>
       <c r="AH8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1807,6 +1826,9 @@
       <c r="AH12" t="s">
         <v>55</v>
       </c>
+      <c r="AI12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1911,6 +1933,9 @@
       <c r="AH13" t="s">
         <v>55</v>
       </c>
+      <c r="AI13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2015,6 +2040,9 @@
       <c r="AH14" t="s">
         <v>55</v>
       </c>
+      <c r="AI14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2117,7 +2145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2221,7 +2249,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2324,8 +2352,11 @@
       <c r="AH17" t="s">
         <v>56</v>
       </c>
+      <c r="AI17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2428,8 +2459,90 @@
       <c r="AH18" t="s">
         <v>55</v>
       </c>
+      <c r="AI18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
     </row>
-    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2524,8 +2637,90 @@
       <c r="AH19" t="s">
         <v>55</v>
       </c>
+      <c r="AI19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
+      <c r="CJ19"/>
+      <c r="CK19"/>
+      <c r="CL19"/>
+      <c r="CM19"/>
+      <c r="CN19"/>
+      <c r="CO19"/>
+      <c r="CP19"/>
+      <c r="CQ19"/>
+      <c r="CR19"/>
+      <c r="CS19"/>
+      <c r="CT19"/>
+      <c r="CU19"/>
+      <c r="CV19"/>
+      <c r="CW19"/>
+      <c r="CX19"/>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2628,8 +2823,11 @@
       <c r="AH20" t="s">
         <v>56</v>
       </c>
+      <c r="AI20" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2732,8 +2930,11 @@
       <c r="AH21" t="s">
         <v>55</v>
       </c>
+      <c r="AI21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +3022,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2924,8 +3125,11 @@
       <c r="AH23" t="s">
         <v>55</v>
       </c>
+      <c r="AI23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2977,8 +3181,11 @@
       <c r="AH24" t="s">
         <v>55</v>
       </c>
+      <c r="AI24" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3081,8 +3288,11 @@
       <c r="AH25" t="s">
         <v>55</v>
       </c>
+      <c r="AI25" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3185,8 +3395,11 @@
       <c r="AH26" t="s">
         <v>55</v>
       </c>
+      <c r="AI26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3289,8 +3502,11 @@
       <c r="AH27" t="s">
         <v>55</v>
       </c>
+      <c r="AI27" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3376,7 +3592,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3479,8 +3695,90 @@
       <c r="AH29" t="s">
         <v>55</v>
       </c>
+      <c r="AI29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+      <c r="CP29"/>
+      <c r="CQ29"/>
+      <c r="CR29"/>
+      <c r="CS29"/>
+      <c r="CT29"/>
+      <c r="CU29"/>
+      <c r="CV29"/>
+      <c r="CW29"/>
+      <c r="CX29"/>
+      <c r="CY29"/>
+      <c r="CZ29"/>
+      <c r="DA29"/>
+      <c r="DB29"/>
+      <c r="DC29"/>
+      <c r="DD29"/>
+      <c r="DE29"/>
+      <c r="DF29"/>
+      <c r="DG29"/>
+      <c r="DH29"/>
+      <c r="DI29"/>
+      <c r="DJ29"/>
     </row>
-    <row r="30" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3583,8 +3881,90 @@
       <c r="AH30" t="s">
         <v>55</v>
       </c>
+      <c r="AI30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+      <c r="CB30"/>
+      <c r="CC30"/>
+      <c r="CD30"/>
+      <c r="CE30"/>
+      <c r="CF30"/>
+      <c r="CG30"/>
+      <c r="CH30"/>
+      <c r="CI30"/>
+      <c r="CJ30"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+      <c r="CM30"/>
+      <c r="CN30"/>
+      <c r="CO30"/>
+      <c r="CP30"/>
+      <c r="CQ30"/>
+      <c r="CR30"/>
+      <c r="CS30"/>
+      <c r="CT30"/>
+      <c r="CU30"/>
+      <c r="CV30"/>
+      <c r="CW30"/>
+      <c r="CX30"/>
+      <c r="CY30"/>
+      <c r="CZ30"/>
+      <c r="DA30"/>
+      <c r="DB30"/>
+      <c r="DC30"/>
+      <c r="DD30"/>
+      <c r="DE30"/>
+      <c r="DF30"/>
+      <c r="DG30"/>
+      <c r="DH30"/>
+      <c r="DI30"/>
+      <c r="DJ30"/>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -3672,7 +4052,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -3775,8 +4155,11 @@
       <c r="AH32" t="s">
         <v>55</v>
       </c>
+      <c r="AI32" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -3879,8 +4262,11 @@
       <c r="AH33" t="s">
         <v>55</v>
       </c>
+      <c r="AI33" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3966,8 +4352,88 @@
         <v>56</v>
       </c>
       <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+      <c r="BR34"/>
+      <c r="BS34"/>
+      <c r="BT34"/>
+      <c r="BU34"/>
+      <c r="BV34"/>
+      <c r="BW34"/>
+      <c r="BX34"/>
+      <c r="BY34"/>
+      <c r="BZ34"/>
+      <c r="CA34"/>
+      <c r="CB34"/>
+      <c r="CC34"/>
+      <c r="CD34"/>
+      <c r="CE34"/>
+      <c r="CF34"/>
+      <c r="CG34"/>
+      <c r="CH34"/>
+      <c r="CI34"/>
+      <c r="CJ34"/>
+      <c r="CK34"/>
+      <c r="CL34"/>
+      <c r="CM34"/>
+      <c r="CN34"/>
+      <c r="CO34"/>
+      <c r="CP34"/>
+      <c r="CQ34"/>
+      <c r="CR34"/>
+      <c r="CS34"/>
+      <c r="CT34"/>
+      <c r="CU34"/>
+      <c r="CV34"/>
+      <c r="CW34"/>
+      <c r="CX34"/>
+      <c r="CY34"/>
+      <c r="CZ34"/>
+      <c r="DA34"/>
+      <c r="DB34"/>
+      <c r="DC34"/>
+      <c r="DD34"/>
+      <c r="DE34"/>
+      <c r="DF34"/>
+      <c r="DG34"/>
+      <c r="DH34"/>
+      <c r="DI34"/>
+      <c r="DJ34"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4070,8 +4536,11 @@
       <c r="AH35" t="s">
         <v>55</v>
       </c>
+      <c r="AI35" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -4174,8 +4643,11 @@
       <c r="AH36" t="s">
         <v>55</v>
       </c>
+      <c r="AI36" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -4278,8 +4750,11 @@
       <c r="AH37" t="s">
         <v>56</v>
       </c>
+      <c r="AI37" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -4382,8 +4857,11 @@
       <c r="AH38" t="s">
         <v>55</v>
       </c>
+      <c r="AI38" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4436,8 +4914,88 @@
         <v>56</v>
       </c>
       <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39"/>
+      <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
+      <c r="CI39"/>
+      <c r="CJ39"/>
+      <c r="CK39"/>
+      <c r="CL39"/>
+      <c r="CM39"/>
+      <c r="CN39"/>
+      <c r="CO39"/>
+      <c r="CP39"/>
+      <c r="CQ39"/>
+      <c r="CR39"/>
+      <c r="CS39"/>
+      <c r="CT39"/>
+      <c r="CU39"/>
+      <c r="CV39"/>
+      <c r="CW39"/>
+      <c r="CX39"/>
+      <c r="CY39"/>
+      <c r="CZ39"/>
+      <c r="DA39"/>
+      <c r="DB39"/>
+      <c r="DC39"/>
+      <c r="DD39"/>
+      <c r="DE39"/>
+      <c r="DF39"/>
+      <c r="DG39"/>
+      <c r="DH39"/>
+      <c r="DI39"/>
+      <c r="DJ39"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -4540,8 +5098,11 @@
       <c r="AH40" t="s">
         <v>55</v>
       </c>
+      <c r="AI40" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -4627,8 +5188,88 @@
         <v>56</v>
       </c>
       <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+      <c r="CP41"/>
+      <c r="CQ41"/>
+      <c r="CR41"/>
+      <c r="CS41"/>
+      <c r="CT41"/>
+      <c r="CU41"/>
+      <c r="CV41"/>
+      <c r="CW41"/>
+      <c r="CX41"/>
+      <c r="CY41"/>
+      <c r="CZ41"/>
+      <c r="DA41"/>
+      <c r="DB41"/>
+      <c r="DC41"/>
+      <c r="DD41"/>
+      <c r="DE41"/>
+      <c r="DF41"/>
+      <c r="DG41"/>
+      <c r="DH41"/>
+      <c r="DI41"/>
+      <c r="DJ41"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>31</v>
       </c>
@@ -4716,7 +5357,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4792,8 +5433,11 @@
       <c r="AH43" t="s">
         <v>55</v>
       </c>
+      <c r="AI43" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -4896,8 +5540,11 @@
       <c r="AH44" t="s">
         <v>55</v>
       </c>
+      <c r="AI44" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -5000,8 +5647,11 @@
       <c r="AH45" t="s">
         <v>55</v>
       </c>
+      <c r="AI45" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5059,8 +5709,11 @@
       <c r="AH46" t="s">
         <v>55</v>
       </c>
+      <c r="AI46" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -5149,8 +5802,90 @@
       <c r="AH47" t="s">
         <v>55</v>
       </c>
+      <c r="AI47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
+      <c r="CI47"/>
+      <c r="CJ47"/>
+      <c r="CK47"/>
+      <c r="CL47"/>
+      <c r="CM47"/>
+      <c r="CN47"/>
+      <c r="CO47"/>
+      <c r="CP47"/>
+      <c r="CQ47"/>
+      <c r="CR47"/>
+      <c r="CS47"/>
+      <c r="CT47"/>
+      <c r="CU47"/>
+      <c r="CV47"/>
+      <c r="CW47"/>
+      <c r="CX47"/>
+      <c r="CY47"/>
+      <c r="CZ47"/>
+      <c r="DA47"/>
+      <c r="DB47"/>
+      <c r="DC47"/>
+      <c r="DD47"/>
+      <c r="DE47"/>
+      <c r="DF47"/>
+      <c r="DG47"/>
+      <c r="DH47"/>
+      <c r="DI47"/>
+      <c r="DJ47"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -5253,8 +5988,11 @@
       <c r="AH48" t="s">
         <v>56</v>
       </c>
+      <c r="AI48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -5357,8 +6095,11 @@
       <c r="AH49" t="s">
         <v>55</v>
       </c>
+      <c r="AI49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -5440,8 +6181,11 @@
       <c r="AH50" t="s">
         <v>55</v>
       </c>
+      <c r="AI50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -5544,6 +6288,10 @@
       <c r="AH51" t="s">
         <v>55</v>
       </c>
+      <c r="AI51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ51" s="7"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AD51">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A14CB24-8ED5-438A-BFAF-6E1BE65A04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3BDCE-F688-41F1-BCAF-5D761AA997B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -281,10 +281,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +618,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ51" sqref="AJ51"/>
+      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -937,6 +937,9 @@
       <c r="AI3" t="s">
         <v>55</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1044,6 +1047,9 @@
       <c r="AI4" t="s">
         <v>55</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1151,6 +1157,9 @@
       <c r="AI5" t="s">
         <v>55</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1258,6 +1267,9 @@
       <c r="AI6" t="s">
         <v>56</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1365,6 +1377,9 @@
       <c r="AI7" t="s">
         <v>55</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1470,6 +1485,9 @@
         <v>55</v>
       </c>
       <c r="AI8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1829,6 +1847,9 @@
       <c r="AI12" t="s">
         <v>55</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1936,6 +1957,9 @@
       <c r="AI13" t="s">
         <v>55</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2043,6 +2067,9 @@
       <c r="AI14" t="s">
         <v>55</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2355,6 +2382,9 @@
       <c r="AI17" t="s">
         <v>55</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2462,7 +2492,9 @@
       <c r="AI18" t="s">
         <v>55</v>
       </c>
-      <c r="AJ18"/>
+      <c r="AJ18" t="s">
+        <v>55</v>
+      </c>
       <c r="AK18"/>
       <c r="AL18"/>
       <c r="AM18"/>
@@ -2640,7 +2672,9 @@
       <c r="AI19" t="s">
         <v>55</v>
       </c>
-      <c r="AJ19"/>
+      <c r="AJ19" t="s">
+        <v>55</v>
+      </c>
       <c r="AK19"/>
       <c r="AL19"/>
       <c r="AM19"/>
@@ -2826,6 +2860,9 @@
       <c r="AI20" t="s">
         <v>55</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2931,6 +2968,9 @@
         <v>55</v>
       </c>
       <c r="AI21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3128,6 +3168,9 @@
       <c r="AI23" t="s">
         <v>55</v>
       </c>
+      <c r="AJ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3184,6 +3227,9 @@
       <c r="AI24" t="s">
         <v>55</v>
       </c>
+      <c r="AJ24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3291,6 +3337,9 @@
       <c r="AI25" t="s">
         <v>55</v>
       </c>
+      <c r="AJ25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3398,6 +3447,9 @@
       <c r="AI26" t="s">
         <v>55</v>
       </c>
+      <c r="AJ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3505,6 +3557,9 @@
       <c r="AI27" t="s">
         <v>55</v>
       </c>
+      <c r="AJ27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3698,7 +3753,9 @@
       <c r="AI29" t="s">
         <v>55</v>
       </c>
-      <c r="AJ29"/>
+      <c r="AJ29" t="s">
+        <v>55</v>
+      </c>
       <c r="AK29"/>
       <c r="AL29"/>
       <c r="AM29"/>
@@ -3884,7 +3941,9 @@
       <c r="AI30" t="s">
         <v>55</v>
       </c>
-      <c r="AJ30"/>
+      <c r="AJ30" t="s">
+        <v>55</v>
+      </c>
       <c r="AK30"/>
       <c r="AL30"/>
       <c r="AM30"/>
@@ -4158,6 +4217,9 @@
       <c r="AI32" t="s">
         <v>55</v>
       </c>
+      <c r="AJ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4264,6 +4326,9 @@
       </c>
       <c r="AI33" t="s">
         <v>55</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4539,6 +4604,9 @@
       <c r="AI35" t="s">
         <v>55</v>
       </c>
+      <c r="AJ35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4646,6 +4714,9 @@
       <c r="AI36" t="s">
         <v>55</v>
       </c>
+      <c r="AJ36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4753,6 +4824,9 @@
       <c r="AI37" t="s">
         <v>55</v>
       </c>
+      <c r="AJ37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4858,6 +4932,9 @@
         <v>55</v>
       </c>
       <c r="AI38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5101,6 +5178,9 @@
       <c r="AI40" t="s">
         <v>55</v>
       </c>
+      <c r="AJ40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5436,6 +5516,9 @@
       <c r="AI43" t="s">
         <v>56</v>
       </c>
+      <c r="AJ43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5543,6 +5626,9 @@
       <c r="AI44" t="s">
         <v>55</v>
       </c>
+      <c r="AJ44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5650,6 +5736,9 @@
       <c r="AI45" t="s">
         <v>56</v>
       </c>
+      <c r="AJ45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5710,6 +5799,9 @@
         <v>55</v>
       </c>
       <c r="AI46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5805,7 +5897,9 @@
       <c r="AI47" t="s">
         <v>55</v>
       </c>
-      <c r="AJ47"/>
+      <c r="AJ47" t="s">
+        <v>55</v>
+      </c>
       <c r="AK47"/>
       <c r="AL47"/>
       <c r="AM47"/>
@@ -5991,6 +6085,9 @@
       <c r="AI48" t="s">
         <v>56</v>
       </c>
+      <c r="AJ48" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -6098,6 +6195,9 @@
       <c r="AI49" t="s">
         <v>55</v>
       </c>
+      <c r="AJ49" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -6184,6 +6284,9 @@
       <c r="AI50" t="s">
         <v>55</v>
       </c>
+      <c r="AJ50" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -6291,7 +6394,9 @@
       <c r="AI51" t="s">
         <v>55</v>
       </c>
-      <c r="AJ51" s="7"/>
+      <c r="AJ51" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AD51">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3BDCE-F688-41F1-BCAF-5D761AA997B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E0B4A-5788-43F0-9828-BF38D417A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="58">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,7 +621,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +940,9 @@
       <c r="AJ3" t="s">
         <v>56</v>
       </c>
+      <c r="AK3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1050,6 +1053,9 @@
       <c r="AJ4" t="s">
         <v>55</v>
       </c>
+      <c r="AK4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1160,6 +1166,9 @@
       <c r="AJ5" t="s">
         <v>55</v>
       </c>
+      <c r="AK5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1270,6 +1279,9 @@
       <c r="AJ6" t="s">
         <v>55</v>
       </c>
+      <c r="AK6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1380,6 +1392,9 @@
       <c r="AJ7" t="s">
         <v>55</v>
       </c>
+      <c r="AK7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1490,6 +1505,9 @@
       <c r="AJ8" t="s">
         <v>55</v>
       </c>
+      <c r="AK8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1578,6 +1596,9 @@
       </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
+      <c r="AK9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1652,6 +1673,9 @@
       <c r="AB10" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AK10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1740,6 +1764,9 @@
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
+      <c r="AK11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1850,6 +1877,9 @@
       <c r="AJ12" t="s">
         <v>55</v>
       </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1960,6 +1990,9 @@
       <c r="AJ13" t="s">
         <v>55</v>
       </c>
+      <c r="AK13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2070,6 +2103,9 @@
       <c r="AJ14" t="s">
         <v>55</v>
       </c>
+      <c r="AK14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2171,6 +2207,9 @@
       <c r="AG15" t="s">
         <v>56</v>
       </c>
+      <c r="AK15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2275,6 +2314,9 @@
       <c r="AH16" t="s">
         <v>56</v>
       </c>
+      <c r="AK16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2385,6 +2427,9 @@
       <c r="AJ17" t="s">
         <v>55</v>
       </c>
+      <c r="AK17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2495,7 +2540,9 @@
       <c r="AJ18" t="s">
         <v>55</v>
       </c>
-      <c r="AK18"/>
+      <c r="AK18" t="s">
+        <v>55</v>
+      </c>
       <c r="AL18"/>
       <c r="AM18"/>
       <c r="AN18"/>
@@ -2675,7 +2722,9 @@
       <c r="AJ19" t="s">
         <v>55</v>
       </c>
-      <c r="AK19"/>
+      <c r="AK19" t="s">
+        <v>55</v>
+      </c>
       <c r="AL19"/>
       <c r="AM19"/>
       <c r="AN19"/>
@@ -2863,6 +2912,9 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
+      <c r="AK20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2973,6 +3025,9 @@
       <c r="AJ21" t="s">
         <v>55</v>
       </c>
+      <c r="AK21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3061,6 +3116,9 @@
       </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
+      <c r="AK22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3171,6 +3229,9 @@
       <c r="AJ23" t="s">
         <v>55</v>
       </c>
+      <c r="AK23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3230,6 +3291,9 @@
       <c r="AJ24" t="s">
         <v>55</v>
       </c>
+      <c r="AK24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3340,6 +3404,9 @@
       <c r="AJ25" t="s">
         <v>55</v>
       </c>
+      <c r="AK25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3450,6 +3517,9 @@
       <c r="AJ26" t="s">
         <v>55</v>
       </c>
+      <c r="AK26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3560,6 +3630,9 @@
       <c r="AJ27" t="s">
         <v>55</v>
       </c>
+      <c r="AK27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3646,6 +3719,9 @@
       <c r="AB28" t="s">
         <v>56</v>
       </c>
+      <c r="AK28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3756,7 +3832,9 @@
       <c r="AJ29" t="s">
         <v>55</v>
       </c>
-      <c r="AK29"/>
+      <c r="AK29" t="s">
+        <v>55</v>
+      </c>
       <c r="AL29"/>
       <c r="AM29"/>
       <c r="AN29"/>
@@ -3944,7 +4022,9 @@
       <c r="AJ30" t="s">
         <v>55</v>
       </c>
-      <c r="AK30"/>
+      <c r="AK30" t="s">
+        <v>55</v>
+      </c>
       <c r="AL30"/>
       <c r="AM30"/>
       <c r="AN30"/>
@@ -4110,6 +4190,9 @@
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
+      <c r="AK31" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4220,6 +4303,9 @@
       <c r="AJ32" t="s">
         <v>55</v>
       </c>
+      <c r="AK32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4330,6 +4416,9 @@
       <c r="AJ33" t="s">
         <v>56</v>
       </c>
+      <c r="AK33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -4419,7 +4508,9 @@
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
-      <c r="AK34"/>
+      <c r="AK34" t="s">
+        <v>55</v>
+      </c>
       <c r="AL34"/>
       <c r="AM34"/>
       <c r="AN34"/>
@@ -4607,6 +4698,9 @@
       <c r="AJ35" t="s">
         <v>56</v>
       </c>
+      <c r="AK35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4717,6 +4811,9 @@
       <c r="AJ36" t="s">
         <v>55</v>
       </c>
+      <c r="AK36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4827,6 +4924,9 @@
       <c r="AJ37" t="s">
         <v>56</v>
       </c>
+      <c r="AK37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -4937,6 +5037,9 @@
       <c r="AJ38" t="s">
         <v>55</v>
       </c>
+      <c r="AK38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -4993,7 +5096,9 @@
       <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
-      <c r="AK39"/>
+      <c r="AK39" t="s">
+        <v>55</v>
+      </c>
       <c r="AL39"/>
       <c r="AM39"/>
       <c r="AN39"/>
@@ -5181,6 +5286,9 @@
       <c r="AJ40" t="s">
         <v>55</v>
       </c>
+      <c r="AK40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5270,7 +5378,9 @@
       <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41"/>
-      <c r="AK41"/>
+      <c r="AK41" t="s">
+        <v>55</v>
+      </c>
       <c r="AL41"/>
       <c r="AM41"/>
       <c r="AN41"/>
@@ -5436,6 +5546,9 @@
       </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
+      <c r="AK42" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5519,6 +5632,9 @@
       <c r="AJ43" t="s">
         <v>55</v>
       </c>
+      <c r="AK43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5629,6 +5745,9 @@
       <c r="AJ44" t="s">
         <v>55</v>
       </c>
+      <c r="AK44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5739,6 +5858,9 @@
       <c r="AJ45" t="s">
         <v>55</v>
       </c>
+      <c r="AK45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5802,6 +5924,9 @@
         <v>55</v>
       </c>
       <c r="AJ46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5900,7 +6025,9 @@
       <c r="AJ47" t="s">
         <v>55</v>
       </c>
-      <c r="AK47"/>
+      <c r="AK47" t="s">
+        <v>55</v>
+      </c>
       <c r="AL47"/>
       <c r="AM47"/>
       <c r="AN47"/>
@@ -6088,8 +6215,11 @@
       <c r="AJ48" t="s">
         <v>56</v>
       </c>
+      <c r="AK48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6198,8 +6328,11 @@
       <c r="AJ49" t="s">
         <v>55</v>
       </c>
+      <c r="AK49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6287,8 +6420,11 @@
       <c r="AJ50" t="s">
         <v>55</v>
       </c>
+      <c r="AK50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6395,6 +6531,9 @@
         <v>55</v>
       </c>
       <c r="AJ51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E0B4A-5788-43F0-9828-BF38D417A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8AF7A-332F-4894-8277-1EDF353AB73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Or</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK3" sqref="AK3"/>
+      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,9 +635,10 @@
     <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="33" width="7" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="50" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -753,8 +757,38 @@
       <c r="AN1" s="2">
         <v>44813</v>
       </c>
+      <c r="AO1" s="2">
+        <v>44816</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>44817</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>44818</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>44819</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>44820</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>44823</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>44824</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>44825</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>44826</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>44827</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -875,8 +909,38 @@
       <c r="AN2" t="s">
         <v>43</v>
       </c>
+      <c r="AO2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -943,8 +1007,14 @@
       <c r="AK3" t="s">
         <v>56</v>
       </c>
+      <c r="AL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1056,8 +1126,14 @@
       <c r="AK4" t="s">
         <v>55</v>
       </c>
+      <c r="AL4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1169,8 +1245,14 @@
       <c r="AK5" t="s">
         <v>55</v>
       </c>
+      <c r="AL5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1282,8 +1364,14 @@
       <c r="AK6" t="s">
         <v>55</v>
       </c>
+      <c r="AL6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1483,14 @@
       <c r="AK7" t="s">
         <v>55</v>
       </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1602,14 @@
       <c r="AK8" t="s">
         <v>55</v>
       </c>
+      <c r="AL8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1599,8 +1699,11 @@
       <c r="AK9" t="s">
         <v>55</v>
       </c>
+      <c r="AL9" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1676,8 +1779,11 @@
       <c r="AK10" t="s">
         <v>55</v>
       </c>
+      <c r="AL10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1767,8 +1873,11 @@
       <c r="AK11" t="s">
         <v>55</v>
       </c>
+      <c r="AL11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1880,8 +1989,14 @@
       <c r="AK12" t="s">
         <v>56</v>
       </c>
+      <c r="AL12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1993,8 +2108,14 @@
       <c r="AK13" t="s">
         <v>55</v>
       </c>
+      <c r="AL13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2106,8 +2227,14 @@
       <c r="AK14" t="s">
         <v>55</v>
       </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2210,8 +2337,11 @@
       <c r="AK15" t="s">
         <v>55</v>
       </c>
+      <c r="AL15" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2316,6 +2446,9 @@
       </c>
       <c r="AK16" t="s">
         <v>55</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
@@ -2430,6 +2563,12 @@
       <c r="AK17" t="s">
         <v>55</v>
       </c>
+      <c r="AL17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2543,8 +2682,12 @@
       <c r="AK18" t="s">
         <v>55</v>
       </c>
-      <c r="AL18"/>
-      <c r="AM18"/>
+      <c r="AL18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>55</v>
+      </c>
       <c r="AN18"/>
       <c r="AO18"/>
       <c r="AP18"/>
@@ -2725,8 +2868,12 @@
       <c r="AK19" t="s">
         <v>55</v>
       </c>
-      <c r="AL19"/>
-      <c r="AM19"/>
+      <c r="AL19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>55</v>
+      </c>
       <c r="AN19"/>
       <c r="AO19"/>
       <c r="AP19"/>
@@ -2915,6 +3062,12 @@
       <c r="AK20" t="s">
         <v>55</v>
       </c>
+      <c r="AL20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3028,6 +3181,12 @@
       <c r="AK21" t="s">
         <v>55</v>
       </c>
+      <c r="AL21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3119,6 +3278,9 @@
       <c r="AK22" t="s">
         <v>55</v>
       </c>
+      <c r="AL22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3232,6 +3394,12 @@
       <c r="AK23" t="s">
         <v>55</v>
       </c>
+      <c r="AL23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3294,6 +3462,12 @@
       <c r="AK24" t="s">
         <v>55</v>
       </c>
+      <c r="AL24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3407,6 +3581,12 @@
       <c r="AK25" t="s">
         <v>55</v>
       </c>
+      <c r="AL25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3520,6 +3700,12 @@
       <c r="AK26" t="s">
         <v>55</v>
       </c>
+      <c r="AL26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3633,6 +3819,12 @@
       <c r="AK27" t="s">
         <v>55</v>
       </c>
+      <c r="AL27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3722,6 +3914,9 @@
       <c r="AK28" t="s">
         <v>55</v>
       </c>
+      <c r="AL28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3835,8 +4030,12 @@
       <c r="AK29" t="s">
         <v>55</v>
       </c>
-      <c r="AL29"/>
-      <c r="AM29"/>
+      <c r="AL29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>55</v>
+      </c>
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29"/>
@@ -4025,8 +4224,12 @@
       <c r="AK30" t="s">
         <v>55</v>
       </c>
-      <c r="AL30"/>
-      <c r="AM30"/>
+      <c r="AL30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>55</v>
+      </c>
       <c r="AN30"/>
       <c r="AO30"/>
       <c r="AP30"/>
@@ -4193,6 +4396,9 @@
       <c r="AK31" t="s">
         <v>55</v>
       </c>
+      <c r="AL31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4306,6 +4512,12 @@
       <c r="AK32" t="s">
         <v>55</v>
       </c>
+      <c r="AL32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4419,6 +4631,12 @@
       <c r="AK33" t="s">
         <v>55</v>
       </c>
+      <c r="AL33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -4511,7 +4729,9 @@
       <c r="AK34" t="s">
         <v>55</v>
       </c>
-      <c r="AL34"/>
+      <c r="AL34" t="s">
+        <v>58</v>
+      </c>
       <c r="AM34"/>
       <c r="AN34"/>
       <c r="AO34"/>
@@ -4701,6 +4921,12 @@
       <c r="AK35" t="s">
         <v>55</v>
       </c>
+      <c r="AL35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4814,6 +5040,12 @@
       <c r="AK36" t="s">
         <v>55</v>
       </c>
+      <c r="AL36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -4927,6 +5159,12 @@
       <c r="AK37" t="s">
         <v>55</v>
       </c>
+      <c r="AL37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5040,6 +5278,12 @@
       <c r="AK38" t="s">
         <v>55</v>
       </c>
+      <c r="AL38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -5099,7 +5343,9 @@
       <c r="AK39" t="s">
         <v>55</v>
       </c>
-      <c r="AL39"/>
+      <c r="AL39" t="s">
+        <v>58</v>
+      </c>
       <c r="AM39"/>
       <c r="AN39"/>
       <c r="AO39"/>
@@ -5289,6 +5535,12 @@
       <c r="AK40" t="s">
         <v>55</v>
       </c>
+      <c r="AL40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5381,7 +5633,9 @@
       <c r="AK41" t="s">
         <v>55</v>
       </c>
-      <c r="AL41"/>
+      <c r="AL41" t="s">
+        <v>58</v>
+      </c>
       <c r="AM41"/>
       <c r="AN41"/>
       <c r="AO41"/>
@@ -5549,6 +5803,9 @@
       <c r="AK42" t="s">
         <v>55</v>
       </c>
+      <c r="AL42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5635,6 +5892,12 @@
       <c r="AK43" t="s">
         <v>55</v>
       </c>
+      <c r="AL43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -5748,6 +6011,12 @@
       <c r="AK44" t="s">
         <v>55</v>
       </c>
+      <c r="AL44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -5861,6 +6130,12 @@
       <c r="AK45" t="s">
         <v>55</v>
       </c>
+      <c r="AL45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -5927,6 +6202,12 @@
         <v>55</v>
       </c>
       <c r="AK46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6028,8 +6309,12 @@
       <c r="AK47" t="s">
         <v>55</v>
       </c>
-      <c r="AL47"/>
-      <c r="AM47"/>
+      <c r="AL47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>55</v>
+      </c>
       <c r="AN47"/>
       <c r="AO47"/>
       <c r="AP47"/>
@@ -6218,8 +6503,14 @@
       <c r="AK48" t="s">
         <v>56</v>
       </c>
+      <c r="AL48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6331,8 +6622,14 @@
       <c r="AK49" t="s">
         <v>55</v>
       </c>
+      <c r="AL49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6423,8 +6720,14 @@
       <c r="AK50" t="s">
         <v>55</v>
       </c>
+      <c r="AL50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6534,6 +6837,12 @@
         <v>55</v>
       </c>
       <c r="AK51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD8AF7A-332F-4894-8277-1EDF353AB73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC423EDB-9C9A-45F1-B43E-10D04919C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM21" sqref="AM21"/>
+      <selection pane="bottomRight" activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1013,9 @@
       <c r="AM3" t="s">
         <v>56</v>
       </c>
+      <c r="AN3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1132,6 +1135,9 @@
       <c r="AM4" t="s">
         <v>56</v>
       </c>
+      <c r="AN4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1251,6 +1257,9 @@
       <c r="AM5" t="s">
         <v>55</v>
       </c>
+      <c r="AN5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1370,6 +1379,9 @@
       <c r="AM6" t="s">
         <v>55</v>
       </c>
+      <c r="AN6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1489,6 +1501,9 @@
       <c r="AM7" t="s">
         <v>55</v>
       </c>
+      <c r="AN7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1608,6 +1623,9 @@
       <c r="AM8" t="s">
         <v>56</v>
       </c>
+      <c r="AN8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1995,6 +2013,9 @@
       <c r="AM12" t="s">
         <v>55</v>
       </c>
+      <c r="AN12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2114,6 +2135,9 @@
       <c r="AM13" t="s">
         <v>55</v>
       </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2233,6 +2257,9 @@
       <c r="AM14" t="s">
         <v>56</v>
       </c>
+      <c r="AN14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2569,6 +2596,9 @@
       <c r="AM17" t="s">
         <v>55</v>
       </c>
+      <c r="AN17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2688,7 +2718,9 @@
       <c r="AM18" t="s">
         <v>55</v>
       </c>
-      <c r="AN18"/>
+      <c r="AN18" t="s">
+        <v>55</v>
+      </c>
       <c r="AO18"/>
       <c r="AP18"/>
       <c r="AQ18"/>
@@ -2874,7 +2906,9 @@
       <c r="AM19" t="s">
         <v>55</v>
       </c>
-      <c r="AN19"/>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
       <c r="AO19"/>
       <c r="AP19"/>
       <c r="AQ19"/>
@@ -3068,6 +3102,9 @@
       <c r="AM20" t="s">
         <v>55</v>
       </c>
+      <c r="AN20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3187,6 +3224,9 @@
       <c r="AM21" t="s">
         <v>55</v>
       </c>
+      <c r="AN21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3400,6 +3440,9 @@
       <c r="AM23" t="s">
         <v>55</v>
       </c>
+      <c r="AN23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3468,6 +3511,9 @@
       <c r="AM24" t="s">
         <v>56</v>
       </c>
+      <c r="AN24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3587,6 +3633,9 @@
       <c r="AM25" t="s">
         <v>55</v>
       </c>
+      <c r="AN25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3706,6 +3755,9 @@
       <c r="AM26" t="s">
         <v>55</v>
       </c>
+      <c r="AN26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3825,6 +3877,9 @@
       <c r="AM27" t="s">
         <v>55</v>
       </c>
+      <c r="AN27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4036,7 +4091,9 @@
       <c r="AM29" t="s">
         <v>55</v>
       </c>
-      <c r="AN29"/>
+      <c r="AN29" t="s">
+        <v>55</v>
+      </c>
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
@@ -4230,7 +4287,9 @@
       <c r="AM30" t="s">
         <v>55</v>
       </c>
-      <c r="AN30"/>
+      <c r="AN30" t="s">
+        <v>55</v>
+      </c>
       <c r="AO30"/>
       <c r="AP30"/>
       <c r="AQ30"/>
@@ -4518,6 +4577,9 @@
       <c r="AM32" t="s">
         <v>55</v>
       </c>
+      <c r="AN32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4635,6 +4697,9 @@
         <v>58</v>
       </c>
       <c r="AM33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4927,6 +4992,9 @@
       <c r="AM35" t="s">
         <v>56</v>
       </c>
+      <c r="AN35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5046,6 +5114,9 @@
       <c r="AM36" t="s">
         <v>55</v>
       </c>
+      <c r="AN36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5165,6 +5236,9 @@
       <c r="AM37" t="s">
         <v>55</v>
       </c>
+      <c r="AN37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5282,6 +5356,9 @@
         <v>58</v>
       </c>
       <c r="AM38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5541,6 +5618,9 @@
       <c r="AM40" t="s">
         <v>55</v>
       </c>
+      <c r="AN40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5898,6 +5978,9 @@
       <c r="AM43" t="s">
         <v>55</v>
       </c>
+      <c r="AN43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6017,6 +6100,9 @@
       <c r="AM44" t="s">
         <v>55</v>
       </c>
+      <c r="AN44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6136,6 +6222,9 @@
       <c r="AM45" t="s">
         <v>55</v>
       </c>
+      <c r="AN45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6208,6 +6297,9 @@
         <v>58</v>
       </c>
       <c r="AM46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6315,7 +6407,9 @@
       <c r="AM47" t="s">
         <v>55</v>
       </c>
-      <c r="AN47"/>
+      <c r="AN47" t="s">
+        <v>55</v>
+      </c>
       <c r="AO47"/>
       <c r="AP47"/>
       <c r="AQ47"/>
@@ -6509,8 +6603,11 @@
       <c r="AM48" t="s">
         <v>56</v>
       </c>
+      <c r="AN48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6628,8 +6725,11 @@
       <c r="AM49" t="s">
         <v>55</v>
       </c>
+      <c r="AN49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6726,8 +6826,11 @@
       <c r="AM50" t="s">
         <v>55</v>
       </c>
+      <c r="AN50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6843,6 +6946,9 @@
         <v>58</v>
       </c>
       <c r="AM51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC423EDB-9C9A-45F1-B43E-10D04919C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E9766-CF50-41C9-8E01-91884F8237FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN33" sqref="AN33"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,6 +1016,12 @@
       <c r="AN3" t="s">
         <v>56</v>
       </c>
+      <c r="AO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1138,6 +1144,12 @@
       <c r="AN4" t="s">
         <v>55</v>
       </c>
+      <c r="AO4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1260,6 +1272,12 @@
       <c r="AN5" t="s">
         <v>55</v>
       </c>
+      <c r="AO5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1382,6 +1400,12 @@
       <c r="AN6" t="s">
         <v>56</v>
       </c>
+      <c r="AO6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1504,6 +1528,12 @@
       <c r="AN7" t="s">
         <v>55</v>
       </c>
+      <c r="AO7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1626,6 +1656,12 @@
       <c r="AN8" t="s">
         <v>55</v>
       </c>
+      <c r="AO8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1720,6 +1756,9 @@
       <c r="AL9" t="s">
         <v>58</v>
       </c>
+      <c r="AO9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1800,6 +1839,9 @@
       <c r="AL10" t="s">
         <v>58</v>
       </c>
+      <c r="AO10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1894,6 +1936,9 @@
       <c r="AL11" t="s">
         <v>58</v>
       </c>
+      <c r="AO11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2016,6 +2061,12 @@
       <c r="AN12" t="s">
         <v>55</v>
       </c>
+      <c r="AO12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2138,6 +2189,12 @@
       <c r="AN13" t="s">
         <v>56</v>
       </c>
+      <c r="AO13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2260,6 +2317,12 @@
       <c r="AN14" t="s">
         <v>55</v>
       </c>
+      <c r="AO14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2367,6 +2430,9 @@
       <c r="AL15" t="s">
         <v>58</v>
       </c>
+      <c r="AO15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2477,6 +2543,9 @@
       <c r="AL16" t="s">
         <v>58</v>
       </c>
+      <c r="AO16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2599,6 +2668,12 @@
       <c r="AN17" t="s">
         <v>55</v>
       </c>
+      <c r="AO17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2721,8 +2796,12 @@
       <c r="AN18" t="s">
         <v>55</v>
       </c>
-      <c r="AO18"/>
-      <c r="AP18"/>
+      <c r="AO18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ18"/>
       <c r="AR18"/>
       <c r="AS18"/>
@@ -2909,8 +2988,12 @@
       <c r="AN19" t="s">
         <v>56</v>
       </c>
-      <c r="AO19"/>
-      <c r="AP19"/>
+      <c r="AO19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ19"/>
       <c r="AR19"/>
       <c r="AS19"/>
@@ -3105,6 +3188,12 @@
       <c r="AN20" t="s">
         <v>56</v>
       </c>
+      <c r="AO20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3227,6 +3316,12 @@
       <c r="AN21" t="s">
         <v>55</v>
       </c>
+      <c r="AO21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3321,6 +3416,9 @@
       <c r="AL22" t="s">
         <v>58</v>
       </c>
+      <c r="AO22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3443,6 +3541,12 @@
       <c r="AN23" t="s">
         <v>55</v>
       </c>
+      <c r="AO23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3514,6 +3618,12 @@
       <c r="AN24" t="s">
         <v>55</v>
       </c>
+      <c r="AO24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3636,6 +3746,12 @@
       <c r="AN25" t="s">
         <v>55</v>
       </c>
+      <c r="AO25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3758,6 +3874,12 @@
       <c r="AN26" t="s">
         <v>55</v>
       </c>
+      <c r="AO26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -3880,6 +4002,12 @@
       <c r="AN27" t="s">
         <v>55</v>
       </c>
+      <c r="AO27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3972,6 +4100,9 @@
       <c r="AL28" t="s">
         <v>58</v>
       </c>
+      <c r="AO28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4094,8 +4225,12 @@
       <c r="AN29" t="s">
         <v>55</v>
       </c>
-      <c r="AO29"/>
-      <c r="AP29"/>
+      <c r="AO29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ29"/>
       <c r="AR29"/>
       <c r="AS29"/>
@@ -4290,8 +4425,12 @@
       <c r="AN30" t="s">
         <v>55</v>
       </c>
-      <c r="AO30"/>
-      <c r="AP30"/>
+      <c r="AO30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ30"/>
       <c r="AR30"/>
       <c r="AS30"/>
@@ -4458,6 +4597,9 @@
       <c r="AL31" t="s">
         <v>58</v>
       </c>
+      <c r="AO31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4580,6 +4722,12 @@
       <c r="AN32" t="s">
         <v>55</v>
       </c>
+      <c r="AO32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4702,6 +4850,12 @@
       <c r="AN33" t="s">
         <v>55</v>
       </c>
+      <c r="AO33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -4799,7 +4953,9 @@
       </c>
       <c r="AM34"/>
       <c r="AN34"/>
-      <c r="AO34"/>
+      <c r="AO34" t="s">
+        <v>58</v>
+      </c>
       <c r="AP34"/>
       <c r="AQ34"/>
       <c r="AR34"/>
@@ -4995,6 +5151,12 @@
       <c r="AN35" t="s">
         <v>55</v>
       </c>
+      <c r="AO35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5117,6 +5279,12 @@
       <c r="AN36" t="s">
         <v>55</v>
       </c>
+      <c r="AO36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5239,6 +5407,12 @@
       <c r="AN37" t="s">
         <v>56</v>
       </c>
+      <c r="AO37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5361,6 +5535,12 @@
       <c r="AN38" t="s">
         <v>55</v>
       </c>
+      <c r="AO38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -5425,7 +5605,9 @@
       </c>
       <c r="AM39"/>
       <c r="AN39"/>
-      <c r="AO39"/>
+      <c r="AO39" t="s">
+        <v>58</v>
+      </c>
       <c r="AP39"/>
       <c r="AQ39"/>
       <c r="AR39"/>
@@ -5621,6 +5803,12 @@
       <c r="AN40" t="s">
         <v>55</v>
       </c>
+      <c r="AO40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -5718,7 +5906,9 @@
       </c>
       <c r="AM41"/>
       <c r="AN41"/>
-      <c r="AO41"/>
+      <c r="AO41" t="s">
+        <v>58</v>
+      </c>
       <c r="AP41"/>
       <c r="AQ41"/>
       <c r="AR41"/>
@@ -5886,6 +6076,9 @@
       <c r="AL42" t="s">
         <v>58</v>
       </c>
+      <c r="AO42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -5981,6 +6174,12 @@
       <c r="AN43" t="s">
         <v>56</v>
       </c>
+      <c r="AO43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6103,6 +6302,12 @@
       <c r="AN44" t="s">
         <v>55</v>
       </c>
+      <c r="AO44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6225,6 +6430,12 @@
       <c r="AN45" t="s">
         <v>55</v>
       </c>
+      <c r="AO45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6300,6 +6511,12 @@
         <v>55</v>
       </c>
       <c r="AN46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6410,8 +6627,12 @@
       <c r="AN47" t="s">
         <v>55</v>
       </c>
-      <c r="AO47"/>
-      <c r="AP47"/>
+      <c r="AO47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>55</v>
+      </c>
       <c r="AQ47"/>
       <c r="AR47"/>
       <c r="AS47"/>
@@ -6485,7 +6706,7 @@
       <c r="DI47"/>
       <c r="DJ47"/>
     </row>
-    <row r="48" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -6606,8 +6827,14 @@
       <c r="AN48" t="s">
         <v>56</v>
       </c>
+      <c r="AO48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6728,8 +6955,14 @@
       <c r="AN49" t="s">
         <v>55</v>
       </c>
+      <c r="AO49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -6829,8 +7062,14 @@
       <c r="AN50" t="s">
         <v>55</v>
       </c>
+      <c r="AO50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -6950,6 +7189,12 @@
       </c>
       <c r="AN51" t="s">
         <v>55</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E9766-CF50-41C9-8E01-91884F8237FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CF417-A543-41BE-82E5-12D750BACC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
+      <selection pane="bottomRight" activeCell="AP52" sqref="AP52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,7 +4854,7 @@
         <v>58</v>
       </c>
       <c r="AP33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7194,7 +7194,7 @@
         <v>58</v>
       </c>
       <c r="AP51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CF417-A543-41BE-82E5-12D750BACC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD118179-BB27-4502-A97C-206E2419C09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP52" sqref="AP52"/>
+      <selection pane="bottomRight" activeCell="AQ37" sqref="AQ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1022,9 @@
       <c r="AP3" t="s">
         <v>56</v>
       </c>
+      <c r="AQ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1150,6 +1153,9 @@
       <c r="AP4" t="s">
         <v>55</v>
       </c>
+      <c r="AQ4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1278,6 +1284,9 @@
       <c r="AP5" t="s">
         <v>55</v>
       </c>
+      <c r="AQ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1406,6 +1415,9 @@
       <c r="AP6" t="s">
         <v>55</v>
       </c>
+      <c r="AQ6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1534,6 +1546,9 @@
       <c r="AP7" t="s">
         <v>55</v>
       </c>
+      <c r="AQ7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1662,6 +1677,9 @@
       <c r="AP8" t="s">
         <v>55</v>
       </c>
+      <c r="AQ8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2067,6 +2085,9 @@
       <c r="AP12" t="s">
         <v>56</v>
       </c>
+      <c r="AQ12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2195,6 +2216,9 @@
       <c r="AP13" t="s">
         <v>55</v>
       </c>
+      <c r="AQ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2323,6 +2347,9 @@
       <c r="AP14" t="s">
         <v>55</v>
       </c>
+      <c r="AQ14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2674,6 +2701,9 @@
       <c r="AP17" t="s">
         <v>55</v>
       </c>
+      <c r="AQ17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2802,7 +2832,9 @@
       <c r="AP18" t="s">
         <v>55</v>
       </c>
-      <c r="AQ18"/>
+      <c r="AQ18" t="s">
+        <v>55</v>
+      </c>
       <c r="AR18"/>
       <c r="AS18"/>
       <c r="AT18"/>
@@ -2994,7 +3026,9 @@
       <c r="AP19" t="s">
         <v>55</v>
       </c>
-      <c r="AQ19"/>
+      <c r="AQ19" t="s">
+        <v>55</v>
+      </c>
       <c r="AR19"/>
       <c r="AS19"/>
       <c r="AT19"/>
@@ -3194,6 +3228,9 @@
       <c r="AP20" t="s">
         <v>55</v>
       </c>
+      <c r="AQ20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3322,6 +3359,9 @@
       <c r="AP21" t="s">
         <v>55</v>
       </c>
+      <c r="AQ21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3547,6 +3587,9 @@
       <c r="AP23" t="s">
         <v>55</v>
       </c>
+      <c r="AQ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3624,6 +3667,9 @@
       <c r="AP24" t="s">
         <v>55</v>
       </c>
+      <c r="AQ24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3752,6 +3798,9 @@
       <c r="AP25" t="s">
         <v>55</v>
       </c>
+      <c r="AQ25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3880,6 +3929,9 @@
       <c r="AP26" t="s">
         <v>55</v>
       </c>
+      <c r="AQ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4008,6 +4060,9 @@
       <c r="AP27" t="s">
         <v>55</v>
       </c>
+      <c r="AQ27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4231,7 +4286,9 @@
       <c r="AP29" t="s">
         <v>55</v>
       </c>
-      <c r="AQ29"/>
+      <c r="AQ29" t="s">
+        <v>55</v>
+      </c>
       <c r="AR29"/>
       <c r="AS29"/>
       <c r="AT29"/>
@@ -4431,7 +4488,9 @@
       <c r="AP30" t="s">
         <v>55</v>
       </c>
-      <c r="AQ30"/>
+      <c r="AQ30" t="s">
+        <v>55</v>
+      </c>
       <c r="AR30"/>
       <c r="AS30"/>
       <c r="AT30"/>
@@ -4728,6 +4787,9 @@
       <c r="AP32" t="s">
         <v>55</v>
       </c>
+      <c r="AQ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4854,6 +4916,9 @@
         <v>58</v>
       </c>
       <c r="AP33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5157,6 +5222,9 @@
       <c r="AP35" t="s">
         <v>55</v>
       </c>
+      <c r="AQ35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5285,6 +5353,9 @@
       <c r="AP36" t="s">
         <v>55</v>
       </c>
+      <c r="AQ36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5413,6 +5484,9 @@
       <c r="AP37" t="s">
         <v>56</v>
       </c>
+      <c r="AQ37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5540,6 +5614,9 @@
       </c>
       <c r="AP38" t="s">
         <v>55</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5809,6 +5886,9 @@
       <c r="AP40" t="s">
         <v>55</v>
       </c>
+      <c r="AQ40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6180,6 +6260,9 @@
       <c r="AP43" t="s">
         <v>55</v>
       </c>
+      <c r="AQ43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6308,6 +6391,9 @@
       <c r="AP44" t="s">
         <v>55</v>
       </c>
+      <c r="AQ44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6436,6 +6522,9 @@
       <c r="AP45" t="s">
         <v>55</v>
       </c>
+      <c r="AQ45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6518,6 +6607,9 @@
       </c>
       <c r="AP46" t="s">
         <v>55</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6633,7 +6725,9 @@
       <c r="AP47" t="s">
         <v>55</v>
       </c>
-      <c r="AQ47"/>
+      <c r="AQ47" t="s">
+        <v>55</v>
+      </c>
       <c r="AR47"/>
       <c r="AS47"/>
       <c r="AT47"/>
@@ -6834,7 +6928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -6961,8 +7055,11 @@
       <c r="AP49" t="s">
         <v>55</v>
       </c>
+      <c r="AQ49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7068,8 +7165,11 @@
       <c r="AP50" t="s">
         <v>55</v>
       </c>
+      <c r="AQ50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -7194,6 +7294,9 @@
         <v>58</v>
       </c>
       <c r="AP51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD118179-BB27-4502-A97C-206E2419C09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82017F91-FD0C-41ED-A8A0-B0DD47D6A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ37" sqref="AQ37"/>
+      <selection pane="bottomRight" activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,6 +1025,12 @@
       <c r="AQ3" t="s">
         <v>56</v>
       </c>
+      <c r="AR3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1156,6 +1162,12 @@
       <c r="AQ4" t="s">
         <v>56</v>
       </c>
+      <c r="AR4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1287,6 +1299,12 @@
       <c r="AQ5" t="s">
         <v>55</v>
       </c>
+      <c r="AR5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1418,6 +1436,12 @@
       <c r="AQ6" t="s">
         <v>55</v>
       </c>
+      <c r="AR6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1549,6 +1573,12 @@
       <c r="AQ7" t="s">
         <v>56</v>
       </c>
+      <c r="AR7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1680,6 +1710,12 @@
       <c r="AQ8" t="s">
         <v>55</v>
       </c>
+      <c r="AR8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2088,6 +2124,12 @@
       <c r="AQ12" t="s">
         <v>55</v>
       </c>
+      <c r="AR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2219,6 +2261,12 @@
       <c r="AQ13" t="s">
         <v>55</v>
       </c>
+      <c r="AR13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2350,6 +2398,12 @@
       <c r="AQ14" t="s">
         <v>55</v>
       </c>
+      <c r="AR14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2704,6 +2758,12 @@
       <c r="AQ17" t="s">
         <v>56</v>
       </c>
+      <c r="AR17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2835,8 +2895,12 @@
       <c r="AQ18" t="s">
         <v>55</v>
       </c>
-      <c r="AR18"/>
-      <c r="AS18"/>
+      <c r="AR18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>55</v>
+      </c>
       <c r="AT18"/>
       <c r="AU18"/>
       <c r="AV18"/>
@@ -3029,8 +3093,12 @@
       <c r="AQ19" t="s">
         <v>55</v>
       </c>
-      <c r="AR19"/>
-      <c r="AS19"/>
+      <c r="AR19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>55</v>
+      </c>
       <c r="AT19"/>
       <c r="AU19"/>
       <c r="AV19"/>
@@ -3231,6 +3299,12 @@
       <c r="AQ20" t="s">
         <v>56</v>
       </c>
+      <c r="AR20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3362,6 +3436,12 @@
       <c r="AQ21" t="s">
         <v>55</v>
       </c>
+      <c r="AR21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3590,6 +3670,12 @@
       <c r="AQ23" t="s">
         <v>55</v>
       </c>
+      <c r="AR23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3670,6 +3756,12 @@
       <c r="AQ24" t="s">
         <v>55</v>
       </c>
+      <c r="AR24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3801,6 +3893,12 @@
       <c r="AQ25" t="s">
         <v>56</v>
       </c>
+      <c r="AR25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -3932,6 +4030,12 @@
       <c r="AQ26" t="s">
         <v>55</v>
       </c>
+      <c r="AR26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4063,6 +4167,12 @@
       <c r="AQ27" t="s">
         <v>55</v>
       </c>
+      <c r="AR27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4289,8 +4399,12 @@
       <c r="AQ29" t="s">
         <v>55</v>
       </c>
-      <c r="AR29"/>
-      <c r="AS29"/>
+      <c r="AR29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>55</v>
+      </c>
       <c r="AT29"/>
       <c r="AU29"/>
       <c r="AV29"/>
@@ -4491,8 +4605,12 @@
       <c r="AQ30" t="s">
         <v>55</v>
       </c>
-      <c r="AR30"/>
-      <c r="AS30"/>
+      <c r="AR30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>55</v>
+      </c>
       <c r="AT30"/>
       <c r="AU30"/>
       <c r="AV30"/>
@@ -4790,6 +4908,12 @@
       <c r="AQ32" t="s">
         <v>55</v>
       </c>
+      <c r="AR32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4919,6 +5043,12 @@
         <v>55</v>
       </c>
       <c r="AQ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5225,6 +5355,12 @@
       <c r="AQ35" t="s">
         <v>55</v>
       </c>
+      <c r="AR35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5356,6 +5492,12 @@
       <c r="AQ36" t="s">
         <v>56</v>
       </c>
+      <c r="AR36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5487,6 +5629,12 @@
       <c r="AQ37" t="s">
         <v>56</v>
       </c>
+      <c r="AR37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5617,6 +5765,12 @@
       </c>
       <c r="AQ38" t="s">
         <v>56</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5889,6 +6043,12 @@
       <c r="AQ40" t="s">
         <v>55</v>
       </c>
+      <c r="AR40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6263,6 +6423,12 @@
       <c r="AQ43" t="s">
         <v>56</v>
       </c>
+      <c r="AR43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6394,6 +6560,12 @@
       <c r="AQ44" t="s">
         <v>55</v>
       </c>
+      <c r="AR44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6525,6 +6697,12 @@
       <c r="AQ45" t="s">
         <v>55</v>
       </c>
+      <c r="AR45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6610,6 +6788,12 @@
       </c>
       <c r="AQ46" t="s">
         <v>56</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6728,8 +6912,12 @@
       <c r="AQ47" t="s">
         <v>55</v>
       </c>
-      <c r="AR47"/>
-      <c r="AS47"/>
+      <c r="AR47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>55</v>
+      </c>
       <c r="AT47"/>
       <c r="AU47"/>
       <c r="AV47"/>
@@ -6928,7 +7116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -7058,8 +7246,14 @@
       <c r="AQ49" t="s">
         <v>55</v>
       </c>
+      <c r="AR49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7168,8 +7362,14 @@
       <c r="AQ50" t="s">
         <v>55</v>
       </c>
+      <c r="AR50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -7297,6 +7497,12 @@
         <v>55</v>
       </c>
       <c r="AQ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82017F91-FD0C-41ED-A8A0-B0DD47D6A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575E5BE-C908-45BB-9843-A786CAC5B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS17" sqref="AS17"/>
+      <selection pane="bottomRight" activeCell="AV51" sqref="AV51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1031,15 @@
       <c r="AS3" t="s">
         <v>56</v>
       </c>
+      <c r="AT3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1168,6 +1177,15 @@
       <c r="AS4" t="s">
         <v>55</v>
       </c>
+      <c r="AT4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1305,6 +1323,15 @@
       <c r="AS5" t="s">
         <v>55</v>
       </c>
+      <c r="AT5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1442,6 +1469,15 @@
       <c r="AS6" t="s">
         <v>55</v>
       </c>
+      <c r="AT6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1579,6 +1615,15 @@
       <c r="AS7" t="s">
         <v>55</v>
       </c>
+      <c r="AT7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1716,6 +1761,15 @@
       <c r="AS8" t="s">
         <v>55</v>
       </c>
+      <c r="AT8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2130,6 +2184,15 @@
       <c r="AS12" t="s">
         <v>56</v>
       </c>
+      <c r="AT12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2267,6 +2330,15 @@
       <c r="AS13" t="s">
         <v>55</v>
       </c>
+      <c r="AT13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2404,6 +2476,15 @@
       <c r="AS14" t="s">
         <v>55</v>
       </c>
+      <c r="AT14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2764,6 +2845,15 @@
       <c r="AS17" t="s">
         <v>55</v>
       </c>
+      <c r="AT17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -2901,9 +2991,15 @@
       <c r="AS18" t="s">
         <v>55</v>
       </c>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
+      <c r="AT18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>55</v>
+      </c>
       <c r="AW18"/>
       <c r="AX18"/>
       <c r="AY18"/>
@@ -3099,9 +3195,15 @@
       <c r="AS19" t="s">
         <v>55</v>
       </c>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
+      <c r="AT19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>55</v>
+      </c>
       <c r="AW19"/>
       <c r="AX19"/>
       <c r="AY19"/>
@@ -3305,6 +3407,15 @@
       <c r="AS20" t="s">
         <v>55</v>
       </c>
+      <c r="AT20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3442,6 +3553,15 @@
       <c r="AS21" t="s">
         <v>55</v>
       </c>
+      <c r="AT21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3676,6 +3796,15 @@
       <c r="AS23" t="s">
         <v>55</v>
       </c>
+      <c r="AT23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3762,6 +3891,15 @@
       <c r="AS24" t="s">
         <v>55</v>
       </c>
+      <c r="AT24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3899,6 +4037,15 @@
       <c r="AS25" t="s">
         <v>56</v>
       </c>
+      <c r="AT25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4036,6 +4183,15 @@
       <c r="AS26" t="s">
         <v>55</v>
       </c>
+      <c r="AT26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4173,6 +4329,15 @@
       <c r="AS27" t="s">
         <v>55</v>
       </c>
+      <c r="AT27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4405,9 +4570,15 @@
       <c r="AS29" t="s">
         <v>55</v>
       </c>
-      <c r="AT29"/>
-      <c r="AU29"/>
-      <c r="AV29"/>
+      <c r="AT29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>55</v>
+      </c>
       <c r="AW29"/>
       <c r="AX29"/>
       <c r="AY29"/>
@@ -4611,9 +4782,15 @@
       <c r="AS30" t="s">
         <v>55</v>
       </c>
-      <c r="AT30"/>
-      <c r="AU30"/>
-      <c r="AV30"/>
+      <c r="AT30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>55</v>
+      </c>
       <c r="AW30"/>
       <c r="AX30"/>
       <c r="AY30"/>
@@ -4914,6 +5091,15 @@
       <c r="AS32" t="s">
         <v>55</v>
       </c>
+      <c r="AT32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5050,6 +5236,15 @@
       </c>
       <c r="AS33" t="s">
         <v>55</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5361,6 +5556,15 @@
       <c r="AS35" t="s">
         <v>56</v>
       </c>
+      <c r="AT35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5498,6 +5702,15 @@
       <c r="AS36" t="s">
         <v>55</v>
       </c>
+      <c r="AT36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5635,6 +5848,15 @@
       <c r="AS37" t="s">
         <v>56</v>
       </c>
+      <c r="AT37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5770,6 +5992,15 @@
         <v>55</v>
       </c>
       <c r="AS38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6049,6 +6280,15 @@
       <c r="AS40" t="s">
         <v>55</v>
       </c>
+      <c r="AT40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6429,6 +6669,15 @@
       <c r="AS43" t="s">
         <v>56</v>
       </c>
+      <c r="AT43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6566,6 +6815,15 @@
       <c r="AS44" t="s">
         <v>56</v>
       </c>
+      <c r="AT44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6703,6 +6961,15 @@
       <c r="AS45" t="s">
         <v>55</v>
       </c>
+      <c r="AT45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -6793,6 +7060,15 @@
         <v>55</v>
       </c>
       <c r="AS46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6918,9 +7194,15 @@
       <c r="AS47" t="s">
         <v>55</v>
       </c>
-      <c r="AT47"/>
-      <c r="AU47"/>
-      <c r="AV47"/>
+      <c r="AT47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="AW47"/>
       <c r="AX47"/>
       <c r="AY47"/>
@@ -7116,7 +7398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -7252,8 +7534,17 @@
       <c r="AS49" t="s">
         <v>55</v>
       </c>
+      <c r="AT49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7368,8 +7659,17 @@
       <c r="AS50" t="s">
         <v>55</v>
       </c>
+      <c r="AT50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -7503,6 +7803,15 @@
         <v>55</v>
       </c>
       <c r="AS51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575E5BE-C908-45BB-9843-A786CAC5B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568EF234-95CC-4E21-B641-DA9995A92156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV51" sqref="AV51"/>
+      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1040,9 @@
       <c r="AV3" t="s">
         <v>56</v>
       </c>
+      <c r="AW3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1186,6 +1189,9 @@
       <c r="AV4" t="s">
         <v>55</v>
       </c>
+      <c r="AW4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1332,6 +1338,9 @@
       <c r="AV5" t="s">
         <v>55</v>
       </c>
+      <c r="AW5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1478,6 +1487,9 @@
       <c r="AV6" t="s">
         <v>56</v>
       </c>
+      <c r="AW6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1624,6 +1636,9 @@
       <c r="AV7" t="s">
         <v>55</v>
       </c>
+      <c r="AW7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1770,6 +1785,9 @@
       <c r="AV8" t="s">
         <v>55</v>
       </c>
+      <c r="AW8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2193,6 +2211,9 @@
       <c r="AV12" t="s">
         <v>55</v>
       </c>
+      <c r="AW12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2339,6 +2360,9 @@
       <c r="AV13" t="s">
         <v>55</v>
       </c>
+      <c r="AW13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2485,6 +2509,9 @@
       <c r="AV14" t="s">
         <v>56</v>
       </c>
+      <c r="AW14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2854,6 +2881,9 @@
       <c r="AV17" t="s">
         <v>55</v>
       </c>
+      <c r="AW17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3000,7 +3030,9 @@
       <c r="AV18" t="s">
         <v>55</v>
       </c>
-      <c r="AW18"/>
+      <c r="AW18" t="s">
+        <v>55</v>
+      </c>
       <c r="AX18"/>
       <c r="AY18"/>
       <c r="AZ18"/>
@@ -3204,7 +3236,9 @@
       <c r="AV19" t="s">
         <v>55</v>
       </c>
-      <c r="AW19"/>
+      <c r="AW19" t="s">
+        <v>55</v>
+      </c>
       <c r="AX19"/>
       <c r="AY19"/>
       <c r="AZ19"/>
@@ -3416,6 +3450,9 @@
       <c r="AV20" t="s">
         <v>55</v>
       </c>
+      <c r="AW20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3562,6 +3599,9 @@
       <c r="AV21" t="s">
         <v>56</v>
       </c>
+      <c r="AW21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3805,6 +3845,9 @@
       <c r="AV23" t="s">
         <v>55</v>
       </c>
+      <c r="AW23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3900,6 +3943,9 @@
       <c r="AV24" t="s">
         <v>56</v>
       </c>
+      <c r="AW24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4046,6 +4092,9 @@
       <c r="AV25" t="s">
         <v>55</v>
       </c>
+      <c r="AW25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4192,6 +4241,9 @@
       <c r="AV26" t="s">
         <v>55</v>
       </c>
+      <c r="AW26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4338,6 +4390,9 @@
       <c r="AV27" t="s">
         <v>55</v>
       </c>
+      <c r="AW27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4579,7 +4634,9 @@
       <c r="AV29" t="s">
         <v>55</v>
       </c>
-      <c r="AW29"/>
+      <c r="AW29" t="s">
+        <v>55</v>
+      </c>
       <c r="AX29"/>
       <c r="AY29"/>
       <c r="AZ29"/>
@@ -4791,7 +4848,9 @@
       <c r="AV30" t="s">
         <v>55</v>
       </c>
-      <c r="AW30"/>
+      <c r="AW30" t="s">
+        <v>55</v>
+      </c>
       <c r="AX30"/>
       <c r="AY30"/>
       <c r="AZ30"/>
@@ -5100,6 +5159,9 @@
       <c r="AV32" t="s">
         <v>55</v>
       </c>
+      <c r="AW32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5245,6 +5307,9 @@
       </c>
       <c r="AV33" t="s">
         <v>56</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5565,6 +5630,9 @@
       <c r="AV35" t="s">
         <v>56</v>
       </c>
+      <c r="AW35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5711,6 +5779,9 @@
       <c r="AV36" t="s">
         <v>55</v>
       </c>
+      <c r="AW36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5857,6 +5928,9 @@
       <c r="AV37" t="s">
         <v>56</v>
       </c>
+      <c r="AW37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6001,6 +6075,9 @@
         <v>55</v>
       </c>
       <c r="AV38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6289,6 +6366,9 @@
       <c r="AV40" t="s">
         <v>55</v>
       </c>
+      <c r="AW40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6678,6 +6758,9 @@
       <c r="AV43" t="s">
         <v>55</v>
       </c>
+      <c r="AW43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6824,6 +6907,9 @@
       <c r="AV44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AW44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -6970,6 +7056,9 @@
       <c r="AV45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AW45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7069,6 +7158,9 @@
         <v>56</v>
       </c>
       <c r="AV46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7203,7 +7295,9 @@
       <c r="AV47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AW47"/>
+      <c r="AW47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="AX47"/>
       <c r="AY47"/>
       <c r="AZ47"/>
@@ -7398,7 +7492,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -7543,8 +7637,11 @@
       <c r="AV49" t="s">
         <v>55</v>
       </c>
+      <c r="AW49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7668,8 +7765,11 @@
       <c r="AV50" t="s">
         <v>55</v>
       </c>
+      <c r="AW50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -7812,6 +7912,9 @@
         <v>55</v>
       </c>
       <c r="AV51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568EF234-95CC-4E21-B641-DA9995A92156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16A728-D479-4D45-AC07-4D4284D31EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW1" sqref="AW1"/>
+      <selection pane="bottomRight" activeCell="AY44" sqref="AY44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +635,10 @@
     <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="33" width="7" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="50" width="6.5703125" customWidth="1"/>
+    <col min="41" max="65" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -787,8 +787,53 @@
       <c r="AX1" s="2">
         <v>44827</v>
       </c>
+      <c r="AY1" s="2">
+        <v>44830</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>44831</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>44832</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>44833</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>44834</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>44837</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>44838</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>44839</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>44840</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>44841</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>44844</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>44845</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>44846</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>44847</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>44848</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -939,8 +984,53 @@
       <c r="AX2" t="s">
         <v>43</v>
       </c>
+      <c r="AY2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1043,8 +1133,14 @@
       <c r="AW3" t="s">
         <v>56</v>
       </c>
+      <c r="AX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1192,8 +1288,14 @@
       <c r="AW4" t="s">
         <v>55</v>
       </c>
+      <c r="AX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1341,8 +1443,14 @@
       <c r="AW5" t="s">
         <v>55</v>
       </c>
+      <c r="AX5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1490,8 +1598,14 @@
       <c r="AW6" t="s">
         <v>55</v>
       </c>
+      <c r="AX6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1753,14 @@
       <c r="AW7" t="s">
         <v>55</v>
       </c>
+      <c r="AX7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1788,8 +1908,14 @@
       <c r="AW8" t="s">
         <v>55</v>
       </c>
+      <c r="AX8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1886,7 +2012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +2095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2066,7 +2192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2214,8 +2340,14 @@
       <c r="AW12" t="s">
         <v>55</v>
       </c>
+      <c r="AX12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2363,8 +2495,14 @@
       <c r="AW13" t="s">
         <v>55</v>
       </c>
+      <c r="AX13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2512,8 +2650,14 @@
       <c r="AW14" t="s">
         <v>55</v>
       </c>
+      <c r="AX14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2623,7 +2767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2884,6 +3028,12 @@
       <c r="AW17" t="s">
         <v>55</v>
       </c>
+      <c r="AX17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3033,8 +3183,12 @@
       <c r="AW18" t="s">
         <v>55</v>
       </c>
-      <c r="AX18"/>
-      <c r="AY18"/>
+      <c r="AX18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>55</v>
+      </c>
       <c r="AZ18"/>
       <c r="BA18"/>
       <c r="BB18"/>
@@ -3239,8 +3393,12 @@
       <c r="AW19" t="s">
         <v>55</v>
       </c>
-      <c r="AX19"/>
-      <c r="AY19"/>
+      <c r="AX19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>55</v>
+      </c>
       <c r="AZ19"/>
       <c r="BA19"/>
       <c r="BB19"/>
@@ -3453,6 +3611,12 @@
       <c r="AW20" t="s">
         <v>55</v>
       </c>
+      <c r="AX20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3602,6 +3766,12 @@
       <c r="AW21" t="s">
         <v>56</v>
       </c>
+      <c r="AX21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -3848,6 +4018,12 @@
       <c r="AW23" t="s">
         <v>55</v>
       </c>
+      <c r="AX23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -3946,6 +4122,12 @@
       <c r="AW24" t="s">
         <v>55</v>
       </c>
+      <c r="AX24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4095,6 +4277,12 @@
       <c r="AW25" t="s">
         <v>55</v>
       </c>
+      <c r="AX25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4244,6 +4432,12 @@
       <c r="AW26" t="s">
         <v>55</v>
       </c>
+      <c r="AX26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4393,6 +4587,12 @@
       <c r="AW27" t="s">
         <v>55</v>
       </c>
+      <c r="AX27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4637,8 +4837,12 @@
       <c r="AW29" t="s">
         <v>55</v>
       </c>
-      <c r="AX29"/>
-      <c r="AY29"/>
+      <c r="AX29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>55</v>
+      </c>
       <c r="AZ29"/>
       <c r="BA29"/>
       <c r="BB29"/>
@@ -4851,8 +5055,12 @@
       <c r="AW30" t="s">
         <v>55</v>
       </c>
-      <c r="AX30"/>
-      <c r="AY30"/>
+      <c r="AX30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>55</v>
+      </c>
       <c r="AZ30"/>
       <c r="BA30"/>
       <c r="BB30"/>
@@ -5162,6 +5370,12 @@
       <c r="AW32" t="s">
         <v>55</v>
       </c>
+      <c r="AX32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5310,6 +5524,12 @@
       </c>
       <c r="AW33" t="s">
         <v>55</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5633,6 +5853,12 @@
       <c r="AW35" t="s">
         <v>56</v>
       </c>
+      <c r="AX35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -5782,6 +6008,12 @@
       <c r="AW36" t="s">
         <v>55</v>
       </c>
+      <c r="AX36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -5931,6 +6163,12 @@
       <c r="AW37" t="s">
         <v>56</v>
       </c>
+      <c r="AX37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6078,6 +6316,12 @@
         <v>55</v>
       </c>
       <c r="AW38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6369,6 +6613,12 @@
       <c r="AW40" t="s">
         <v>55</v>
       </c>
+      <c r="AX40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -6761,6 +7011,12 @@
       <c r="AW43" t="s">
         <v>56</v>
       </c>
+      <c r="AX43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6910,6 +7166,12 @@
       <c r="AW44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AX44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7059,6 +7321,12 @@
       <c r="AW45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AX45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7161,6 +7429,12 @@
         <v>55</v>
       </c>
       <c r="AW46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7298,8 +7572,12 @@
       <c r="AW47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AX47"/>
-      <c r="AY47"/>
+      <c r="AX47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="AZ47"/>
       <c r="BA47"/>
       <c r="BB47"/>
@@ -7492,7 +7770,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -7640,8 +7918,14 @@
       <c r="AW49" t="s">
         <v>55</v>
       </c>
+      <c r="AX49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -7768,8 +8052,14 @@
       <c r="AW50" t="s">
         <v>55</v>
       </c>
+      <c r="AX50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -7915,6 +8205,12 @@
         <v>55</v>
       </c>
       <c r="AW51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16A728-D479-4D45-AC07-4D4284D31EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC12BC8-124D-447C-832E-985081A01D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY44" sqref="AY44"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1139,9 @@
       <c r="AY3" t="s">
         <v>56</v>
       </c>
+      <c r="AZ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1294,6 +1297,9 @@
       <c r="AY4" t="s">
         <v>55</v>
       </c>
+      <c r="AZ4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1449,6 +1455,9 @@
       <c r="AY5" t="s">
         <v>55</v>
       </c>
+      <c r="AZ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1604,6 +1613,9 @@
       <c r="AY6" t="s">
         <v>55</v>
       </c>
+      <c r="AZ6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1759,6 +1771,9 @@
       <c r="AY7" t="s">
         <v>55</v>
       </c>
+      <c r="AZ7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1914,6 +1929,9 @@
       <c r="AY8" t="s">
         <v>55</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2346,6 +2364,9 @@
       <c r="AY12" t="s">
         <v>55</v>
       </c>
+      <c r="AZ12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2501,6 +2522,9 @@
       <c r="AY13" t="s">
         <v>55</v>
       </c>
+      <c r="AZ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2656,6 +2680,9 @@
       <c r="AY14" t="s">
         <v>56</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3034,6 +3061,9 @@
       <c r="AY17" t="s">
         <v>55</v>
       </c>
+      <c r="AZ17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3189,7 +3219,9 @@
       <c r="AY18" t="s">
         <v>55</v>
       </c>
-      <c r="AZ18"/>
+      <c r="AZ18" t="s">
+        <v>56</v>
+      </c>
       <c r="BA18"/>
       <c r="BB18"/>
       <c r="BC18"/>
@@ -3399,7 +3431,9 @@
       <c r="AY19" t="s">
         <v>55</v>
       </c>
-      <c r="AZ19"/>
+      <c r="AZ19" t="s">
+        <v>55</v>
+      </c>
       <c r="BA19"/>
       <c r="BB19"/>
       <c r="BC19"/>
@@ -3617,6 +3651,9 @@
       <c r="AY20" t="s">
         <v>56</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3772,6 +3809,9 @@
       <c r="AY21" t="s">
         <v>56</v>
       </c>
+      <c r="AZ21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4024,6 +4064,9 @@
       <c r="AY23" t="s">
         <v>55</v>
       </c>
+      <c r="AZ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4128,6 +4171,9 @@
       <c r="AY24" t="s">
         <v>55</v>
       </c>
+      <c r="AZ24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4283,6 +4329,9 @@
       <c r="AY25" t="s">
         <v>55</v>
       </c>
+      <c r="AZ25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4438,6 +4487,9 @@
       <c r="AY26" t="s">
         <v>55</v>
       </c>
+      <c r="AZ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4593,6 +4645,9 @@
       <c r="AY27" t="s">
         <v>55</v>
       </c>
+      <c r="AZ27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4843,7 +4898,9 @@
       <c r="AY29" t="s">
         <v>55</v>
       </c>
-      <c r="AZ29"/>
+      <c r="AZ29" t="s">
+        <v>55</v>
+      </c>
       <c r="BA29"/>
       <c r="BB29"/>
       <c r="BC29"/>
@@ -5061,7 +5118,9 @@
       <c r="AY30" t="s">
         <v>55</v>
       </c>
-      <c r="AZ30"/>
+      <c r="AZ30" t="s">
+        <v>55</v>
+      </c>
       <c r="BA30"/>
       <c r="BB30"/>
       <c r="BC30"/>
@@ -5376,6 +5435,9 @@
       <c r="AY32" t="s">
         <v>55</v>
       </c>
+      <c r="AZ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5529,6 +5591,9 @@
         <v>55</v>
       </c>
       <c r="AY33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5859,6 +5924,9 @@
       <c r="AY35" t="s">
         <v>56</v>
       </c>
+      <c r="AZ35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6014,6 +6082,9 @@
       <c r="AY36" t="s">
         <v>55</v>
       </c>
+      <c r="AZ36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6169,6 +6240,9 @@
       <c r="AY37" t="s">
         <v>56</v>
       </c>
+      <c r="AZ37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6322,6 +6396,9 @@
         <v>55</v>
       </c>
       <c r="AY38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6619,6 +6696,9 @@
       <c r="AY40" t="s">
         <v>55</v>
       </c>
+      <c r="AZ40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7017,6 +7097,9 @@
       <c r="AY43" t="s">
         <v>56</v>
       </c>
+      <c r="AZ43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7172,6 +7255,9 @@
       <c r="AY44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AZ44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7327,6 +7413,9 @@
       <c r="AY45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="AZ45" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7436,6 +7525,9 @@
       </c>
       <c r="AY46" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="AZ46" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7578,7 +7670,9 @@
       <c r="AY47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AZ47"/>
+      <c r="AZ47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BA47"/>
       <c r="BB47"/>
       <c r="BC47"/>
@@ -7770,7 +7864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -7924,8 +8018,11 @@
       <c r="AY49" t="s">
         <v>55</v>
       </c>
+      <c r="AZ49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8058,8 +8155,11 @@
       <c r="AY50" t="s">
         <v>55</v>
       </c>
+      <c r="AZ50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8211,6 +8311,9 @@
         <v>55</v>
       </c>
       <c r="AY51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC12BC8-124D-447C-832E-985081A01D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A77D9A-8CD7-495F-85A0-EB7F025F4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="BA18" sqref="BA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,6 +1142,9 @@
       <c r="AZ3" t="s">
         <v>56</v>
       </c>
+      <c r="BA3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1300,6 +1303,9 @@
       <c r="AZ4" t="s">
         <v>56</v>
       </c>
+      <c r="BA4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1458,6 +1464,9 @@
       <c r="AZ5" t="s">
         <v>55</v>
       </c>
+      <c r="BA5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1616,6 +1625,9 @@
       <c r="AZ6" t="s">
         <v>56</v>
       </c>
+      <c r="BA6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1774,6 +1786,9 @@
       <c r="AZ7" t="s">
         <v>55</v>
       </c>
+      <c r="BA7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1932,6 +1947,9 @@
       <c r="AZ8" t="s">
         <v>55</v>
       </c>
+      <c r="BA8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2367,6 +2385,9 @@
       <c r="AZ12" t="s">
         <v>55</v>
       </c>
+      <c r="BA12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2525,6 +2546,9 @@
       <c r="AZ13" t="s">
         <v>55</v>
       </c>
+      <c r="BA13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2683,6 +2707,9 @@
       <c r="AZ14" t="s">
         <v>55</v>
       </c>
+      <c r="BA14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3064,6 +3091,9 @@
       <c r="AZ17" t="s">
         <v>56</v>
       </c>
+      <c r="BA17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3222,7 +3252,9 @@
       <c r="AZ18" t="s">
         <v>56</v>
       </c>
-      <c r="BA18"/>
+      <c r="BA18" t="s">
+        <v>56</v>
+      </c>
       <c r="BB18"/>
       <c r="BC18"/>
       <c r="BD18"/>
@@ -3434,7 +3466,9 @@
       <c r="AZ19" t="s">
         <v>55</v>
       </c>
-      <c r="BA19"/>
+      <c r="BA19" t="s">
+        <v>55</v>
+      </c>
       <c r="BB19"/>
       <c r="BC19"/>
       <c r="BD19"/>
@@ -3654,6 +3688,9 @@
       <c r="AZ20" t="s">
         <v>55</v>
       </c>
+      <c r="BA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3812,6 +3849,9 @@
       <c r="AZ21" t="s">
         <v>55</v>
       </c>
+      <c r="BA21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4067,6 +4107,9 @@
       <c r="AZ23" t="s">
         <v>55</v>
       </c>
+      <c r="BA23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4174,6 +4217,9 @@
       <c r="AZ24" t="s">
         <v>55</v>
       </c>
+      <c r="BA24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4332,6 +4378,9 @@
       <c r="AZ25" t="s">
         <v>55</v>
       </c>
+      <c r="BA25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4490,6 +4539,9 @@
       <c r="AZ26" t="s">
         <v>55</v>
       </c>
+      <c r="BA26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4648,6 +4700,9 @@
       <c r="AZ27" t="s">
         <v>55</v>
       </c>
+      <c r="BA27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4901,7 +4956,9 @@
       <c r="AZ29" t="s">
         <v>55</v>
       </c>
-      <c r="BA29"/>
+      <c r="BA29" t="s">
+        <v>55</v>
+      </c>
       <c r="BB29"/>
       <c r="BC29"/>
       <c r="BD29"/>
@@ -5121,7 +5178,9 @@
       <c r="AZ30" t="s">
         <v>55</v>
       </c>
-      <c r="BA30"/>
+      <c r="BA30" t="s">
+        <v>55</v>
+      </c>
       <c r="BB30"/>
       <c r="BC30"/>
       <c r="BD30"/>
@@ -5438,6 +5497,9 @@
       <c r="AZ32" t="s">
         <v>55</v>
       </c>
+      <c r="BA32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5595,6 +5657,9 @@
       </c>
       <c r="AZ33" t="s">
         <v>56</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5927,6 +5992,9 @@
       <c r="AZ35" t="s">
         <v>56</v>
       </c>
+      <c r="BA35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6085,6 +6153,9 @@
       <c r="AZ36" t="s">
         <v>55</v>
       </c>
+      <c r="BA36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6243,6 +6314,9 @@
       <c r="AZ37" t="s">
         <v>55</v>
       </c>
+      <c r="BA37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6399,6 +6473,9 @@
         <v>55</v>
       </c>
       <c r="AZ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6699,6 +6776,9 @@
       <c r="AZ40" t="s">
         <v>55</v>
       </c>
+      <c r="BA40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7100,6 +7180,9 @@
       <c r="AZ43" t="s">
         <v>55</v>
       </c>
+      <c r="BA43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7258,6 +7341,9 @@
       <c r="AZ44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BA44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7416,6 +7502,9 @@
       <c r="AZ45" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="BA45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7528,6 +7617,9 @@
       </c>
       <c r="AZ46" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="BA46" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7673,7 +7765,9 @@
       <c r="AZ47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BA47"/>
+      <c r="BA47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BB47"/>
       <c r="BC47"/>
       <c r="BD47"/>
@@ -7864,7 +7958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8021,8 +8115,11 @@
       <c r="AZ49" t="s">
         <v>55</v>
       </c>
+      <c r="BA49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8158,8 +8255,11 @@
       <c r="AZ50" t="s">
         <v>55</v>
       </c>
+      <c r="BA50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8314,6 +8414,9 @@
         <v>55</v>
       </c>
       <c r="AZ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A77D9A-8CD7-495F-85A0-EB7F025F4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC610D4-DC57-4A3A-BE3E-A2B3393D7C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA18" sqref="BA18"/>
+      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,6 +1145,9 @@
       <c r="BA3" t="s">
         <v>56</v>
       </c>
+      <c r="BB3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1306,6 +1309,9 @@
       <c r="BA4" t="s">
         <v>56</v>
       </c>
+      <c r="BB4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1467,6 +1473,9 @@
       <c r="BA5" t="s">
         <v>55</v>
       </c>
+      <c r="BB5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1628,6 +1637,9 @@
       <c r="BA6" t="s">
         <v>55</v>
       </c>
+      <c r="BB6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1789,6 +1801,9 @@
       <c r="BA7" t="s">
         <v>56</v>
       </c>
+      <c r="BB7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1950,6 +1965,9 @@
       <c r="BA8" t="s">
         <v>55</v>
       </c>
+      <c r="BB8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2388,6 +2406,9 @@
       <c r="BA12" t="s">
         <v>55</v>
       </c>
+      <c r="BB12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2549,6 +2570,9 @@
       <c r="BA13" t="s">
         <v>55</v>
       </c>
+      <c r="BB13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2710,6 +2734,9 @@
       <c r="BA14" t="s">
         <v>55</v>
       </c>
+      <c r="BB14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3094,6 +3121,9 @@
       <c r="BA17" t="s">
         <v>55</v>
       </c>
+      <c r="BB17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3255,7 +3285,9 @@
       <c r="BA18" t="s">
         <v>56</v>
       </c>
-      <c r="BB18"/>
+      <c r="BB18" t="s">
+        <v>55</v>
+      </c>
       <c r="BC18"/>
       <c r="BD18"/>
       <c r="BE18"/>
@@ -3469,7 +3501,9 @@
       <c r="BA19" t="s">
         <v>55</v>
       </c>
-      <c r="BB19"/>
+      <c r="BB19" t="s">
+        <v>55</v>
+      </c>
       <c r="BC19"/>
       <c r="BD19"/>
       <c r="BE19"/>
@@ -3691,6 +3725,9 @@
       <c r="BA20" t="s">
         <v>55</v>
       </c>
+      <c r="BB20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3825,7 +3862,7 @@
       <c r="AR21" t="s">
         <v>55</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AS21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AT21" t="s">
@@ -3850,6 +3887,9 @@
         <v>55</v>
       </c>
       <c r="BA21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4110,6 +4150,9 @@
       <c r="BA23" t="s">
         <v>55</v>
       </c>
+      <c r="BB23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4220,6 +4263,9 @@
       <c r="BA24" t="s">
         <v>55</v>
       </c>
+      <c r="BB24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4381,6 +4427,9 @@
       <c r="BA25" t="s">
         <v>55</v>
       </c>
+      <c r="BB25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4542,6 +4591,9 @@
       <c r="BA26" t="s">
         <v>55</v>
       </c>
+      <c r="BB26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4703,6 +4755,9 @@
       <c r="BA27" t="s">
         <v>55</v>
       </c>
+      <c r="BB27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4959,7 +5014,9 @@
       <c r="BA29" t="s">
         <v>55</v>
       </c>
-      <c r="BB29"/>
+      <c r="BB29" t="s">
+        <v>55</v>
+      </c>
       <c r="BC29"/>
       <c r="BD29"/>
       <c r="BE29"/>
@@ -5181,7 +5238,9 @@
       <c r="BA30" t="s">
         <v>55</v>
       </c>
-      <c r="BB30"/>
+      <c r="BB30" t="s">
+        <v>55</v>
+      </c>
       <c r="BC30"/>
       <c r="BD30"/>
       <c r="BE30"/>
@@ -5500,6 +5559,9 @@
       <c r="BA32" t="s">
         <v>56</v>
       </c>
+      <c r="BB32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5660,6 +5722,9 @@
       </c>
       <c r="BA33" t="s">
         <v>55</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5995,6 +6060,9 @@
       <c r="BA35" t="s">
         <v>56</v>
       </c>
+      <c r="BB35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6156,6 +6224,9 @@
       <c r="BA36" t="s">
         <v>56</v>
       </c>
+      <c r="BB36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6317,6 +6388,9 @@
       <c r="BA37" t="s">
         <v>55</v>
       </c>
+      <c r="BB37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6476,6 +6550,9 @@
         <v>55</v>
       </c>
       <c r="BA38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6779,6 +6856,9 @@
       <c r="BA40" t="s">
         <v>55</v>
       </c>
+      <c r="BB40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7183,6 +7263,9 @@
       <c r="BA43" t="s">
         <v>55</v>
       </c>
+      <c r="BB43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7344,6 +7427,9 @@
       <c r="BA44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BB44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7505,6 +7591,9 @@
       <c r="BA45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BB45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7619,6 +7708,9 @@
         <v>56</v>
       </c>
       <c r="BA46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7768,7 +7860,9 @@
       <c r="BA47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BB47"/>
+      <c r="BB47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BC47"/>
       <c r="BD47"/>
       <c r="BE47"/>
@@ -7958,7 +8052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8118,8 +8212,11 @@
       <c r="BA49" t="s">
         <v>55</v>
       </c>
+      <c r="BB49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8258,8 +8355,11 @@
       <c r="BA50" t="s">
         <v>55</v>
       </c>
+      <c r="BB50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8417,6 +8517,9 @@
         <v>55</v>
       </c>
       <c r="BA51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC610D4-DC57-4A3A-BE3E-A2B3393D7C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363B6D7-9552-4527-961E-1BAA82ABB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="59">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -621,10 +621,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
+      <selection pane="bottomRight" activeCell="BD50" sqref="BD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1148,12 @@
       <c r="BB3" t="s">
         <v>56</v>
       </c>
+      <c r="BC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1312,6 +1318,12 @@
       <c r="BB4" t="s">
         <v>55</v>
       </c>
+      <c r="BC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1476,6 +1488,12 @@
       <c r="BB5" t="s">
         <v>55</v>
       </c>
+      <c r="BC5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1640,6 +1658,12 @@
       <c r="BB6" t="s">
         <v>56</v>
       </c>
+      <c r="BC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1804,6 +1828,12 @@
       <c r="BB7" t="s">
         <v>56</v>
       </c>
+      <c r="BC7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1968,6 +1998,12 @@
       <c r="BB8" t="s">
         <v>55</v>
       </c>
+      <c r="BC8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2409,6 +2445,12 @@
       <c r="BB12" t="s">
         <v>55</v>
       </c>
+      <c r="BC12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2573,6 +2615,12 @@
       <c r="BB13" t="s">
         <v>55</v>
       </c>
+      <c r="BC13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2737,6 +2785,12 @@
       <c r="BB14" t="s">
         <v>55</v>
       </c>
+      <c r="BC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3124,6 +3178,12 @@
       <c r="BB17" t="s">
         <v>55</v>
       </c>
+      <c r="BC17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3288,8 +3348,12 @@
       <c r="BB18" t="s">
         <v>55</v>
       </c>
-      <c r="BC18"/>
-      <c r="BD18"/>
+      <c r="BC18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>55</v>
+      </c>
       <c r="BE18"/>
       <c r="BF18"/>
       <c r="BG18"/>
@@ -3504,8 +3568,12 @@
       <c r="BB19" t="s">
         <v>55</v>
       </c>
-      <c r="BC19"/>
-      <c r="BD19"/>
+      <c r="BC19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>55</v>
+      </c>
       <c r="BE19"/>
       <c r="BF19"/>
       <c r="BG19"/>
@@ -3728,6 +3796,12 @@
       <c r="BB20" t="s">
         <v>55</v>
       </c>
+      <c r="BC20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3892,6 +3966,12 @@
       <c r="BB21" t="s">
         <v>55</v>
       </c>
+      <c r="BC21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4153,6 +4233,12 @@
       <c r="BB23" t="s">
         <v>55</v>
       </c>
+      <c r="BC23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4266,6 +4352,12 @@
       <c r="BB24" t="s">
         <v>55</v>
       </c>
+      <c r="BC24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4430,6 +4522,12 @@
       <c r="BB25" t="s">
         <v>55</v>
       </c>
+      <c r="BC25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4594,6 +4692,12 @@
       <c r="BB26" t="s">
         <v>55</v>
       </c>
+      <c r="BC26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4758,6 +4862,12 @@
       <c r="BB27" t="s">
         <v>56</v>
       </c>
+      <c r="BC27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5017,8 +5127,12 @@
       <c r="BB29" t="s">
         <v>55</v>
       </c>
-      <c r="BC29"/>
-      <c r="BD29"/>
+      <c r="BC29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>55</v>
+      </c>
       <c r="BE29"/>
       <c r="BF29"/>
       <c r="BG29"/>
@@ -5241,8 +5355,12 @@
       <c r="BB30" t="s">
         <v>55</v>
       </c>
-      <c r="BC30"/>
-      <c r="BD30"/>
+      <c r="BC30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>55</v>
+      </c>
       <c r="BE30"/>
       <c r="BF30"/>
       <c r="BG30"/>
@@ -5562,6 +5680,12 @@
       <c r="BB32" t="s">
         <v>55</v>
       </c>
+      <c r="BC32" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5725,6 +5849,12 @@
       </c>
       <c r="BB33" t="s">
         <v>56</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -6063,6 +6193,12 @@
       <c r="BB35" t="s">
         <v>56</v>
       </c>
+      <c r="BC35" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6227,6 +6363,12 @@
       <c r="BB36" t="s">
         <v>56</v>
       </c>
+      <c r="BC36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6391,6 +6533,12 @@
       <c r="BB37" t="s">
         <v>56</v>
       </c>
+      <c r="BC37" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6553,6 +6701,12 @@
         <v>55</v>
       </c>
       <c r="BB38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6859,6 +7013,12 @@
       <c r="BB40" t="s">
         <v>55</v>
       </c>
+      <c r="BC40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7266,6 +7426,12 @@
       <c r="BB43" t="s">
         <v>56</v>
       </c>
+      <c r="BC43" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7430,6 +7596,12 @@
       <c r="BB44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BC44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD44" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7594,6 +7766,12 @@
       <c r="BB45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BC45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7711,6 +7889,12 @@
         <v>55</v>
       </c>
       <c r="BB46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7863,8 +8047,12 @@
       <c r="BB47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BC47"/>
-      <c r="BD47"/>
+      <c r="BC47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BE47"/>
       <c r="BF47"/>
       <c r="BG47"/>
@@ -8052,7 +8240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8215,8 +8403,14 @@
       <c r="BB49" t="s">
         <v>55</v>
       </c>
+      <c r="BC49" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8358,8 +8552,14 @@
       <c r="BB50" t="s">
         <v>55</v>
       </c>
+      <c r="BC50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8520,6 +8720,12 @@
         <v>55</v>
       </c>
       <c r="BB51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363B6D7-9552-4527-961E-1BAA82ABB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A1E5A-33F7-4AE3-8D4E-05DA38C469B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="FPOO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -211,6 +212,9 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>VPS01</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +296,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -307,6 +316,16 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AX12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD50" sqref="BD50"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8737,14 +8756,363 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>70</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A41">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A1E5A-33F7-4AE3-8D4E-05DA38C469B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947DC38-5B94-4686-82D4-4CE519A57D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -639,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AX14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A51"/>
+      <selection pane="bottomRight" activeCell="BM38" sqref="BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,6 +1173,9 @@
       <c r="BD3" t="s">
         <v>56</v>
       </c>
+      <c r="BE3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1343,6 +1346,9 @@
       <c r="BD4" t="s">
         <v>56</v>
       </c>
+      <c r="BE4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1513,6 +1519,9 @@
       <c r="BD5" t="s">
         <v>55</v>
       </c>
+      <c r="BE5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1683,6 +1692,9 @@
       <c r="BD6" t="s">
         <v>56</v>
       </c>
+      <c r="BE6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1853,6 +1865,9 @@
       <c r="BD7" t="s">
         <v>55</v>
       </c>
+      <c r="BE7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2023,6 +2038,9 @@
       <c r="BD8" t="s">
         <v>55</v>
       </c>
+      <c r="BE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2470,6 +2488,9 @@
       <c r="BD12" t="s">
         <v>55</v>
       </c>
+      <c r="BE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2640,6 +2661,9 @@
       <c r="BD13" t="s">
         <v>55</v>
       </c>
+      <c r="BE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2810,6 +2834,9 @@
       <c r="BD14" t="s">
         <v>56</v>
       </c>
+      <c r="BE14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3203,6 +3230,9 @@
       <c r="BD17" t="s">
         <v>55</v>
       </c>
+      <c r="BE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3373,7 +3403,9 @@
       <c r="BD18" t="s">
         <v>55</v>
       </c>
-      <c r="BE18"/>
+      <c r="BE18" t="s">
+        <v>55</v>
+      </c>
       <c r="BF18"/>
       <c r="BG18"/>
       <c r="BH18"/>
@@ -3593,7 +3625,9 @@
       <c r="BD19" t="s">
         <v>55</v>
       </c>
-      <c r="BE19"/>
+      <c r="BE19" t="s">
+        <v>56</v>
+      </c>
       <c r="BF19"/>
       <c r="BG19"/>
       <c r="BH19"/>
@@ -3821,6 +3855,9 @@
       <c r="BD20" t="s">
         <v>56</v>
       </c>
+      <c r="BE20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -3991,6 +4028,9 @@
       <c r="BD21" t="s">
         <v>55</v>
       </c>
+      <c r="BE21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4258,6 +4298,9 @@
       <c r="BD23" t="s">
         <v>55</v>
       </c>
+      <c r="BE23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4377,6 +4420,9 @@
       <c r="BD24" t="s">
         <v>55</v>
       </c>
+      <c r="BE24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4547,6 +4593,9 @@
       <c r="BD25" t="s">
         <v>55</v>
       </c>
+      <c r="BE25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4717,6 +4766,9 @@
       <c r="BD26" t="s">
         <v>55</v>
       </c>
+      <c r="BE26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4887,6 +4939,9 @@
       <c r="BD27" t="s">
         <v>55</v>
       </c>
+      <c r="BE27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5152,7 +5207,9 @@
       <c r="BD29" t="s">
         <v>55</v>
       </c>
-      <c r="BE29"/>
+      <c r="BE29" t="s">
+        <v>55</v>
+      </c>
       <c r="BF29"/>
       <c r="BG29"/>
       <c r="BH29"/>
@@ -5380,7 +5437,9 @@
       <c r="BD30" t="s">
         <v>55</v>
       </c>
-      <c r="BE30"/>
+      <c r="BE30" t="s">
+        <v>55</v>
+      </c>
       <c r="BF30"/>
       <c r="BG30"/>
       <c r="BH30"/>
@@ -5705,6 +5764,9 @@
       <c r="BD32" t="s">
         <v>55</v>
       </c>
+      <c r="BE32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5873,6 +5935,9 @@
         <v>55</v>
       </c>
       <c r="BD33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6218,6 +6283,9 @@
       <c r="BD35" t="s">
         <v>56</v>
       </c>
+      <c r="BE35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6388,6 +6456,9 @@
       <c r="BD36" t="s">
         <v>55</v>
       </c>
+      <c r="BE36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6558,6 +6629,9 @@
       <c r="BD37" t="s">
         <v>56</v>
       </c>
+      <c r="BE37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6726,6 +6800,9 @@
         <v>55</v>
       </c>
       <c r="BD38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7038,6 +7115,9 @@
       <c r="BD40" t="s">
         <v>55</v>
       </c>
+      <c r="BE40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7451,6 +7531,9 @@
       <c r="BD43" t="s">
         <v>56</v>
       </c>
+      <c r="BE43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7621,6 +7704,9 @@
       <c r="BD44" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="BE44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7791,6 +7877,9 @@
       <c r="BD45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BE45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7915,6 +8004,9 @@
       </c>
       <c r="BD46" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="BE46" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8072,7 +8164,9 @@
       <c r="BD47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE47"/>
+      <c r="BE47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BF47"/>
       <c r="BG47"/>
       <c r="BH47"/>
@@ -8259,7 +8353,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8428,8 +8522,11 @@
       <c r="BD49" t="s">
         <v>55</v>
       </c>
+      <c r="BE49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8577,8 +8674,11 @@
       <c r="BD50" t="s">
         <v>55</v>
       </c>
+      <c r="BE50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8745,6 +8845,9 @@
         <v>55</v>
       </c>
       <c r="BD51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8772,7 +8875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D947DC38-5B94-4686-82D4-4CE519A57D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC59F0-EDCC-49A1-8605-F522153FAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -639,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AX5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM38" sqref="BM38"/>
+      <selection pane="bottomRight" activeCell="BJ23" sqref="BJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,8 @@
     <col min="6" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="33" width="7" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="65" width="6.5703125" customWidth="1"/>
+    <col min="41" max="55" width="6.5703125" customWidth="1"/>
+    <col min="56" max="65" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
@@ -1176,6 +1177,9 @@
       <c r="BE3" t="s">
         <v>56</v>
       </c>
+      <c r="BF3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1349,6 +1353,9 @@
       <c r="BE4" t="s">
         <v>56</v>
       </c>
+      <c r="BF4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1522,6 +1529,9 @@
       <c r="BE5" t="s">
         <v>56</v>
       </c>
+      <c r="BF5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1695,6 +1705,9 @@
       <c r="BE6" t="s">
         <v>55</v>
       </c>
+      <c r="BF6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1868,6 +1881,9 @@
       <c r="BE7" t="s">
         <v>55</v>
       </c>
+      <c r="BF7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2041,6 +2057,9 @@
       <c r="BE8" t="s">
         <v>55</v>
       </c>
+      <c r="BF8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2491,6 +2510,9 @@
       <c r="BE12" t="s">
         <v>55</v>
       </c>
+      <c r="BF12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2664,6 +2686,9 @@
       <c r="BE13" t="s">
         <v>55</v>
       </c>
+      <c r="BF13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2837,6 +2862,9 @@
       <c r="BE14" t="s">
         <v>56</v>
       </c>
+      <c r="BF14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3233,6 +3261,9 @@
       <c r="BE17" t="s">
         <v>55</v>
       </c>
+      <c r="BF17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3406,7 +3437,9 @@
       <c r="BE18" t="s">
         <v>55</v>
       </c>
-      <c r="BF18"/>
+      <c r="BF18" t="s">
+        <v>55</v>
+      </c>
       <c r="BG18"/>
       <c r="BH18"/>
       <c r="BI18"/>
@@ -3628,7 +3661,9 @@
       <c r="BE19" t="s">
         <v>56</v>
       </c>
-      <c r="BF19"/>
+      <c r="BF19" t="s">
+        <v>55</v>
+      </c>
       <c r="BG19"/>
       <c r="BH19"/>
       <c r="BI19"/>
@@ -3858,6 +3893,9 @@
       <c r="BE20" t="s">
         <v>56</v>
       </c>
+      <c r="BF20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4031,6 +4069,9 @@
       <c r="BE21" t="s">
         <v>55</v>
       </c>
+      <c r="BF21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4301,6 +4342,9 @@
       <c r="BE23" t="s">
         <v>55</v>
       </c>
+      <c r="BF23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4423,6 +4467,9 @@
       <c r="BE24" t="s">
         <v>56</v>
       </c>
+      <c r="BF24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4596,6 +4643,9 @@
       <c r="BE25" t="s">
         <v>55</v>
       </c>
+      <c r="BF25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4769,6 +4819,9 @@
       <c r="BE26" t="s">
         <v>55</v>
       </c>
+      <c r="BF26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4942,6 +4995,9 @@
       <c r="BE27" t="s">
         <v>55</v>
       </c>
+      <c r="BF27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5210,7 +5266,9 @@
       <c r="BE29" t="s">
         <v>55</v>
       </c>
-      <c r="BF29"/>
+      <c r="BF29" t="s">
+        <v>55</v>
+      </c>
       <c r="BG29"/>
       <c r="BH29"/>
       <c r="BI29"/>
@@ -5440,7 +5498,9 @@
       <c r="BE30" t="s">
         <v>55</v>
       </c>
-      <c r="BF30"/>
+      <c r="BF30" t="s">
+        <v>55</v>
+      </c>
       <c r="BG30"/>
       <c r="BH30"/>
       <c r="BI30"/>
@@ -5767,6 +5827,9 @@
       <c r="BE32" t="s">
         <v>55</v>
       </c>
+      <c r="BF32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -5938,6 +6001,9 @@
         <v>55</v>
       </c>
       <c r="BE33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6286,6 +6352,9 @@
       <c r="BE35" t="s">
         <v>56</v>
       </c>
+      <c r="BF35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6459,6 +6528,9 @@
       <c r="BE36" t="s">
         <v>55</v>
       </c>
+      <c r="BF36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6632,6 +6704,9 @@
       <c r="BE37" t="s">
         <v>55</v>
       </c>
+      <c r="BF37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6803,6 +6878,9 @@
         <v>55</v>
       </c>
       <c r="BE38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7118,6 +7196,9 @@
       <c r="BE40" t="s">
         <v>55</v>
       </c>
+      <c r="BF40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7534,6 +7615,9 @@
       <c r="BE43" t="s">
         <v>56</v>
       </c>
+      <c r="BF43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7707,6 +7791,9 @@
       <c r="BE44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BF44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7880,6 +7967,9 @@
       <c r="BE45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BF45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8007,6 +8097,9 @@
       </c>
       <c r="BE46" s="6" t="s">
         <v>56</v>
+      </c>
+      <c r="BF46" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8167,7 +8260,9 @@
       <c r="BE47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BF47"/>
+      <c r="BF47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BG47"/>
       <c r="BH47"/>
       <c r="BI47"/>
@@ -8353,7 +8448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8525,8 +8620,11 @@
       <c r="BE49" t="s">
         <v>55</v>
       </c>
+      <c r="BF49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8677,8 +8775,11 @@
       <c r="BE50" t="s">
         <v>55</v>
       </c>
+      <c r="BF50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8848,6 +8949,9 @@
         <v>55</v>
       </c>
       <c r="BE51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8875,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9002,6 +9106,12 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -9169,6 +9279,9 @@
       <c r="A36" t="s">
         <v>45</v>
       </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9189,6 +9302,12 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
+      </c>
+      <c r="B39">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,5 +9336,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC59F0-EDCC-49A1-8605-F522153FAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CA541-95B8-431F-BE0F-E2956C9F76B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ23" sqref="BJ23"/>
+      <selection pane="bottomRight" activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +1180,9 @@
       <c r="BF3" t="s">
         <v>56</v>
       </c>
+      <c r="BG3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1356,6 +1359,9 @@
       <c r="BF4" t="s">
         <v>56</v>
       </c>
+      <c r="BG4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1532,6 +1538,9 @@
       <c r="BF5" t="s">
         <v>55</v>
       </c>
+      <c r="BG5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1708,6 +1717,9 @@
       <c r="BF6" t="s">
         <v>56</v>
       </c>
+      <c r="BG6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1884,6 +1896,9 @@
       <c r="BF7" t="s">
         <v>55</v>
       </c>
+      <c r="BG7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2060,6 +2075,9 @@
       <c r="BF8" t="s">
         <v>56</v>
       </c>
+      <c r="BG8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2513,6 +2531,9 @@
       <c r="BF12" t="s">
         <v>55</v>
       </c>
+      <c r="BG12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2689,6 +2710,9 @@
       <c r="BF13" t="s">
         <v>55</v>
       </c>
+      <c r="BG13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2865,6 +2889,9 @@
       <c r="BF14" t="s">
         <v>56</v>
       </c>
+      <c r="BG14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3264,6 +3291,9 @@
       <c r="BF17" t="s">
         <v>56</v>
       </c>
+      <c r="BG17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3440,7 +3470,9 @@
       <c r="BF18" t="s">
         <v>55</v>
       </c>
-      <c r="BG18"/>
+      <c r="BG18" t="s">
+        <v>55</v>
+      </c>
       <c r="BH18"/>
       <c r="BI18"/>
       <c r="BJ18"/>
@@ -3664,7 +3696,9 @@
       <c r="BF19" t="s">
         <v>55</v>
       </c>
-      <c r="BG19"/>
+      <c r="BG19" t="s">
+        <v>55</v>
+      </c>
       <c r="BH19"/>
       <c r="BI19"/>
       <c r="BJ19"/>
@@ -3896,6 +3930,9 @@
       <c r="BF20" t="s">
         <v>55</v>
       </c>
+      <c r="BG20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4072,6 +4109,9 @@
       <c r="BF21" t="s">
         <v>55</v>
       </c>
+      <c r="BG21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4345,6 +4385,9 @@
       <c r="BF23" t="s">
         <v>55</v>
       </c>
+      <c r="BG23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4470,6 +4513,9 @@
       <c r="BF24" t="s">
         <v>55</v>
       </c>
+      <c r="BG24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4646,6 +4692,9 @@
       <c r="BF25" t="s">
         <v>55</v>
       </c>
+      <c r="BG25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4822,6 +4871,9 @@
       <c r="BF26" t="s">
         <v>55</v>
       </c>
+      <c r="BG26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4998,6 +5050,9 @@
       <c r="BF27" t="s">
         <v>55</v>
       </c>
+      <c r="BG27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5269,7 +5324,9 @@
       <c r="BF29" t="s">
         <v>55</v>
       </c>
-      <c r="BG29"/>
+      <c r="BG29" t="s">
+        <v>55</v>
+      </c>
       <c r="BH29"/>
       <c r="BI29"/>
       <c r="BJ29"/>
@@ -5501,7 +5558,9 @@
       <c r="BF30" t="s">
         <v>55</v>
       </c>
-      <c r="BG30"/>
+      <c r="BG30" t="s">
+        <v>55</v>
+      </c>
       <c r="BH30"/>
       <c r="BI30"/>
       <c r="BJ30"/>
@@ -5830,6 +5889,9 @@
       <c r="BF32" t="s">
         <v>55</v>
       </c>
+      <c r="BG32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6004,6 +6066,9 @@
         <v>55</v>
       </c>
       <c r="BF33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6355,6 +6420,9 @@
       <c r="BF35" t="s">
         <v>56</v>
       </c>
+      <c r="BG35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6531,6 +6599,9 @@
       <c r="BF36" t="s">
         <v>55</v>
       </c>
+      <c r="BG36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6707,6 +6778,9 @@
       <c r="BF37" t="s">
         <v>56</v>
       </c>
+      <c r="BG37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6881,6 +6955,9 @@
         <v>55</v>
       </c>
       <c r="BF38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7199,6 +7276,9 @@
       <c r="BF40" t="s">
         <v>55</v>
       </c>
+      <c r="BG40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7618,6 +7698,9 @@
       <c r="BF43" t="s">
         <v>55</v>
       </c>
+      <c r="BG43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7794,6 +7877,9 @@
       <c r="BF44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BG44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7970,6 +8056,9 @@
       <c r="BF45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BG45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8099,6 +8188,9 @@
         <v>56</v>
       </c>
       <c r="BF46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8263,7 +8355,9 @@
       <c r="BF47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BG47"/>
+      <c r="BG47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BH47"/>
       <c r="BI47"/>
       <c r="BJ47"/>
@@ -8448,7 +8542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8623,8 +8717,11 @@
       <c r="BF49" t="s">
         <v>55</v>
       </c>
+      <c r="BG49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8778,8 +8875,11 @@
       <c r="BF50" t="s">
         <v>55</v>
       </c>
+      <c r="BG50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -8952,6 +9052,9 @@
         <v>55</v>
       </c>
       <c r="BF51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8979,8 +9082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9CA541-95B8-431F-BE0F-E2956C9F76B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA78AE-963D-4B84-87C7-5DE4493CE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AX26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BG1" sqref="BG1"/>
+      <selection pane="bottomRight" activeCell="BH37" sqref="BH37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1183,9 @@
       <c r="BG3" t="s">
         <v>56</v>
       </c>
+      <c r="BH3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1362,6 +1365,9 @@
       <c r="BG4" t="s">
         <v>56</v>
       </c>
+      <c r="BH4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1541,6 +1547,9 @@
       <c r="BG5" t="s">
         <v>56</v>
       </c>
+      <c r="BH5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1720,6 +1729,9 @@
       <c r="BG6" t="s">
         <v>55</v>
       </c>
+      <c r="BH6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1899,6 +1911,9 @@
       <c r="BG7" t="s">
         <v>55</v>
       </c>
+      <c r="BH7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2078,6 +2093,9 @@
       <c r="BG8" t="s">
         <v>55</v>
       </c>
+      <c r="BH8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2534,6 +2552,9 @@
       <c r="BG12" t="s">
         <v>55</v>
       </c>
+      <c r="BH12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2713,6 +2734,9 @@
       <c r="BG13" t="s">
         <v>55</v>
       </c>
+      <c r="BH13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2892,6 +2916,9 @@
       <c r="BG14" t="s">
         <v>55</v>
       </c>
+      <c r="BH14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3294,6 +3321,9 @@
       <c r="BG17" t="s">
         <v>56</v>
       </c>
+      <c r="BH17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3473,7 +3503,9 @@
       <c r="BG18" t="s">
         <v>55</v>
       </c>
-      <c r="BH18"/>
+      <c r="BH18" t="s">
+        <v>55</v>
+      </c>
       <c r="BI18"/>
       <c r="BJ18"/>
       <c r="BK18"/>
@@ -3699,7 +3731,9 @@
       <c r="BG19" t="s">
         <v>55</v>
       </c>
-      <c r="BH19"/>
+      <c r="BH19" t="s">
+        <v>55</v>
+      </c>
       <c r="BI19"/>
       <c r="BJ19"/>
       <c r="BK19"/>
@@ -3933,6 +3967,9 @@
       <c r="BG20" t="s">
         <v>55</v>
       </c>
+      <c r="BH20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4112,6 +4149,9 @@
       <c r="BG21" t="s">
         <v>55</v>
       </c>
+      <c r="BH21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4388,6 +4428,9 @@
       <c r="BG23" t="s">
         <v>55</v>
       </c>
+      <c r="BH23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4516,6 +4559,9 @@
       <c r="BG24" t="s">
         <v>55</v>
       </c>
+      <c r="BH24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4695,6 +4741,9 @@
       <c r="BG25" t="s">
         <v>55</v>
       </c>
+      <c r="BH25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4874,6 +4923,9 @@
       <c r="BG26" t="s">
         <v>55</v>
       </c>
+      <c r="BH26" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5053,6 +5105,9 @@
       <c r="BG27" t="s">
         <v>55</v>
       </c>
+      <c r="BH27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5327,7 +5382,9 @@
       <c r="BG29" t="s">
         <v>55</v>
       </c>
-      <c r="BH29"/>
+      <c r="BH29" t="s">
+        <v>55</v>
+      </c>
       <c r="BI29"/>
       <c r="BJ29"/>
       <c r="BK29"/>
@@ -5561,7 +5618,9 @@
       <c r="BG30" t="s">
         <v>55</v>
       </c>
-      <c r="BH30"/>
+      <c r="BH30" t="s">
+        <v>55</v>
+      </c>
       <c r="BI30"/>
       <c r="BJ30"/>
       <c r="BK30"/>
@@ -5892,6 +5951,9 @@
       <c r="BG32" t="s">
         <v>55</v>
       </c>
+      <c r="BH32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6069,6 +6131,9 @@
         <v>55</v>
       </c>
       <c r="BG33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6423,6 +6488,9 @@
       <c r="BG35" t="s">
         <v>56</v>
       </c>
+      <c r="BH35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6602,6 +6670,9 @@
       <c r="BG36" t="s">
         <v>55</v>
       </c>
+      <c r="BH36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6781,6 +6852,9 @@
       <c r="BG37" t="s">
         <v>55</v>
       </c>
+      <c r="BH37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6959,6 +7033,9 @@
       </c>
       <c r="BG38" t="s">
         <v>55</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7279,6 +7356,9 @@
       <c r="BG40" t="s">
         <v>55</v>
       </c>
+      <c r="BH40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7701,6 +7781,9 @@
       <c r="BG43" t="s">
         <v>55</v>
       </c>
+      <c r="BH43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7880,6 +7963,9 @@
       <c r="BG44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BH44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8059,6 +8145,9 @@
       <c r="BG45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BH45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8191,6 +8280,9 @@
         <v>55</v>
       </c>
       <c r="BG46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8358,7 +8450,9 @@
       <c r="BG47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BH47"/>
+      <c r="BH47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BI47"/>
       <c r="BJ47"/>
       <c r="BK47"/>
@@ -8542,7 +8636,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8720,8 +8814,11 @@
       <c r="BG49" t="s">
         <v>55</v>
       </c>
+      <c r="BH49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8878,8 +8975,11 @@
       <c r="BG50" t="s">
         <v>55</v>
       </c>
+      <c r="BH50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9055,6 +9155,9 @@
         <v>55</v>
       </c>
       <c r="BG51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA78AE-963D-4B84-87C7-5DE4493CE323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAAD9A-D04F-458B-BA99-677854B39F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AX26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH37" sqref="BH37"/>
+      <selection pane="bottomRight" activeCell="BO17" sqref="BO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,6 +1186,9 @@
       <c r="BH3" t="s">
         <v>56</v>
       </c>
+      <c r="BI3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1368,6 +1371,9 @@
       <c r="BH4" t="s">
         <v>56</v>
       </c>
+      <c r="BI4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1550,6 +1556,9 @@
       <c r="BH5" t="s">
         <v>55</v>
       </c>
+      <c r="BI5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1732,6 +1741,9 @@
       <c r="BH6" t="s">
         <v>56</v>
       </c>
+      <c r="BI6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1914,6 +1926,9 @@
       <c r="BH7" t="s">
         <v>56</v>
       </c>
+      <c r="BI7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2096,6 +2111,9 @@
       <c r="BH8" t="s">
         <v>55</v>
       </c>
+      <c r="BI8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2555,6 +2573,9 @@
       <c r="BH12" t="s">
         <v>55</v>
       </c>
+      <c r="BI12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2737,6 +2758,9 @@
       <c r="BH13" t="s">
         <v>55</v>
       </c>
+      <c r="BI13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2919,6 +2943,9 @@
       <c r="BH14" t="s">
         <v>55</v>
       </c>
+      <c r="BI14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3324,6 +3351,9 @@
       <c r="BH17" t="s">
         <v>56</v>
       </c>
+      <c r="BI17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3506,7 +3536,9 @@
       <c r="BH18" t="s">
         <v>55</v>
       </c>
-      <c r="BI18"/>
+      <c r="BI18" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ18"/>
       <c r="BK18"/>
       <c r="BL18"/>
@@ -3734,7 +3766,9 @@
       <c r="BH19" t="s">
         <v>55</v>
       </c>
-      <c r="BI19"/>
+      <c r="BI19" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ19"/>
       <c r="BK19"/>
       <c r="BL19"/>
@@ -3970,6 +4004,9 @@
       <c r="BH20" t="s">
         <v>56</v>
       </c>
+      <c r="BI20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4152,6 +4189,9 @@
       <c r="BH21" t="s">
         <v>55</v>
       </c>
+      <c r="BI21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4431,6 +4471,9 @@
       <c r="BH23" t="s">
         <v>55</v>
       </c>
+      <c r="BI23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4562,6 +4605,9 @@
       <c r="BH24" t="s">
         <v>55</v>
       </c>
+      <c r="BI24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4744,6 +4790,9 @@
       <c r="BH25" t="s">
         <v>55</v>
       </c>
+      <c r="BI25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4926,6 +4975,9 @@
       <c r="BH26" t="s">
         <v>56</v>
       </c>
+      <c r="BI26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5108,6 +5160,9 @@
       <c r="BH27" t="s">
         <v>55</v>
       </c>
+      <c r="BI27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5385,7 +5440,9 @@
       <c r="BH29" t="s">
         <v>55</v>
       </c>
-      <c r="BI29"/>
+      <c r="BI29" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ29"/>
       <c r="BK29"/>
       <c r="BL29"/>
@@ -5621,7 +5678,9 @@
       <c r="BH30" t="s">
         <v>55</v>
       </c>
-      <c r="BI30"/>
+      <c r="BI30" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ30"/>
       <c r="BK30"/>
       <c r="BL30"/>
@@ -5954,6 +6013,9 @@
       <c r="BH32" t="s">
         <v>55</v>
       </c>
+      <c r="BI32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6134,6 +6196,9 @@
         <v>55</v>
       </c>
       <c r="BH33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6491,6 +6556,9 @@
       <c r="BH35" t="s">
         <v>56</v>
       </c>
+      <c r="BI35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6673,6 +6741,9 @@
       <c r="BH36" t="s">
         <v>55</v>
       </c>
+      <c r="BI36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6855,6 +6926,9 @@
       <c r="BH37" t="s">
         <v>55</v>
       </c>
+      <c r="BI37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7036,6 +7110,9 @@
       </c>
       <c r="BH38" t="s">
         <v>56</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7359,6 +7436,9 @@
       <c r="BH40" t="s">
         <v>55</v>
       </c>
+      <c r="BI40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7784,6 +7864,9 @@
       <c r="BH43" t="s">
         <v>55</v>
       </c>
+      <c r="BI43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7966,6 +8049,9 @@
       <c r="BH44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BI44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8148,6 +8234,9 @@
       <c r="BH45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BI45" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8283,6 +8372,9 @@
         <v>55</v>
       </c>
       <c r="BH46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8453,7 +8545,9 @@
       <c r="BH47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BI47"/>
+      <c r="BI47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BJ47"/>
       <c r="BK47"/>
       <c r="BL47"/>
@@ -8636,7 +8730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8817,8 +8911,11 @@
       <c r="BH49" t="s">
         <v>55</v>
       </c>
+      <c r="BI49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -8978,8 +9075,11 @@
       <c r="BH50" t="s">
         <v>55</v>
       </c>
+      <c r="BI50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9158,6 +9258,9 @@
         <v>55</v>
       </c>
       <c r="BH51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAAD9A-D04F-458B-BA99-677854B39F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5FF885-2A89-4240-9B0C-CEA0731B7053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO17" sqref="BO17"/>
+      <selection pane="bottomRight" activeCell="BJ46" sqref="BJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,6 +1189,9 @@
       <c r="BI3" t="s">
         <v>56</v>
       </c>
+      <c r="BJ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1374,6 +1377,9 @@
       <c r="BI4" t="s">
         <v>56</v>
       </c>
+      <c r="BJ4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1559,6 +1565,9 @@
       <c r="BI5" t="s">
         <v>55</v>
       </c>
+      <c r="BJ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1744,6 +1753,9 @@
       <c r="BI6" t="s">
         <v>56</v>
       </c>
+      <c r="BJ6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1929,6 +1941,9 @@
       <c r="BI7" t="s">
         <v>55</v>
       </c>
+      <c r="BJ7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2114,6 +2129,9 @@
       <c r="BI8" t="s">
         <v>55</v>
       </c>
+      <c r="BJ8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2576,6 +2594,9 @@
       <c r="BI12" t="s">
         <v>55</v>
       </c>
+      <c r="BJ12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2761,6 +2782,9 @@
       <c r="BI13" t="s">
         <v>55</v>
       </c>
+      <c r="BJ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2946,6 +2970,9 @@
       <c r="BI14" t="s">
         <v>56</v>
       </c>
+      <c r="BJ14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3354,6 +3381,9 @@
       <c r="BI17" t="s">
         <v>56</v>
       </c>
+      <c r="BJ17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3539,7 +3569,9 @@
       <c r="BI18" t="s">
         <v>55</v>
       </c>
-      <c r="BJ18"/>
+      <c r="BJ18" t="s">
+        <v>55</v>
+      </c>
       <c r="BK18"/>
       <c r="BL18"/>
       <c r="BM18"/>
@@ -3769,7 +3801,9 @@
       <c r="BI19" t="s">
         <v>55</v>
       </c>
-      <c r="BJ19"/>
+      <c r="BJ19" t="s">
+        <v>55</v>
+      </c>
       <c r="BK19"/>
       <c r="BL19"/>
       <c r="BM19"/>
@@ -4007,6 +4041,9 @@
       <c r="BI20" t="s">
         <v>55</v>
       </c>
+      <c r="BJ20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4192,6 +4229,9 @@
       <c r="BI21" t="s">
         <v>55</v>
       </c>
+      <c r="BJ21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4474,6 +4514,9 @@
       <c r="BI23" t="s">
         <v>55</v>
       </c>
+      <c r="BJ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4608,6 +4651,9 @@
       <c r="BI24" t="s">
         <v>56</v>
       </c>
+      <c r="BJ24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4793,6 +4839,9 @@
       <c r="BI25" t="s">
         <v>55</v>
       </c>
+      <c r="BJ25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4978,6 +5027,9 @@
       <c r="BI26" t="s">
         <v>55</v>
       </c>
+      <c r="BJ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5163,6 +5215,9 @@
       <c r="BI27" t="s">
         <v>55</v>
       </c>
+      <c r="BJ27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5443,7 +5498,9 @@
       <c r="BI29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ29"/>
+      <c r="BJ29" t="s">
+        <v>55</v>
+      </c>
       <c r="BK29"/>
       <c r="BL29"/>
       <c r="BM29"/>
@@ -5681,7 +5738,9 @@
       <c r="BI30" t="s">
         <v>55</v>
       </c>
-      <c r="BJ30"/>
+      <c r="BJ30" t="s">
+        <v>55</v>
+      </c>
       <c r="BK30"/>
       <c r="BL30"/>
       <c r="BM30"/>
@@ -6016,6 +6075,9 @@
       <c r="BI32" t="s">
         <v>55</v>
       </c>
+      <c r="BJ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6199,6 +6261,9 @@
         <v>55</v>
       </c>
       <c r="BI33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6559,6 +6624,9 @@
       <c r="BI35" t="s">
         <v>56</v>
       </c>
+      <c r="BJ35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6744,6 +6812,9 @@
       <c r="BI36" t="s">
         <v>55</v>
       </c>
+      <c r="BJ36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6929,6 +7000,9 @@
       <c r="BI37" t="s">
         <v>56</v>
       </c>
+      <c r="BJ37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7112,6 +7186,9 @@
         <v>56</v>
       </c>
       <c r="BI38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7439,6 +7516,9 @@
       <c r="BI40" t="s">
         <v>55</v>
       </c>
+      <c r="BJ40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7867,6 +7947,9 @@
       <c r="BI43" t="s">
         <v>56</v>
       </c>
+      <c r="BJ43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8052,6 +8135,9 @@
       <c r="BI44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BJ44" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8237,6 +8323,9 @@
       <c r="BI45" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="BJ45" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8375,6 +8464,9 @@
         <v>55</v>
       </c>
       <c r="BI46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ46" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8548,7 +8640,9 @@
       <c r="BI47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BJ47"/>
+      <c r="BJ47" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="BK47"/>
       <c r="BL47"/>
       <c r="BM47"/>
@@ -8730,7 +8824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -8914,8 +9008,11 @@
       <c r="BI49" t="s">
         <v>55</v>
       </c>
+      <c r="BJ49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9078,8 +9175,11 @@
       <c r="BI50" t="s">
         <v>55</v>
       </c>
+      <c r="BJ50" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9261,6 +9361,9 @@
         <v>55</v>
       </c>
       <c r="BI51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5FF885-2A89-4240-9B0C-CEA0731B7053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB756F34-8286-4447-BED7-7BFD62987CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ46" sqref="BJ46"/>
+      <selection pane="bottomRight" activeCell="BQ46" sqref="BQ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,9 +656,10 @@
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="55" width="6.5703125" customWidth="1"/>
     <col min="56" max="65" width="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="80" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -852,8 +853,53 @@
       <c r="BM1" s="2">
         <v>44848</v>
       </c>
+      <c r="BN1" s="2">
+        <v>44851</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>44852</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>44853</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>44854</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>44855</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>44858</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>44859</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>44860</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>44861</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>44862</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>44865</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>44866</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>44867</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>44868</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>44869</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1049,8 +1095,53 @@
       <c r="BM2" t="s">
         <v>43</v>
       </c>
+      <c r="BN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1192,8 +1283,14 @@
       <c r="BJ3" t="s">
         <v>56</v>
       </c>
+      <c r="BK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1380,8 +1477,14 @@
       <c r="BJ4" t="s">
         <v>56</v>
       </c>
+      <c r="BK4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1568,8 +1671,14 @@
       <c r="BJ5" t="s">
         <v>55</v>
       </c>
+      <c r="BK5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1756,8 +1865,14 @@
       <c r="BJ6" t="s">
         <v>55</v>
       </c>
+      <c r="BK6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2059,14 @@
       <c r="BJ7" t="s">
         <v>55</v>
       </c>
+      <c r="BK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2132,8 +2253,14 @@
       <c r="BJ8" t="s">
         <v>56</v>
       </c>
+      <c r="BK8" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -2229,8 +2356,11 @@
       <c r="AO9" t="s">
         <v>58</v>
       </c>
+      <c r="BK9" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -2312,8 +2442,11 @@
       <c r="AO10" t="s">
         <v>58</v>
       </c>
+      <c r="BK10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2409,8 +2542,11 @@
       <c r="AO11" t="s">
         <v>58</v>
       </c>
+      <c r="BK11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2597,8 +2733,14 @@
       <c r="BJ12" t="s">
         <v>55</v>
       </c>
+      <c r="BK12" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2785,8 +2927,14 @@
       <c r="BJ13" t="s">
         <v>55</v>
       </c>
+      <c r="BK13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2973,8 +3121,14 @@
       <c r="BJ14" t="s">
         <v>56</v>
       </c>
+      <c r="BK14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3083,8 +3237,11 @@
       <c r="AO15" t="s">
         <v>58</v>
       </c>
+      <c r="BK15" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3194,6 +3351,9 @@
         <v>58</v>
       </c>
       <c r="AO16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3384,6 +3544,12 @@
       <c r="BJ17" t="s">
         <v>55</v>
       </c>
+      <c r="BK17" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3572,8 +3738,12 @@
       <c r="BJ18" t="s">
         <v>55</v>
       </c>
-      <c r="BK18"/>
-      <c r="BL18"/>
+      <c r="BK18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>55</v>
+      </c>
       <c r="BM18"/>
       <c r="BN18"/>
       <c r="BO18"/>
@@ -3804,8 +3974,12 @@
       <c r="BJ19" t="s">
         <v>55</v>
       </c>
-      <c r="BK19"/>
-      <c r="BL19"/>
+      <c r="BK19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>55</v>
+      </c>
       <c r="BM19"/>
       <c r="BN19"/>
       <c r="BO19"/>
@@ -4044,6 +4218,12 @@
       <c r="BJ20" t="s">
         <v>55</v>
       </c>
+      <c r="BK20" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4232,6 +4412,12 @@
       <c r="BJ21" t="s">
         <v>55</v>
       </c>
+      <c r="BK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4329,6 +4515,9 @@
       <c r="AO22" t="s">
         <v>58</v>
       </c>
+      <c r="BK22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4517,6 +4706,12 @@
       <c r="BJ23" t="s">
         <v>55</v>
       </c>
+      <c r="BK23" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4654,6 +4849,12 @@
       <c r="BJ24" t="s">
         <v>56</v>
       </c>
+      <c r="BK24" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4842,6 +5043,12 @@
       <c r="BJ25" t="s">
         <v>55</v>
       </c>
+      <c r="BK25" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5030,6 +5237,12 @@
       <c r="BJ26" t="s">
         <v>55</v>
       </c>
+      <c r="BK26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5218,6 +5431,12 @@
       <c r="BJ27" t="s">
         <v>55</v>
       </c>
+      <c r="BK27" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5313,6 +5532,9 @@
       <c r="AO28" t="s">
         <v>58</v>
       </c>
+      <c r="BK28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5501,8 +5723,12 @@
       <c r="BJ29" t="s">
         <v>55</v>
       </c>
-      <c r="BK29"/>
-      <c r="BL29"/>
+      <c r="BK29" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>55</v>
+      </c>
       <c r="BM29"/>
       <c r="BN29"/>
       <c r="BO29"/>
@@ -5741,8 +5967,12 @@
       <c r="BJ30" t="s">
         <v>55</v>
       </c>
-      <c r="BK30"/>
-      <c r="BL30"/>
+      <c r="BK30" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>55</v>
+      </c>
       <c r="BM30"/>
       <c r="BN30"/>
       <c r="BO30"/>
@@ -5890,6 +6120,9 @@
       <c r="AO31" t="s">
         <v>58</v>
       </c>
+      <c r="BK31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6078,6 +6311,12 @@
       <c r="BJ32" t="s">
         <v>55</v>
       </c>
+      <c r="BK32" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6264,6 +6503,12 @@
         <v>55</v>
       </c>
       <c r="BJ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6387,7 +6632,9 @@
       <c r="BH34"/>
       <c r="BI34"/>
       <c r="BJ34"/>
-      <c r="BK34"/>
+      <c r="BK34" t="s">
+        <v>58</v>
+      </c>
       <c r="BL34"/>
       <c r="BM34"/>
       <c r="BN34"/>
@@ -6440,7 +6687,7 @@
       <c r="DI34"/>
       <c r="DJ34"/>
     </row>
-    <row r="35" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -6625,6 +6872,12 @@
         <v>56</v>
       </c>
       <c r="BJ35" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL35" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6815,6 +7068,12 @@
       <c r="BJ36" t="s">
         <v>55</v>
       </c>
+      <c r="BK36" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7003,6 +7262,12 @@
       <c r="BJ37" t="s">
         <v>56</v>
       </c>
+      <c r="BK37" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7189,6 +7454,12 @@
         <v>55</v>
       </c>
       <c r="BJ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7279,7 +7550,9 @@
       <c r="BH39"/>
       <c r="BI39"/>
       <c r="BJ39"/>
-      <c r="BK39"/>
+      <c r="BK39" t="s">
+        <v>58</v>
+      </c>
       <c r="BL39"/>
       <c r="BM39"/>
       <c r="BN39"/>
@@ -7519,6 +7792,12 @@
       <c r="BJ40" t="s">
         <v>55</v>
       </c>
+      <c r="BK40" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -7640,7 +7919,9 @@
       <c r="BH41"/>
       <c r="BI41"/>
       <c r="BJ41"/>
-      <c r="BK41"/>
+      <c r="BK41" t="s">
+        <v>58</v>
+      </c>
       <c r="BL41"/>
       <c r="BM41"/>
       <c r="BN41"/>
@@ -7789,6 +8070,9 @@
       <c r="AO42" t="s">
         <v>58</v>
       </c>
+      <c r="BK42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -7950,6 +8234,12 @@
       <c r="BJ43" t="s">
         <v>56</v>
       </c>
+      <c r="BK43" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8138,6 +8428,12 @@
       <c r="BJ44" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BK44" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8326,6 +8622,12 @@
       <c r="BJ45" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BK45" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8468,6 +8770,12 @@
       </c>
       <c r="BJ46" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8643,8 +8951,12 @@
       <c r="BJ47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BK47"/>
-      <c r="BL47"/>
+      <c r="BK47" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL47" t="s">
+        <v>55</v>
+      </c>
       <c r="BM47"/>
       <c r="BN47"/>
       <c r="BO47"/>
@@ -8823,8 +9135,11 @@
       <c r="AP48" t="s">
         <v>56</v>
       </c>
+      <c r="BK48" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9011,8 +9326,14 @@
       <c r="BJ49" t="s">
         <v>55</v>
       </c>
+      <c r="BK49" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9178,8 +9499,14 @@
       <c r="BJ50" t="s">
         <v>56</v>
       </c>
+      <c r="BK50" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9364,6 +9691,12 @@
         <v>55</v>
       </c>
       <c r="BJ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK51" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9375,10 +9708,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9740,10 +10073,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A41">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB756F34-8286-4447-BED7-7BFD62987CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E45E5-DF4A-42BA-9602-C2EE1F9295F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BQ46" sqref="BQ46"/>
+      <selection pane="bottomRight" activeCell="BM38" sqref="BM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,6 +1289,9 @@
       <c r="BL3" t="s">
         <v>56</v>
       </c>
+      <c r="BM3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1483,6 +1486,9 @@
       <c r="BL4" t="s">
         <v>56</v>
       </c>
+      <c r="BM4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1677,6 +1683,9 @@
       <c r="BL5" t="s">
         <v>55</v>
       </c>
+      <c r="BM5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1871,6 +1880,9 @@
       <c r="BL6" t="s">
         <v>55</v>
       </c>
+      <c r="BM6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2065,6 +2077,9 @@
       <c r="BL7" t="s">
         <v>55</v>
       </c>
+      <c r="BM7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2259,6 +2274,9 @@
       <c r="BL8" t="s">
         <v>55</v>
       </c>
+      <c r="BM8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2739,6 +2757,9 @@
       <c r="BL12" t="s">
         <v>55</v>
       </c>
+      <c r="BM12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2933,6 +2954,9 @@
       <c r="BL13" t="s">
         <v>55</v>
       </c>
+      <c r="BM13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3127,6 +3151,9 @@
       <c r="BL14" t="s">
         <v>56</v>
       </c>
+      <c r="BM14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3550,6 +3577,9 @@
       <c r="BL17" t="s">
         <v>55</v>
       </c>
+      <c r="BM17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3744,7 +3774,9 @@
       <c r="BL18" t="s">
         <v>55</v>
       </c>
-      <c r="BM18"/>
+      <c r="BM18" t="s">
+        <v>55</v>
+      </c>
       <c r="BN18"/>
       <c r="BO18"/>
       <c r="BP18"/>
@@ -3980,7 +4012,9 @@
       <c r="BL19" t="s">
         <v>55</v>
       </c>
-      <c r="BM19"/>
+      <c r="BM19" t="s">
+        <v>55</v>
+      </c>
       <c r="BN19"/>
       <c r="BO19"/>
       <c r="BP19"/>
@@ -4224,6 +4258,9 @@
       <c r="BL20" t="s">
         <v>55</v>
       </c>
+      <c r="BM20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4418,6 +4455,9 @@
       <c r="BL21" t="s">
         <v>55</v>
       </c>
+      <c r="BM21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4712,6 +4752,9 @@
       <c r="BL23" t="s">
         <v>55</v>
       </c>
+      <c r="BM23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4855,6 +4898,9 @@
       <c r="BL24" t="s">
         <v>55</v>
       </c>
+      <c r="BM24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5049,6 +5095,9 @@
       <c r="BL25" t="s">
         <v>55</v>
       </c>
+      <c r="BM25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5243,6 +5292,9 @@
       <c r="BL26" t="s">
         <v>55</v>
       </c>
+      <c r="BM26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5437,6 +5489,9 @@
       <c r="BL27" t="s">
         <v>55</v>
       </c>
+      <c r="BM27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5729,7 +5784,9 @@
       <c r="BL29" t="s">
         <v>55</v>
       </c>
-      <c r="BM29"/>
+      <c r="BM29" t="s">
+        <v>55</v>
+      </c>
       <c r="BN29"/>
       <c r="BO29"/>
       <c r="BP29"/>
@@ -5973,7 +6030,9 @@
       <c r="BL30" t="s">
         <v>55</v>
       </c>
-      <c r="BM30"/>
+      <c r="BM30" t="s">
+        <v>55</v>
+      </c>
       <c r="BN30"/>
       <c r="BO30"/>
       <c r="BP30"/>
@@ -6317,6 +6376,9 @@
       <c r="BL32" t="s">
         <v>56</v>
       </c>
+      <c r="BM32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6509,6 +6571,9 @@
         <v>58</v>
       </c>
       <c r="BL33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7074,6 +7139,9 @@
       <c r="BL36" t="s">
         <v>55</v>
       </c>
+      <c r="BM36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7268,6 +7336,9 @@
       <c r="BL37" t="s">
         <v>55</v>
       </c>
+      <c r="BM37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7460,6 +7531,9 @@
         <v>58</v>
       </c>
       <c r="BL38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7798,6 +7872,9 @@
       <c r="BL40" t="s">
         <v>55</v>
       </c>
+      <c r="BM40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8240,6 +8317,9 @@
       <c r="BL43" t="s">
         <v>55</v>
       </c>
+      <c r="BM43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8434,6 +8514,9 @@
       <c r="BL44" t="s">
         <v>55</v>
       </c>
+      <c r="BM44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8628,6 +8711,9 @@
       <c r="BL45" t="s">
         <v>55</v>
       </c>
+      <c r="BM45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8776,6 +8862,9 @@
       </c>
       <c r="BL46" t="s">
         <v>56</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8957,7 +9046,9 @@
       <c r="BL47" t="s">
         <v>55</v>
       </c>
-      <c r="BM47"/>
+      <c r="BM47" t="s">
+        <v>55</v>
+      </c>
       <c r="BN47"/>
       <c r="BO47"/>
       <c r="BP47"/>
@@ -9139,7 +9230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9332,8 +9423,11 @@
       <c r="BL49" t="s">
         <v>55</v>
       </c>
+      <c r="BM49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9505,8 +9599,11 @@
       <c r="BL50" t="s">
         <v>55</v>
       </c>
+      <c r="BM50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9697,6 +9794,9 @@
         <v>58</v>
       </c>
       <c r="BL51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9708,10 +9808,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10073,10 +10173,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E45E5-DF4A-42BA-9602-C2EE1F9295F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BAF44-6BF1-406D-8F04-5BAA767A005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM38" sqref="BM38"/>
+      <selection pane="bottomRight" activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,6 +1292,9 @@
       <c r="BM3" t="s">
         <v>56</v>
       </c>
+      <c r="BN3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1489,6 +1492,9 @@
       <c r="BM4" t="s">
         <v>56</v>
       </c>
+      <c r="BN4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1686,6 +1692,9 @@
       <c r="BM5" t="s">
         <v>55</v>
       </c>
+      <c r="BN5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1883,6 +1892,9 @@
       <c r="BM6" t="s">
         <v>56</v>
       </c>
+      <c r="BN6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2080,6 +2092,9 @@
       <c r="BM7" t="s">
         <v>55</v>
       </c>
+      <c r="BN7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2277,6 +2292,9 @@
       <c r="BM8" t="s">
         <v>55</v>
       </c>
+      <c r="BN8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2760,6 +2778,9 @@
       <c r="BM12" t="s">
         <v>55</v>
       </c>
+      <c r="BN12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2957,6 +2978,9 @@
       <c r="BM13" t="s">
         <v>55</v>
       </c>
+      <c r="BN13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3154,6 +3178,9 @@
       <c r="BM14" t="s">
         <v>56</v>
       </c>
+      <c r="BN14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3580,6 +3607,9 @@
       <c r="BM17" t="s">
         <v>55</v>
       </c>
+      <c r="BN17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3777,7 +3807,9 @@
       <c r="BM18" t="s">
         <v>55</v>
       </c>
-      <c r="BN18"/>
+      <c r="BN18" t="s">
+        <v>55</v>
+      </c>
       <c r="BO18"/>
       <c r="BP18"/>
       <c r="BQ18"/>
@@ -4015,7 +4047,9 @@
       <c r="BM19" t="s">
         <v>55</v>
       </c>
-      <c r="BN19"/>
+      <c r="BN19" t="s">
+        <v>55</v>
+      </c>
       <c r="BO19"/>
       <c r="BP19"/>
       <c r="BQ19"/>
@@ -4261,6 +4295,9 @@
       <c r="BM20" t="s">
         <v>55</v>
       </c>
+      <c r="BN20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4458,6 +4495,9 @@
       <c r="BM21" t="s">
         <v>55</v>
       </c>
+      <c r="BN21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4755,6 +4795,9 @@
       <c r="BM23" t="s">
         <v>55</v>
       </c>
+      <c r="BN23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4901,6 +4944,9 @@
       <c r="BM24" t="s">
         <v>55</v>
       </c>
+      <c r="BN24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5098,6 +5144,9 @@
       <c r="BM25" t="s">
         <v>55</v>
       </c>
+      <c r="BN25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5295,6 +5344,9 @@
       <c r="BM26" t="s">
         <v>55</v>
       </c>
+      <c r="BN26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5492,6 +5544,9 @@
       <c r="BM27" t="s">
         <v>55</v>
       </c>
+      <c r="BN27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5787,7 +5842,9 @@
       <c r="BM29" t="s">
         <v>55</v>
       </c>
-      <c r="BN29"/>
+      <c r="BN29" t="s">
+        <v>55</v>
+      </c>
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
@@ -6033,7 +6090,9 @@
       <c r="BM30" t="s">
         <v>55</v>
       </c>
-      <c r="BN30"/>
+      <c r="BN30" t="s">
+        <v>55</v>
+      </c>
       <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
@@ -6379,6 +6438,9 @@
       <c r="BM32" t="s">
         <v>56</v>
       </c>
+      <c r="BN32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6575,6 +6637,9 @@
       </c>
       <c r="BM33" t="s">
         <v>55</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7142,6 +7207,9 @@
       <c r="BM36" t="s">
         <v>56</v>
       </c>
+      <c r="BN36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7339,6 +7407,9 @@
       <c r="BM37" t="s">
         <v>55</v>
       </c>
+      <c r="BN37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7534,6 +7605,9 @@
         <v>55</v>
       </c>
       <c r="BM38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7875,6 +7949,9 @@
       <c r="BM40" t="s">
         <v>55</v>
       </c>
+      <c r="BN40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8320,6 +8397,9 @@
       <c r="BM43" t="s">
         <v>56</v>
       </c>
+      <c r="BN43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8517,6 +8597,9 @@
       <c r="BM44" t="s">
         <v>55</v>
       </c>
+      <c r="BN44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8714,6 +8797,9 @@
       <c r="BM45" t="s">
         <v>56</v>
       </c>
+      <c r="BN45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8864,6 +8950,9 @@
         <v>56</v>
       </c>
       <c r="BM46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9049,7 +9138,9 @@
       <c r="BM47" t="s">
         <v>55</v>
       </c>
-      <c r="BN47"/>
+      <c r="BN47" t="s">
+        <v>55</v>
+      </c>
       <c r="BO47"/>
       <c r="BP47"/>
       <c r="BQ47"/>
@@ -9230,7 +9321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9426,8 +9517,11 @@
       <c r="BM49" t="s">
         <v>55</v>
       </c>
+      <c r="BN49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9602,8 +9696,11 @@
       <c r="BM50" t="s">
         <v>55</v>
       </c>
+      <c r="BN50" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9797,6 +9894,9 @@
         <v>55</v>
       </c>
       <c r="BM51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BN51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34BAF44-6BF1-406D-8F04-5BAA767A005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B6111-313F-4C31-B946-41F7D3CDDD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN1" sqref="BN1"/>
+      <selection pane="bottomRight" activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,6 +1295,9 @@
       <c r="BN3" t="s">
         <v>56</v>
       </c>
+      <c r="BO3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1495,6 +1498,9 @@
       <c r="BN4" t="s">
         <v>56</v>
       </c>
+      <c r="BO4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1695,6 +1701,9 @@
       <c r="BN5" t="s">
         <v>56</v>
       </c>
+      <c r="BO5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1895,6 +1904,9 @@
       <c r="BN6" t="s">
         <v>55</v>
       </c>
+      <c r="BO6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2095,6 +2107,9 @@
       <c r="BN7" t="s">
         <v>55</v>
       </c>
+      <c r="BO7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2295,6 +2310,9 @@
       <c r="BN8" t="s">
         <v>55</v>
       </c>
+      <c r="BO8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2781,6 +2799,9 @@
       <c r="BN12" t="s">
         <v>55</v>
       </c>
+      <c r="BO12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2981,6 +3002,9 @@
       <c r="BN13" t="s">
         <v>55</v>
       </c>
+      <c r="BO13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3181,6 +3205,9 @@
       <c r="BN14" t="s">
         <v>55</v>
       </c>
+      <c r="BO14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3610,6 +3637,9 @@
       <c r="BN17" t="s">
         <v>55</v>
       </c>
+      <c r="BO17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3810,7 +3840,9 @@
       <c r="BN18" t="s">
         <v>55</v>
       </c>
-      <c r="BO18"/>
+      <c r="BO18" t="s">
+        <v>55</v>
+      </c>
       <c r="BP18"/>
       <c r="BQ18"/>
       <c r="BR18"/>
@@ -4050,7 +4082,9 @@
       <c r="BN19" t="s">
         <v>55</v>
       </c>
-      <c r="BO19"/>
+      <c r="BO19" t="s">
+        <v>55</v>
+      </c>
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
@@ -4298,6 +4332,9 @@
       <c r="BN20" t="s">
         <v>56</v>
       </c>
+      <c r="BO20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4498,6 +4535,9 @@
       <c r="BN21" t="s">
         <v>55</v>
       </c>
+      <c r="BO21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4798,6 +4838,9 @@
       <c r="BN23" t="s">
         <v>55</v>
       </c>
+      <c r="BO23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4947,6 +4990,9 @@
       <c r="BN24" t="s">
         <v>56</v>
       </c>
+      <c r="BO24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5147,6 +5193,9 @@
       <c r="BN25" t="s">
         <v>55</v>
       </c>
+      <c r="BO25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5347,6 +5396,9 @@
       <c r="BN26" t="s">
         <v>55</v>
       </c>
+      <c r="BO26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5547,6 +5599,9 @@
       <c r="BN27" t="s">
         <v>55</v>
       </c>
+      <c r="BO27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5845,7 +5900,9 @@
       <c r="BN29" t="s">
         <v>55</v>
       </c>
-      <c r="BO29"/>
+      <c r="BO29" t="s">
+        <v>55</v>
+      </c>
       <c r="BP29"/>
       <c r="BQ29"/>
       <c r="BR29"/>
@@ -6093,7 +6150,9 @@
       <c r="BN30" t="s">
         <v>55</v>
       </c>
-      <c r="BO30"/>
+      <c r="BO30" t="s">
+        <v>55</v>
+      </c>
       <c r="BP30"/>
       <c r="BQ30"/>
       <c r="BR30"/>
@@ -6441,6 +6500,9 @@
       <c r="BN32" t="s">
         <v>56</v>
       </c>
+      <c r="BO32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6640,6 +6702,9 @@
       </c>
       <c r="BN33" t="s">
         <v>56</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7210,6 +7275,9 @@
       <c r="BN36" t="s">
         <v>55</v>
       </c>
+      <c r="BO36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7410,6 +7478,9 @@
       <c r="BN37" t="s">
         <v>56</v>
       </c>
+      <c r="BO37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7608,6 +7679,9 @@
         <v>55</v>
       </c>
       <c r="BN38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7952,6 +8026,9 @@
       <c r="BN40" t="s">
         <v>55</v>
       </c>
+      <c r="BO40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8400,6 +8477,9 @@
       <c r="BN43" t="s">
         <v>55</v>
       </c>
+      <c r="BO43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8600,6 +8680,9 @@
       <c r="BN44" t="s">
         <v>55</v>
       </c>
+      <c r="BO44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8800,6 +8883,9 @@
       <c r="BN45" t="s">
         <v>55</v>
       </c>
+      <c r="BO45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -8953,6 +9039,9 @@
         <v>55</v>
       </c>
       <c r="BN46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9141,7 +9230,9 @@
       <c r="BN47" t="s">
         <v>55</v>
       </c>
-      <c r="BO47"/>
+      <c r="BO47" t="s">
+        <v>55</v>
+      </c>
       <c r="BP47"/>
       <c r="BQ47"/>
       <c r="BR47"/>
@@ -9321,7 +9412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9520,8 +9611,11 @@
       <c r="BN49" t="s">
         <v>55</v>
       </c>
+      <c r="BO49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9699,8 +9793,11 @@
       <c r="BN50" t="s">
         <v>56</v>
       </c>
+      <c r="BO50" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9897,6 +9994,9 @@
         <v>55</v>
       </c>
       <c r="BN51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B6111-313F-4C31-B946-41F7D3CDDD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D47EE5A-D7A8-4484-B8C9-BBEC5F99C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO1" sqref="BO1"/>
+      <selection pane="bottomRight" activeCell="BP1" sqref="BP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,6 +1298,9 @@
       <c r="BO3" t="s">
         <v>56</v>
       </c>
+      <c r="BP3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1501,6 +1504,9 @@
       <c r="BO4" t="s">
         <v>56</v>
       </c>
+      <c r="BP4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1704,6 +1710,9 @@
       <c r="BO5" t="s">
         <v>56</v>
       </c>
+      <c r="BP5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1907,6 +1916,9 @@
       <c r="BO6" t="s">
         <v>55</v>
       </c>
+      <c r="BP6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2110,6 +2122,9 @@
       <c r="BO7" t="s">
         <v>55</v>
       </c>
+      <c r="BP7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2313,6 +2328,9 @@
       <c r="BO8" t="s">
         <v>55</v>
       </c>
+      <c r="BP8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2802,6 +2820,9 @@
       <c r="BO12" t="s">
         <v>56</v>
       </c>
+      <c r="BP12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3005,6 +3026,9 @@
       <c r="BO13" t="s">
         <v>55</v>
       </c>
+      <c r="BP13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3208,6 +3232,9 @@
       <c r="BO14" t="s">
         <v>55</v>
       </c>
+      <c r="BP14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3640,6 +3667,9 @@
       <c r="BO17" t="s">
         <v>55</v>
       </c>
+      <c r="BP17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3843,7 +3873,9 @@
       <c r="BO18" t="s">
         <v>55</v>
       </c>
-      <c r="BP18"/>
+      <c r="BP18" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ18"/>
       <c r="BR18"/>
       <c r="BS18"/>
@@ -4085,7 +4117,9 @@
       <c r="BO19" t="s">
         <v>55</v>
       </c>
-      <c r="BP19"/>
+      <c r="BP19" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ19"/>
       <c r="BR19"/>
       <c r="BS19"/>
@@ -4335,6 +4369,9 @@
       <c r="BO20" t="s">
         <v>55</v>
       </c>
+      <c r="BP20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4538,6 +4575,9 @@
       <c r="BO21" t="s">
         <v>55</v>
       </c>
+      <c r="BP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4841,6 +4881,9 @@
       <c r="BO23" t="s">
         <v>55</v>
       </c>
+      <c r="BP23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4993,6 +5036,9 @@
       <c r="BO24" t="s">
         <v>55</v>
       </c>
+      <c r="BP24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5196,6 +5242,9 @@
       <c r="BO25" t="s">
         <v>55</v>
       </c>
+      <c r="BP25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5399,6 +5448,9 @@
       <c r="BO26" t="s">
         <v>55</v>
       </c>
+      <c r="BP26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5602,6 +5654,9 @@
       <c r="BO27" t="s">
         <v>55</v>
       </c>
+      <c r="BP27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5903,7 +5958,9 @@
       <c r="BO29" t="s">
         <v>55</v>
       </c>
-      <c r="BP29"/>
+      <c r="BP29" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ29"/>
       <c r="BR29"/>
       <c r="BS29"/>
@@ -6153,7 +6210,9 @@
       <c r="BO30" t="s">
         <v>55</v>
       </c>
-      <c r="BP30"/>
+      <c r="BP30" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ30"/>
       <c r="BR30"/>
       <c r="BS30"/>
@@ -6503,6 +6562,9 @@
       <c r="BO32" t="s">
         <v>55</v>
       </c>
+      <c r="BP32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6704,6 +6766,9 @@
         <v>56</v>
       </c>
       <c r="BO33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7278,6 +7343,9 @@
       <c r="BO36" t="s">
         <v>55</v>
       </c>
+      <c r="BP36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7481,6 +7549,9 @@
       <c r="BO37" t="s">
         <v>55</v>
       </c>
+      <c r="BP37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7683,6 +7754,9 @@
       </c>
       <c r="BO38" t="s">
         <v>55</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8029,6 +8103,9 @@
       <c r="BO40" t="s">
         <v>55</v>
       </c>
+      <c r="BP40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8480,6 +8557,9 @@
       <c r="BO43" t="s">
         <v>55</v>
       </c>
+      <c r="BP43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8683,6 +8763,9 @@
       <c r="BO44" t="s">
         <v>55</v>
       </c>
+      <c r="BP44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8886,6 +8969,9 @@
       <c r="BO45" t="s">
         <v>55</v>
       </c>
+      <c r="BP45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9042,6 +9128,9 @@
         <v>55</v>
       </c>
       <c r="BO46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9233,7 +9322,9 @@
       <c r="BO47" t="s">
         <v>55</v>
       </c>
-      <c r="BP47"/>
+      <c r="BP47" t="s">
+        <v>55</v>
+      </c>
       <c r="BQ47"/>
       <c r="BR47"/>
       <c r="BS47"/>
@@ -9412,7 +9503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9614,8 +9705,11 @@
       <c r="BO49" t="s">
         <v>55</v>
       </c>
+      <c r="BP49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9796,8 +9890,11 @@
       <c r="BO50" t="s">
         <v>56</v>
       </c>
+      <c r="BP50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -9997,6 +10094,9 @@
         <v>55</v>
       </c>
       <c r="BO51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D47EE5A-D7A8-4484-B8C9-BBEC5F99C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306A481-3DDB-4552-9C0B-D43981DC8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP1" sqref="BP1"/>
+      <selection pane="bottomRight" activeCell="BS52" sqref="BS52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1301,8 +1301,14 @@
       <c r="BP3" t="s">
         <v>56</v>
       </c>
+      <c r="BQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1505,6 +1511,12 @@
         <v>56</v>
       </c>
       <c r="BP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1713,6 +1725,15 @@
       <c r="BP5" t="s">
         <v>56</v>
       </c>
+      <c r="BQ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1919,6 +1940,15 @@
       <c r="BP6" t="s">
         <v>55</v>
       </c>
+      <c r="BQ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2125,6 +2155,15 @@
       <c r="BP7" t="s">
         <v>55</v>
       </c>
+      <c r="BQ7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2331,6 +2370,15 @@
       <c r="BP8" t="s">
         <v>55</v>
       </c>
+      <c r="BQ8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2823,6 +2871,15 @@
       <c r="BP12" t="s">
         <v>56</v>
       </c>
+      <c r="BQ12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3029,6 +3086,15 @@
       <c r="BP13" t="s">
         <v>55</v>
       </c>
+      <c r="BQ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3235,6 +3301,15 @@
       <c r="BP14" t="s">
         <v>55</v>
       </c>
+      <c r="BQ14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3670,6 +3745,15 @@
       <c r="BP17" t="s">
         <v>56</v>
       </c>
+      <c r="BQ17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3876,9 +3960,15 @@
       <c r="BP18" t="s">
         <v>55</v>
       </c>
-      <c r="BQ18"/>
-      <c r="BR18"/>
-      <c r="BS18"/>
+      <c r="BQ18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>55</v>
+      </c>
       <c r="BT18"/>
       <c r="BU18"/>
       <c r="BV18"/>
@@ -4120,9 +4210,15 @@
       <c r="BP19" t="s">
         <v>55</v>
       </c>
-      <c r="BQ19"/>
-      <c r="BR19"/>
-      <c r="BS19"/>
+      <c r="BQ19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>55</v>
+      </c>
       <c r="BT19"/>
       <c r="BU19"/>
       <c r="BV19"/>
@@ -4372,6 +4468,15 @@
       <c r="BP20" t="s">
         <v>56</v>
       </c>
+      <c r="BQ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4578,6 +4683,15 @@
       <c r="BP21" t="s">
         <v>55</v>
       </c>
+      <c r="BQ21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4884,6 +4998,15 @@
       <c r="BP23" t="s">
         <v>55</v>
       </c>
+      <c r="BQ23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5039,6 +5162,15 @@
       <c r="BP24" t="s">
         <v>55</v>
       </c>
+      <c r="BQ24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5245,6 +5377,15 @@
       <c r="BP25" t="s">
         <v>55</v>
       </c>
+      <c r="BQ25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5451,6 +5592,15 @@
       <c r="BP26" t="s">
         <v>55</v>
       </c>
+      <c r="BQ26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5657,6 +5807,15 @@
       <c r="BP27" t="s">
         <v>56</v>
       </c>
+      <c r="BQ27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -5961,9 +6120,15 @@
       <c r="BP29" t="s">
         <v>55</v>
       </c>
-      <c r="BQ29"/>
-      <c r="BR29"/>
-      <c r="BS29"/>
+      <c r="BQ29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>55</v>
+      </c>
       <c r="BT29"/>
       <c r="BU29"/>
       <c r="BV29"/>
@@ -6213,9 +6378,15 @@
       <c r="BP30" t="s">
         <v>55</v>
       </c>
-      <c r="BQ30"/>
-      <c r="BR30"/>
-      <c r="BS30"/>
+      <c r="BQ30" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>55</v>
+      </c>
       <c r="BT30"/>
       <c r="BU30"/>
       <c r="BV30"/>
@@ -6565,6 +6736,15 @@
       <c r="BP32" t="s">
         <v>55</v>
       </c>
+      <c r="BQ32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6769,6 +6949,15 @@
         <v>55</v>
       </c>
       <c r="BP33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7346,6 +7535,15 @@
       <c r="BP36" t="s">
         <v>55</v>
       </c>
+      <c r="BQ36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7552,6 +7750,15 @@
       <c r="BP37" t="s">
         <v>56</v>
       </c>
+      <c r="BQ37" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7757,6 +7964,15 @@
       </c>
       <c r="BP38" t="s">
         <v>56</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8106,6 +8322,15 @@
       <c r="BP40" t="s">
         <v>55</v>
       </c>
+      <c r="BQ40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8560,6 +8785,15 @@
       <c r="BP43" t="s">
         <v>56</v>
       </c>
+      <c r="BQ43" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS43" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -8766,6 +9000,15 @@
       <c r="BP44" t="s">
         <v>55</v>
       </c>
+      <c r="BQ44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -8972,6 +9215,15 @@
       <c r="BP45" t="s">
         <v>55</v>
       </c>
+      <c r="BQ45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9131,6 +9383,15 @@
         <v>55</v>
       </c>
       <c r="BP46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9325,9 +9586,15 @@
       <c r="BP47" t="s">
         <v>55</v>
       </c>
-      <c r="BQ47"/>
-      <c r="BR47"/>
-      <c r="BS47"/>
+      <c r="BQ47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>55</v>
+      </c>
       <c r="BT47"/>
       <c r="BU47"/>
       <c r="BV47"/>
@@ -9503,7 +9770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9708,8 +9975,17 @@
       <c r="BP49" t="s">
         <v>55</v>
       </c>
+      <c r="BQ49" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -9893,8 +10169,17 @@
       <c r="BP50" t="s">
         <v>55</v>
       </c>
+      <c r="BQ50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10097,6 +10382,15 @@
         <v>55</v>
       </c>
       <c r="BP51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BS51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10124,7 +10418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306A481-3DDB-4552-9C0B-D43981DC8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B10799-09EB-43D6-8D95-3F2BC39EE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS52" sqref="BS52"/>
+      <selection pane="bottomRight" activeCell="BU26" sqref="BU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5384,7 +5384,7 @@
         <v>56</v>
       </c>
       <c r="BS25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B10799-09EB-43D6-8D95-3F2BC39EE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41255C2E-F579-42DC-BC57-10EBD025619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -281,14 +281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,7 +642,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BU26" sqref="BU26"/>
+      <selection pane="bottomRight" activeCell="BP43" sqref="BP43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -1141,7 +1140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1307,8 +1306,11 @@
       <c r="BR3" t="s">
         <v>56</v>
       </c>
+      <c r="BS3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1517,6 +1519,9 @@
         <v>56</v>
       </c>
       <c r="BR4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8934,52 +8939,52 @@
       <c r="AT44" t="s">
         <v>55</v>
       </c>
-      <c r="AU44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ44" s="6" t="s">
+      <c r="AU44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ44" t="s">
         <v>55</v>
       </c>
       <c r="BK44" t="s">
@@ -9152,49 +9157,49 @@
       <c r="AU45" t="s">
         <v>55</v>
       </c>
-      <c r="AV45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ45" s="6" t="s">
+      <c r="AV45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ45" t="s">
         <v>55</v>
       </c>
       <c r="BK45" t="s">
@@ -9322,49 +9327,49 @@
       <c r="AU46" t="s">
         <v>56</v>
       </c>
-      <c r="AV46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ46" s="6" t="s">
+      <c r="AV46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ46" t="s">
         <v>55</v>
       </c>
       <c r="BK46" t="s">
@@ -9523,49 +9528,49 @@
       <c r="AU47" t="s">
         <v>55</v>
       </c>
-      <c r="AV47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ47" s="6" t="s">
+      <c r="AV47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ47" t="s">
         <v>55</v>
       </c>
       <c r="BK47" t="s">
@@ -10285,7 +10290,7 @@
       <c r="AI51" t="s">
         <v>55</v>
       </c>
-      <c r="AJ51" s="6" t="s">
+      <c r="AJ51" t="s">
         <v>55</v>
       </c>
       <c r="AK51" t="s">
@@ -10490,7 +10495,7 @@
       <c r="B8">
         <v>40</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>90</v>
       </c>
     </row>
@@ -10501,7 +10506,7 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>80</v>
       </c>
     </row>
@@ -10578,7 +10583,6 @@
       <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -10745,7 +10749,7 @@
       <c r="B39">
         <v>20</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>70</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41255C2E-F579-42DC-BC57-10EBD025619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B7EE7-FF07-4EDD-B44E-6C3F254386CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -642,7 +642,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP43" sqref="BP43"/>
+      <selection pane="bottomRight" activeCell="BT49" sqref="BT49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1309,9 @@
       <c r="BS3" t="s">
         <v>56</v>
       </c>
+      <c r="BT3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1524,6 +1527,9 @@
       <c r="BS4" t="s">
         <v>56</v>
       </c>
+      <c r="BT4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1739,6 +1745,9 @@
       <c r="BS5" t="s">
         <v>56</v>
       </c>
+      <c r="BT5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1954,6 +1963,9 @@
       <c r="BS6" t="s">
         <v>56</v>
       </c>
+      <c r="BT6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2169,6 +2181,9 @@
       <c r="BS7" t="s">
         <v>55</v>
       </c>
+      <c r="BT7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2384,6 +2399,9 @@
       <c r="BS8" t="s">
         <v>55</v>
       </c>
+      <c r="BT8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2885,6 +2903,9 @@
       <c r="BS12" t="s">
         <v>55</v>
       </c>
+      <c r="BT12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3100,6 +3121,9 @@
       <c r="BS13" t="s">
         <v>55</v>
       </c>
+      <c r="BT13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3315,6 +3339,9 @@
       <c r="BS14" t="s">
         <v>55</v>
       </c>
+      <c r="BT14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3759,6 +3786,9 @@
       <c r="BS17" t="s">
         <v>55</v>
       </c>
+      <c r="BT17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3974,7 +4004,9 @@
       <c r="BS18" t="s">
         <v>55</v>
       </c>
-      <c r="BT18"/>
+      <c r="BT18" t="s">
+        <v>55</v>
+      </c>
       <c r="BU18"/>
       <c r="BV18"/>
       <c r="BW18"/>
@@ -4224,7 +4256,9 @@
       <c r="BS19" t="s">
         <v>55</v>
       </c>
-      <c r="BT19"/>
+      <c r="BT19" t="s">
+        <v>55</v>
+      </c>
       <c r="BU19"/>
       <c r="BV19"/>
       <c r="BW19"/>
@@ -4482,6 +4516,9 @@
       <c r="BS20" t="s">
         <v>56</v>
       </c>
+      <c r="BT20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4697,6 +4734,9 @@
       <c r="BS21" t="s">
         <v>55</v>
       </c>
+      <c r="BT21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5012,6 +5052,9 @@
       <c r="BS23" t="s">
         <v>55</v>
       </c>
+      <c r="BT23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5176,6 +5219,9 @@
       <c r="BS24" t="s">
         <v>56</v>
       </c>
+      <c r="BT24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5391,6 +5437,9 @@
       <c r="BS25" t="s">
         <v>55</v>
       </c>
+      <c r="BT25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5606,6 +5655,9 @@
       <c r="BS26" t="s">
         <v>55</v>
       </c>
+      <c r="BT26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5821,6 +5873,9 @@
       <c r="BS27" t="s">
         <v>55</v>
       </c>
+      <c r="BT27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6134,7 +6189,9 @@
       <c r="BS29" t="s">
         <v>55</v>
       </c>
-      <c r="BT29"/>
+      <c r="BT29" t="s">
+        <v>55</v>
+      </c>
       <c r="BU29"/>
       <c r="BV29"/>
       <c r="BW29"/>
@@ -6392,7 +6449,9 @@
       <c r="BS30" t="s">
         <v>55</v>
       </c>
-      <c r="BT30"/>
+      <c r="BT30" t="s">
+        <v>55</v>
+      </c>
       <c r="BU30"/>
       <c r="BV30"/>
       <c r="BW30"/>
@@ -6750,6 +6809,9 @@
       <c r="BS32" t="s">
         <v>55</v>
       </c>
+      <c r="BT32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6963,6 +7025,9 @@
         <v>55</v>
       </c>
       <c r="BS33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7549,6 +7614,9 @@
       <c r="BS36" t="s">
         <v>55</v>
       </c>
+      <c r="BT36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7764,6 +7832,9 @@
       <c r="BS37" t="s">
         <v>56</v>
       </c>
+      <c r="BT37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7977,6 +8048,9 @@
         <v>56</v>
       </c>
       <c r="BS38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8336,6 +8410,9 @@
       <c r="BS40" t="s">
         <v>55</v>
       </c>
+      <c r="BT40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8799,6 +8876,9 @@
       <c r="BS43" t="s">
         <v>55</v>
       </c>
+      <c r="BT43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9014,6 +9094,9 @@
       <c r="BS44" t="s">
         <v>55</v>
       </c>
+      <c r="BT44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9229,6 +9312,9 @@
       <c r="BS45" t="s">
         <v>55</v>
       </c>
+      <c r="BT45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9397,6 +9483,9 @@
         <v>55</v>
       </c>
       <c r="BS46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9600,7 +9689,9 @@
       <c r="BS47" t="s">
         <v>55</v>
       </c>
-      <c r="BT47"/>
+      <c r="BT47" t="s">
+        <v>55</v>
+      </c>
       <c r="BU47"/>
       <c r="BV47"/>
       <c r="BW47"/>
@@ -9775,7 +9866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -9989,8 +10080,11 @@
       <c r="BS49" t="s">
         <v>55</v>
       </c>
+      <c r="BT49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10183,8 +10277,11 @@
       <c r="BS50" t="s">
         <v>55</v>
       </c>
+      <c r="BT50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10396,6 +10493,9 @@
         <v>55</v>
       </c>
       <c r="BS51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0B7EE7-FF07-4EDD-B44E-6C3F254386CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B3893-0B13-4A34-AC57-789AB8A1F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -291,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BT49" sqref="BT49"/>
+      <selection pane="bottomRight" activeCell="BV43" sqref="BV43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1313,12 @@
       <c r="BT3" t="s">
         <v>56</v>
       </c>
+      <c r="BU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1530,6 +1537,12 @@
       <c r="BT4" t="s">
         <v>56</v>
       </c>
+      <c r="BU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1748,6 +1761,12 @@
       <c r="BT5" t="s">
         <v>55</v>
       </c>
+      <c r="BU5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1966,6 +1985,12 @@
       <c r="BT6" t="s">
         <v>55</v>
       </c>
+      <c r="BU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2184,6 +2209,12 @@
       <c r="BT7" t="s">
         <v>55</v>
       </c>
+      <c r="BU7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2402,6 +2433,12 @@
       <c r="BT8" t="s">
         <v>55</v>
       </c>
+      <c r="BU8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2906,6 +2943,12 @@
       <c r="BT12" t="s">
         <v>55</v>
       </c>
+      <c r="BU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3124,6 +3167,12 @@
       <c r="BT13" t="s">
         <v>55</v>
       </c>
+      <c r="BU13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3342,6 +3391,12 @@
       <c r="BT14" t="s">
         <v>56</v>
       </c>
+      <c r="BU14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3789,6 +3844,12 @@
       <c r="BT17" t="s">
         <v>55</v>
       </c>
+      <c r="BU17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4007,8 +4068,12 @@
       <c r="BT18" t="s">
         <v>55</v>
       </c>
-      <c r="BU18"/>
-      <c r="BV18"/>
+      <c r="BU18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>55</v>
+      </c>
       <c r="BW18"/>
       <c r="BX18"/>
       <c r="BY18"/>
@@ -4259,8 +4324,12 @@
       <c r="BT19" t="s">
         <v>55</v>
       </c>
-      <c r="BU19"/>
-      <c r="BV19"/>
+      <c r="BU19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>55</v>
+      </c>
       <c r="BW19"/>
       <c r="BX19"/>
       <c r="BY19"/>
@@ -4519,6 +4588,12 @@
       <c r="BT20" t="s">
         <v>55</v>
       </c>
+      <c r="BU20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4737,6 +4812,12 @@
       <c r="BT21" t="s">
         <v>55</v>
       </c>
+      <c r="BU21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5055,6 +5136,12 @@
       <c r="BT23" t="s">
         <v>55</v>
       </c>
+      <c r="BU23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5222,6 +5309,12 @@
       <c r="BT24" t="s">
         <v>55</v>
       </c>
+      <c r="BU24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5440,6 +5533,12 @@
       <c r="BT25" t="s">
         <v>55</v>
       </c>
+      <c r="BU25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5658,6 +5757,12 @@
       <c r="BT26" t="s">
         <v>55</v>
       </c>
+      <c r="BU26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5876,6 +5981,12 @@
       <c r="BT27" t="s">
         <v>55</v>
       </c>
+      <c r="BU27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6192,8 +6303,12 @@
       <c r="BT29" t="s">
         <v>55</v>
       </c>
-      <c r="BU29"/>
-      <c r="BV29"/>
+      <c r="BU29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>55</v>
+      </c>
       <c r="BW29"/>
       <c r="BX29"/>
       <c r="BY29"/>
@@ -6452,8 +6567,12 @@
       <c r="BT30" t="s">
         <v>55</v>
       </c>
-      <c r="BU30"/>
-      <c r="BV30"/>
+      <c r="BU30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>55</v>
+      </c>
       <c r="BW30"/>
       <c r="BX30"/>
       <c r="BY30"/>
@@ -6812,6 +6931,12 @@
       <c r="BT32" t="s">
         <v>55</v>
       </c>
+      <c r="BU32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7028,6 +7153,12 @@
         <v>55</v>
       </c>
       <c r="BT33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7617,6 +7748,12 @@
       <c r="BT36" t="s">
         <v>55</v>
       </c>
+      <c r="BU36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7835,6 +7972,12 @@
       <c r="BT37" t="s">
         <v>55</v>
       </c>
+      <c r="BU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8051,6 +8194,12 @@
         <v>55</v>
       </c>
       <c r="BT38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8413,6 +8562,12 @@
       <c r="BT40" t="s">
         <v>56</v>
       </c>
+      <c r="BU40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8879,6 +9034,12 @@
       <c r="BT43" t="s">
         <v>56</v>
       </c>
+      <c r="BU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV43" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9097,6 +9258,12 @@
       <c r="BT44" t="s">
         <v>55</v>
       </c>
+      <c r="BU44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9315,6 +9482,12 @@
       <c r="BT45" t="s">
         <v>55</v>
       </c>
+      <c r="BU45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9486,6 +9659,12 @@
         <v>55</v>
       </c>
       <c r="BT46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9692,8 +9871,12 @@
       <c r="BT47" t="s">
         <v>55</v>
       </c>
-      <c r="BU47"/>
-      <c r="BV47"/>
+      <c r="BU47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>56</v>
+      </c>
       <c r="BW47"/>
       <c r="BX47"/>
       <c r="BY47"/>
@@ -9866,7 +10049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10083,8 +10266,14 @@
       <c r="BT49" t="s">
         <v>55</v>
       </c>
+      <c r="BU49" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10280,8 +10469,14 @@
       <c r="BT50" t="s">
         <v>55</v>
       </c>
+      <c r="BU50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10496,6 +10691,12 @@
         <v>55</v>
       </c>
       <c r="BT51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BU51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B3893-0B13-4A34-AC57-789AB8A1F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC7690-CBAC-4E4F-AD1B-BDFF6AB677AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -288,10 +288,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BV43" sqref="BV43"/>
+      <selection pane="bottomRight" activeCell="BW50" sqref="BW50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,10 +660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -1319,6 +1319,9 @@
       <c r="BV3" t="s">
         <v>56</v>
       </c>
+      <c r="BW3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1543,6 +1546,9 @@
       <c r="BV4" t="s">
         <v>56</v>
       </c>
+      <c r="BW4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1767,6 +1773,9 @@
       <c r="BV5" t="s">
         <v>55</v>
       </c>
+      <c r="BW5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1991,6 +2000,9 @@
       <c r="BV6" t="s">
         <v>55</v>
       </c>
+      <c r="BW6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2215,6 +2227,9 @@
       <c r="BV7" t="s">
         <v>55</v>
       </c>
+      <c r="BW7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2439,6 +2454,9 @@
       <c r="BV8" t="s">
         <v>55</v>
       </c>
+      <c r="BW8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2949,6 +2967,9 @@
       <c r="BV12" t="s">
         <v>55</v>
       </c>
+      <c r="BW12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3173,6 +3194,9 @@
       <c r="BV13" t="s">
         <v>55</v>
       </c>
+      <c r="BW13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3397,6 +3421,9 @@
       <c r="BV14" t="s">
         <v>55</v>
       </c>
+      <c r="BW14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3850,6 +3877,9 @@
       <c r="BV17" t="s">
         <v>55</v>
       </c>
+      <c r="BW17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4074,7 +4104,9 @@
       <c r="BV18" t="s">
         <v>55</v>
       </c>
-      <c r="BW18"/>
+      <c r="BW18" t="s">
+        <v>55</v>
+      </c>
       <c r="BX18"/>
       <c r="BY18"/>
       <c r="BZ18"/>
@@ -4330,7 +4362,9 @@
       <c r="BV19" t="s">
         <v>55</v>
       </c>
-      <c r="BW19"/>
+      <c r="BW19" t="s">
+        <v>55</v>
+      </c>
       <c r="BX19"/>
       <c r="BY19"/>
       <c r="BZ19"/>
@@ -4594,6 +4628,9 @@
       <c r="BV20" t="s">
         <v>55</v>
       </c>
+      <c r="BW20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4818,6 +4855,9 @@
       <c r="BV21" t="s">
         <v>55</v>
       </c>
+      <c r="BW21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5142,6 +5182,9 @@
       <c r="BV23" t="s">
         <v>55</v>
       </c>
+      <c r="BW23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5315,6 +5358,9 @@
       <c r="BV24" t="s">
         <v>55</v>
       </c>
+      <c r="BW24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5539,6 +5585,9 @@
       <c r="BV25" t="s">
         <v>55</v>
       </c>
+      <c r="BW25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5763,6 +5812,9 @@
       <c r="BV26" t="s">
         <v>55</v>
       </c>
+      <c r="BW26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5987,6 +6039,9 @@
       <c r="BV27" t="s">
         <v>55</v>
       </c>
+      <c r="BW27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6309,7 +6364,9 @@
       <c r="BV29" t="s">
         <v>55</v>
       </c>
-      <c r="BW29"/>
+      <c r="BW29" t="s">
+        <v>55</v>
+      </c>
       <c r="BX29"/>
       <c r="BY29"/>
       <c r="BZ29"/>
@@ -6573,7 +6630,9 @@
       <c r="BV30" t="s">
         <v>55</v>
       </c>
-      <c r="BW30"/>
+      <c r="BW30" t="s">
+        <v>56</v>
+      </c>
       <c r="BX30"/>
       <c r="BY30"/>
       <c r="BZ30"/>
@@ -6937,6 +6996,9 @@
       <c r="BV32" t="s">
         <v>55</v>
       </c>
+      <c r="BW32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7159,6 +7221,9 @@
         <v>55</v>
       </c>
       <c r="BV33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7754,6 +7819,9 @@
       <c r="BV36" t="s">
         <v>55</v>
       </c>
+      <c r="BW36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7978,6 +8046,9 @@
       <c r="BV37" t="s">
         <v>56</v>
       </c>
+      <c r="BW37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8200,6 +8271,9 @@
         <v>55</v>
       </c>
       <c r="BV38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8568,6 +8642,9 @@
       <c r="BV40" t="s">
         <v>55</v>
       </c>
+      <c r="BW40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9037,7 +9114,10 @@
       <c r="BU43" t="s">
         <v>56</v>
       </c>
-      <c r="BV43" s="7" t="s">
+      <c r="BV43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW43" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9264,6 +9344,9 @@
       <c r="BV44" t="s">
         <v>55</v>
       </c>
+      <c r="BW44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9488,6 +9571,9 @@
       <c r="BV45" t="s">
         <v>55</v>
       </c>
+      <c r="BW45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9665,6 +9751,9 @@
         <v>56</v>
       </c>
       <c r="BV46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9877,7 +9966,9 @@
       <c r="BV47" t="s">
         <v>56</v>
       </c>
-      <c r="BW47"/>
+      <c r="BW47" t="s">
+        <v>55</v>
+      </c>
       <c r="BX47"/>
       <c r="BY47"/>
       <c r="BZ47"/>
@@ -10049,7 +10140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10272,8 +10363,11 @@
       <c r="BV49" t="s">
         <v>55</v>
       </c>
+      <c r="BW49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10475,8 +10569,11 @@
       <c r="BV50" t="s">
         <v>55</v>
       </c>
+      <c r="BW50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10697,6 +10794,9 @@
         <v>55</v>
       </c>
       <c r="BV51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC7690-CBAC-4E4F-AD1B-BDFF6AB677AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA72DB-DE8C-4A53-B4FC-76FE747AD1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW50" sqref="BW50"/>
+      <selection pane="bottomRight" activeCell="BX29" sqref="BX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,6 +1322,9 @@
       <c r="BW3" t="s">
         <v>56</v>
       </c>
+      <c r="BX3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1549,6 +1552,9 @@
       <c r="BW4" t="s">
         <v>56</v>
       </c>
+      <c r="BX4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1776,6 +1782,9 @@
       <c r="BW5" t="s">
         <v>55</v>
       </c>
+      <c r="BX5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2003,6 +2012,9 @@
       <c r="BW6" t="s">
         <v>55</v>
       </c>
+      <c r="BX6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2230,6 +2242,9 @@
       <c r="BW7" t="s">
         <v>55</v>
       </c>
+      <c r="BX7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2457,6 +2472,9 @@
       <c r="BW8" t="s">
         <v>55</v>
       </c>
+      <c r="BX8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2970,6 +2988,9 @@
       <c r="BW12" t="s">
         <v>55</v>
       </c>
+      <c r="BX12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3197,6 +3218,9 @@
       <c r="BW13" t="s">
         <v>55</v>
       </c>
+      <c r="BX13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3424,6 +3448,9 @@
       <c r="BW14" t="s">
         <v>56</v>
       </c>
+      <c r="BX14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3880,6 +3907,9 @@
       <c r="BW17" t="s">
         <v>55</v>
       </c>
+      <c r="BX17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4107,7 +4137,9 @@
       <c r="BW18" t="s">
         <v>55</v>
       </c>
-      <c r="BX18"/>
+      <c r="BX18" t="s">
+        <v>55</v>
+      </c>
       <c r="BY18"/>
       <c r="BZ18"/>
       <c r="CA18"/>
@@ -4365,7 +4397,9 @@
       <c r="BW19" t="s">
         <v>55</v>
       </c>
-      <c r="BX19"/>
+      <c r="BX19" t="s">
+        <v>55</v>
+      </c>
       <c r="BY19"/>
       <c r="BZ19"/>
       <c r="CA19"/>
@@ -4631,6 +4665,9 @@
       <c r="BW20" t="s">
         <v>55</v>
       </c>
+      <c r="BX20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4858,6 +4895,9 @@
       <c r="BW21" t="s">
         <v>55</v>
       </c>
+      <c r="BX21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5185,6 +5225,9 @@
       <c r="BW23" t="s">
         <v>55</v>
       </c>
+      <c r="BX23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5361,6 +5404,9 @@
       <c r="BW24" t="s">
         <v>56</v>
       </c>
+      <c r="BX24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5588,6 +5634,9 @@
       <c r="BW25" t="s">
         <v>55</v>
       </c>
+      <c r="BX25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5815,6 +5864,9 @@
       <c r="BW26" t="s">
         <v>55</v>
       </c>
+      <c r="BX26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6042,6 +6094,9 @@
       <c r="BW27" t="s">
         <v>55</v>
       </c>
+      <c r="BX27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6367,7 +6422,9 @@
       <c r="BW29" t="s">
         <v>55</v>
       </c>
-      <c r="BX29"/>
+      <c r="BX29" t="s">
+        <v>55</v>
+      </c>
       <c r="BY29"/>
       <c r="BZ29"/>
       <c r="CA29"/>
@@ -6633,7 +6690,9 @@
       <c r="BW30" t="s">
         <v>56</v>
       </c>
-      <c r="BX30"/>
+      <c r="BX30" t="s">
+        <v>55</v>
+      </c>
       <c r="BY30"/>
       <c r="BZ30"/>
       <c r="CA30"/>
@@ -6999,6 +7058,9 @@
       <c r="BW32" t="s">
         <v>55</v>
       </c>
+      <c r="BX32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7225,6 +7287,9 @@
       </c>
       <c r="BW33" t="s">
         <v>55</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7822,6 +7887,9 @@
       <c r="BW36" t="s">
         <v>55</v>
       </c>
+      <c r="BX36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8049,6 +8117,9 @@
       <c r="BW37" t="s">
         <v>56</v>
       </c>
+      <c r="BX37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8274,6 +8345,9 @@
         <v>55</v>
       </c>
       <c r="BW38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8645,6 +8719,9 @@
       <c r="BW40" t="s">
         <v>55</v>
       </c>
+      <c r="BX40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9120,6 +9197,9 @@
       <c r="BW43" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="BX43" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9347,6 +9427,9 @@
       <c r="BW44" t="s">
         <v>55</v>
       </c>
+      <c r="BX44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9574,6 +9657,9 @@
       <c r="BW45" t="s">
         <v>55</v>
       </c>
+      <c r="BX45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9755,6 +9841,9 @@
       </c>
       <c r="BW46" t="s">
         <v>55</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9969,7 +10058,9 @@
       <c r="BW47" t="s">
         <v>55</v>
       </c>
-      <c r="BX47"/>
+      <c r="BX47" t="s">
+        <v>55</v>
+      </c>
       <c r="BY47"/>
       <c r="BZ47"/>
       <c r="CA47"/>
@@ -10140,7 +10231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10366,8 +10457,11 @@
       <c r="BW49" t="s">
         <v>55</v>
       </c>
+      <c r="BX49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10572,8 +10666,11 @@
       <c r="BW50" t="s">
         <v>55</v>
       </c>
+      <c r="BX50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10797,6 +10894,9 @@
         <v>55</v>
       </c>
       <c r="BW51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA72DB-DE8C-4A53-B4FC-76FE747AD1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9B17B-F58C-4CFB-8513-6E56050661BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX29" sqref="BX29"/>
+      <selection pane="bottomRight" activeCell="CA20" sqref="CA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,10 +656,10 @@
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="55" width="6.5703125" customWidth="1"/>
     <col min="56" max="65" width="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="80" width="7" customWidth="1"/>
+    <col min="66" max="95" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -898,8 +898,53 @@
       <c r="CB1" s="2">
         <v>44869</v>
       </c>
+      <c r="CC1" s="2">
+        <v>44872</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>44873</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>44874</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>44875</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>44876</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>44879</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>44880</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>44881</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>44882</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>44883</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>44886</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>44887</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>44888</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>44889</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>44890</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1140,8 +1185,53 @@
       <c r="CB2" t="s">
         <v>43</v>
       </c>
+      <c r="CC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1325,8 +1415,17 @@
       <c r="BX3" t="s">
         <v>56</v>
       </c>
+      <c r="BY3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1555,8 +1654,17 @@
       <c r="BX4" t="s">
         <v>56</v>
       </c>
+      <c r="BY4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1785,8 +1893,17 @@
       <c r="BX5" t="s">
         <v>55</v>
       </c>
+      <c r="BY5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2015,8 +2132,17 @@
       <c r="BX6" t="s">
         <v>55</v>
       </c>
+      <c r="BY6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2371,17 @@
       <c r="BX7" t="s">
         <v>55</v>
       </c>
+      <c r="BY7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2475,8 +2610,17 @@
       <c r="BX8" t="s">
         <v>55</v>
       </c>
+      <c r="BY8" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -2575,8 +2719,11 @@
       <c r="BK9" t="s">
         <v>58</v>
       </c>
+      <c r="BZ9" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -2661,8 +2808,11 @@
       <c r="BK10" t="s">
         <v>58</v>
       </c>
+      <c r="BZ10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -2761,8 +2911,11 @@
       <c r="BK11" t="s">
         <v>58</v>
       </c>
+      <c r="BZ11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2991,8 +3144,17 @@
       <c r="BX12" t="s">
         <v>55</v>
       </c>
+      <c r="BY12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3221,8 +3383,17 @@
       <c r="BX13" t="s">
         <v>55</v>
       </c>
+      <c r="BY13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3451,8 +3622,17 @@
       <c r="BX14" t="s">
         <v>56</v>
       </c>
+      <c r="BY14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3564,8 +3744,11 @@
       <c r="BK15" t="s">
         <v>58</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3678,6 +3861,9 @@
         <v>58</v>
       </c>
       <c r="BK16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3910,6 +4096,15 @@
       <c r="BX17" t="s">
         <v>55</v>
       </c>
+      <c r="BY17" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4140,9 +4335,15 @@
       <c r="BX18" t="s">
         <v>55</v>
       </c>
-      <c r="BY18"/>
-      <c r="BZ18"/>
-      <c r="CA18"/>
+      <c r="BY18" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>55</v>
+      </c>
       <c r="CB18"/>
       <c r="CC18"/>
       <c r="CD18"/>
@@ -4400,9 +4601,15 @@
       <c r="BX19" t="s">
         <v>55</v>
       </c>
-      <c r="BY19"/>
-      <c r="BZ19"/>
-      <c r="CA19"/>
+      <c r="BY19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>55</v>
+      </c>
       <c r="CB19"/>
       <c r="CC19"/>
       <c r="CD19"/>
@@ -4668,6 +4875,15 @@
       <c r="BX20" t="s">
         <v>55</v>
       </c>
+      <c r="BY20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4898,6 +5114,15 @@
       <c r="BX21" t="s">
         <v>55</v>
       </c>
+      <c r="BY21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4998,6 +5223,9 @@
       <c r="BK22" t="s">
         <v>58</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5228,6 +5456,15 @@
       <c r="BX23" t="s">
         <v>55</v>
       </c>
+      <c r="BY23" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5407,6 +5644,15 @@
       <c r="BX24" t="s">
         <v>55</v>
       </c>
+      <c r="BY24" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5637,6 +5883,15 @@
       <c r="BX25" t="s">
         <v>56</v>
       </c>
+      <c r="BY25" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -5867,6 +6122,15 @@
       <c r="BX26" t="s">
         <v>55</v>
       </c>
+      <c r="BY26" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6097,6 +6361,15 @@
       <c r="BX27" t="s">
         <v>55</v>
       </c>
+      <c r="BY27" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6195,6 +6468,9 @@
       <c r="BK28" t="s">
         <v>58</v>
       </c>
+      <c r="BZ28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6425,9 +6701,15 @@
       <c r="BX29" t="s">
         <v>55</v>
       </c>
-      <c r="BY29"/>
-      <c r="BZ29"/>
-      <c r="CA29"/>
+      <c r="BY29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>55</v>
+      </c>
       <c r="CB29"/>
       <c r="CC29"/>
       <c r="CD29"/>
@@ -6693,9 +6975,15 @@
       <c r="BX30" t="s">
         <v>55</v>
       </c>
-      <c r="BY30"/>
-      <c r="BZ30"/>
-      <c r="CA30"/>
+      <c r="BY30" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>55</v>
+      </c>
       <c r="CB30"/>
       <c r="CC30"/>
       <c r="CD30"/>
@@ -6831,6 +7119,9 @@
       <c r="BK31" t="s">
         <v>58</v>
       </c>
+      <c r="BZ31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7061,6 +7352,15 @@
       <c r="BX32" t="s">
         <v>55</v>
       </c>
+      <c r="BY32" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7290,6 +7590,15 @@
       </c>
       <c r="BX33" t="s">
         <v>56</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -7429,7 +7738,9 @@
       <c r="BW34"/>
       <c r="BX34"/>
       <c r="BY34"/>
-      <c r="BZ34"/>
+      <c r="BZ34" t="s">
+        <v>58</v>
+      </c>
       <c r="CA34"/>
       <c r="CB34"/>
       <c r="CC34"/>
@@ -7660,6 +7971,9 @@
       <c r="BL35" t="s">
         <v>56</v>
       </c>
+      <c r="BZ35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -7890,6 +8204,15 @@
       <c r="BX36" t="s">
         <v>55</v>
       </c>
+      <c r="BY36" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8120,6 +8443,15 @@
       <c r="BX37" t="s">
         <v>56</v>
       </c>
+      <c r="BY37" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8348,6 +8680,15 @@
         <v>55</v>
       </c>
       <c r="BX38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8455,7 +8796,9 @@
       <c r="BW39"/>
       <c r="BX39"/>
       <c r="BY39"/>
-      <c r="BZ39"/>
+      <c r="BZ39" t="s">
+        <v>58</v>
+      </c>
       <c r="CA39"/>
       <c r="CB39"/>
       <c r="CC39"/>
@@ -8722,6 +9065,15 @@
       <c r="BX40" t="s">
         <v>55</v>
       </c>
+      <c r="BY40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8860,7 +9212,9 @@
       <c r="BW41"/>
       <c r="BX41"/>
       <c r="BY41"/>
-      <c r="BZ41"/>
+      <c r="BZ41" t="s">
+        <v>58</v>
+      </c>
       <c r="CA41"/>
       <c r="CB41"/>
       <c r="CC41"/>
@@ -8997,6 +9351,9 @@
       <c r="BK42" t="s">
         <v>58</v>
       </c>
+      <c r="BZ42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -9200,6 +9557,15 @@
       <c r="BX43" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="BY43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ43" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9430,6 +9796,15 @@
       <c r="BX44" t="s">
         <v>55</v>
       </c>
+      <c r="BY44" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -9660,6 +10035,15 @@
       <c r="BX45" t="s">
         <v>55</v>
       </c>
+      <c r="BY45" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -9843,6 +10227,15 @@
         <v>55</v>
       </c>
       <c r="BX46" t="s">
+        <v>56</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10061,9 +10454,15 @@
       <c r="BX47" t="s">
         <v>55</v>
       </c>
-      <c r="BY47"/>
-      <c r="BZ47"/>
-      <c r="CA47"/>
+      <c r="BY47" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>55</v>
+      </c>
       <c r="CB47"/>
       <c r="CC47"/>
       <c r="CD47"/>
@@ -10230,8 +10629,11 @@
       <c r="BK48" t="s">
         <v>58</v>
       </c>
+      <c r="BZ48" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="49" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10460,8 +10862,17 @@
       <c r="BX49" t="s">
         <v>55</v>
       </c>
+      <c r="BY49" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -10669,8 +11080,17 @@
       <c r="BX50" t="s">
         <v>55</v>
       </c>
+      <c r="BY50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -10897,6 +11317,15 @@
         <v>55</v>
       </c>
       <c r="BX51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ51" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9B17B-F58C-4CFB-8513-6E56050661BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3A15A-298E-47AD-BA80-F900C58948FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CA20" sqref="CA20"/>
+      <selection pane="bottomRight" activeCell="CD24" sqref="CD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,6 +1424,9 @@
       <c r="CA3" t="s">
         <v>56</v>
       </c>
+      <c r="CB3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1663,6 +1666,9 @@
       <c r="CA4" t="s">
         <v>56</v>
       </c>
+      <c r="CB4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1902,6 +1908,9 @@
       <c r="CA5" t="s">
         <v>55</v>
       </c>
+      <c r="CB5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2141,6 +2150,9 @@
       <c r="CA6" t="s">
         <v>55</v>
       </c>
+      <c r="CB6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2380,6 +2392,9 @@
       <c r="CA7" t="s">
         <v>55</v>
       </c>
+      <c r="CB7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2619,6 +2634,9 @@
       <c r="CA8" t="s">
         <v>55</v>
       </c>
+      <c r="CB8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3153,6 +3171,9 @@
       <c r="CA12" t="s">
         <v>55</v>
       </c>
+      <c r="CB12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3392,6 +3413,9 @@
       <c r="CA13" t="s">
         <v>55</v>
       </c>
+      <c r="CB13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3631,6 +3655,9 @@
       <c r="CA14" t="s">
         <v>56</v>
       </c>
+      <c r="CB14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4105,6 +4132,9 @@
       <c r="CA17" t="s">
         <v>55</v>
       </c>
+      <c r="CB17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4344,7 +4374,9 @@
       <c r="CA18" t="s">
         <v>55</v>
       </c>
-      <c r="CB18"/>
+      <c r="CB18" t="s">
+        <v>55</v>
+      </c>
       <c r="CC18"/>
       <c r="CD18"/>
       <c r="CE18"/>
@@ -4610,7 +4642,9 @@
       <c r="CA19" t="s">
         <v>55</v>
       </c>
-      <c r="CB19"/>
+      <c r="CB19" t="s">
+        <v>55</v>
+      </c>
       <c r="CC19"/>
       <c r="CD19"/>
       <c r="CE19"/>
@@ -4884,6 +4918,9 @@
       <c r="CA20" t="s">
         <v>55</v>
       </c>
+      <c r="CB20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5123,6 +5160,9 @@
       <c r="CA21" t="s">
         <v>55</v>
       </c>
+      <c r="CB21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5465,6 +5505,9 @@
       <c r="CA23" t="s">
         <v>55</v>
       </c>
+      <c r="CB23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5653,6 +5696,9 @@
       <c r="CA24" t="s">
         <v>56</v>
       </c>
+      <c r="CB24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5892,6 +5938,9 @@
       <c r="CA25" t="s">
         <v>55</v>
       </c>
+      <c r="CB25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6131,6 +6180,9 @@
       <c r="CA26" t="s">
         <v>55</v>
       </c>
+      <c r="CB26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6370,6 +6422,9 @@
       <c r="CA27" t="s">
         <v>55</v>
       </c>
+      <c r="CB27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6710,7 +6765,9 @@
       <c r="CA29" t="s">
         <v>55</v>
       </c>
-      <c r="CB29"/>
+      <c r="CB29" t="s">
+        <v>55</v>
+      </c>
       <c r="CC29"/>
       <c r="CD29"/>
       <c r="CE29"/>
@@ -6984,7 +7041,9 @@
       <c r="CA30" t="s">
         <v>55</v>
       </c>
-      <c r="CB30"/>
+      <c r="CB30" t="s">
+        <v>55</v>
+      </c>
       <c r="CC30"/>
       <c r="CD30"/>
       <c r="CE30"/>
@@ -7361,6 +7420,9 @@
       <c r="CA32" t="s">
         <v>55</v>
       </c>
+      <c r="CB32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7598,6 +7660,9 @@
         <v>58</v>
       </c>
       <c r="CA33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8213,6 +8278,9 @@
       <c r="CA36" t="s">
         <v>55</v>
       </c>
+      <c r="CB36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8452,6 +8520,9 @@
       <c r="CA37" t="s">
         <v>56</v>
       </c>
+      <c r="CB37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8689,6 +8760,9 @@
         <v>58</v>
       </c>
       <c r="CA38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9074,6 +9148,9 @@
       <c r="CA40" t="s">
         <v>55</v>
       </c>
+      <c r="CB40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9566,6 +9643,9 @@
       <c r="CA43" t="s">
         <v>56</v>
       </c>
+      <c r="CB43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9805,6 +9885,9 @@
       <c r="CA44" t="s">
         <v>55</v>
       </c>
+      <c r="CB44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10044,6 +10127,9 @@
       <c r="CA45" t="s">
         <v>56</v>
       </c>
+      <c r="CB45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10236,6 +10322,9 @@
         <v>58</v>
       </c>
       <c r="CA46" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10463,7 +10552,9 @@
       <c r="CA47" t="s">
         <v>55</v>
       </c>
-      <c r="CB47"/>
+      <c r="CB47" t="s">
+        <v>55</v>
+      </c>
       <c r="CC47"/>
       <c r="CD47"/>
       <c r="CE47"/>
@@ -10633,7 +10724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10871,8 +10962,11 @@
       <c r="CA49" t="s">
         <v>55</v>
       </c>
+      <c r="CB49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11089,8 +11183,11 @@
       <c r="CA50" t="s">
         <v>55</v>
       </c>
+      <c r="CB50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11326,6 +11423,9 @@
         <v>58</v>
       </c>
       <c r="CA51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A3A15A-298E-47AD-BA80-F900C58948FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1AA53-5BD7-4889-9EB7-48B8E46F590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD24" sqref="CD24"/>
+      <selection pane="bottomRight" activeCell="CC17" sqref="CC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1427,9 @@
       <c r="CB3" t="s">
         <v>56</v>
       </c>
+      <c r="CC3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1669,6 +1672,9 @@
       <c r="CB4" t="s">
         <v>56</v>
       </c>
+      <c r="CC4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1911,6 +1917,9 @@
       <c r="CB5" t="s">
         <v>55</v>
       </c>
+      <c r="CC5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2153,6 +2162,9 @@
       <c r="CB6" t="s">
         <v>55</v>
       </c>
+      <c r="CC6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2395,6 +2407,9 @@
       <c r="CB7" t="s">
         <v>56</v>
       </c>
+      <c r="CC7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2637,6 +2652,9 @@
       <c r="CB8" t="s">
         <v>55</v>
       </c>
+      <c r="CC8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3174,6 +3192,9 @@
       <c r="CB12" t="s">
         <v>55</v>
       </c>
+      <c r="CC12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3416,6 +3437,9 @@
       <c r="CB13" t="s">
         <v>55</v>
       </c>
+      <c r="CC13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3658,6 +3682,9 @@
       <c r="CB14" t="s">
         <v>56</v>
       </c>
+      <c r="CC14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4135,6 +4162,9 @@
       <c r="CB17" t="s">
         <v>55</v>
       </c>
+      <c r="CC17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4377,7 +4407,9 @@
       <c r="CB18" t="s">
         <v>55</v>
       </c>
-      <c r="CC18"/>
+      <c r="CC18" t="s">
+        <v>55</v>
+      </c>
       <c r="CD18"/>
       <c r="CE18"/>
       <c r="CF18"/>
@@ -4645,7 +4677,9 @@
       <c r="CB19" t="s">
         <v>55</v>
       </c>
-      <c r="CC19"/>
+      <c r="CC19" t="s">
+        <v>55</v>
+      </c>
       <c r="CD19"/>
       <c r="CE19"/>
       <c r="CF19"/>
@@ -4921,6 +4955,9 @@
       <c r="CB20" t="s">
         <v>55</v>
       </c>
+      <c r="CC20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5163,6 +5200,9 @@
       <c r="CB21" t="s">
         <v>55</v>
       </c>
+      <c r="CC21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5508,6 +5548,9 @@
       <c r="CB23" t="s">
         <v>55</v>
       </c>
+      <c r="CC23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5699,6 +5742,9 @@
       <c r="CB24" t="s">
         <v>56</v>
       </c>
+      <c r="CC24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5941,6 +5987,9 @@
       <c r="CB25" t="s">
         <v>55</v>
       </c>
+      <c r="CC25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6183,6 +6232,9 @@
       <c r="CB26" t="s">
         <v>55</v>
       </c>
+      <c r="CC26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6425,6 +6477,9 @@
       <c r="CB27" t="s">
         <v>55</v>
       </c>
+      <c r="CC27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6768,7 +6823,9 @@
       <c r="CB29" t="s">
         <v>55</v>
       </c>
-      <c r="CC29"/>
+      <c r="CC29" t="s">
+        <v>55</v>
+      </c>
       <c r="CD29"/>
       <c r="CE29"/>
       <c r="CF29"/>
@@ -7044,7 +7101,9 @@
       <c r="CB30" t="s">
         <v>55</v>
       </c>
-      <c r="CC30"/>
+      <c r="CC30" t="s">
+        <v>55</v>
+      </c>
       <c r="CD30"/>
       <c r="CE30"/>
       <c r="CF30"/>
@@ -7423,6 +7482,9 @@
       <c r="CB32" t="s">
         <v>55</v>
       </c>
+      <c r="CC32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7664,6 +7726,9 @@
       </c>
       <c r="CB33" t="s">
         <v>55</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8281,6 +8346,9 @@
       <c r="CB36" t="s">
         <v>55</v>
       </c>
+      <c r="CC36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8523,6 +8591,9 @@
       <c r="CB37" t="s">
         <v>56</v>
       </c>
+      <c r="CC37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8763,6 +8834,9 @@
         <v>55</v>
       </c>
       <c r="CB38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CC38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9151,6 +9225,9 @@
       <c r="CB40" t="s">
         <v>55</v>
       </c>
+      <c r="CC40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9646,6 +9723,9 @@
       <c r="CB43" t="s">
         <v>56</v>
       </c>
+      <c r="CC43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9888,6 +9968,9 @@
       <c r="CB44" t="s">
         <v>55</v>
       </c>
+      <c r="CC44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10130,6 +10213,9 @@
       <c r="CB45" t="s">
         <v>55</v>
       </c>
+      <c r="CC45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10326,6 +10412,9 @@
       </c>
       <c r="CB46" t="s">
         <v>56</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10555,7 +10644,9 @@
       <c r="CB47" t="s">
         <v>55</v>
       </c>
-      <c r="CC47"/>
+      <c r="CC47" t="s">
+        <v>55</v>
+      </c>
       <c r="CD47"/>
       <c r="CE47"/>
       <c r="CF47"/>
@@ -10724,7 +10815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -10965,8 +11056,11 @@
       <c r="CB49" t="s">
         <v>55</v>
       </c>
+      <c r="CC49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11186,8 +11280,11 @@
       <c r="CB50" t="s">
         <v>55</v>
       </c>
+      <c r="CC50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11426,6 +11523,9 @@
         <v>55</v>
       </c>
       <c r="CB51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CC51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E1AA53-5BD7-4889-9EB7-48B8E46F590B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63E722-CA39-4ABB-8185-DF2E0FA23CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC17" sqref="CC17"/>
+      <selection pane="bottomRight" activeCell="CC36" sqref="CC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7728,7 +7728,7 @@
         <v>55</v>
       </c>
       <c r="CC33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E63E722-CA39-4ABB-8185-DF2E0FA23CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22B450-4F61-4F7C-9709-1FD13B307E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC36" sqref="CC36"/>
+      <selection pane="bottomRight" activeCell="CD50" sqref="CD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,6 +1430,9 @@
       <c r="CC3" t="s">
         <v>56</v>
       </c>
+      <c r="CD3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1675,6 +1678,9 @@
       <c r="CC4" t="s">
         <v>56</v>
       </c>
+      <c r="CD4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1920,6 +1926,9 @@
       <c r="CC5" t="s">
         <v>55</v>
       </c>
+      <c r="CD5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2165,6 +2174,9 @@
       <c r="CC6" t="s">
         <v>55</v>
       </c>
+      <c r="CD6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2410,6 +2422,9 @@
       <c r="CC7" t="s">
         <v>55</v>
       </c>
+      <c r="CD7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2655,6 +2670,9 @@
       <c r="CC8" t="s">
         <v>55</v>
       </c>
+      <c r="CD8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3195,6 +3213,9 @@
       <c r="CC12" t="s">
         <v>55</v>
       </c>
+      <c r="CD12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3440,6 +3461,9 @@
       <c r="CC13" t="s">
         <v>55</v>
       </c>
+      <c r="CD13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3685,6 +3709,9 @@
       <c r="CC14" t="s">
         <v>55</v>
       </c>
+      <c r="CD14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4165,6 +4192,9 @@
       <c r="CC17" t="s">
         <v>55</v>
       </c>
+      <c r="CD17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4410,7 +4440,9 @@
       <c r="CC18" t="s">
         <v>55</v>
       </c>
-      <c r="CD18"/>
+      <c r="CD18" t="s">
+        <v>55</v>
+      </c>
       <c r="CE18"/>
       <c r="CF18"/>
       <c r="CG18"/>
@@ -4680,7 +4712,9 @@
       <c r="CC19" t="s">
         <v>55</v>
       </c>
-      <c r="CD19"/>
+      <c r="CD19" t="s">
+        <v>56</v>
+      </c>
       <c r="CE19"/>
       <c r="CF19"/>
       <c r="CG19"/>
@@ -4958,6 +4992,9 @@
       <c r="CC20" t="s">
         <v>56</v>
       </c>
+      <c r="CD20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5203,6 +5240,9 @@
       <c r="CC21" t="s">
         <v>55</v>
       </c>
+      <c r="CD21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5551,6 +5591,9 @@
       <c r="CC23" t="s">
         <v>55</v>
       </c>
+      <c r="CD23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5745,6 +5788,9 @@
       <c r="CC24" t="s">
         <v>55</v>
       </c>
+      <c r="CD24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5990,6 +6036,9 @@
       <c r="CC25" t="s">
         <v>55</v>
       </c>
+      <c r="CD25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6235,6 +6284,9 @@
       <c r="CC26" t="s">
         <v>55</v>
       </c>
+      <c r="CD26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6480,6 +6532,9 @@
       <c r="CC27" t="s">
         <v>55</v>
       </c>
+      <c r="CD27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6826,7 +6881,9 @@
       <c r="CC29" t="s">
         <v>55</v>
       </c>
-      <c r="CD29"/>
+      <c r="CD29" t="s">
+        <v>55</v>
+      </c>
       <c r="CE29"/>
       <c r="CF29"/>
       <c r="CG29"/>
@@ -7104,7 +7161,9 @@
       <c r="CC30" t="s">
         <v>55</v>
       </c>
-      <c r="CD30"/>
+      <c r="CD30" t="s">
+        <v>55</v>
+      </c>
       <c r="CE30"/>
       <c r="CF30"/>
       <c r="CG30"/>
@@ -7485,6 +7544,9 @@
       <c r="CC32" t="s">
         <v>56</v>
       </c>
+      <c r="CD32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7728,6 +7790,9 @@
         <v>55</v>
       </c>
       <c r="CC33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8349,6 +8414,9 @@
       <c r="CC36" t="s">
         <v>55</v>
       </c>
+      <c r="CD36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8594,6 +8662,9 @@
       <c r="CC37" t="s">
         <v>56</v>
       </c>
+      <c r="CD37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8837,6 +8908,9 @@
         <v>55</v>
       </c>
       <c r="CC38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9228,6 +9302,9 @@
       <c r="CC40" t="s">
         <v>55</v>
       </c>
+      <c r="CD40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9726,6 +9803,9 @@
       <c r="CC43" t="s">
         <v>56</v>
       </c>
+      <c r="CD43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -9971,6 +10051,9 @@
       <c r="CC44" t="s">
         <v>56</v>
       </c>
+      <c r="CD44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10216,6 +10299,9 @@
       <c r="CC45" t="s">
         <v>55</v>
       </c>
+      <c r="CD45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10414,6 +10500,9 @@
         <v>56</v>
       </c>
       <c r="CC46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10647,7 +10736,9 @@
       <c r="CC47" t="s">
         <v>55</v>
       </c>
-      <c r="CD47"/>
+      <c r="CD47" t="s">
+        <v>55</v>
+      </c>
       <c r="CE47"/>
       <c r="CF47"/>
       <c r="CG47"/>
@@ -10815,7 +10906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11059,8 +11150,11 @@
       <c r="CC49" t="s">
         <v>55</v>
       </c>
+      <c r="CD49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11283,8 +11377,11 @@
       <c r="CC50" t="s">
         <v>55</v>
       </c>
+      <c r="CD50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11526,6 +11623,9 @@
         <v>55</v>
       </c>
       <c r="CC51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CD51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22B450-4F61-4F7C-9709-1FD13B307E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CE3B0-D2B6-4EC7-80E8-23FB95E45D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD50" sqref="CD50"/>
+      <selection pane="bottomRight" activeCell="CE20" sqref="CE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,6 +1433,9 @@
       <c r="CD3" t="s">
         <v>56</v>
       </c>
+      <c r="CE3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1681,6 +1684,9 @@
       <c r="CD4" t="s">
         <v>56</v>
       </c>
+      <c r="CE4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1929,6 +1935,9 @@
       <c r="CD5" t="s">
         <v>55</v>
       </c>
+      <c r="CE5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2177,6 +2186,9 @@
       <c r="CD6" t="s">
         <v>55</v>
       </c>
+      <c r="CE6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2425,6 +2437,9 @@
       <c r="CD7" t="s">
         <v>55</v>
       </c>
+      <c r="CE7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2673,6 +2688,9 @@
       <c r="CD8" t="s">
         <v>55</v>
       </c>
+      <c r="CE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3216,6 +3234,9 @@
       <c r="CD12" t="s">
         <v>56</v>
       </c>
+      <c r="CE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3464,6 +3485,9 @@
       <c r="CD13" t="s">
         <v>55</v>
       </c>
+      <c r="CE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3712,6 +3736,9 @@
       <c r="CD14" t="s">
         <v>56</v>
       </c>
+      <c r="CE14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4195,6 +4222,9 @@
       <c r="CD17" t="s">
         <v>55</v>
       </c>
+      <c r="CE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4443,7 +4473,9 @@
       <c r="CD18" t="s">
         <v>55</v>
       </c>
-      <c r="CE18"/>
+      <c r="CE18" t="s">
+        <v>55</v>
+      </c>
       <c r="CF18"/>
       <c r="CG18"/>
       <c r="CH18"/>
@@ -4715,7 +4747,9 @@
       <c r="CD19" t="s">
         <v>56</v>
       </c>
-      <c r="CE19"/>
+      <c r="CE19" t="s">
+        <v>55</v>
+      </c>
       <c r="CF19"/>
       <c r="CG19"/>
       <c r="CH19"/>
@@ -4995,6 +5029,9 @@
       <c r="CD20" t="s">
         <v>55</v>
       </c>
+      <c r="CE20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5243,6 +5280,9 @@
       <c r="CD21" t="s">
         <v>55</v>
       </c>
+      <c r="CE21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5594,6 +5634,9 @@
       <c r="CD23" t="s">
         <v>55</v>
       </c>
+      <c r="CE23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5791,6 +5834,9 @@
       <c r="CD24" t="s">
         <v>56</v>
       </c>
+      <c r="CE24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6039,6 +6085,9 @@
       <c r="CD25" t="s">
         <v>55</v>
       </c>
+      <c r="CE25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6287,6 +6336,9 @@
       <c r="CD26" t="s">
         <v>55</v>
       </c>
+      <c r="CE26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6535,6 +6587,9 @@
       <c r="CD27" t="s">
         <v>55</v>
       </c>
+      <c r="CE27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6884,7 +6939,9 @@
       <c r="CD29" t="s">
         <v>55</v>
       </c>
-      <c r="CE29"/>
+      <c r="CE29" t="s">
+        <v>55</v>
+      </c>
       <c r="CF29"/>
       <c r="CG29"/>
       <c r="CH29"/>
@@ -7164,7 +7221,9 @@
       <c r="CD30" t="s">
         <v>55</v>
       </c>
-      <c r="CE30"/>
+      <c r="CE30" t="s">
+        <v>55</v>
+      </c>
       <c r="CF30"/>
       <c r="CG30"/>
       <c r="CH30"/>
@@ -7547,6 +7606,9 @@
       <c r="CD32" t="s">
         <v>55</v>
       </c>
+      <c r="CE32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7793,6 +7855,9 @@
         <v>55</v>
       </c>
       <c r="CD33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8417,6 +8482,9 @@
       <c r="CD36" t="s">
         <v>55</v>
       </c>
+      <c r="CE36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8665,6 +8733,9 @@
       <c r="CD37" t="s">
         <v>56</v>
       </c>
+      <c r="CE37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8911,6 +8982,9 @@
         <v>55</v>
       </c>
       <c r="CD38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9305,6 +9379,9 @@
       <c r="CD40" t="s">
         <v>55</v>
       </c>
+      <c r="CE40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9806,6 +9883,9 @@
       <c r="CD43" t="s">
         <v>56</v>
       </c>
+      <c r="CE43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10054,6 +10134,9 @@
       <c r="CD44" t="s">
         <v>55</v>
       </c>
+      <c r="CE44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10302,6 +10385,9 @@
       <c r="CD45" t="s">
         <v>55</v>
       </c>
+      <c r="CE45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10503,6 +10589,9 @@
         <v>55</v>
       </c>
       <c r="CD46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10739,7 +10828,9 @@
       <c r="CD47" t="s">
         <v>55</v>
       </c>
-      <c r="CE47"/>
+      <c r="CE47" t="s">
+        <v>55</v>
+      </c>
       <c r="CF47"/>
       <c r="CG47"/>
       <c r="CH47"/>
@@ -10906,7 +10997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11153,8 +11244,11 @@
       <c r="CD49" t="s">
         <v>55</v>
       </c>
+      <c r="CE49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11380,8 +11474,11 @@
       <c r="CD50" t="s">
         <v>55</v>
       </c>
+      <c r="CE50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11626,6 +11723,9 @@
         <v>55</v>
       </c>
       <c r="CD51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CE51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9CE3B0-D2B6-4EC7-80E8-23FB95E45D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F540F-B816-4A75-A4F9-3099A43CC35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CE20" sqref="CE20"/>
+      <selection pane="bottomRight" activeCell="CF38" sqref="CF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1436,12 @@
       <c r="CE3" t="s">
         <v>56</v>
       </c>
+      <c r="CF3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1687,6 +1693,12 @@
       <c r="CE4" t="s">
         <v>56</v>
       </c>
+      <c r="CF4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1938,6 +1950,12 @@
       <c r="CE5" t="s">
         <v>55</v>
       </c>
+      <c r="CF5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2189,6 +2207,12 @@
       <c r="CE6" t="s">
         <v>55</v>
       </c>
+      <c r="CF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2440,6 +2464,12 @@
       <c r="CE7" t="s">
         <v>55</v>
       </c>
+      <c r="CF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2691,6 +2721,12 @@
       <c r="CE8" t="s">
         <v>55</v>
       </c>
+      <c r="CF8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3237,6 +3273,12 @@
       <c r="CE12" t="s">
         <v>55</v>
       </c>
+      <c r="CF12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3488,6 +3530,12 @@
       <c r="CE13" t="s">
         <v>55</v>
       </c>
+      <c r="CF13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3739,6 +3787,12 @@
       <c r="CE14" t="s">
         <v>55</v>
       </c>
+      <c r="CF14" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4225,6 +4279,12 @@
       <c r="CE17" t="s">
         <v>55</v>
       </c>
+      <c r="CF17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4476,8 +4536,12 @@
       <c r="CE18" t="s">
         <v>55</v>
       </c>
-      <c r="CF18"/>
-      <c r="CG18"/>
+      <c r="CF18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>55</v>
+      </c>
       <c r="CH18"/>
       <c r="CI18"/>
       <c r="CJ18"/>
@@ -4750,8 +4814,12 @@
       <c r="CE19" t="s">
         <v>55</v>
       </c>
-      <c r="CF19"/>
-      <c r="CG19"/>
+      <c r="CF19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>55</v>
+      </c>
       <c r="CH19"/>
       <c r="CI19"/>
       <c r="CJ19"/>
@@ -5032,6 +5100,12 @@
       <c r="CE20" t="s">
         <v>55</v>
       </c>
+      <c r="CF20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5283,6 +5357,12 @@
       <c r="CE21" t="s">
         <v>55</v>
       </c>
+      <c r="CF21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5637,6 +5717,12 @@
       <c r="CE23" t="s">
         <v>55</v>
       </c>
+      <c r="CF23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5837,6 +5923,12 @@
       <c r="CE24" t="s">
         <v>55</v>
       </c>
+      <c r="CF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6088,6 +6180,12 @@
       <c r="CE25" t="s">
         <v>55</v>
       </c>
+      <c r="CF25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6339,6 +6437,12 @@
       <c r="CE26" t="s">
         <v>55</v>
       </c>
+      <c r="CF26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6590,6 +6694,12 @@
       <c r="CE27" t="s">
         <v>55</v>
       </c>
+      <c r="CF27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6942,8 +7052,12 @@
       <c r="CE29" t="s">
         <v>55</v>
       </c>
-      <c r="CF29"/>
-      <c r="CG29"/>
+      <c r="CF29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>55</v>
+      </c>
       <c r="CH29"/>
       <c r="CI29"/>
       <c r="CJ29"/>
@@ -7224,8 +7338,12 @@
       <c r="CE30" t="s">
         <v>55</v>
       </c>
-      <c r="CF30"/>
-      <c r="CG30"/>
+      <c r="CF30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>55</v>
+      </c>
       <c r="CH30"/>
       <c r="CI30"/>
       <c r="CJ30"/>
@@ -7609,6 +7727,12 @@
       <c r="CE32" t="s">
         <v>55</v>
       </c>
+      <c r="CF32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7858,6 +7982,12 @@
         <v>55</v>
       </c>
       <c r="CE33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8485,6 +8615,12 @@
       <c r="CE36" t="s">
         <v>55</v>
       </c>
+      <c r="CF36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8736,6 +8872,12 @@
       <c r="CE37" t="s">
         <v>56</v>
       </c>
+      <c r="CF37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8986,6 +9128,12 @@
       </c>
       <c r="CE38" t="s">
         <v>55</v>
+      </c>
+      <c r="CF38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9382,6 +9530,12 @@
       <c r="CE40" t="s">
         <v>55</v>
       </c>
+      <c r="CF40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9886,6 +10040,12 @@
       <c r="CE43" t="s">
         <v>56</v>
       </c>
+      <c r="CF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10137,6 +10297,12 @@
       <c r="CE44" t="s">
         <v>55</v>
       </c>
+      <c r="CF44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10388,6 +10554,12 @@
       <c r="CE45" t="s">
         <v>55</v>
       </c>
+      <c r="CF45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10592,6 +10764,12 @@
         <v>55</v>
       </c>
       <c r="CE46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10831,8 +11009,12 @@
       <c r="CE47" t="s">
         <v>55</v>
       </c>
-      <c r="CF47"/>
-      <c r="CG47"/>
+      <c r="CF47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG47" t="s">
+        <v>55</v>
+      </c>
       <c r="CH47"/>
       <c r="CI47"/>
       <c r="CJ47"/>
@@ -10997,7 +11179,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11247,8 +11429,14 @@
       <c r="CE49" t="s">
         <v>55</v>
       </c>
+      <c r="CF49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11477,8 +11665,14 @@
       <c r="CE50" t="s">
         <v>55</v>
       </c>
+      <c r="CF50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11726,6 +11920,12 @@
         <v>55</v>
       </c>
       <c r="CE51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CG51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4F540F-B816-4A75-A4F9-3099A43CC35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D3D4E6-29DE-4A6A-9472-05A7C8F2BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CF38" sqref="CF38"/>
+      <selection pane="bottomRight" activeCell="CG18" sqref="CG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,7 +4283,7 @@
         <v>55</v>
       </c>
       <c r="CG17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D3D4E6-29DE-4A6A-9472-05A7C8F2BE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE8229-25A0-4D37-8789-4FC9594E17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -640,10 +640,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CG18" sqref="CG18"/>
+      <selection pane="bottomRight" activeCell="CL51" sqref="CL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1442,18 @@
       <c r="CG3" t="s">
         <v>56</v>
       </c>
+      <c r="CH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1699,6 +1711,18 @@
       <c r="CG4" t="s">
         <v>56</v>
       </c>
+      <c r="CH4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1956,6 +1980,18 @@
       <c r="CG5" t="s">
         <v>55</v>
       </c>
+      <c r="CH5" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2213,6 +2249,18 @@
       <c r="CG6" t="s">
         <v>55</v>
       </c>
+      <c r="CH6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2470,6 +2518,18 @@
       <c r="CG7" t="s">
         <v>55</v>
       </c>
+      <c r="CH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2727,6 +2787,18 @@
       <c r="CG8" t="s">
         <v>56</v>
       </c>
+      <c r="CH8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2830,6 +2902,12 @@
       <c r="BZ9" t="s">
         <v>58</v>
       </c>
+      <c r="CH9" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2919,6 +2997,12 @@
       <c r="BZ10" t="s">
         <v>58</v>
       </c>
+      <c r="CH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3022,6 +3106,12 @@
       <c r="BZ11" t="s">
         <v>58</v>
       </c>
+      <c r="CH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3279,6 +3369,18 @@
       <c r="CG12" t="s">
         <v>55</v>
       </c>
+      <c r="CH12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3536,6 +3638,18 @@
       <c r="CG13" t="s">
         <v>55</v>
       </c>
+      <c r="CH13" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3793,6 +3907,18 @@
       <c r="CG14" t="s">
         <v>56</v>
       </c>
+      <c r="CH14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3909,6 +4035,12 @@
       <c r="BZ15" t="s">
         <v>58</v>
       </c>
+      <c r="CH15" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4028,6 +4160,12 @@
       <c r="BZ16" t="s">
         <v>58</v>
       </c>
+      <c r="CH16" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4285,6 +4423,18 @@
       <c r="CG17" t="s">
         <v>55</v>
       </c>
+      <c r="CH17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4542,10 +4692,18 @@
       <c r="CG18" t="s">
         <v>55</v>
       </c>
-      <c r="CH18"/>
-      <c r="CI18"/>
-      <c r="CJ18"/>
-      <c r="CK18"/>
+      <c r="CH18" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>55</v>
+      </c>
       <c r="CL18"/>
       <c r="CM18"/>
       <c r="CN18"/>
@@ -4820,10 +4978,18 @@
       <c r="CG19" t="s">
         <v>55</v>
       </c>
-      <c r="CH19"/>
-      <c r="CI19"/>
-      <c r="CJ19"/>
-      <c r="CK19"/>
+      <c r="CH19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>55</v>
+      </c>
       <c r="CL19"/>
       <c r="CM19"/>
       <c r="CN19"/>
@@ -5106,6 +5272,18 @@
       <c r="CG20" t="s">
         <v>55</v>
       </c>
+      <c r="CH20" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5363,6 +5541,18 @@
       <c r="CG21" t="s">
         <v>55</v>
       </c>
+      <c r="CH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5466,6 +5656,12 @@
       <c r="BZ22" t="s">
         <v>58</v>
       </c>
+      <c r="CH22" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5723,6 +5919,18 @@
       <c r="CG23" t="s">
         <v>55</v>
       </c>
+      <c r="CH23" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5929,6 +6137,18 @@
       <c r="CG24" t="s">
         <v>55</v>
       </c>
+      <c r="CH24" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6186,6 +6406,18 @@
       <c r="CG25" t="s">
         <v>56</v>
       </c>
+      <c r="CH25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6443,6 +6675,18 @@
       <c r="CG26" t="s">
         <v>55</v>
       </c>
+      <c r="CH26" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6700,6 +6944,18 @@
       <c r="CG27" t="s">
         <v>55</v>
       </c>
+      <c r="CH27" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6801,6 +7057,12 @@
       <c r="BZ28" t="s">
         <v>58</v>
       </c>
+      <c r="CH28" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7058,10 +7320,18 @@
       <c r="CG29" t="s">
         <v>55</v>
       </c>
-      <c r="CH29"/>
-      <c r="CI29"/>
-      <c r="CJ29"/>
-      <c r="CK29"/>
+      <c r="CH29" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>55</v>
+      </c>
       <c r="CL29"/>
       <c r="CM29"/>
       <c r="CN29"/>
@@ -7344,10 +7614,18 @@
       <c r="CG30" t="s">
         <v>55</v>
       </c>
-      <c r="CH30"/>
-      <c r="CI30"/>
-      <c r="CJ30"/>
-      <c r="CK30"/>
+      <c r="CH30" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>55</v>
+      </c>
       <c r="CL30"/>
       <c r="CM30"/>
       <c r="CN30"/>
@@ -7476,6 +7754,12 @@
       <c r="BZ31" t="s">
         <v>58</v>
       </c>
+      <c r="CH31" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -7733,6 +8017,18 @@
       <c r="CG32" t="s">
         <v>55</v>
       </c>
+      <c r="CH32" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7989,6 +8285,18 @@
       </c>
       <c r="CG33" t="s">
         <v>55</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -8138,8 +8446,12 @@
       <c r="CE34"/>
       <c r="CF34"/>
       <c r="CG34"/>
-      <c r="CH34"/>
-      <c r="CI34"/>
+      <c r="CH34" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>58</v>
+      </c>
       <c r="CJ34"/>
       <c r="CK34"/>
       <c r="CL34"/>
@@ -8364,6 +8676,12 @@
       <c r="BZ35" t="s">
         <v>58</v>
       </c>
+      <c r="CH35" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -8621,6 +8939,18 @@
       <c r="CG36" t="s">
         <v>55</v>
       </c>
+      <c r="CH36" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8878,6 +9208,18 @@
       <c r="CG37" t="s">
         <v>56</v>
       </c>
+      <c r="CH37" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9134,6 +9476,18 @@
       </c>
       <c r="CG38" t="s">
         <v>56</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI38" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9250,8 +9604,12 @@
       <c r="CE39"/>
       <c r="CF39"/>
       <c r="CG39"/>
-      <c r="CH39"/>
-      <c r="CI39"/>
+      <c r="CH39" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>58</v>
+      </c>
       <c r="CJ39"/>
       <c r="CK39"/>
       <c r="CL39"/>
@@ -9536,6 +9894,18 @@
       <c r="CG40" t="s">
         <v>55</v>
       </c>
+      <c r="CH40" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -9684,8 +10054,12 @@
       <c r="CE41"/>
       <c r="CF41"/>
       <c r="CG41"/>
-      <c r="CH41"/>
-      <c r="CI41"/>
+      <c r="CH41" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>58</v>
+      </c>
       <c r="CJ41"/>
       <c r="CK41"/>
       <c r="CL41"/>
@@ -9816,6 +10190,12 @@
       <c r="BZ42" t="s">
         <v>58</v>
       </c>
+      <c r="CH42" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -10046,6 +10426,18 @@
       <c r="CG43" t="s">
         <v>56</v>
       </c>
+      <c r="CH43" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10303,6 +10695,18 @@
       <c r="CG44" t="s">
         <v>55</v>
       </c>
+      <c r="CH44" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10560,6 +10964,18 @@
       <c r="CG45" t="s">
         <v>55</v>
       </c>
+      <c r="CH45" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -10770,6 +11186,18 @@
         <v>55</v>
       </c>
       <c r="CG46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CH46" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11015,10 +11443,18 @@
       <c r="CG47" t="s">
         <v>55</v>
       </c>
-      <c r="CH47"/>
-      <c r="CI47"/>
-      <c r="CJ47"/>
-      <c r="CK47"/>
+      <c r="CH47" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>55</v>
+      </c>
       <c r="CL47"/>
       <c r="CM47"/>
       <c r="CN47"/>
@@ -11178,8 +11614,14 @@
       <c r="BZ48" t="s">
         <v>58</v>
       </c>
+      <c r="CH48" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11435,8 +11877,20 @@
       <c r="CG49" t="s">
         <v>55</v>
       </c>
+      <c r="CH49" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -11671,8 +12125,20 @@
       <c r="CG50" t="s">
         <v>55</v>
       </c>
+      <c r="CH50" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -11926,6 +12392,18 @@
         <v>55</v>
       </c>
       <c r="CG51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CH51" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CK51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE8229-25A0-4D37-8789-4FC9594E17D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976522F0-DBAF-451A-91D5-6B5201693572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CL51" sqref="CL51"/>
+      <selection pane="bottomRight" activeCell="CL47" sqref="CL47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,6 +1454,9 @@
       <c r="CK3" t="s">
         <v>56</v>
       </c>
+      <c r="CL3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1723,6 +1726,9 @@
       <c r="CK4" t="s">
         <v>56</v>
       </c>
+      <c r="CL4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1992,6 +1998,9 @@
       <c r="CK5" t="s">
         <v>55</v>
       </c>
+      <c r="CL5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2261,6 +2270,9 @@
       <c r="CK6" t="s">
         <v>56</v>
       </c>
+      <c r="CL6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2530,6 +2542,9 @@
       <c r="CK7" t="s">
         <v>55</v>
       </c>
+      <c r="CL7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2799,6 +2814,9 @@
       <c r="CK8" t="s">
         <v>55</v>
       </c>
+      <c r="CL8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3381,6 +3399,9 @@
       <c r="CK12" t="s">
         <v>55</v>
       </c>
+      <c r="CL12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3650,6 +3671,9 @@
       <c r="CK13" t="s">
         <v>55</v>
       </c>
+      <c r="CL13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3919,6 +3943,9 @@
       <c r="CK14" t="s">
         <v>56</v>
       </c>
+      <c r="CL14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4435,6 +4462,9 @@
       <c r="CK17" t="s">
         <v>55</v>
       </c>
+      <c r="CL17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4704,7 +4734,9 @@
       <c r="CK18" t="s">
         <v>55</v>
       </c>
-      <c r="CL18"/>
+      <c r="CL18" t="s">
+        <v>55</v>
+      </c>
       <c r="CM18"/>
       <c r="CN18"/>
       <c r="CO18"/>
@@ -4990,7 +5022,9 @@
       <c r="CK19" t="s">
         <v>55</v>
       </c>
-      <c r="CL19"/>
+      <c r="CL19" t="s">
+        <v>55</v>
+      </c>
       <c r="CM19"/>
       <c r="CN19"/>
       <c r="CO19"/>
@@ -5284,6 +5318,9 @@
       <c r="CK20" t="s">
         <v>55</v>
       </c>
+      <c r="CL20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5553,6 +5590,9 @@
       <c r="CK21" t="s">
         <v>55</v>
       </c>
+      <c r="CL21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5931,6 +5971,9 @@
       <c r="CK23" t="s">
         <v>55</v>
       </c>
+      <c r="CL23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6149,6 +6192,9 @@
       <c r="CK24" t="s">
         <v>55</v>
       </c>
+      <c r="CL24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6418,6 +6464,9 @@
       <c r="CK25" t="s">
         <v>55</v>
       </c>
+      <c r="CL25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6687,6 +6736,9 @@
       <c r="CK26" t="s">
         <v>55</v>
       </c>
+      <c r="CL26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6956,6 +7008,9 @@
       <c r="CK27" t="s">
         <v>55</v>
       </c>
+      <c r="CL27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7332,7 +7387,9 @@
       <c r="CK29" t="s">
         <v>55</v>
       </c>
-      <c r="CL29"/>
+      <c r="CL29" t="s">
+        <v>55</v>
+      </c>
       <c r="CM29"/>
       <c r="CN29"/>
       <c r="CO29"/>
@@ -7626,7 +7683,9 @@
       <c r="CK30" t="s">
         <v>55</v>
       </c>
-      <c r="CL30"/>
+      <c r="CL30" t="s">
+        <v>55</v>
+      </c>
       <c r="CM30"/>
       <c r="CN30"/>
       <c r="CO30"/>
@@ -8029,6 +8088,9 @@
       <c r="CK32" t="s">
         <v>55</v>
       </c>
+      <c r="CL32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8296,6 +8358,9 @@
         <v>55</v>
       </c>
       <c r="CK33" t="s">
+        <v>56</v>
+      </c>
+      <c r="CL33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8951,6 +9016,9 @@
       <c r="CK36" t="s">
         <v>55</v>
       </c>
+      <c r="CL36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9220,6 +9288,9 @@
       <c r="CK37" t="s">
         <v>56</v>
       </c>
+      <c r="CL37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9487,6 +9558,9 @@
         <v>56</v>
       </c>
       <c r="CK38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9906,6 +9980,9 @@
       <c r="CK40" t="s">
         <v>55</v>
       </c>
+      <c r="CL40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10438,6 +10515,9 @@
       <c r="CK43" t="s">
         <v>56</v>
       </c>
+      <c r="CL43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10707,6 +10787,9 @@
       <c r="CK44" t="s">
         <v>55</v>
       </c>
+      <c r="CL44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -10976,6 +11059,9 @@
       <c r="CK45" t="s">
         <v>55</v>
       </c>
+      <c r="CL45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11198,6 +11284,9 @@
         <v>55</v>
       </c>
       <c r="CK46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11455,7 +11544,9 @@
       <c r="CK47" t="s">
         <v>55</v>
       </c>
-      <c r="CL47"/>
+      <c r="CL47" t="s">
+        <v>55</v>
+      </c>
       <c r="CM47"/>
       <c r="CN47"/>
       <c r="CO47"/>
@@ -11621,7 +11712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11889,8 +11980,11 @@
       <c r="CK49" t="s">
         <v>55</v>
       </c>
+      <c r="CL49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12137,8 +12231,11 @@
       <c r="CK50" t="s">
         <v>55</v>
       </c>
+      <c r="CL50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12404,6 +12501,9 @@
         <v>55</v>
       </c>
       <c r="CK51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CL51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976522F0-DBAF-451A-91D5-6B5201693572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C54A71-3E35-46F5-86A6-DC51EC126B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3696" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -639,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CL47" sqref="CL47"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12529,10 +12529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12561,252 +12561,348 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>50</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21">
         <v>70</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="C32" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>20</v>
@@ -12817,68 +12913,28 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41">
-        <v>70</v>
-      </c>
-      <c r="C41">
+      <c r="C36">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A41">
+  <conditionalFormatting sqref="A3:A36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C54A71-3E35-46F5-86A6-DC51EC126B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF289E7-FE2F-48E3-8A86-5C93B1CEEE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -639,11 +639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="CM49" sqref="CM49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,6 +1457,9 @@
       <c r="CL3" t="s">
         <v>56</v>
       </c>
+      <c r="CM3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1729,6 +1732,9 @@
       <c r="CL4" t="s">
         <v>56</v>
       </c>
+      <c r="CM4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2001,6 +2007,9 @@
       <c r="CL5" t="s">
         <v>55</v>
       </c>
+      <c r="CM5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2273,6 +2282,9 @@
       <c r="CL6" t="s">
         <v>55</v>
       </c>
+      <c r="CM6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2545,6 +2557,9 @@
       <c r="CL7" t="s">
         <v>55</v>
       </c>
+      <c r="CM7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2817,6 +2832,9 @@
       <c r="CL8" t="s">
         <v>56</v>
       </c>
+      <c r="CM8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3402,6 +3420,9 @@
       <c r="CL12" t="s">
         <v>55</v>
       </c>
+      <c r="CM12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3674,6 +3695,9 @@
       <c r="CL13" t="s">
         <v>55</v>
       </c>
+      <c r="CM13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3946,6 +3970,9 @@
       <c r="CL14" t="s">
         <v>56</v>
       </c>
+      <c r="CM14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4465,6 +4492,9 @@
       <c r="CL17" t="s">
         <v>55</v>
       </c>
+      <c r="CM17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4737,7 +4767,9 @@
       <c r="CL18" t="s">
         <v>55</v>
       </c>
-      <c r="CM18"/>
+      <c r="CM18" t="s">
+        <v>55</v>
+      </c>
       <c r="CN18"/>
       <c r="CO18"/>
       <c r="CP18"/>
@@ -5025,7 +5057,9 @@
       <c r="CL19" t="s">
         <v>55</v>
       </c>
-      <c r="CM19"/>
+      <c r="CM19" t="s">
+        <v>55</v>
+      </c>
       <c r="CN19"/>
       <c r="CO19"/>
       <c r="CP19"/>
@@ -5321,6 +5355,9 @@
       <c r="CL20" t="s">
         <v>55</v>
       </c>
+      <c r="CM20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5593,6 +5630,9 @@
       <c r="CL21" t="s">
         <v>55</v>
       </c>
+      <c r="CM21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -5974,6 +6014,9 @@
       <c r="CL23" t="s">
         <v>55</v>
       </c>
+      <c r="CM23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6195,6 +6238,9 @@
       <c r="CL24" t="s">
         <v>56</v>
       </c>
+      <c r="CM24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6467,6 +6513,9 @@
       <c r="CL25" t="s">
         <v>55</v>
       </c>
+      <c r="CM25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6739,6 +6788,9 @@
       <c r="CL26" t="s">
         <v>55</v>
       </c>
+      <c r="CM26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7011,6 +7063,9 @@
       <c r="CL27" t="s">
         <v>55</v>
       </c>
+      <c r="CM27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7390,7 +7445,9 @@
       <c r="CL29" t="s">
         <v>55</v>
       </c>
-      <c r="CM29"/>
+      <c r="CM29" t="s">
+        <v>55</v>
+      </c>
       <c r="CN29"/>
       <c r="CO29"/>
       <c r="CP29"/>
@@ -7686,7 +7743,9 @@
       <c r="CL30" t="s">
         <v>55</v>
       </c>
-      <c r="CM30"/>
+      <c r="CM30" t="s">
+        <v>55</v>
+      </c>
       <c r="CN30"/>
       <c r="CO30"/>
       <c r="CP30"/>
@@ -8091,6 +8150,9 @@
       <c r="CL32" t="s">
         <v>56</v>
       </c>
+      <c r="CM32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8362,6 +8424,9 @@
       </c>
       <c r="CL33" t="s">
         <v>56</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9019,6 +9084,9 @@
       <c r="CL36" t="s">
         <v>55</v>
       </c>
+      <c r="CM36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9291,6 +9359,9 @@
       <c r="CL37" t="s">
         <v>56</v>
       </c>
+      <c r="CM37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9561,6 +9632,9 @@
         <v>55</v>
       </c>
       <c r="CL38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CM38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9983,6 +10057,9 @@
       <c r="CL40" t="s">
         <v>55</v>
       </c>
+      <c r="CM40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10518,6 +10595,9 @@
       <c r="CL43" t="s">
         <v>56</v>
       </c>
+      <c r="CM43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10790,6 +10870,9 @@
       <c r="CL44" t="s">
         <v>56</v>
       </c>
+      <c r="CM44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11062,6 +11145,9 @@
       <c r="CL45" t="s">
         <v>55</v>
       </c>
+      <c r="CM45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11288,6 +11374,9 @@
       </c>
       <c r="CL46" t="s">
         <v>55</v>
+      </c>
+      <c r="CM46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11547,7 +11636,9 @@
       <c r="CL47" t="s">
         <v>55</v>
       </c>
-      <c r="CM47"/>
+      <c r="CM47" t="s">
+        <v>55</v>
+      </c>
       <c r="CN47"/>
       <c r="CO47"/>
       <c r="CP47"/>
@@ -11712,7 +11803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -11983,8 +12074,11 @@
       <c r="CL49" t="s">
         <v>55</v>
       </c>
+      <c r="CM49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12234,8 +12328,11 @@
       <c r="CL50" t="s">
         <v>55</v>
       </c>
+      <c r="CM50" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12504,6 +12601,9 @@
         <v>55</v>
       </c>
       <c r="CL51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CM51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12531,7 +12631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF289E7-FE2F-48E3-8A86-5C93B1CEEE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977AA35A-9E3A-4C80-948B-98BA80CC1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CM49" sqref="CM49"/>
+      <selection pane="bottomRight" activeCell="CN5" sqref="CN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,6 +1460,9 @@
       <c r="CM3" t="s">
         <v>56</v>
       </c>
+      <c r="CN3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1735,6 +1738,9 @@
       <c r="CM4" t="s">
         <v>56</v>
       </c>
+      <c r="CN4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2010,6 +2016,9 @@
       <c r="CM5" t="s">
         <v>55</v>
       </c>
+      <c r="CN5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2285,6 +2294,9 @@
       <c r="CM6" t="s">
         <v>55</v>
       </c>
+      <c r="CN6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2560,6 +2572,9 @@
       <c r="CM7" t="s">
         <v>55</v>
       </c>
+      <c r="CN7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2835,6 +2850,9 @@
       <c r="CM8" t="s">
         <v>55</v>
       </c>
+      <c r="CN8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3423,6 +3441,9 @@
       <c r="CM12" t="s">
         <v>55</v>
       </c>
+      <c r="CN12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3698,6 +3719,9 @@
       <c r="CM13" t="s">
         <v>55</v>
       </c>
+      <c r="CN13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3973,6 +3997,9 @@
       <c r="CM14" t="s">
         <v>56</v>
       </c>
+      <c r="CN14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4495,6 +4522,9 @@
       <c r="CM17" t="s">
         <v>56</v>
       </c>
+      <c r="CN17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4770,7 +4800,9 @@
       <c r="CM18" t="s">
         <v>55</v>
       </c>
-      <c r="CN18"/>
+      <c r="CN18" t="s">
+        <v>55</v>
+      </c>
       <c r="CO18"/>
       <c r="CP18"/>
       <c r="CQ18"/>
@@ -5060,7 +5092,9 @@
       <c r="CM19" t="s">
         <v>55</v>
       </c>
-      <c r="CN19"/>
+      <c r="CN19" t="s">
+        <v>55</v>
+      </c>
       <c r="CO19"/>
       <c r="CP19"/>
       <c r="CQ19"/>
@@ -5358,6 +5392,9 @@
       <c r="CM20" t="s">
         <v>55</v>
       </c>
+      <c r="CN20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5633,6 +5670,9 @@
       <c r="CM21" t="s">
         <v>55</v>
       </c>
+      <c r="CN21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6017,6 +6057,9 @@
       <c r="CM23" t="s">
         <v>55</v>
       </c>
+      <c r="CN23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6241,6 +6284,9 @@
       <c r="CM24" t="s">
         <v>56</v>
       </c>
+      <c r="CN24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6516,6 +6562,9 @@
       <c r="CM25" t="s">
         <v>55</v>
       </c>
+      <c r="CN25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6791,6 +6840,9 @@
       <c r="CM26" t="s">
         <v>55</v>
       </c>
+      <c r="CN26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7066,6 +7118,9 @@
       <c r="CM27" t="s">
         <v>55</v>
       </c>
+      <c r="CN27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7448,7 +7503,9 @@
       <c r="CM29" t="s">
         <v>55</v>
       </c>
-      <c r="CN29"/>
+      <c r="CN29" t="s">
+        <v>56</v>
+      </c>
       <c r="CO29"/>
       <c r="CP29"/>
       <c r="CQ29"/>
@@ -7746,7 +7803,9 @@
       <c r="CM30" t="s">
         <v>55</v>
       </c>
-      <c r="CN30"/>
+      <c r="CN30" t="s">
+        <v>56</v>
+      </c>
       <c r="CO30"/>
       <c r="CP30"/>
       <c r="CQ30"/>
@@ -8153,6 +8212,9 @@
       <c r="CM32" t="s">
         <v>55</v>
       </c>
+      <c r="CN32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8426,6 +8488,9 @@
         <v>56</v>
       </c>
       <c r="CM33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9087,6 +9152,9 @@
       <c r="CM36" t="s">
         <v>55</v>
       </c>
+      <c r="CN36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9362,6 +9430,9 @@
       <c r="CM37" t="s">
         <v>56</v>
       </c>
+      <c r="CN37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9635,6 +9706,9 @@
         <v>55</v>
       </c>
       <c r="CM38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10060,6 +10134,9 @@
       <c r="CM40" t="s">
         <v>55</v>
       </c>
+      <c r="CN40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10598,6 +10675,9 @@
       <c r="CM43" t="s">
         <v>56</v>
       </c>
+      <c r="CN43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10873,6 +10953,9 @@
       <c r="CM44" t="s">
         <v>55</v>
       </c>
+      <c r="CN44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11148,6 +11231,9 @@
       <c r="CM45" t="s">
         <v>55</v>
       </c>
+      <c r="CN45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11376,6 +11462,9 @@
         <v>55</v>
       </c>
       <c r="CM46" t="s">
+        <v>56</v>
+      </c>
+      <c r="CN46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11639,7 +11728,9 @@
       <c r="CM47" t="s">
         <v>55</v>
       </c>
-      <c r="CN47"/>
+      <c r="CN47" t="s">
+        <v>55</v>
+      </c>
       <c r="CO47"/>
       <c r="CP47"/>
       <c r="CQ47"/>
@@ -11803,7 +11894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12077,8 +12168,11 @@
       <c r="CM49" t="s">
         <v>55</v>
       </c>
+      <c r="CN49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12331,8 +12425,11 @@
       <c r="CM50" t="s">
         <v>56</v>
       </c>
+      <c r="CN50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12604,6 +12701,9 @@
         <v>55</v>
       </c>
       <c r="CM51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CN51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977AA35A-9E3A-4C80-948B-98BA80CC1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB65B899-03F5-4BD3-92B1-070E88EB5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CN5" sqref="CN5"/>
+      <selection pane="bottomRight" activeCell="CO47" sqref="CO47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,6 +1463,9 @@
       <c r="CN3" t="s">
         <v>56</v>
       </c>
+      <c r="CO3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1741,6 +1744,9 @@
       <c r="CN4" t="s">
         <v>56</v>
       </c>
+      <c r="CO4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2019,6 +2025,9 @@
       <c r="CN5" t="s">
         <v>55</v>
       </c>
+      <c r="CO5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2297,6 +2306,9 @@
       <c r="CN6" t="s">
         <v>56</v>
       </c>
+      <c r="CO6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2575,6 +2587,9 @@
       <c r="CN7" t="s">
         <v>56</v>
       </c>
+      <c r="CO7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2853,6 +2868,9 @@
       <c r="CN8" t="s">
         <v>55</v>
       </c>
+      <c r="CO8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3444,6 +3462,9 @@
       <c r="CN12" t="s">
         <v>55</v>
       </c>
+      <c r="CO12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3722,6 +3743,9 @@
       <c r="CN13" t="s">
         <v>55</v>
       </c>
+      <c r="CO13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4000,6 +4024,9 @@
       <c r="CN14" t="s">
         <v>56</v>
       </c>
+      <c r="CO14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4525,6 +4552,9 @@
       <c r="CN17" t="s">
         <v>55</v>
       </c>
+      <c r="CO17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4803,7 +4833,9 @@
       <c r="CN18" t="s">
         <v>55</v>
       </c>
-      <c r="CO18"/>
+      <c r="CO18" t="s">
+        <v>55</v>
+      </c>
       <c r="CP18"/>
       <c r="CQ18"/>
       <c r="CR18"/>
@@ -5095,7 +5127,9 @@
       <c r="CN19" t="s">
         <v>55</v>
       </c>
-      <c r="CO19"/>
+      <c r="CO19" t="s">
+        <v>55</v>
+      </c>
       <c r="CP19"/>
       <c r="CQ19"/>
       <c r="CR19"/>
@@ -5395,6 +5429,9 @@
       <c r="CN20" t="s">
         <v>55</v>
       </c>
+      <c r="CO20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5673,6 +5710,9 @@
       <c r="CN21" t="s">
         <v>55</v>
       </c>
+      <c r="CO21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6060,6 +6100,9 @@
       <c r="CN23" t="s">
         <v>55</v>
       </c>
+      <c r="CO23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6287,6 +6330,9 @@
       <c r="CN24" t="s">
         <v>56</v>
       </c>
+      <c r="CO24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6565,6 +6611,9 @@
       <c r="CN25" t="s">
         <v>55</v>
       </c>
+      <c r="CO25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6843,6 +6892,9 @@
       <c r="CN26" t="s">
         <v>55</v>
       </c>
+      <c r="CO26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7121,6 +7173,9 @@
       <c r="CN27" t="s">
         <v>55</v>
       </c>
+      <c r="CO27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7506,7 +7561,9 @@
       <c r="CN29" t="s">
         <v>56</v>
       </c>
-      <c r="CO29"/>
+      <c r="CO29" t="s">
+        <v>55</v>
+      </c>
       <c r="CP29"/>
       <c r="CQ29"/>
       <c r="CR29"/>
@@ -7806,7 +7863,9 @@
       <c r="CN30" t="s">
         <v>56</v>
       </c>
-      <c r="CO30"/>
+      <c r="CO30" t="s">
+        <v>55</v>
+      </c>
       <c r="CP30"/>
       <c r="CQ30"/>
       <c r="CR30"/>
@@ -8215,6 +8274,9 @@
       <c r="CN32" t="s">
         <v>55</v>
       </c>
+      <c r="CO32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8491,6 +8553,9 @@
         <v>55</v>
       </c>
       <c r="CN33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9155,6 +9220,9 @@
       <c r="CN36" t="s">
         <v>55</v>
       </c>
+      <c r="CO36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9433,6 +9501,9 @@
       <c r="CN37" t="s">
         <v>56</v>
       </c>
+      <c r="CO37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9709,6 +9780,9 @@
         <v>55</v>
       </c>
       <c r="CN38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10137,6 +10211,9 @@
       <c r="CN40" t="s">
         <v>56</v>
       </c>
+      <c r="CO40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10678,6 +10755,9 @@
       <c r="CN43" t="s">
         <v>56</v>
       </c>
+      <c r="CO43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -10956,6 +11036,9 @@
       <c r="CN44" t="s">
         <v>55</v>
       </c>
+      <c r="CO44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11234,6 +11317,9 @@
       <c r="CN45" t="s">
         <v>55</v>
       </c>
+      <c r="CO45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11466,6 +11552,9 @@
       </c>
       <c r="CN46" t="s">
         <v>56</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11731,7 +11820,9 @@
       <c r="CN47" t="s">
         <v>55</v>
       </c>
-      <c r="CO47"/>
+      <c r="CO47" t="s">
+        <v>55</v>
+      </c>
       <c r="CP47"/>
       <c r="CQ47"/>
       <c r="CR47"/>
@@ -11894,7 +11985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12171,8 +12262,11 @@
       <c r="CN49" t="s">
         <v>55</v>
       </c>
+      <c r="CO49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12428,8 +12522,11 @@
       <c r="CN50" t="s">
         <v>55</v>
       </c>
+      <c r="CO50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12704,6 +12801,9 @@
         <v>55</v>
       </c>
       <c r="CN51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CO51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB65B899-03F5-4BD3-92B1-070E88EB5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046D692-4A19-41A7-B7C8-3935C67F4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="60">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -643,7 +643,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO47" sqref="CO47"/>
+      <selection pane="bottomRight" activeCell="CP47" sqref="CP47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1466,9 @@
       <c r="CO3" t="s">
         <v>56</v>
       </c>
+      <c r="CP3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1747,6 +1750,9 @@
       <c r="CO4" t="s">
         <v>56</v>
       </c>
+      <c r="CP4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2028,6 +2034,9 @@
       <c r="CO5" t="s">
         <v>55</v>
       </c>
+      <c r="CP5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2309,6 +2318,9 @@
       <c r="CO6" t="s">
         <v>56</v>
       </c>
+      <c r="CP6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2590,6 +2602,9 @@
       <c r="CO7" t="s">
         <v>56</v>
       </c>
+      <c r="CP7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2871,6 +2886,9 @@
       <c r="CO8" t="s">
         <v>55</v>
       </c>
+      <c r="CP8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3465,6 +3483,9 @@
       <c r="CO12" t="s">
         <v>55</v>
       </c>
+      <c r="CP12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3746,6 +3767,9 @@
       <c r="CO13" t="s">
         <v>55</v>
       </c>
+      <c r="CP13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4027,6 +4051,9 @@
       <c r="CO14" t="s">
         <v>56</v>
       </c>
+      <c r="CP14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4555,6 +4582,9 @@
       <c r="CO17" t="s">
         <v>55</v>
       </c>
+      <c r="CP17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4836,7 +4866,9 @@
       <c r="CO18" t="s">
         <v>55</v>
       </c>
-      <c r="CP18"/>
+      <c r="CP18" t="s">
+        <v>55</v>
+      </c>
       <c r="CQ18"/>
       <c r="CR18"/>
       <c r="CS18"/>
@@ -5130,7 +5162,9 @@
       <c r="CO19" t="s">
         <v>55</v>
       </c>
-      <c r="CP19"/>
+      <c r="CP19" t="s">
+        <v>55</v>
+      </c>
       <c r="CQ19"/>
       <c r="CR19"/>
       <c r="CS19"/>
@@ -5432,6 +5466,9 @@
       <c r="CO20" t="s">
         <v>56</v>
       </c>
+      <c r="CP20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5713,6 +5750,9 @@
       <c r="CO21" t="s">
         <v>55</v>
       </c>
+      <c r="CP21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6103,6 +6143,9 @@
       <c r="CO23" t="s">
         <v>55</v>
       </c>
+      <c r="CP23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6333,6 +6376,9 @@
       <c r="CO24" t="s">
         <v>56</v>
       </c>
+      <c r="CP24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6614,6 +6660,9 @@
       <c r="CO25" t="s">
         <v>56</v>
       </c>
+      <c r="CP25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6895,6 +6944,9 @@
       <c r="CO26" t="s">
         <v>55</v>
       </c>
+      <c r="CP26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7176,6 +7228,9 @@
       <c r="CO27" t="s">
         <v>56</v>
       </c>
+      <c r="CP27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7564,7 +7619,9 @@
       <c r="CO29" t="s">
         <v>55</v>
       </c>
-      <c r="CP29"/>
+      <c r="CP29" t="s">
+        <v>55</v>
+      </c>
       <c r="CQ29"/>
       <c r="CR29"/>
       <c r="CS29"/>
@@ -7866,7 +7923,9 @@
       <c r="CO30" t="s">
         <v>55</v>
       </c>
-      <c r="CP30"/>
+      <c r="CP30" t="s">
+        <v>55</v>
+      </c>
       <c r="CQ30"/>
       <c r="CR30"/>
       <c r="CS30"/>
@@ -8277,6 +8336,9 @@
       <c r="CO32" t="s">
         <v>55</v>
       </c>
+      <c r="CP32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8556,6 +8618,9 @@
         <v>55</v>
       </c>
       <c r="CO33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CP33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9223,6 +9288,9 @@
       <c r="CO36" t="s">
         <v>55</v>
       </c>
+      <c r="CP36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9504,6 +9572,9 @@
       <c r="CO37" t="s">
         <v>56</v>
       </c>
+      <c r="CP37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9783,6 +9854,9 @@
         <v>55</v>
       </c>
       <c r="CO38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CP38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10214,6 +10288,9 @@
       <c r="CO40" t="s">
         <v>56</v>
       </c>
+      <c r="CP40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10758,6 +10835,9 @@
       <c r="CO43" t="s">
         <v>56</v>
       </c>
+      <c r="CP43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11039,6 +11119,9 @@
       <c r="CO44" t="s">
         <v>55</v>
       </c>
+      <c r="CP44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11320,6 +11403,9 @@
       <c r="CO45" t="s">
         <v>55</v>
       </c>
+      <c r="CP45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11554,6 +11640,9 @@
         <v>56</v>
       </c>
       <c r="CO46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CP46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11823,7 +11912,9 @@
       <c r="CO47" t="s">
         <v>55</v>
       </c>
-      <c r="CP47"/>
+      <c r="CP47" t="s">
+        <v>55</v>
+      </c>
       <c r="CQ47"/>
       <c r="CR47"/>
       <c r="CS47"/>
@@ -11985,7 +12076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12265,8 +12356,11 @@
       <c r="CO49" t="s">
         <v>55</v>
       </c>
+      <c r="CP49" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="50" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12525,8 +12619,11 @@
       <c r="CO50" t="s">
         <v>55</v>
       </c>
+      <c r="CP50" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="51" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12804,6 +12901,9 @@
         <v>55</v>
       </c>
       <c r="CO51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CP51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4046D692-4A19-41A7-B7C8-3935C67F4037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DF6A1-1A77-4F1E-AFDA-BEDAB4E15205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="66">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>VPS01</t>
+  </si>
+  <si>
+    <t>Rec. FPOO</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>pi</t>
   </si>
 </sst>
 </file>
@@ -639,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12929,26 +12947,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>59</v>
       </c>
       <c r="C1" t="s">
         <v>59</v>
       </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -12958,8 +12980,17 @@
       <c r="C2" t="s">
         <v>41</v>
       </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2">
+        <v>3.14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12969,8 +13000,14 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12980,8 +13017,14 @@
       <c r="C4">
         <v>60</v>
       </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12991,8 +13034,15 @@
       <c r="C5">
         <v>50</v>
       </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5">
+        <f>I4*(2*I2*I3)</f>
+        <v>25.12</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13002,8 +13052,15 @@
       <c r="C6">
         <v>70</v>
       </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <f>I4*(I2*I3*I3)</f>
+        <v>25.12</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13013,8 +13070,11 @@
       <c r="C7">
         <v>90</v>
       </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13025,7 +13085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13036,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13047,7 +13107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -13058,7 +13118,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -13069,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -13080,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -13091,7 +13151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13102,7 +13162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -13113,7 +13173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -13124,7 +13184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -13135,7 +13195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -13146,7 +13206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -13157,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -13168,7 +13228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -13178,8 +13238,11 @@
       <c r="C22">
         <v>0</v>
       </c>
+      <c r="D22">
+        <v>85</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -13190,7 +13253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -13201,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -13212,7 +13275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -13223,7 +13286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -13234,7 +13297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -13244,8 +13307,11 @@
       <c r="C28">
         <v>50</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -13256,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -13267,7 +13333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -13278,7 +13344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -13289,7 +13355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -13300,7 +13366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -13310,8 +13376,11 @@
       <c r="C34">
         <v>70</v>
       </c>
+      <c r="D34">
+        <v>80</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -13322,7 +13391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DF6A1-1A77-4F1E-AFDA-BEDAB4E15205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0656ED3-91BA-4CF0-9625-57DCCF48AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chamada" sheetId="1" r:id="rId1"/>
     <sheet name="FPOO" sheetId="2" r:id="rId2"/>
+    <sheet name="LIMA" sheetId="4" r:id="rId3"/>
+    <sheet name="SOP" sheetId="5" r:id="rId4"/>
+    <sheet name="HARE" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -216,22 +219,10 @@
     <t>VPS01</t>
   </si>
   <si>
-    <t>Rec. FPOO</t>
+    <t>VPS01-Rec</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>pi</t>
+    <t>VPS01-Fim</t>
   </si>
 </sst>
 </file>
@@ -314,7 +305,92 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -661,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CP47" sqref="CP47"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,6 +1563,9 @@
       <c r="CP3" t="s">
         <v>56</v>
       </c>
+      <c r="CQ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1771,6 +1850,9 @@
       <c r="CP4" t="s">
         <v>56</v>
       </c>
+      <c r="CQ4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2055,6 +2137,9 @@
       <c r="CP5" t="s">
         <v>55</v>
       </c>
+      <c r="CQ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2339,6 +2424,9 @@
       <c r="CP6" t="s">
         <v>56</v>
       </c>
+      <c r="CQ6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2623,6 +2711,9 @@
       <c r="CP7" t="s">
         <v>55</v>
       </c>
+      <c r="CQ7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2907,6 +2998,9 @@
       <c r="CP8" t="s">
         <v>55</v>
       </c>
+      <c r="CQ8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3504,6 +3598,9 @@
       <c r="CP12" t="s">
         <v>55</v>
       </c>
+      <c r="CQ12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3788,9 +3885,12 @@
       <c r="CP13" t="s">
         <v>56</v>
       </c>
+      <c r="CQ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -4070,6 +4170,9 @@
         <v>56</v>
       </c>
       <c r="CP14" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4603,6 +4706,9 @@
       <c r="CP17" t="s">
         <v>55</v>
       </c>
+      <c r="CQ17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4887,7 +4993,9 @@
       <c r="CP18" t="s">
         <v>55</v>
       </c>
-      <c r="CQ18"/>
+      <c r="CQ18" t="s">
+        <v>55</v>
+      </c>
       <c r="CR18"/>
       <c r="CS18"/>
       <c r="CT18"/>
@@ -5183,7 +5291,9 @@
       <c r="CP19" t="s">
         <v>55</v>
       </c>
-      <c r="CQ19"/>
+      <c r="CQ19" t="s">
+        <v>55</v>
+      </c>
       <c r="CR19"/>
       <c r="CS19"/>
       <c r="CT19"/>
@@ -5487,6 +5597,9 @@
       <c r="CP20" t="s">
         <v>55</v>
       </c>
+      <c r="CQ20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5771,6 +5884,9 @@
       <c r="CP21" t="s">
         <v>55</v>
       </c>
+      <c r="CQ21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6164,6 +6280,9 @@
       <c r="CP23" t="s">
         <v>55</v>
       </c>
+      <c r="CQ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6397,6 +6516,9 @@
       <c r="CP24" t="s">
         <v>56</v>
       </c>
+      <c r="CQ24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6681,6 +6803,9 @@
       <c r="CP25" t="s">
         <v>55</v>
       </c>
+      <c r="CQ25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6965,6 +7090,9 @@
       <c r="CP26" t="s">
         <v>55</v>
       </c>
+      <c r="CQ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7249,6 +7377,9 @@
       <c r="CP27" t="s">
         <v>55</v>
       </c>
+      <c r="CQ27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7640,7 +7771,9 @@
       <c r="CP29" t="s">
         <v>55</v>
       </c>
-      <c r="CQ29"/>
+      <c r="CQ29" t="s">
+        <v>55</v>
+      </c>
       <c r="CR29"/>
       <c r="CS29"/>
       <c r="CT29"/>
@@ -7662,7 +7795,7 @@
       <c r="DJ29"/>
     </row>
     <row r="30" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30">
@@ -7944,7 +8077,9 @@
       <c r="CP30" t="s">
         <v>55</v>
       </c>
-      <c r="CQ30"/>
+      <c r="CQ30" t="s">
+        <v>55</v>
+      </c>
       <c r="CR30"/>
       <c r="CS30"/>
       <c r="CT30"/>
@@ -8357,6 +8492,9 @@
       <c r="CP32" t="s">
         <v>55</v>
       </c>
+      <c r="CQ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8639,6 +8777,9 @@
         <v>55</v>
       </c>
       <c r="CP33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9309,6 +9450,9 @@
       <c r="CP36" t="s">
         <v>55</v>
       </c>
+      <c r="CQ36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9593,6 +9737,9 @@
       <c r="CP37" t="s">
         <v>56</v>
       </c>
+      <c r="CQ37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -9875,6 +10022,9 @@
         <v>55</v>
       </c>
       <c r="CP38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10309,6 +10459,9 @@
       <c r="CP40" t="s">
         <v>55</v>
       </c>
+      <c r="CQ40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -10856,6 +11009,9 @@
       <c r="CP43" t="s">
         <v>56</v>
       </c>
+      <c r="CQ43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11140,6 +11296,9 @@
       <c r="CP44" t="s">
         <v>55</v>
       </c>
+      <c r="CQ44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11424,6 +11583,9 @@
       <c r="CP45" t="s">
         <v>55</v>
       </c>
+      <c r="CQ45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11662,6 +11824,9 @@
       </c>
       <c r="CP46" t="s">
         <v>55</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11933,7 +12098,9 @@
       <c r="CP47" t="s">
         <v>55</v>
       </c>
-      <c r="CQ47"/>
+      <c r="CQ47" t="s">
+        <v>55</v>
+      </c>
       <c r="CR47"/>
       <c r="CS47"/>
       <c r="CT47"/>
@@ -12094,7 +12261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12377,8 +12544,11 @@
       <c r="CP49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="CQ49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12640,8 +12810,11 @@
       <c r="CP50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="CQ50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -12922,6 +13095,9 @@
         <v>55</v>
       </c>
       <c r="CP51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CQ51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12933,10 +13109,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12947,50 +13123,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12998,33 +13169,26 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3&gt;B3,C3,B3)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" ref="D4:D36" si="0">IF(C4&gt;B4,C4,B4)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13032,17 +13196,14 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5">
-        <f>I4*(2*I2*I3)</f>
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13050,17 +13211,14 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6">
-        <f>I4*(I2*I3*I3)</f>
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13068,24 +13226,26 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13093,10 +13253,14 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13106,8 +13270,12 @@
       <c r="C10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -13115,10 +13283,14 @@
         <v>90</v>
       </c>
       <c r="C11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -13126,10 +13298,14 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -13137,10 +13313,14 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -13148,10 +13328,14 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -13159,18 +13343,23 @@
         <v>90</v>
       </c>
       <c r="C15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>70</v>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -13183,6 +13372,10 @@
       <c r="C17">
         <v>90</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -13191,8 +13384,9 @@
       <c r="B18">
         <v>70</v>
       </c>
-      <c r="C18">
-        <v>100</v>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13203,7 +13397,11 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13214,7 +13412,11 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -13225,7 +13427,11 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13236,9 +13442,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
@@ -13249,8 +13456,9 @@
       <c r="B23">
         <v>80</v>
       </c>
-      <c r="C23">
-        <v>70</v>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13260,8 +13468,9 @@
       <c r="B24">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13274,6 +13483,10 @@
       <c r="C25">
         <v>90</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -13282,8 +13495,9 @@
       <c r="B26">
         <v>50</v>
       </c>
-      <c r="C26">
-        <v>20</v>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13294,7 +13508,11 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13305,10 +13523,11 @@
         <v>60</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13318,7 +13537,8 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
+      <c r="D29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13332,6 +13552,10 @@
       <c r="C30">
         <v>70</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -13341,7 +13565,11 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -13351,8 +13579,9 @@
       <c r="B32">
         <v>80</v>
       </c>
-      <c r="C32" s="6">
-        <v>100</v>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -13363,7 +13592,11 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13374,9 +13607,10 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -13387,8 +13621,9 @@
       <c r="B35">
         <v>60</v>
       </c>
-      <c r="C35">
-        <v>40</v>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -13399,7 +13634,764 @@
         <v>70</v>
       </c>
       <c r="C36">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A36">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C36">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D36">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A36">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B36">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CC97E-7048-4DC6-A2AF-8E9D4B6F4F4C}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A36">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0656ED3-91BA-4CF0-9625-57DCCF48AC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F20417-1EB2-492E-8032-2C5A1ACB0CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F20417-1EB2-492E-8032-2C5A1ACB0CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E19F41-7A33-433E-A644-9C31D616D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -733,11 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="CT4" sqref="CT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,11 +749,12 @@
     <col min="11" max="33" width="7" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="55" width="6.5703125" customWidth="1"/>
-    <col min="56" max="65" width="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="95" width="7" customWidth="1"/>
+    <col min="56" max="76" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="98" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1037,8 +1038,23 @@
       <c r="CQ1" s="2">
         <v>44890</v>
       </c>
-    </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="CR1" s="2">
+        <v>44893</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>44894</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>44895</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>44896</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1324,8 +1340,23 @@
       <c r="CQ2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1567,7 +1598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:95" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1885,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2428,7 +2459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2715,7 +2746,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3002,7 +3033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3111,7 +3142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -3206,7 +3237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -3315,7 +3346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3889,7 +3920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -4176,7 +4207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4298,7 +4329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:95" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -13126,7 +13157,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13673,7 +13704,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13993,7 +14024,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14202,8 +14233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E19F41-7A33-433E-A644-9C31D616D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4384C-2D73-4105-8F4D-999FC69C13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CT4" sqref="CT4"/>
+      <selection pane="bottomRight" activeCell="CR52" sqref="CR52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,6 +1597,9 @@
       <c r="CQ3" t="s">
         <v>56</v>
       </c>
+      <c r="CR3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1884,6 +1887,9 @@
       <c r="CQ4" t="s">
         <v>56</v>
       </c>
+      <c r="CR4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2171,6 +2177,9 @@
       <c r="CQ5" t="s">
         <v>55</v>
       </c>
+      <c r="CR5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2458,6 +2467,9 @@
       <c r="CQ6" t="s">
         <v>56</v>
       </c>
+      <c r="CR6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2745,6 +2757,9 @@
       <c r="CQ7" t="s">
         <v>55</v>
       </c>
+      <c r="CR7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3032,6 +3047,9 @@
       <c r="CQ8" t="s">
         <v>55</v>
       </c>
+      <c r="CR8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3632,6 +3650,9 @@
       <c r="CQ12" t="s">
         <v>55</v>
       </c>
+      <c r="CR12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3919,6 +3940,9 @@
       <c r="CQ13" t="s">
         <v>55</v>
       </c>
+      <c r="CR13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -4206,6 +4230,9 @@
       <c r="CQ14" t="s">
         <v>55</v>
       </c>
+      <c r="CR14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4740,6 +4767,9 @@
       <c r="CQ17" t="s">
         <v>55</v>
       </c>
+      <c r="CR17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5027,7 +5057,9 @@
       <c r="CQ18" t="s">
         <v>55</v>
       </c>
-      <c r="CR18"/>
+      <c r="CR18" t="s">
+        <v>55</v>
+      </c>
       <c r="CS18"/>
       <c r="CT18"/>
       <c r="CU18"/>
@@ -5325,7 +5357,9 @@
       <c r="CQ19" t="s">
         <v>55</v>
       </c>
-      <c r="CR19"/>
+      <c r="CR19" t="s">
+        <v>55</v>
+      </c>
       <c r="CS19"/>
       <c r="CT19"/>
       <c r="CU19"/>
@@ -5631,6 +5665,9 @@
       <c r="CQ20" t="s">
         <v>55</v>
       </c>
+      <c r="CR20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5918,6 +5955,9 @@
       <c r="CQ21" t="s">
         <v>55</v>
       </c>
+      <c r="CR21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6314,6 +6354,9 @@
       <c r="CQ23" t="s">
         <v>55</v>
       </c>
+      <c r="CR23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6550,6 +6593,9 @@
       <c r="CQ24" t="s">
         <v>56</v>
       </c>
+      <c r="CR24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6837,6 +6883,9 @@
       <c r="CQ25" t="s">
         <v>55</v>
       </c>
+      <c r="CR25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7124,6 +7173,9 @@
       <c r="CQ26" t="s">
         <v>55</v>
       </c>
+      <c r="CR26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7411,6 +7463,9 @@
       <c r="CQ27" t="s">
         <v>55</v>
       </c>
+      <c r="CR27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7805,7 +7860,9 @@
       <c r="CQ29" t="s">
         <v>55</v>
       </c>
-      <c r="CR29"/>
+      <c r="CR29" t="s">
+        <v>55</v>
+      </c>
       <c r="CS29"/>
       <c r="CT29"/>
       <c r="CU29"/>
@@ -8111,7 +8168,9 @@
       <c r="CQ30" t="s">
         <v>55</v>
       </c>
-      <c r="CR30"/>
+      <c r="CR30" t="s">
+        <v>56</v>
+      </c>
       <c r="CS30"/>
       <c r="CT30"/>
       <c r="CU30"/>
@@ -8526,6 +8585,9 @@
       <c r="CQ32" t="s">
         <v>55</v>
       </c>
+      <c r="CR32" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8811,6 +8873,9 @@
         <v>55</v>
       </c>
       <c r="CQ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9484,6 +9549,9 @@
       <c r="CQ36" t="s">
         <v>55</v>
       </c>
+      <c r="CR36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9771,6 +9839,9 @@
       <c r="CQ37" t="s">
         <v>56</v>
       </c>
+      <c r="CR37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10056,6 +10127,9 @@
         <v>55</v>
       </c>
       <c r="CQ38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10493,6 +10567,9 @@
       <c r="CQ40" t="s">
         <v>56</v>
       </c>
+      <c r="CR40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11043,6 +11120,9 @@
       <c r="CQ43" t="s">
         <v>56</v>
       </c>
+      <c r="CR43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11330,6 +11410,9 @@
       <c r="CQ44" t="s">
         <v>55</v>
       </c>
+      <c r="CR44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11617,6 +11700,9 @@
       <c r="CQ45" t="s">
         <v>56</v>
       </c>
+      <c r="CR45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -11858,6 +11944,9 @@
       </c>
       <c r="CQ46" t="s">
         <v>56</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -12132,7 +12221,9 @@
       <c r="CQ47" t="s">
         <v>55</v>
       </c>
-      <c r="CR47"/>
+      <c r="CR47" t="s">
+        <v>55</v>
+      </c>
       <c r="CS47"/>
       <c r="CT47"/>
       <c r="CU47"/>
@@ -12292,7 +12383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12578,8 +12669,11 @@
       <c r="CQ49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="CR49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12844,8 +12938,11 @@
       <c r="CQ50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="CR50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13129,6 +13226,9 @@
         <v>55</v>
       </c>
       <c r="CQ51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CR51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4384C-2D73-4105-8F4D-999FC69C13C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F17CE-1F0C-4656-9834-17F273703556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CR52" sqref="CR52"/>
+      <selection pane="bottomRight" activeCell="CS21" sqref="CS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1600,9 @@
       <c r="CR3" t="s">
         <v>56</v>
       </c>
+      <c r="CS3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1890,6 +1893,9 @@
       <c r="CR4" t="s">
         <v>56</v>
       </c>
+      <c r="CS4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2180,6 +2186,9 @@
       <c r="CR5" t="s">
         <v>55</v>
       </c>
+      <c r="CS5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2470,6 +2479,9 @@
       <c r="CR6" t="s">
         <v>55</v>
       </c>
+      <c r="CS6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2760,6 +2772,9 @@
       <c r="CR7" t="s">
         <v>55</v>
       </c>
+      <c r="CS7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3050,6 +3065,9 @@
       <c r="CR8" t="s">
         <v>55</v>
       </c>
+      <c r="CS8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3653,6 +3671,9 @@
       <c r="CR12" t="s">
         <v>56</v>
       </c>
+      <c r="CS12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3943,6 +3964,9 @@
       <c r="CR13" t="s">
         <v>55</v>
       </c>
+      <c r="CS13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -4233,6 +4257,9 @@
       <c r="CR14" t="s">
         <v>56</v>
       </c>
+      <c r="CS14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4770,6 +4797,9 @@
       <c r="CR17" t="s">
         <v>55</v>
       </c>
+      <c r="CS17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5060,7 +5090,9 @@
       <c r="CR18" t="s">
         <v>55</v>
       </c>
-      <c r="CS18"/>
+      <c r="CS18" t="s">
+        <v>55</v>
+      </c>
       <c r="CT18"/>
       <c r="CU18"/>
       <c r="CV18"/>
@@ -5360,7 +5392,9 @@
       <c r="CR19" t="s">
         <v>55</v>
       </c>
-      <c r="CS19"/>
+      <c r="CS19" t="s">
+        <v>55</v>
+      </c>
       <c r="CT19"/>
       <c r="CU19"/>
       <c r="CV19"/>
@@ -5666,7 +5700,10 @@
         <v>55</v>
       </c>
       <c r="CR20" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
@@ -5958,6 +5995,9 @@
       <c r="CR21" t="s">
         <v>55</v>
       </c>
+      <c r="CS21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6357,6 +6397,9 @@
       <c r="CR23" t="s">
         <v>55</v>
       </c>
+      <c r="CS23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6596,6 +6639,9 @@
       <c r="CR24" t="s">
         <v>56</v>
       </c>
+      <c r="CS24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6886,6 +6932,9 @@
       <c r="CR25" t="s">
         <v>55</v>
       </c>
+      <c r="CS25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7176,6 +7225,9 @@
       <c r="CR26" t="s">
         <v>55</v>
       </c>
+      <c r="CS26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7466,6 +7518,9 @@
       <c r="CR27" t="s">
         <v>55</v>
       </c>
+      <c r="CS27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7863,7 +7918,9 @@
       <c r="CR29" t="s">
         <v>55</v>
       </c>
-      <c r="CS29"/>
+      <c r="CS29" t="s">
+        <v>55</v>
+      </c>
       <c r="CT29"/>
       <c r="CU29"/>
       <c r="CV29"/>
@@ -8171,7 +8228,9 @@
       <c r="CR30" t="s">
         <v>56</v>
       </c>
-      <c r="CS30"/>
+      <c r="CS30" t="s">
+        <v>55</v>
+      </c>
       <c r="CT30"/>
       <c r="CU30"/>
       <c r="CV30"/>
@@ -8588,6 +8647,9 @@
       <c r="CR32" t="s">
         <v>56</v>
       </c>
+      <c r="CS32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8877,6 +8939,9 @@
       </c>
       <c r="CR33" t="s">
         <v>55</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9552,6 +9617,9 @@
       <c r="CR36" t="s">
         <v>55</v>
       </c>
+      <c r="CS36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9842,6 +9910,9 @@
       <c r="CR37" t="s">
         <v>56</v>
       </c>
+      <c r="CS37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10130,6 +10201,9 @@
         <v>55</v>
       </c>
       <c r="CR38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10570,6 +10644,9 @@
       <c r="CR40" t="s">
         <v>55</v>
       </c>
+      <c r="CS40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11123,6 +11200,9 @@
       <c r="CR43" t="s">
         <v>56</v>
       </c>
+      <c r="CS43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11413,6 +11493,9 @@
       <c r="CR44" t="s">
         <v>55</v>
       </c>
+      <c r="CS44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11701,7 +11784,10 @@
         <v>56</v>
       </c>
       <c r="CR45" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
@@ -11946,6 +12032,9 @@
         <v>56</v>
       </c>
       <c r="CR46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12224,7 +12313,9 @@
       <c r="CR47" t="s">
         <v>55</v>
       </c>
-      <c r="CS47"/>
+      <c r="CS47" t="s">
+        <v>55</v>
+      </c>
       <c r="CT47"/>
       <c r="CU47"/>
       <c r="CV47"/>
@@ -12383,7 +12474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12672,8 +12763,11 @@
       <c r="CR49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="CS49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -12941,8 +13035,11 @@
       <c r="CR50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="CS50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13229,6 +13326,9 @@
         <v>55</v>
       </c>
       <c r="CR51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F17CE-1F0C-4656-9834-17F273703556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721D1B8-24F6-4C1E-A801-14964ABEF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CS21" sqref="CS21"/>
+      <selection pane="bottomRight" activeCell="CU19" sqref="CU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,6 +1603,9 @@
       <c r="CS3" t="s">
         <v>56</v>
       </c>
+      <c r="CT3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1896,6 +1899,9 @@
       <c r="CS4" t="s">
         <v>56</v>
       </c>
+      <c r="CT4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2189,6 +2195,9 @@
       <c r="CS5" t="s">
         <v>55</v>
       </c>
+      <c r="CT5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2482,6 +2491,9 @@
       <c r="CS6" t="s">
         <v>55</v>
       </c>
+      <c r="CT6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2775,6 +2787,9 @@
       <c r="CS7" t="s">
         <v>55</v>
       </c>
+      <c r="CT7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3068,6 +3083,9 @@
       <c r="CS8" t="s">
         <v>56</v>
       </c>
+      <c r="CT8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3674,6 +3692,9 @@
       <c r="CS12" t="s">
         <v>55</v>
       </c>
+      <c r="CT12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3967,6 +3988,9 @@
       <c r="CS13" t="s">
         <v>55</v>
       </c>
+      <c r="CT13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -4260,6 +4284,9 @@
       <c r="CS14" t="s">
         <v>56</v>
       </c>
+      <c r="CT14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4800,6 +4827,9 @@
       <c r="CS17" t="s">
         <v>55</v>
       </c>
+      <c r="CT17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5093,7 +5123,9 @@
       <c r="CS18" t="s">
         <v>55</v>
       </c>
-      <c r="CT18"/>
+      <c r="CT18" t="s">
+        <v>55</v>
+      </c>
       <c r="CU18"/>
       <c r="CV18"/>
       <c r="CW18"/>
@@ -5395,7 +5427,9 @@
       <c r="CS19" t="s">
         <v>55</v>
       </c>
-      <c r="CT19"/>
+      <c r="CT19" t="s">
+        <v>55</v>
+      </c>
       <c r="CU19"/>
       <c r="CV19"/>
       <c r="CW19"/>
@@ -5705,6 +5739,9 @@
       <c r="CS20" t="s">
         <v>55</v>
       </c>
+      <c r="CT20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5998,6 +6035,9 @@
       <c r="CS21" t="s">
         <v>55</v>
       </c>
+      <c r="CT21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6400,6 +6440,9 @@
       <c r="CS23" t="s">
         <v>55</v>
       </c>
+      <c r="CT23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6642,6 +6685,9 @@
       <c r="CS24" t="s">
         <v>56</v>
       </c>
+      <c r="CT24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6935,6 +6981,9 @@
       <c r="CS25" t="s">
         <v>55</v>
       </c>
+      <c r="CT25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7228,6 +7277,9 @@
       <c r="CS26" t="s">
         <v>55</v>
       </c>
+      <c r="CT26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7521,6 +7573,9 @@
       <c r="CS27" t="s">
         <v>55</v>
       </c>
+      <c r="CT27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7921,7 +7976,9 @@
       <c r="CS29" t="s">
         <v>55</v>
       </c>
-      <c r="CT29"/>
+      <c r="CT29" t="s">
+        <v>55</v>
+      </c>
       <c r="CU29"/>
       <c r="CV29"/>
       <c r="CW29"/>
@@ -8231,7 +8288,9 @@
       <c r="CS30" t="s">
         <v>55</v>
       </c>
-      <c r="CT30"/>
+      <c r="CT30" t="s">
+        <v>55</v>
+      </c>
       <c r="CU30"/>
       <c r="CV30"/>
       <c r="CW30"/>
@@ -8650,6 +8709,9 @@
       <c r="CS32" t="s">
         <v>55</v>
       </c>
+      <c r="CT32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8941,7 +9003,10 @@
         <v>55</v>
       </c>
       <c r="CS33" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9620,6 +9685,9 @@
       <c r="CS36" t="s">
         <v>55</v>
       </c>
+      <c r="CT36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9913,6 +9981,9 @@
       <c r="CS37" t="s">
         <v>56</v>
       </c>
+      <c r="CT37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10204,6 +10275,9 @@
         <v>55</v>
       </c>
       <c r="CS38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10647,6 +10721,9 @@
       <c r="CS40" t="s">
         <v>55</v>
       </c>
+      <c r="CT40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11203,6 +11280,9 @@
       <c r="CS43" t="s">
         <v>56</v>
       </c>
+      <c r="CT43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11496,6 +11576,9 @@
       <c r="CS44" t="s">
         <v>55</v>
       </c>
+      <c r="CT44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11789,6 +11872,9 @@
       <c r="CS45" t="s">
         <v>55</v>
       </c>
+      <c r="CT45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -12035,6 +12121,9 @@
         <v>55</v>
       </c>
       <c r="CS46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12316,7 +12405,9 @@
       <c r="CS47" t="s">
         <v>55</v>
       </c>
-      <c r="CT47"/>
+      <c r="CT47" t="s">
+        <v>55</v>
+      </c>
       <c r="CU47"/>
       <c r="CV47"/>
       <c r="CW47"/>
@@ -12474,7 +12565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12766,8 +12857,11 @@
       <c r="CS49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13038,8 +13132,11 @@
       <c r="CS50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="CT50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13329,6 +13426,9 @@
         <v>55</v>
       </c>
       <c r="CS51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721D1B8-24F6-4C1E-A801-14964ABEF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E3B57-FDE2-46B7-82B4-D6520B0D33DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -737,7 +737,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CU19" sqref="CU19"/>
+      <selection pane="bottomRight" activeCell="CU51" sqref="CU51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,6 +1606,12 @@
       <c r="CT3" t="s">
         <v>56</v>
       </c>
+      <c r="CU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1902,6 +1908,12 @@
       <c r="CT4" t="s">
         <v>56</v>
       </c>
+      <c r="CU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2198,6 +2210,12 @@
       <c r="CT5" t="s">
         <v>55</v>
       </c>
+      <c r="CU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2492,7 +2510,13 @@
         <v>55</v>
       </c>
       <c r="CT6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.25">
@@ -2790,6 +2814,12 @@
       <c r="CT7" t="s">
         <v>55</v>
       </c>
+      <c r="CU7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3081,10 +3111,16 @@
         <v>55</v>
       </c>
       <c r="CS8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CT8" t="s">
         <v>56</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
@@ -3695,6 +3731,12 @@
       <c r="CT12" t="s">
         <v>55</v>
       </c>
+      <c r="CU12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3991,9 +4033,15 @@
       <c r="CT13" t="s">
         <v>55</v>
       </c>
+      <c r="CU13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -4285,6 +4333,12 @@
         <v>56</v>
       </c>
       <c r="CT14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4830,6 +4884,12 @@
       <c r="CT17" t="s">
         <v>55</v>
       </c>
+      <c r="CU17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5126,8 +5186,12 @@
       <c r="CT18" t="s">
         <v>55</v>
       </c>
-      <c r="CU18"/>
-      <c r="CV18"/>
+      <c r="CU18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>55</v>
+      </c>
       <c r="CW18"/>
       <c r="CX18"/>
       <c r="CY18"/>
@@ -5430,8 +5494,12 @@
       <c r="CT19" t="s">
         <v>55</v>
       </c>
-      <c r="CU19"/>
-      <c r="CV19"/>
+      <c r="CU19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>55</v>
+      </c>
       <c r="CW19"/>
       <c r="CX19"/>
       <c r="CY19"/>
@@ -5740,7 +5808,13 @@
         <v>55</v>
       </c>
       <c r="CT20" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
@@ -6038,6 +6112,12 @@
       <c r="CT21" t="s">
         <v>55</v>
       </c>
+      <c r="CU21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6443,6 +6523,12 @@
       <c r="CT23" t="s">
         <v>55</v>
       </c>
+      <c r="CU23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6688,6 +6774,12 @@
       <c r="CT24" t="s">
         <v>56</v>
       </c>
+      <c r="CU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6984,6 +7076,12 @@
       <c r="CT25" t="s">
         <v>55</v>
       </c>
+      <c r="CU25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7280,6 +7378,12 @@
       <c r="CT26" t="s">
         <v>55</v>
       </c>
+      <c r="CU26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7576,6 +7680,12 @@
       <c r="CT27" t="s">
         <v>55</v>
       </c>
+      <c r="CU27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7979,8 +8089,12 @@
       <c r="CT29" t="s">
         <v>55</v>
       </c>
-      <c r="CU29"/>
-      <c r="CV29"/>
+      <c r="CU29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>55</v>
+      </c>
       <c r="CW29"/>
       <c r="CX29"/>
       <c r="CY29"/>
@@ -7997,7 +8111,7 @@
       <c r="DJ29"/>
     </row>
     <row r="30" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30">
@@ -8291,8 +8405,12 @@
       <c r="CT30" t="s">
         <v>55</v>
       </c>
-      <c r="CU30"/>
-      <c r="CV30"/>
+      <c r="CU30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>55</v>
+      </c>
       <c r="CW30"/>
       <c r="CX30"/>
       <c r="CY30"/>
@@ -8712,6 +8830,12 @@
       <c r="CT32" t="s">
         <v>55</v>
       </c>
+      <c r="CU32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9006,6 +9130,12 @@
         <v>55</v>
       </c>
       <c r="CT33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9688,6 +9818,12 @@
       <c r="CT36" t="s">
         <v>55</v>
       </c>
+      <c r="CU36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9984,6 +10120,12 @@
       <c r="CT37" t="s">
         <v>56</v>
       </c>
+      <c r="CU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10278,6 +10420,12 @@
         <v>55</v>
       </c>
       <c r="CT38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10724,6 +10872,12 @@
       <c r="CT40" t="s">
         <v>55</v>
       </c>
+      <c r="CU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV40" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11283,6 +11437,12 @@
       <c r="CT43" t="s">
         <v>56</v>
       </c>
+      <c r="CU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11579,6 +11739,12 @@
       <c r="CT44" t="s">
         <v>55</v>
       </c>
+      <c r="CU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11873,7 +12039,13 @@
         <v>55</v>
       </c>
       <c r="CT45" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
@@ -12124,6 +12296,12 @@
         <v>55</v>
       </c>
       <c r="CT46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12408,8 +12586,12 @@
       <c r="CT47" t="s">
         <v>55</v>
       </c>
-      <c r="CU47"/>
-      <c r="CV47"/>
+      <c r="CU47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV47" t="s">
+        <v>55</v>
+      </c>
       <c r="CW47"/>
       <c r="CX47"/>
       <c r="CY47"/>
@@ -12565,7 +12747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12860,8 +13042,14 @@
       <c r="CT49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CU49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13135,8 +13323,14 @@
       <c r="CT50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CU50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13429,6 +13623,12 @@
         <v>55</v>
       </c>
       <c r="CT51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E3B57-FDE2-46B7-82B4-D6520B0D33DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73190071-BC5D-4241-A1EC-905B4B138FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="1365" yWindow="45" windowWidth="27165" windowHeight="15315" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4159" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -734,10 +734,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CU51" sqref="CU51"/>
+      <selection pane="bottomRight" activeCell="CW46" sqref="CW46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +751,10 @@
     <col min="41" max="55" width="6.5703125" customWidth="1"/>
     <col min="56" max="76" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="77" max="98" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
+    <col min="99" max="105" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1053,8 +1053,23 @@
       <c r="CV1" s="2">
         <v>44897</v>
       </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW1" s="2">
+        <v>44900</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>44901</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>44902</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>44903</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1355,8 +1370,23 @@
       <c r="CV2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1612,8 +1642,11 @@
       <c r="CV3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:105" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1914,8 +1947,11 @@
       <c r="CV4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2216,8 +2252,11 @@
       <c r="CV5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2518,8 +2557,11 @@
       <c r="CV6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2820,8 +2862,11 @@
       <c r="CV7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3122,8 +3167,11 @@
       <c r="CV8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CW8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3232,7 +3280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -3436,7 +3484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3737,8 +3785,11 @@
       <c r="CV12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -4039,8 +4090,11 @@
       <c r="CV13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4341,8 +4395,11 @@
       <c r="CV14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CW14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4521,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4890,6 +4947,9 @@
       <c r="CV17" t="s">
         <v>55</v>
       </c>
+      <c r="CW17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5192,7 +5252,9 @@
       <c r="CV18" t="s">
         <v>55</v>
       </c>
-      <c r="CW18"/>
+      <c r="CW18" t="s">
+        <v>55</v>
+      </c>
       <c r="CX18"/>
       <c r="CY18"/>
       <c r="CZ18"/>
@@ -5500,7 +5562,9 @@
       <c r="CV19" t="s">
         <v>55</v>
       </c>
-      <c r="CW19"/>
+      <c r="CW19" t="s">
+        <v>55</v>
+      </c>
       <c r="CX19"/>
       <c r="CY19"/>
       <c r="CZ19"/>
@@ -5816,6 +5880,9 @@
       <c r="CV20" t="s">
         <v>55</v>
       </c>
+      <c r="CW20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6118,6 +6185,9 @@
       <c r="CV21" t="s">
         <v>55</v>
       </c>
+      <c r="CW21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6529,6 +6599,9 @@
       <c r="CV23" t="s">
         <v>55</v>
       </c>
+      <c r="CW23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6780,6 +6853,9 @@
       <c r="CV24" t="s">
         <v>56</v>
       </c>
+      <c r="CW24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7082,6 +7158,9 @@
       <c r="CV25" t="s">
         <v>55</v>
       </c>
+      <c r="CW25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7384,6 +7463,9 @@
       <c r="CV26" t="s">
         <v>55</v>
       </c>
+      <c r="CW26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7686,6 +7768,9 @@
       <c r="CV27" t="s">
         <v>55</v>
       </c>
+      <c r="CW27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8095,7 +8180,9 @@
       <c r="CV29" t="s">
         <v>55</v>
       </c>
-      <c r="CW29"/>
+      <c r="CW29" t="s">
+        <v>55</v>
+      </c>
       <c r="CX29"/>
       <c r="CY29"/>
       <c r="CZ29"/>
@@ -8411,7 +8498,9 @@
       <c r="CV30" t="s">
         <v>55</v>
       </c>
-      <c r="CW30"/>
+      <c r="CW30" t="s">
+        <v>55</v>
+      </c>
       <c r="CX30"/>
       <c r="CY30"/>
       <c r="CZ30"/>
@@ -8836,6 +8925,9 @@
       <c r="CV32" t="s">
         <v>55</v>
       </c>
+      <c r="CW32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9136,6 +9228,9 @@
         <v>55</v>
       </c>
       <c r="CV33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9824,6 +9919,9 @@
       <c r="CV36" t="s">
         <v>55</v>
       </c>
+      <c r="CW36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -10126,6 +10224,9 @@
       <c r="CV37" t="s">
         <v>56</v>
       </c>
+      <c r="CW37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10426,6 +10527,9 @@
         <v>55</v>
       </c>
       <c r="CV38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10878,6 +10982,9 @@
       <c r="CV40" t="s">
         <v>55</v>
       </c>
+      <c r="CW40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11443,6 +11550,9 @@
       <c r="CV43" t="s">
         <v>56</v>
       </c>
+      <c r="CW43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11745,6 +11855,9 @@
       <c r="CV44" t="s">
         <v>55</v>
       </c>
+      <c r="CW44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -12047,6 +12160,9 @@
       <c r="CV45" t="s">
         <v>55</v>
       </c>
+      <c r="CW45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -12302,6 +12418,9 @@
         <v>55</v>
       </c>
       <c r="CV46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12592,7 +12711,9 @@
       <c r="CV47" t="s">
         <v>55</v>
       </c>
-      <c r="CW47"/>
+      <c r="CW47" t="s">
+        <v>55</v>
+      </c>
       <c r="CX47"/>
       <c r="CY47"/>
       <c r="CZ47"/>
@@ -12747,7 +12868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -13048,8 +13169,11 @@
       <c r="CV49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13329,8 +13453,11 @@
       <c r="CV50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13629,6 +13756,9 @@
         <v>55</v>
       </c>
       <c r="CV51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2721D1B8-24F6-4C1E-A801-14964ABEF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6161B-EF98-42CD-9B62-9922A79085CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -23,14 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -290,14 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,7 +296,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -385,16 +376,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -435,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,10 +715,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CU19" sqref="CU19"/>
+      <selection pane="bottomRight" activeCell="CO3" sqref="CO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +736,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -11208,16 +11189,16 @@
       <c r="BU43" t="s">
         <v>56</v>
       </c>
-      <c r="BV43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BW43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BX43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BY43" s="6" t="s">
+      <c r="BV43" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW43" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX43" t="s">
+        <v>56</v>
+      </c>
+      <c r="BY43" t="s">
         <v>56</v>
       </c>
       <c r="BZ43" t="s">
@@ -13440,10 +13421,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13457,7 +13438,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13974,22 +13955,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A36">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C36">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D36">
+  <conditionalFormatting sqref="B3:D36">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -14261,7 +14239,7 @@
       <c r="A32" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32">
         <v>100</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E6161B-EF98-42CD-9B62-9922A79085CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3E659-A39C-4C17-91E2-F310C0B49581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -24,12 +24,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -282,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,10 +724,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CO3" sqref="CO3"/>
+      <selection pane="bottomRight" activeCell="CW18" sqref="CW18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,9 +742,10 @@
     <col min="56" max="76" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="77" max="98" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="99" max="100" width="7" bestFit="1" customWidth="1"/>
+    <col min="101" max="110" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
@@ -1034,8 +1044,38 @@
       <c r="CV1" s="2">
         <v>44897</v>
       </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CW1" s="2">
+        <v>44900</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>44901</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>44902</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>44903</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>44904</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>44907</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>44908</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>44909</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>44910</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1336,8 +1376,38 @@
       <c r="CV2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CW2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>44</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1587,8 +1657,23 @@
       <c r="CT3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="CU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1883,8 +1968,23 @@
       <c r="CT4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2179,8 +2279,23 @@
       <c r="CT5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2475,8 +2590,23 @@
       <c r="CT6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2771,8 +2901,23 @@
       <c r="CT7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3067,8 +3212,23 @@
       <c r="CT8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CU8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3176,8 +3336,20 @@
       <c r="CI9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CU9" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -3271,8 +3443,20 @@
       <c r="CI10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CU10" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -3380,8 +3564,20 @@
       <c r="CI11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU11" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3676,8 +3872,23 @@
       <c r="CT12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="CU12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3972,9 +4183,24 @@
       <c r="CT13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="CU13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -4268,8 +4494,23 @@
       <c r="CT14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4390,8 +4631,20 @@
       <c r="CI15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:100" hidden="1" x14ac:dyDescent="0.25">
+      <c r="CU15" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4514,6 +4767,18 @@
       </c>
       <c r="CI16" t="s">
         <v>58</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:114" x14ac:dyDescent="0.25">
@@ -4811,6 +5076,21 @@
       <c r="CT17" t="s">
         <v>55</v>
       </c>
+      <c r="CU17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5107,11 +5387,21 @@
       <c r="CT18" t="s">
         <v>55</v>
       </c>
-      <c r="CU18"/>
-      <c r="CV18"/>
-      <c r="CW18"/>
-      <c r="CX18"/>
-      <c r="CY18"/>
+      <c r="CU18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>55</v>
+      </c>
       <c r="CZ18"/>
       <c r="DA18"/>
       <c r="DB18"/>
@@ -5411,11 +5701,21 @@
       <c r="CT19" t="s">
         <v>55</v>
       </c>
-      <c r="CU19"/>
-      <c r="CV19"/>
-      <c r="CW19"/>
-      <c r="CX19"/>
-      <c r="CY19"/>
+      <c r="CU19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>55</v>
+      </c>
       <c r="CZ19"/>
       <c r="DA19"/>
       <c r="DB19"/>
@@ -5723,6 +6023,21 @@
       <c r="CT20" t="s">
         <v>56</v>
       </c>
+      <c r="CU20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6019,6 +6334,21 @@
       <c r="CT21" t="s">
         <v>55</v>
       </c>
+      <c r="CU21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6128,6 +6458,18 @@
       <c r="CI22" t="s">
         <v>58</v>
       </c>
+      <c r="CU22" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6424,6 +6766,21 @@
       <c r="CT23" t="s">
         <v>55</v>
       </c>
+      <c r="CU23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6669,6 +7026,21 @@
       <c r="CT24" t="s">
         <v>56</v>
       </c>
+      <c r="CU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6965,6 +7337,21 @@
       <c r="CT25" t="s">
         <v>55</v>
       </c>
+      <c r="CU25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7261,6 +7648,21 @@
       <c r="CT26" t="s">
         <v>55</v>
       </c>
+      <c r="CU26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7557,6 +7959,21 @@
       <c r="CT27" t="s">
         <v>55</v>
       </c>
+      <c r="CU27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX27" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7664,6 +8081,18 @@
       <c r="CI28" t="s">
         <v>58</v>
       </c>
+      <c r="CU28" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7960,11 +8389,21 @@
       <c r="CT29" t="s">
         <v>55</v>
       </c>
-      <c r="CU29"/>
-      <c r="CV29"/>
-      <c r="CW29"/>
-      <c r="CX29"/>
-      <c r="CY29"/>
+      <c r="CU29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX29" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY29" t="s">
+        <v>55</v>
+      </c>
       <c r="CZ29"/>
       <c r="DA29"/>
       <c r="DB29"/>
@@ -8272,11 +8711,21 @@
       <c r="CT30" t="s">
         <v>55</v>
       </c>
-      <c r="CU30"/>
-      <c r="CV30"/>
-      <c r="CW30"/>
-      <c r="CX30"/>
-      <c r="CY30"/>
+      <c r="CU30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY30" t="s">
+        <v>55</v>
+      </c>
       <c r="CZ30"/>
       <c r="DA30"/>
       <c r="DB30"/>
@@ -8397,6 +8846,18 @@
       <c r="CI31" t="s">
         <v>58</v>
       </c>
+      <c r="CU31" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV31" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW31" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX31" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -8693,6 +9154,21 @@
       <c r="CT32" t="s">
         <v>55</v>
       </c>
+      <c r="CU32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8988,6 +9464,21 @@
       </c>
       <c r="CT33" t="s">
         <v>55</v>
+      </c>
+      <c r="CU33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX33" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -9154,10 +9645,18 @@
       <c r="CR34"/>
       <c r="CS34"/>
       <c r="CT34"/>
-      <c r="CU34"/>
-      <c r="CV34"/>
-      <c r="CW34"/>
-      <c r="CX34"/>
+      <c r="CU34" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW34" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX34" t="s">
+        <v>55</v>
+      </c>
       <c r="CY34"/>
       <c r="CZ34"/>
       <c r="DA34"/>
@@ -9373,6 +9872,18 @@
       <c r="CI35" t="s">
         <v>58</v>
       </c>
+      <c r="CU35" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -9669,6 +10180,21 @@
       <c r="CT36" t="s">
         <v>55</v>
       </c>
+      <c r="CU36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX36" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -9965,6 +10491,21 @@
       <c r="CT37" t="s">
         <v>56</v>
       </c>
+      <c r="CU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX37" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10259,6 +10800,21 @@
         <v>55</v>
       </c>
       <c r="CT38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX38" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10393,10 +10949,18 @@
       <c r="CR39"/>
       <c r="CS39"/>
       <c r="CT39"/>
-      <c r="CU39"/>
-      <c r="CV39"/>
-      <c r="CW39"/>
-      <c r="CX39"/>
+      <c r="CU39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW39" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX39" t="s">
+        <v>55</v>
+      </c>
       <c r="CY39"/>
       <c r="CZ39"/>
       <c r="DA39"/>
@@ -10703,6 +11267,21 @@
         <v>55</v>
       </c>
       <c r="CT40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV40" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW40" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX40" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY40" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10870,10 +11449,18 @@
       <c r="CR41"/>
       <c r="CS41"/>
       <c r="CT41"/>
-      <c r="CU41"/>
-      <c r="CV41"/>
-      <c r="CW41"/>
-      <c r="CX41"/>
+      <c r="CU41" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV41" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW41" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX41" t="s">
+        <v>55</v>
+      </c>
       <c r="CY41"/>
       <c r="CZ41"/>
       <c r="DA41"/>
@@ -10995,6 +11582,18 @@
       <c r="CI42" t="s">
         <v>58</v>
       </c>
+      <c r="CU42" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV42" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW42" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX42" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -11264,6 +11863,21 @@
       <c r="CT43" t="s">
         <v>56</v>
       </c>
+      <c r="CU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CV43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX43" t="s">
+        <v>56</v>
+      </c>
+      <c r="CY43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -11560,6 +12174,21 @@
       <c r="CT44" t="s">
         <v>55</v>
       </c>
+      <c r="CU44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX44" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -11856,6 +12485,21 @@
       <c r="CT45" t="s">
         <v>56</v>
       </c>
+      <c r="CU45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX45" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -12105,6 +12749,21 @@
         <v>55</v>
       </c>
       <c r="CT46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12389,11 +13048,21 @@
       <c r="CT47" t="s">
         <v>55</v>
       </c>
-      <c r="CU47"/>
-      <c r="CV47"/>
-      <c r="CW47"/>
-      <c r="CX47"/>
-      <c r="CY47"/>
+      <c r="CU47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX47" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY47" t="s">
+        <v>55</v>
+      </c>
       <c r="CZ47"/>
       <c r="DA47"/>
       <c r="DB47"/>
@@ -12545,8 +13214,20 @@
       <c r="CI48" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CU48" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV48" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW48" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -12841,8 +13522,23 @@
       <c r="CT49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CU49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX49" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13116,8 +13812,23 @@
       <c r="CT50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="CU50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW50" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX50" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -13410,6 +14121,21 @@
         <v>55</v>
       </c>
       <c r="CT51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CU51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CW51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX51" t="s">
+        <v>55</v>
+      </c>
+      <c r="CY51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D3E659-A39C-4C17-91E2-F310C0B49581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFCFF7-FFB3-4981-A4B0-57E0B4F60819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="62">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -297,10 +300,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +727,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW18" sqref="CW18"/>
+      <selection pane="bottomRight" activeCell="CZ50" sqref="CZ50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -1672,6 +1675,9 @@
       <c r="CY3" t="s">
         <v>56</v>
       </c>
+      <c r="CZ3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1983,6 +1989,9 @@
       <c r="CY4" t="s">
         <v>56</v>
       </c>
+      <c r="CZ4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2294,6 +2303,9 @@
       <c r="CY5" t="s">
         <v>56</v>
       </c>
+      <c r="CZ5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2605,6 +2617,9 @@
       <c r="CY6" t="s">
         <v>56</v>
       </c>
+      <c r="CZ6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2916,6 +2931,9 @@
       <c r="CY7" t="s">
         <v>56</v>
       </c>
+      <c r="CZ7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3225,7 +3243,10 @@
         <v>55</v>
       </c>
       <c r="CY8" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
@@ -3887,6 +3908,9 @@
       <c r="CY12" t="s">
         <v>55</v>
       </c>
+      <c r="CZ12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4198,9 +4222,12 @@
       <c r="CY13" t="s">
         <v>55</v>
       </c>
+      <c r="CZ13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -4507,6 +4534,9 @@
         <v>56</v>
       </c>
       <c r="CY14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CZ14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5091,6 +5121,9 @@
       <c r="CY17" t="s">
         <v>55</v>
       </c>
+      <c r="CZ17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5402,7 +5435,9 @@
       <c r="CY18" t="s">
         <v>55</v>
       </c>
-      <c r="CZ18"/>
+      <c r="CZ18" t="s">
+        <v>55</v>
+      </c>
       <c r="DA18"/>
       <c r="DB18"/>
       <c r="DC18"/>
@@ -5716,7 +5751,9 @@
       <c r="CY19" t="s">
         <v>55</v>
       </c>
-      <c r="CZ19"/>
+      <c r="CZ19" t="s">
+        <v>55</v>
+      </c>
       <c r="DA19"/>
       <c r="DB19"/>
       <c r="DC19"/>
@@ -6038,6 +6075,9 @@
       <c r="CY20" t="s">
         <v>55</v>
       </c>
+      <c r="CZ20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6349,6 +6389,9 @@
       <c r="CY21" t="s">
         <v>55</v>
       </c>
+      <c r="CZ21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6781,6 +6824,9 @@
       <c r="CY23" t="s">
         <v>55</v>
       </c>
+      <c r="CZ23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7041,6 +7087,9 @@
       <c r="CY24" t="s">
         <v>56</v>
       </c>
+      <c r="CZ24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7352,6 +7401,9 @@
       <c r="CY25" t="s">
         <v>55</v>
       </c>
+      <c r="CZ25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7663,6 +7715,9 @@
       <c r="CY26" t="s">
         <v>55</v>
       </c>
+      <c r="CZ26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7972,7 +8027,10 @@
         <v>55</v>
       </c>
       <c r="CY27" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
@@ -8404,7 +8462,9 @@
       <c r="CY29" t="s">
         <v>55</v>
       </c>
-      <c r="CZ29"/>
+      <c r="CZ29" t="s">
+        <v>55</v>
+      </c>
       <c r="DA29"/>
       <c r="DB29"/>
       <c r="DC29"/>
@@ -8417,7 +8477,7 @@
       <c r="DJ29"/>
     </row>
     <row r="30" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30">
@@ -8726,7 +8786,9 @@
       <c r="CY30" t="s">
         <v>55</v>
       </c>
-      <c r="CZ30"/>
+      <c r="CZ30" t="s">
+        <v>55</v>
+      </c>
       <c r="DA30"/>
       <c r="DB30"/>
       <c r="DC30"/>
@@ -9169,6 +9231,9 @@
       <c r="CY32" t="s">
         <v>55</v>
       </c>
+      <c r="CZ32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9479,6 +9544,9 @@
       </c>
       <c r="CY33" t="s">
         <v>56</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -10193,7 +10261,10 @@
         <v>55</v>
       </c>
       <c r="CY36" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
@@ -10506,6 +10577,9 @@
       <c r="CY37" t="s">
         <v>56</v>
       </c>
+      <c r="CZ37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10816,6 +10890,9 @@
       </c>
       <c r="CY38" t="s">
         <v>55</v>
+      </c>
+      <c r="CZ38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -11284,6 +11361,9 @@
       <c r="CY40" t="s">
         <v>55</v>
       </c>
+      <c r="CZ40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11878,6 +11958,9 @@
       <c r="CY43" t="s">
         <v>56</v>
       </c>
+      <c r="CZ43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12189,6 +12272,9 @@
       <c r="CY44" t="s">
         <v>55</v>
       </c>
+      <c r="CZ44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -12498,7 +12584,10 @@
         <v>55</v>
       </c>
       <c r="CY45" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="CZ45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
@@ -12764,6 +12853,9 @@
         <v>55</v>
       </c>
       <c r="CY46" t="s">
+        <v>55</v>
+      </c>
+      <c r="CZ46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13063,7 +13155,9 @@
       <c r="CY47" t="s">
         <v>55</v>
       </c>
-      <c r="CZ47"/>
+      <c r="CZ47" t="s">
+        <v>55</v>
+      </c>
       <c r="DA47"/>
       <c r="DB47"/>
       <c r="DC47"/>
@@ -13227,7 +13321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -13537,8 +13631,11 @@
       <c r="CY49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="CZ49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13825,10 +13922,13 @@
         <v>55</v>
       </c>
       <c r="CY50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14137,6 +14237,9 @@
       </c>
       <c r="CY51" t="s">
         <v>55</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFCFF7-FFB3-4981-A4B0-57E0B4F60819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875BA23-6E2D-4511-94BF-3D8ACB1C6812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="64">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -222,10 +211,16 @@
     <t>VPS01</t>
   </si>
   <si>
-    <t>VPS01-Rec</t>
+    <t>REC</t>
   </si>
   <si>
-    <t>VPS01-Fim</t>
+    <t>VPS02</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>PRAT</t>
   </si>
 </sst>
 </file>
@@ -726,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14264,526 +14259,524 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <f>IF(C3&gt;B3,C3,B3)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D36" si="0">IF(C4&gt;B4,C4,B4)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
+      <c r="C4">
         <v>75</v>
       </c>
-      <c r="D5">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>95</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>40</v>
       </c>
-      <c r="C7">
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
         <v>95</v>
       </c>
-      <c r="D7">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="D8">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>80</v>
       </c>
-      <c r="D9">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
         <v>90</v>
       </c>
-      <c r="D10">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
         <v>90</v>
       </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11">
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>90</v>
-      </c>
-      <c r="D12">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C13">
+      <c r="C32">
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>65</v>
-      </c>
-      <c r="D14">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>90</v>
-      </c>
-      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
+      </c>
+      <c r="C35">
         <v>95</v>
       </c>
-      <c r="D15">
+      <c r="D35" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>90</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>85</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>80</v>
-      </c>
-      <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-      <c r="C27">
-        <v>95</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>60</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32">
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>80</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>60</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>70</v>
-      </c>
-      <c r="C36">
-        <v>95</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A36">
+  <conditionalFormatting sqref="A2:A35">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -14791,12 +14784,12 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C36">
+  <conditionalFormatting sqref="B2:C35">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D36">
+  <conditionalFormatting sqref="B2:D35">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -14808,105 +14801,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -14914,15 +14911,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>50</v>
@@ -14930,182 +14927,174 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A36">
+  <conditionalFormatting sqref="A2:A35">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -15113,7 +15102,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B36">
+  <conditionalFormatting sqref="B2:B35">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -15131,12 +15120,13 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15338,202 +15328,201 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A36">
+  <conditionalFormatting sqref="A2:A35">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1875BA23-6E2D-4511-94BF-3D8ACB1C6812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D493A2-1FB5-4614-9DC9-8F08C9BC391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -288,14 +288,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -303,7 +302,32 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -744,10 +768,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -4222,7 +4246,7 @@
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -8472,7 +8496,7 @@
       <c r="DJ29"/>
     </row>
     <row r="30" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30">
@@ -14245,10 +14269,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14261,8 +14285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14777,20 +14801,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C35">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D35">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15095,18 +15119,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15120,7 +15144,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15146,179 +15170,286 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A36">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15330,8 +15461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15523,10 +15654,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D493A2-1FB5-4614-9DC9-8F08C9BC391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D6DAB-D0F6-4308-9C8E-EA149C6AFE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="64">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -302,17 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -327,11 +317,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -745,11 +730,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CZ50" sqref="CZ50"/>
+      <selection pane="bottomRight" activeCell="DA7" sqref="DA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,6 +1682,9 @@
       <c r="CZ3" t="s">
         <v>56</v>
       </c>
+      <c r="DA3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2011,6 +1999,9 @@
       <c r="CZ4" t="s">
         <v>56</v>
       </c>
+      <c r="DA4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2325,6 +2316,9 @@
       <c r="CZ5" t="s">
         <v>55</v>
       </c>
+      <c r="DA5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2639,6 +2633,9 @@
       <c r="CZ6" t="s">
         <v>56</v>
       </c>
+      <c r="DA6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2953,6 +2950,9 @@
       <c r="CZ7" t="s">
         <v>56</v>
       </c>
+      <c r="DA7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3267,6 +3267,9 @@
       <c r="CZ8" t="s">
         <v>55</v>
       </c>
+      <c r="DA8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -3930,6 +3933,9 @@
       <c r="CZ12" t="s">
         <v>56</v>
       </c>
+      <c r="DA12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4244,6 +4250,9 @@
       <c r="CZ13" t="s">
         <v>55</v>
       </c>
+      <c r="DA13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4558,6 +4567,9 @@
       <c r="CZ14" t="s">
         <v>56</v>
       </c>
+      <c r="DA14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5143,6 +5155,9 @@
       <c r="CZ17" t="s">
         <v>55</v>
       </c>
+      <c r="DA17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5457,7 +5472,9 @@
       <c r="CZ18" t="s">
         <v>55</v>
       </c>
-      <c r="DA18"/>
+      <c r="DA18" t="s">
+        <v>55</v>
+      </c>
       <c r="DB18"/>
       <c r="DC18"/>
       <c r="DD18"/>
@@ -5773,7 +5790,9 @@
       <c r="CZ19" t="s">
         <v>55</v>
       </c>
-      <c r="DA19"/>
+      <c r="DA19" t="s">
+        <v>55</v>
+      </c>
       <c r="DB19"/>
       <c r="DC19"/>
       <c r="DD19"/>
@@ -6097,6 +6116,9 @@
       <c r="CZ20" t="s">
         <v>55</v>
       </c>
+      <c r="DA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6411,6 +6433,9 @@
       <c r="CZ21" t="s">
         <v>55</v>
       </c>
+      <c r="DA21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6846,6 +6871,9 @@
       <c r="CZ23" t="s">
         <v>55</v>
       </c>
+      <c r="DA23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7109,6 +7137,9 @@
       <c r="CZ24" t="s">
         <v>56</v>
       </c>
+      <c r="DA24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7423,6 +7454,9 @@
       <c r="CZ25" t="s">
         <v>55</v>
       </c>
+      <c r="DA25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7737,6 +7771,9 @@
       <c r="CZ26" t="s">
         <v>55</v>
       </c>
+      <c r="DA26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8051,6 +8088,9 @@
       <c r="CZ27" t="s">
         <v>55</v>
       </c>
+      <c r="DA27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8484,7 +8524,9 @@
       <c r="CZ29" t="s">
         <v>55</v>
       </c>
-      <c r="DA29"/>
+      <c r="DA29" t="s">
+        <v>55</v>
+      </c>
       <c r="DB29"/>
       <c r="DC29"/>
       <c r="DD29"/>
@@ -8808,7 +8850,9 @@
       <c r="CZ30" t="s">
         <v>55</v>
       </c>
-      <c r="DA30"/>
+      <c r="DA30" t="s">
+        <v>55</v>
+      </c>
       <c r="DB30"/>
       <c r="DC30"/>
       <c r="DD30"/>
@@ -9253,6 +9297,9 @@
       <c r="CZ32" t="s">
         <v>55</v>
       </c>
+      <c r="DA32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9565,6 +9612,9 @@
         <v>56</v>
       </c>
       <c r="CZ33" t="s">
+        <v>55</v>
+      </c>
+      <c r="DA33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10285,6 +10335,9 @@
       <c r="CZ36" t="s">
         <v>55</v>
       </c>
+      <c r="DA36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -10599,6 +10652,9 @@
       <c r="CZ37" t="s">
         <v>56</v>
       </c>
+      <c r="DA37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -10911,6 +10967,9 @@
         <v>55</v>
       </c>
       <c r="CZ38" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA38" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11383,6 +11442,9 @@
       <c r="CZ40" t="s">
         <v>56</v>
       </c>
+      <c r="DA40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -11980,6 +12042,9 @@
       <c r="CZ43" t="s">
         <v>56</v>
       </c>
+      <c r="DA43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12294,6 +12359,9 @@
       <c r="CZ44" t="s">
         <v>55</v>
       </c>
+      <c r="DA44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -12608,6 +12676,9 @@
       <c r="CZ45" t="s">
         <v>55</v>
       </c>
+      <c r="DA45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -12875,6 +12946,9 @@
         <v>55</v>
       </c>
       <c r="CZ46" t="s">
+        <v>55</v>
+      </c>
+      <c r="DA46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13177,7 +13251,9 @@
       <c r="CZ47" t="s">
         <v>55</v>
       </c>
-      <c r="DA47"/>
+      <c r="DA47" t="s">
+        <v>55</v>
+      </c>
       <c r="DB47"/>
       <c r="DC47"/>
       <c r="DD47"/>
@@ -13340,7 +13416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -13653,8 +13729,11 @@
       <c r="CZ49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="DA49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -13946,8 +14025,11 @@
       <c r="CZ50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="DA50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14258,6 +14340,9 @@
         <v>55</v>
       </c>
       <c r="CZ51" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA51" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14269,10 +14354,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14801,20 +14886,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C35">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15119,18 +15204,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15448,7 +15533,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15461,7 +15546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15654,10 +15739,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1D6DAB-D0F6-4308-9C8E-EA149C6AFE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6CF01-5CC6-40AD-ADF4-ABC91413474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="64">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -302,11 +302,61 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -377,6 +427,41 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -432,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,10 +816,10 @@
   <dimension ref="A1:DJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DA7" sqref="DA7"/>
+      <selection pane="bottomRight" activeCell="CP17" sqref="CP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14354,10 +14439,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14371,7 +14456,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14418,6 +14503,11 @@
         <f>IF(C2&gt;B2,C2,B2)</f>
         <v>70</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <f>AVERAGE(D2:E2)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -14430,6 +14520,11 @@
         <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>50</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F35" si="1">AVERAGE(D3:E3)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -14445,6 +14540,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -14460,6 +14560,11 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -14475,6 +14580,11 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -14487,6 +14597,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -14502,6 +14617,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -14517,6 +14637,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14532,6 +14657,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -14547,6 +14677,11 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -14562,6 +14697,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -14577,6 +14717,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -14592,6 +14737,11 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -14604,6 +14754,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -14619,8 +14774,13 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -14631,8 +14791,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -14646,8 +14811,13 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -14661,8 +14831,13 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -14676,8 +14851,13 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -14691,8 +14871,13 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -14703,8 +14888,13 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -14715,8 +14905,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -14730,8 +14925,13 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -14742,8 +14942,13 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -14757,8 +14962,13 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -14772,8 +14982,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -14784,8 +14999,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -14799,8 +15019,13 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -14814,8 +15039,13 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -14826,8 +15056,13 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -14841,8 +15076,13 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -14856,8 +15096,13 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -14868,8 +15113,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -14883,23 +15133,38 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C35">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F35">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E35">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14910,312 +15175,468 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
       <c r="B15">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
         <v>40</v>
       </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D35">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15226,314 +15647,603 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CC97E-7048-4DC6-A2AF-8E9D4B6F4F4C}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
       <c r="B1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>80</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E35" si="1">D3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A36">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="A2:A35">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B36">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:B35">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D35">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E35">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15544,206 +16254,585 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IF(C2&gt;B2,C2,B2)</f>
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <f>AVERAGE(D2:E2)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <v>85</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F35" si="1">AVERAGE(D3:E3)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>90</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C35 E2:E35">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6CF01-5CC6-40AD-ADF4-ABC91413474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FEF47-81C3-4AEB-987F-246CFF73B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="64">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -805,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,7 +819,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CP17" sqref="CP17"/>
+      <selection pane="bottomRight" activeCell="DB1" sqref="DB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,6 +1770,9 @@
       <c r="DA3" t="s">
         <v>56</v>
       </c>
+      <c r="DB3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2087,6 +2090,9 @@
       <c r="DA4" t="s">
         <v>56</v>
       </c>
+      <c r="DB4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2404,6 +2410,9 @@
       <c r="DA5" t="s">
         <v>55</v>
       </c>
+      <c r="DB5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2721,6 +2730,9 @@
       <c r="DA6" t="s">
         <v>55</v>
       </c>
+      <c r="DB6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3038,6 +3050,9 @@
       <c r="DA7" t="s">
         <v>55</v>
       </c>
+      <c r="DB7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3355,6 +3370,9 @@
       <c r="DA8" t="s">
         <v>56</v>
       </c>
+      <c r="DB8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -4021,6 +4039,9 @@
       <c r="DA12" t="s">
         <v>55</v>
       </c>
+      <c r="DB12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4338,6 +4359,9 @@
       <c r="DA13" t="s">
         <v>55</v>
       </c>
+      <c r="DB13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4655,6 +4679,9 @@
       <c r="DA14" t="s">
         <v>56</v>
       </c>
+      <c r="DB14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5243,6 +5270,9 @@
       <c r="DA17" t="s">
         <v>55</v>
       </c>
+      <c r="DB17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5560,7 +5590,9 @@
       <c r="DA18" t="s">
         <v>55</v>
       </c>
-      <c r="DB18"/>
+      <c r="DB18" t="s">
+        <v>55</v>
+      </c>
       <c r="DC18"/>
       <c r="DD18"/>
       <c r="DE18"/>
@@ -5878,7 +5910,9 @@
       <c r="DA19" t="s">
         <v>55</v>
       </c>
-      <c r="DB19"/>
+      <c r="DB19" t="s">
+        <v>55</v>
+      </c>
       <c r="DC19"/>
       <c r="DD19"/>
       <c r="DE19"/>
@@ -6204,6 +6238,9 @@
       <c r="DA20" t="s">
         <v>55</v>
       </c>
+      <c r="DB20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6521,6 +6558,9 @@
       <c r="DA21" t="s">
         <v>55</v>
       </c>
+      <c r="DB21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -6959,6 +6999,9 @@
       <c r="DA23" t="s">
         <v>55</v>
       </c>
+      <c r="DB23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7225,6 +7268,9 @@
       <c r="DA24" t="s">
         <v>56</v>
       </c>
+      <c r="DB24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7542,6 +7588,9 @@
       <c r="DA25" t="s">
         <v>56</v>
       </c>
+      <c r="DB25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7859,6 +7908,9 @@
       <c r="DA26" t="s">
         <v>55</v>
       </c>
+      <c r="DB26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8176,6 +8228,9 @@
       <c r="DA27" t="s">
         <v>55</v>
       </c>
+      <c r="DB27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8612,7 +8667,9 @@
       <c r="DA29" t="s">
         <v>55</v>
       </c>
-      <c r="DB29"/>
+      <c r="DB29" t="s">
+        <v>55</v>
+      </c>
       <c r="DC29"/>
       <c r="DD29"/>
       <c r="DE29"/>
@@ -8938,7 +8995,9 @@
       <c r="DA30" t="s">
         <v>55</v>
       </c>
-      <c r="DB30"/>
+      <c r="DB30" t="s">
+        <v>55</v>
+      </c>
       <c r="DC30"/>
       <c r="DD30"/>
       <c r="DE30"/>
@@ -9385,6 +9444,9 @@
       <c r="DA32" t="s">
         <v>55</v>
       </c>
+      <c r="DB32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9700,6 +9762,9 @@
         <v>55</v>
       </c>
       <c r="DA33" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10423,6 +10488,9 @@
       <c r="DA36" t="s">
         <v>55</v>
       </c>
+      <c r="DB36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -10740,6 +10808,9 @@
       <c r="DA37" t="s">
         <v>56</v>
       </c>
+      <c r="DB37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -11056,6 +11127,9 @@
       </c>
       <c r="DA38" t="s">
         <v>56</v>
+      </c>
+      <c r="DB38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -11530,6 +11604,9 @@
       <c r="DA40" t="s">
         <v>56</v>
       </c>
+      <c r="DB40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -12130,6 +12207,9 @@
       <c r="DA43" t="s">
         <v>56</v>
       </c>
+      <c r="DB43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12447,6 +12527,9 @@
       <c r="DA44" t="s">
         <v>55</v>
       </c>
+      <c r="DB44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -12764,6 +12847,9 @@
       <c r="DA45" t="s">
         <v>56</v>
       </c>
+      <c r="DB45" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -13034,6 +13120,9 @@
         <v>55</v>
       </c>
       <c r="DA46" t="s">
+        <v>55</v>
+      </c>
+      <c r="DB46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13339,7 +13428,9 @@
       <c r="DA47" t="s">
         <v>55</v>
       </c>
-      <c r="DB47"/>
+      <c r="DB47" t="s">
+        <v>55</v>
+      </c>
       <c r="DC47"/>
       <c r="DD47"/>
       <c r="DE47"/>
@@ -13501,7 +13592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -13817,8 +13908,11 @@
       <c r="DA49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -14113,8 +14207,11 @@
       <c r="DA50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="DB50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14429,6 +14526,9 @@
       </c>
       <c r="DA51" t="s">
         <v>56</v>
+      </c>
+      <c r="DB51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1FEF47-81C3-4AEB-987F-246CFF73B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08937682-3560-4D92-99F6-F4C5022E61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="64">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -819,7 +819,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DB1" sqref="DB1"/>
+      <selection pane="bottomRight" activeCell="DD3" sqref="DD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1773,12 @@
       <c r="DB3" t="s">
         <v>56</v>
       </c>
+      <c r="DC3" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2093,6 +2099,12 @@
       <c r="DB4" t="s">
         <v>56</v>
       </c>
+      <c r="DC4" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2413,6 +2425,12 @@
       <c r="DB5" t="s">
         <v>55</v>
       </c>
+      <c r="DC5" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2733,6 +2751,12 @@
       <c r="DB6" t="s">
         <v>56</v>
       </c>
+      <c r="DC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3053,6 +3077,12 @@
       <c r="DB7" t="s">
         <v>55</v>
       </c>
+      <c r="DC7" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3373,6 +3403,12 @@
       <c r="DB8" t="s">
         <v>55</v>
       </c>
+      <c r="DC8" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -4042,6 +4078,12 @@
       <c r="DB12" t="s">
         <v>56</v>
       </c>
+      <c r="DC12" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4362,6 +4404,12 @@
       <c r="DB13" t="s">
         <v>55</v>
       </c>
+      <c r="DC13" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4682,6 +4730,12 @@
       <c r="DB14" t="s">
         <v>56</v>
       </c>
+      <c r="DC14" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5273,6 +5327,12 @@
       <c r="DB17" t="s">
         <v>55</v>
       </c>
+      <c r="DC17" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5593,8 +5653,12 @@
       <c r="DB18" t="s">
         <v>55</v>
       </c>
-      <c r="DC18"/>
-      <c r="DD18"/>
+      <c r="DC18" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>55</v>
+      </c>
       <c r="DE18"/>
       <c r="DF18"/>
       <c r="DG18"/>
@@ -5913,8 +5977,12 @@
       <c r="DB19" t="s">
         <v>55</v>
       </c>
-      <c r="DC19"/>
-      <c r="DD19"/>
+      <c r="DC19" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>55</v>
+      </c>
       <c r="DE19"/>
       <c r="DF19"/>
       <c r="DG19"/>
@@ -6241,6 +6309,12 @@
       <c r="DB20" t="s">
         <v>55</v>
       </c>
+      <c r="DC20" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6561,6 +6635,12 @@
       <c r="DB21" t="s">
         <v>55</v>
       </c>
+      <c r="DC21" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -7002,6 +7082,12 @@
       <c r="DB23" t="s">
         <v>55</v>
       </c>
+      <c r="DC23" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7271,6 +7357,12 @@
       <c r="DB24" t="s">
         <v>56</v>
       </c>
+      <c r="DC24" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7591,6 +7683,12 @@
       <c r="DB25" t="s">
         <v>55</v>
       </c>
+      <c r="DC25" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7911,6 +8009,12 @@
       <c r="DB26" t="s">
         <v>55</v>
       </c>
+      <c r="DC26" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8231,6 +8335,12 @@
       <c r="DB27" t="s">
         <v>55</v>
       </c>
+      <c r="DC27" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8670,8 +8780,12 @@
       <c r="DB29" t="s">
         <v>55</v>
       </c>
-      <c r="DC29"/>
-      <c r="DD29"/>
+      <c r="DC29" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD29" t="s">
+        <v>55</v>
+      </c>
       <c r="DE29"/>
       <c r="DF29"/>
       <c r="DG29"/>
@@ -8998,8 +9112,12 @@
       <c r="DB30" t="s">
         <v>55</v>
       </c>
-      <c r="DC30"/>
-      <c r="DD30"/>
+      <c r="DC30" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD30" t="s">
+        <v>55</v>
+      </c>
       <c r="DE30"/>
       <c r="DF30"/>
       <c r="DG30"/>
@@ -9447,6 +9565,12 @@
       <c r="DB32" t="s">
         <v>55</v>
       </c>
+      <c r="DC32" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9765,6 +9889,12 @@
         <v>55</v>
       </c>
       <c r="DB33" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10491,6 +10621,12 @@
       <c r="DB36" t="s">
         <v>55</v>
       </c>
+      <c r="DC36" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -10811,6 +10947,12 @@
       <c r="DB37" t="s">
         <v>56</v>
       </c>
+      <c r="DC37" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -11130,6 +11272,12 @@
       </c>
       <c r="DB38" t="s">
         <v>55</v>
+      </c>
+      <c r="DC38" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -11607,6 +11755,12 @@
       <c r="DB40" t="s">
         <v>56</v>
       </c>
+      <c r="DC40" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -12210,6 +12364,12 @@
       <c r="DB43" t="s">
         <v>56</v>
       </c>
+      <c r="DC43" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12530,6 +12690,12 @@
       <c r="DB44" t="s">
         <v>55</v>
       </c>
+      <c r="DC44" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -12850,6 +13016,12 @@
       <c r="DB45" t="s">
         <v>56</v>
       </c>
+      <c r="DC45" t="s">
+        <v>56</v>
+      </c>
+      <c r="DD45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -13123,6 +13295,12 @@
         <v>55</v>
       </c>
       <c r="DB46" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC46" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13431,8 +13609,12 @@
       <c r="DB47" t="s">
         <v>55</v>
       </c>
-      <c r="DC47"/>
-      <c r="DD47"/>
+      <c r="DC47" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD47" t="s">
+        <v>55</v>
+      </c>
       <c r="DE47"/>
       <c r="DF47"/>
       <c r="DG47"/>
@@ -13592,7 +13774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -13911,8 +14093,14 @@
       <c r="DB49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="DC49" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -14210,8 +14398,14 @@
       <c r="DB50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="DC50" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14528,6 +14722,12 @@
         <v>56</v>
       </c>
       <c r="DB51" t="s">
+        <v>55</v>
+      </c>
+      <c r="DC51" t="s">
+        <v>55</v>
+      </c>
+      <c r="DD51" t="s">
         <v>55</v>
       </c>
     </row>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08937682-3560-4D92-99F6-F4C5022E61A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF442AB-6F9B-45C8-93F4-CB13D6DFFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DD3" sqref="DD3"/>
+      <selection pane="bottomRight" activeCell="DD33" sqref="DD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10625,7 +10625,7 @@
         <v>55</v>
       </c>
       <c r="DD36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF442AB-6F9B-45C8-93F4-CB13D6DFFBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E20DDB-D0FE-4D4C-AC4E-2D4E036A98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4511" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -222,12 +222,15 @@
   <si>
     <t>PRAT</t>
   </si>
+  <si>
+    <t>MAIOR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -288,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -298,11 +309,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -317,11 +335,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -397,6 +410,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -407,11 +425,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -815,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14739,10 +14752,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15441,30 +15454,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C35">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:D35">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F35">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15475,468 +15488,748 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
-        <f>IF(C2&gt;B2,C2,B2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <f>IF(D2&gt;B2,D2,IF(D2&gt;C2,D2,C2))</f>
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(E2,IF(B2&gt;C2,B2,C2))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <f t="shared" ref="E3:E35" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F35" si="1">AVERAGE(B3,E3)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>70</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>90</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>80</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
         <v>90</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D35"/>
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>70</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>90</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>80</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>70</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>40</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D35">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="F2:F35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16525,25 +16818,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:D35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17113,25 +17406,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C35 E2:E35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E20DDB-D0FE-4D4C-AC4E-2D4E036A98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700B5AF-1A1B-4534-B15A-63CD57EB3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="285" windowWidth="27165" windowHeight="15315" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -313,24 +321,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -350,26 +348,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -420,6 +398,11 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -455,11 +438,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -832,7 +810,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DD33" sqref="DD33"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -4425,7 +4403,7 @@
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -7103,7 +7081,7 @@
       </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B24">
@@ -10642,7 +10620,7 @@
       </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B37">
@@ -12086,7 +12064,7 @@
       </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B43">
@@ -14752,10 +14730,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14766,10 +14744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14830,12 +14808,12 @@
         <v>50</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>50</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F35" si="1">AVERAGE(D3:E3)</f>
+        <f t="shared" ref="F3:F34" si="1">AVERAGE(D3:E3)</f>
         <v>50</v>
       </c>
     </row>
@@ -15209,275 +15187,248 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>80</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>95</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>60</v>
-      </c>
-      <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="C34">
+        <v>95</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>70</v>
-      </c>
-      <c r="C35">
         <v>95</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+  <conditionalFormatting sqref="A2:A34">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C35">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="B2:C34">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D35">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F35">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="B2:F34">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15488,10 +15439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15510,7 +15461,7 @@
       <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -15555,11 +15506,11 @@
       </c>
       <c r="D3"/>
       <c r="E3">
-        <f t="shared" ref="E3:E35" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <f t="shared" ref="E3:E34" si="0">IF(D3&gt;C3,D3,C3)</f>
         <v>50</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F35" si="1">AVERAGE(B3,E3)</f>
+        <f t="shared" ref="F3:F34" si="1">AVERAGE(B3,E3)</f>
         <v>55</v>
       </c>
     </row>
@@ -15944,51 +15895,51 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>26</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D23"/>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>90</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
       </c>
       <c r="D24"/>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>28</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -16000,236 +15951,216 @@
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D26"/>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
+      <c r="A27" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D27"/>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D28"/>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D29"/>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D30"/>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D31"/>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D32"/>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>27.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D33"/>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D34"/>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
       <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>90</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="A2:A34">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="B2:B34">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F2:F34">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16240,10 +16171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CC97E-7048-4DC6-A2AF-8E9D4B6F4F4C}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,11 +16227,11 @@
         <v>60</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>60</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E35" si="1">D3</f>
+        <f t="shared" ref="E3:E34" si="1">D3</f>
         <v>60</v>
       </c>
     </row>
@@ -16369,7 +16300,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -16481,7 +16412,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B15">
@@ -16610,234 +16541,208 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>95</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
+      <c r="A27" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
         <v>80</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B35">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="B2:E34">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D35">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A34">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E35">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -16847,9 +16752,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16905,11 +16812,11 @@
         <v>85</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D35" si="0">IF(C3&gt;B3,C3,B3)</f>
+        <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>85</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F35" si="1">AVERAGE(D3:E3)</f>
+        <f t="shared" ref="F3:F34" si="1">AVERAGE(D3:E3)</f>
         <v>85</v>
       </c>
     </row>
@@ -16975,7 +16882,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
@@ -17084,7 +16991,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B15">
@@ -17210,42 +17117,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>80</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
@@ -17258,7 +17162,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
@@ -17270,8 +17174,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
+      <c r="A27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
@@ -17284,84 +17191,84 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>70</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>90</v>
@@ -17377,55 +17284,29 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A35">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C35 E2:E35">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="B2:F34">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D35">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="A2:A34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700B5AF-1A1B-4534-B15A-63CD57EB3A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E9768-5509-49D6-AC07-61733323E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -328,22 +320,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -383,21 +360,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -810,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,6 +1732,9 @@
       <c r="DD3" t="s">
         <v>56</v>
       </c>
+      <c r="DE3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2096,6 +2061,9 @@
       <c r="DD4" t="s">
         <v>56</v>
       </c>
+      <c r="DE4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2422,6 +2390,9 @@
       <c r="DD5" t="s">
         <v>55</v>
       </c>
+      <c r="DE5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2748,6 +2719,9 @@
       <c r="DD6" t="s">
         <v>56</v>
       </c>
+      <c r="DE6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3074,6 +3048,9 @@
       <c r="DD7" t="s">
         <v>55</v>
       </c>
+      <c r="DE7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3400,6 +3377,9 @@
       <c r="DD8" t="s">
         <v>55</v>
       </c>
+      <c r="DE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -4075,6 +4055,9 @@
       <c r="DD12" t="s">
         <v>55</v>
       </c>
+      <c r="DE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4401,6 +4384,9 @@
       <c r="DD13" t="s">
         <v>55</v>
       </c>
+      <c r="DE13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -4727,6 +4713,9 @@
       <c r="DD14" t="s">
         <v>56</v>
       </c>
+      <c r="DE14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5324,6 +5313,9 @@
       <c r="DD17" t="s">
         <v>55</v>
       </c>
+      <c r="DE17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5650,7 +5642,9 @@
       <c r="DD18" t="s">
         <v>55</v>
       </c>
-      <c r="DE18"/>
+      <c r="DE18" t="s">
+        <v>55</v>
+      </c>
       <c r="DF18"/>
       <c r="DG18"/>
       <c r="DH18"/>
@@ -5974,7 +5968,9 @@
       <c r="DD19" t="s">
         <v>55</v>
       </c>
-      <c r="DE19"/>
+      <c r="DE19" t="s">
+        <v>55</v>
+      </c>
       <c r="DF19"/>
       <c r="DG19"/>
       <c r="DH19"/>
@@ -6304,6 +6300,9 @@
         <v>55</v>
       </c>
       <c r="DD20" t="s">
+        <v>55</v>
+      </c>
+      <c r="DE20" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6632,6 +6631,9 @@
       <c r="DD21" t="s">
         <v>55</v>
       </c>
+      <c r="DE21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -7079,6 +7081,9 @@
       <c r="DD23" t="s">
         <v>55</v>
       </c>
+      <c r="DE23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -7354,6 +7359,9 @@
       <c r="DD24" t="s">
         <v>56</v>
       </c>
+      <c r="DE24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7680,6 +7688,9 @@
       <c r="DD25" t="s">
         <v>55</v>
       </c>
+      <c r="DE25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8006,6 +8017,9 @@
       <c r="DD26" t="s">
         <v>55</v>
       </c>
+      <c r="DE26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8330,6 +8344,9 @@
         <v>55</v>
       </c>
       <c r="DD27" t="s">
+        <v>55</v>
+      </c>
+      <c r="DE27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -8777,7 +8794,9 @@
       <c r="DD29" t="s">
         <v>55</v>
       </c>
-      <c r="DE29"/>
+      <c r="DE29" t="s">
+        <v>55</v>
+      </c>
       <c r="DF29"/>
       <c r="DG29"/>
       <c r="DH29"/>
@@ -9109,7 +9128,9 @@
       <c r="DD30" t="s">
         <v>55</v>
       </c>
-      <c r="DE30"/>
+      <c r="DE30" t="s">
+        <v>55</v>
+      </c>
       <c r="DF30"/>
       <c r="DG30"/>
       <c r="DH30"/>
@@ -9562,6 +9583,9 @@
       <c r="DD32" t="s">
         <v>55</v>
       </c>
+      <c r="DE32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9887,6 +9911,9 @@
       </c>
       <c r="DD33" t="s">
         <v>55</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -10618,6 +10645,9 @@
       <c r="DD36" t="s">
         <v>55</v>
       </c>
+      <c r="DE36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -10944,6 +10974,9 @@
       <c r="DD37" t="s">
         <v>56</v>
       </c>
+      <c r="DE37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -11268,7 +11301,10 @@
         <v>56</v>
       </c>
       <c r="DD38" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="DE38" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -11752,6 +11788,9 @@
       <c r="DD40" t="s">
         <v>56</v>
       </c>
+      <c r="DE40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -12361,6 +12400,9 @@
       <c r="DD43" t="s">
         <v>56</v>
       </c>
+      <c r="DE43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12687,6 +12729,9 @@
       <c r="DD44" t="s">
         <v>55</v>
       </c>
+      <c r="DE44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -13013,6 +13058,9 @@
       <c r="DD45" t="s">
         <v>55</v>
       </c>
+      <c r="DE45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -13292,6 +13340,9 @@
         <v>55</v>
       </c>
       <c r="DD46" t="s">
+        <v>55</v>
+      </c>
+      <c r="DE46" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13606,7 +13657,9 @@
       <c r="DD47" t="s">
         <v>55</v>
       </c>
-      <c r="DE47"/>
+      <c r="DE47" t="s">
+        <v>55</v>
+      </c>
       <c r="DF47"/>
       <c r="DG47"/>
       <c r="DH47"/>
@@ -13765,7 +13818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -14090,8 +14143,11 @@
       <c r="DD49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="DE49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -14393,10 +14449,13 @@
         <v>55</v>
       </c>
       <c r="DD50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="DE50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:109" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14719,6 +14778,9 @@
         <v>55</v>
       </c>
       <c r="DD51" t="s">
+        <v>55</v>
+      </c>
+      <c r="DE51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14730,10 +14792,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15415,20 +15477,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C34">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F34">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15441,8 +15503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15484,14 +15546,16 @@
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2"/>
+      <c r="D2">
+        <v>45</v>
+      </c>
       <c r="E2">
         <f>IF(D2&gt;B2,D2,IF(D2&gt;C2,D2,C2))</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <f>AVERAGE(E2,IF(B2&gt;C2,B2,C2))</f>
-        <v>60</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15504,13 +15568,15 @@
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3"/>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">IF(D3&gt;C3,D3,C3)</f>
+        <f t="shared" ref="E3:E33" si="0">IF(D3&gt;B3,D3,IF(D3&gt;C3,D3,C3))</f>
         <v>50</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F34" si="1">AVERAGE(B3,E3)</f>
+        <f t="shared" ref="F3:F34" si="1">AVERAGE(E3,IF(B3&gt;C3,B3,C3))</f>
         <v>55</v>
       </c>
     </row>
@@ -15524,14 +15590,16 @@
       <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4"/>
+      <c r="D4">
+        <v>65</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15544,14 +15612,16 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5"/>
+      <c r="D5">
+        <v>60</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15564,14 +15634,16 @@
       <c r="C6">
         <v>88</v>
       </c>
-      <c r="D6"/>
+      <c r="D6">
+        <v>95</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15584,14 +15656,16 @@
       <c r="C7">
         <v>70</v>
       </c>
-      <c r="D7"/>
+      <c r="D7">
+        <v>85</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15604,7 +15678,9 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8"/>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15624,14 +15700,16 @@
       <c r="C9">
         <v>90</v>
       </c>
-      <c r="D9"/>
+      <c r="D9">
+        <v>100</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15644,14 +15722,16 @@
       <c r="C10">
         <v>95</v>
       </c>
-      <c r="D10"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>82.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15664,14 +15744,16 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11"/>
+      <c r="D11">
+        <v>40</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15682,16 +15764,18 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12"/>
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15704,7 +15788,9 @@
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13"/>
+      <c r="D13">
+        <v>35</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -15724,14 +15810,16 @@
       <c r="C14">
         <v>100</v>
       </c>
-      <c r="D14"/>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15744,7 +15832,9 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15764,14 +15854,16 @@
       <c r="C16">
         <v>40</v>
       </c>
-      <c r="D16"/>
+      <c r="D16">
+        <v>45</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -15784,7 +15876,9 @@
       <c r="C17">
         <v>100</v>
       </c>
-      <c r="D17"/>
+      <c r="D17">
+        <v>100</v>
+      </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -15804,14 +15898,16 @@
       <c r="C18">
         <v>60</v>
       </c>
-      <c r="D18"/>
+      <c r="D18">
+        <v>45</v>
+      </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15824,14 +15920,16 @@
       <c r="C19">
         <v>15</v>
       </c>
-      <c r="D19"/>
+      <c r="D19">
+        <v>35</v>
+      </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,14 +15942,16 @@
       <c r="C20">
         <v>60</v>
       </c>
-      <c r="D20"/>
+      <c r="D20">
+        <v>95</v>
+      </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15864,14 +15964,16 @@
       <c r="C21">
         <v>70</v>
       </c>
-      <c r="D21"/>
+      <c r="D21">
+        <v>95</v>
+      </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15884,7 +15986,9 @@
       <c r="C22">
         <v>70</v>
       </c>
-      <c r="D22"/>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -15904,14 +16008,16 @@
       <c r="C23">
         <v>90</v>
       </c>
-      <c r="D23"/>
+      <c r="D23">
+        <v>95</v>
+      </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15924,7 +16030,9 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24"/>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15944,14 +16052,16 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25"/>
+      <c r="D25">
+        <v>45</v>
+      </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15964,14 +16074,16 @@
       <c r="C26">
         <v>85</v>
       </c>
-      <c r="D26"/>
+      <c r="D26">
+        <v>0</v>
+      </c>
       <c r="E26">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -15984,7 +16096,9 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="D27"/>
+      <c r="D27">
+        <v>0</v>
+      </c>
       <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16004,14 +16118,16 @@
       <c r="C28">
         <v>50</v>
       </c>
-      <c r="D28"/>
+      <c r="D28">
+        <v>80</v>
+      </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16024,14 +16140,16 @@
       <c r="C29">
         <v>30</v>
       </c>
-      <c r="D29"/>
+      <c r="D29">
+        <v>60</v>
+      </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -16044,14 +16162,16 @@
       <c r="C30">
         <v>90</v>
       </c>
-      <c r="D30"/>
+      <c r="D30">
+        <v>100</v>
+      </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -16064,14 +16184,16 @@
       <c r="C31">
         <v>15</v>
       </c>
-      <c r="D31"/>
+      <c r="D31">
+        <v>30</v>
+      </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>27.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -16084,14 +16206,16 @@
       <c r="C32">
         <v>80</v>
       </c>
-      <c r="D32"/>
+      <c r="D32">
+        <v>95</v>
+      </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -16104,14 +16228,16 @@
       <c r="C33">
         <v>60</v>
       </c>
-      <c r="D33"/>
+      <c r="D33">
+        <v>85</v>
+      </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -16124,14 +16250,16 @@
       <c r="C34">
         <v>90</v>
       </c>
-      <c r="D34"/>
+      <c r="D34">
+        <v>90</v>
+      </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E34" si="2">IF(D34&gt;C34,D34,C34)</f>
         <v>90</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -16144,23 +16272,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B34">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F34">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16733,15 +16861,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:E34">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16754,7 +16882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -17297,7 +17425,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E9768-5509-49D6-AC07-61733323E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE04EAF-D2CB-4FBF-8927-F482E09D5B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -15504,7 +15504,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15554,7 +15554,7 @@
         <v>45</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(E2,IF(B2&gt;C2,B2,C2))</f>
+        <f>IF(D2=0,AVERAGE(B2:C2),AVERAGE(E2,IF(B2&gt;C2,B2,C2)))</f>
         <v>52.5</v>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F34" si="1">AVERAGE(E3,IF(B3&gt;C3,B3,C3))</f>
+        <f t="shared" ref="F3:F34" si="1">IF(D3=0,AVERAGE(B3:C3),AVERAGE(E3,IF(B3&gt;C3,B3,C3)))</f>
         <v>55</v>
       </c>
     </row>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -16083,7 +16083,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -16254,7 +16254,7 @@
         <v>90</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E3:E34" si="2">IF(D34&gt;C34,D34,C34)</f>
+        <f t="shared" ref="E34" si="2">IF(D34&gt;C34,D34,C34)</f>
         <v>90</v>
       </c>
       <c r="F34">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE04EAF-D2CB-4FBF-8927-F482E09D5B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81693622-C69F-4EC9-A7C9-42AE01422362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="CJ24" sqref="CJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14809,7 +14809,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14856,10 +14856,12 @@
         <f>IF(C2&gt;B2,C2,B2)</f>
         <v>70</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
       <c r="F2" s="1">
         <f>AVERAGE(D2:E2)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -14873,10 +14875,12 @@
         <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>50</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>70</v>
+      </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="1">AVERAGE(D3:E3)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14893,10 +14897,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -14913,10 +14919,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -14933,10 +14941,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>60</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -14950,10 +14960,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>60</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -14990,10 +15002,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>60</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15010,10 +15024,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>95</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15030,10 +15046,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>95</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -15050,7 +15068,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15070,7 +15090,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>65</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -15090,7 +15112,9 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>95</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -15127,7 +15151,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>90</v>
+      </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -15140,14 +15166,19 @@
       <c r="B17">
         <v>70</v>
       </c>
+      <c r="C17">
+        <v>95</v>
+      </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E17" s="1">
+        <v>95</v>
+      </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15164,10 +15195,12 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>65</v>
+      </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -15184,7 +15217,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>35</v>
+      </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -15204,10 +15239,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>55</v>
+      </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -15224,10 +15261,12 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>65</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -15241,10 +15280,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>50</v>
+      </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -15261,10 +15302,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>85</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -15298,10 +15341,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -15355,10 +15400,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>35</v>
+      </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -15375,10 +15422,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>55</v>
+      </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15392,10 +15441,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>70</v>
+      </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -15412,10 +15463,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15432,10 +15485,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>60</v>
+      </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -15449,10 +15504,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>65</v>
+      </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -15469,10 +15526,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>55</v>
+      </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -15503,8 +15562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16302,7 +16361,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16882,8 +16941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16927,9 +16986,12 @@
         <f>IF(C2&gt;B2,C2,B2)</f>
         <v>55</v>
       </c>
+      <c r="E2" s="1">
+        <v>65</v>
+      </c>
       <c r="F2" s="1">
         <f>AVERAGE(D2:E2)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16988,9 +17050,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17373,9 +17438,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="E31" s="1">
+        <v>40</v>
+      </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81693622-C69F-4EC9-A7C9-42AE01422362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC35C3F-152B-46F3-9050-228135618165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -223,7 +223,7 @@
     <t>PRAT</t>
   </si>
   <si>
-    <t>MAIOR</t>
+    <t>MÈDIA</t>
   </si>
 </sst>
 </file>
@@ -299,16 +299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,7 +317,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -350,16 +347,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -768,11 +755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CJ24" sqref="CJ24"/>
+      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,10 +778,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="2">
         <v>44762</v>
       </c>
@@ -4389,7 +4376,7 @@
       </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B14">
@@ -6303,7 +6290,7 @@
         <v>55</v>
       </c>
       <c r="DE20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
@@ -7086,7 +7073,7 @@
       </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B24">
@@ -8347,7 +8334,7 @@
         <v>55</v>
       </c>
       <c r="DE27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
@@ -9913,7 +9900,7 @@
         <v>55</v>
       </c>
       <c r="DE33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -10650,7 +10637,7 @@
       </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B37">
@@ -12103,7 +12090,7 @@
       </c>
     </row>
     <row r="43" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B43">
@@ -14452,7 +14439,7 @@
         <v>55</v>
       </c>
       <c r="DE50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:109" x14ac:dyDescent="0.25">
@@ -14792,10 +14779,10 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14809,13 +14796,13 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -14956,6 +14943,9 @@
       <c r="B7">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14969,7 +14959,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -14982,10 +14972,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15121,7 +15113,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B15">
@@ -15131,10 +15123,12 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -15311,7 +15305,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24">
@@ -15321,10 +15315,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -15363,14 +15359,16 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>60</v>
+      </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D26:E26)</f>
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -15380,7 +15378,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15536,20 +15536,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C34">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F34">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15560,64 +15560,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <f>IF(D2&gt;B2,D2,IF(D2&gt;C2,D2,C2))</f>
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <f>IF(D2=0,AVERAGE(B2:C2),AVERAGE(E2,IF(B2&gt;C2,B2,C2)))</f>
+        <f>AVERAGE(B2:C2)</f>
         <v>52.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15628,62 +15613,41 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E33" si="0">IF(D3&gt;B3,D3,IF(D3&gt;C3,D3,C3))</f>
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F34" si="1">IF(D3=0,AVERAGE(B3:C3),AVERAGE(E3,IF(B3&gt;C3,B3,C3)))</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D34" si="0">AVERAGE(B3:C3)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4">
-        <v>65</v>
-      </c>
-      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -15691,663 +15655,447 @@
         <v>90</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>95</v>
-      </c>
-      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>80</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
         <v>85</v>
       </c>
-      <c r="E7">
+      <c r="D26">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C27">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>90</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>95</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
         <v>40</v>
       </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="C31">
         <v>30</v>
       </c>
-      <c r="D12">
-        <v>70</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>45</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>35</v>
-      </c>
-      <c r="E19">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>95</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>95</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <v>90</v>
-      </c>
-      <c r="D23">
-        <v>95</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>85</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>70</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>80</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>80</v>
-      </c>
-      <c r="C29">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <v>90</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>80</v>
       </c>
       <c r="D32">
-        <v>95</v>
-      </c>
-      <c r="E32">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>60</v>
       </c>
       <c r="D33">
-        <v>85</v>
-      </c>
-      <c r="E33">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>90</v>
       </c>
       <c r="D34">
+        <f t="shared" si="0"/>
         <v>90</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ref="E34" si="2">IF(D34&gt;C34,D34,C34)</f>
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A34">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="B2:D34">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F34">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16361,7 +16109,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16487,7 +16235,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -16599,7 +16347,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B15">
@@ -16743,7 +16491,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24">
@@ -16791,7 +16539,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -16941,18 +16689,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17005,9 +16753,12 @@
         <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
         <v>85</v>
       </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F34" si="1">AVERAGE(D3:E3)</f>
-        <v>85</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -17021,22 +16772,31 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="E4" s="1">
+        <v>80</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -17051,11 +16811,11 @@
         <v>80</v>
       </c>
       <c r="E6" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -17069,19 +16829,25 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="E7" s="1">
+        <v>85</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17098,9 +16864,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="E9" s="1">
+        <v>65</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -17114,9 +16883,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -17130,9 +16902,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E11" s="1">
+        <v>15</v>
+      </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17146,9 +16921,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="E12" s="1">
+        <v>55</v>
+      </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -17162,9 +16940,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="E13" s="1">
+        <v>75</v>
+      </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -17178,13 +16959,16 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B15">
@@ -17194,6 +16978,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17207,9 +16994,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -17223,6 +17013,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -17239,9 +17032,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E18" s="1">
+        <v>40</v>
+      </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -17255,9 +17051,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="E19" s="1">
+        <v>65</v>
+      </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -17271,9 +17070,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="E20" s="1">
+        <v>65</v>
+      </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17287,6 +17089,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -17303,9 +17108,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="E22" s="1">
+        <v>65</v>
+      </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17319,13 +17127,16 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24">
@@ -17335,6 +17146,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17348,26 +17162,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E25" s="1">
+        <v>15</v>
+      </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -17377,6 +17200,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17393,9 +17219,12 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -17406,9 +17235,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E29" s="1">
+        <v>15</v>
+      </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17422,9 +17254,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="E30" s="1">
+        <v>55</v>
+      </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17457,9 +17292,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E32" s="1">
+        <v>95</v>
+      </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -17473,9 +17311,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -17486,9 +17327,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC35C3F-152B-46F3-9050-228135618165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C5E39-0615-415E-A346-823160A444C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4541" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -755,11 +755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:DJ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
+      <selection pane="bottomRight" activeCell="CJ25" sqref="CJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,6 +1722,9 @@
       <c r="DE3" t="s">
         <v>56</v>
       </c>
+      <c r="DF3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2051,6 +2054,9 @@
       <c r="DE4" t="s">
         <v>56</v>
       </c>
+      <c r="DF4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2380,6 +2386,9 @@
       <c r="DE5" t="s">
         <v>55</v>
       </c>
+      <c r="DF5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2709,6 +2718,9 @@
       <c r="DE6" t="s">
         <v>55</v>
       </c>
+      <c r="DF6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3038,6 +3050,9 @@
       <c r="DE7" t="s">
         <v>55</v>
       </c>
+      <c r="DF7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3367,6 +3382,9 @@
       <c r="DE8" t="s">
         <v>55</v>
       </c>
+      <c r="DF8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -4045,6 +4063,9 @@
       <c r="DE12" t="s">
         <v>55</v>
       </c>
+      <c r="DF12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4374,6 +4395,9 @@
       <c r="DE13" t="s">
         <v>55</v>
       </c>
+      <c r="DF13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -4703,6 +4727,9 @@
       <c r="DE14" t="s">
         <v>56</v>
       </c>
+      <c r="DF14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:110" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5303,6 +5330,9 @@
       <c r="DE17" t="s">
         <v>55</v>
       </c>
+      <c r="DF17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5632,7 +5662,9 @@
       <c r="DE18" t="s">
         <v>55</v>
       </c>
-      <c r="DF18"/>
+      <c r="DF18" t="s">
+        <v>55</v>
+      </c>
       <c r="DG18"/>
       <c r="DH18"/>
       <c r="DI18"/>
@@ -5958,7 +5990,9 @@
       <c r="DE19" t="s">
         <v>55</v>
       </c>
-      <c r="DF19"/>
+      <c r="DF19" t="s">
+        <v>56</v>
+      </c>
       <c r="DG19"/>
       <c r="DH19"/>
       <c r="DI19"/>
@@ -6292,6 +6326,9 @@
       <c r="DE20" t="s">
         <v>55</v>
       </c>
+      <c r="DF20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6621,6 +6658,9 @@
       <c r="DE21" t="s">
         <v>55</v>
       </c>
+      <c r="DF21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -7071,6 +7111,9 @@
       <c r="DE23" t="s">
         <v>55</v>
       </c>
+      <c r="DF23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -7349,6 +7392,9 @@
       <c r="DE24" t="s">
         <v>56</v>
       </c>
+      <c r="DF24" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7678,6 +7724,9 @@
       <c r="DE25" t="s">
         <v>55</v>
       </c>
+      <c r="DF25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8007,6 +8056,9 @@
       <c r="DE26" t="s">
         <v>55</v>
       </c>
+      <c r="DF26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -8336,6 +8388,9 @@
       <c r="DE27" t="s">
         <v>55</v>
       </c>
+      <c r="DF27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -8784,7 +8839,9 @@
       <c r="DE29" t="s">
         <v>55</v>
       </c>
-      <c r="DF29"/>
+      <c r="DF29" t="s">
+        <v>55</v>
+      </c>
       <c r="DG29"/>
       <c r="DH29"/>
       <c r="DI29"/>
@@ -9118,7 +9175,9 @@
       <c r="DE30" t="s">
         <v>55</v>
       </c>
-      <c r="DF30"/>
+      <c r="DF30" t="s">
+        <v>55</v>
+      </c>
       <c r="DG30"/>
       <c r="DH30"/>
       <c r="DI30"/>
@@ -9573,6 +9632,9 @@
       <c r="DE32" t="s">
         <v>55</v>
       </c>
+      <c r="DF32" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="33" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9900,6 +9962,9 @@
         <v>55</v>
       </c>
       <c r="DE33" t="s">
+        <v>55</v>
+      </c>
+      <c r="DF33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -10635,6 +10700,9 @@
       <c r="DE36" t="s">
         <v>55</v>
       </c>
+      <c r="DF36" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -10964,6 +11032,9 @@
       <c r="DE37" t="s">
         <v>56</v>
       </c>
+      <c r="DF37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -11291,6 +11362,9 @@
         <v>55</v>
       </c>
       <c r="DE38" t="s">
+        <v>55</v>
+      </c>
+      <c r="DF38" t="s">
         <v>55</v>
       </c>
     </row>
@@ -11778,6 +11852,9 @@
       <c r="DE40" t="s">
         <v>56</v>
       </c>
+      <c r="DF40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="1:114" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -12390,6 +12467,9 @@
       <c r="DE43" t="s">
         <v>56</v>
       </c>
+      <c r="DF43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -12719,6 +12799,9 @@
       <c r="DE44" t="s">
         <v>55</v>
       </c>
+      <c r="DF44" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="45" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -13048,6 +13131,9 @@
       <c r="DE45" t="s">
         <v>55</v>
       </c>
+      <c r="DF45" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -13331,6 +13417,9 @@
       </c>
       <c r="DE46" t="s">
         <v>55</v>
+      </c>
+      <c r="DF46" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13647,7 +13736,9 @@
       <c r="DE47" t="s">
         <v>55</v>
       </c>
-      <c r="DF47"/>
+      <c r="DF47" t="s">
+        <v>55</v>
+      </c>
       <c r="DG47"/>
       <c r="DH47"/>
       <c r="DI47"/>
@@ -13805,7 +13896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -14133,8 +14224,11 @@
       <c r="DE49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="DF49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -14441,8 +14535,11 @@
       <c r="DE50" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.25">
+      <c r="DF50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -14768,6 +14865,9 @@
         <v>55</v>
       </c>
       <c r="DE51" t="s">
+        <v>55</v>
+      </c>
+      <c r="DF51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14795,8 +14895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14944,18 +15044,18 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1">
         <v>60</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -15464,11 +15564,11 @@
         <v>50</v>
       </c>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -15563,14 +15663,14 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15591,13 +15691,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>45</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>60</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <f>AVERAGE(B2:C2)</f>
         <v>52.5</v>
       </c>
@@ -15606,13 +15706,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D34" si="0">AVERAGE(B3:C3)</f>
         <v>55</v>
       </c>
@@ -15621,13 +15721,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>57.5</v>
       </c>
@@ -15636,13 +15736,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>70</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -15651,13 +15751,13 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>90</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>95</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -15666,13 +15766,13 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>80</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>85</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -15681,13 +15781,13 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15696,13 +15796,13 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>90</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -15711,13 +15811,13 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>70</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>95</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -15726,13 +15826,13 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>40</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -15741,13 +15841,13 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>70</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -15756,13 +15856,13 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -15771,13 +15871,13 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -15786,13 +15886,13 @@
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>70</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -15801,13 +15901,13 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>90</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>45</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
@@ -15816,13 +15916,13 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>100</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -15831,13 +15931,13 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>45</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
@@ -15846,13 +15946,13 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -15861,13 +15961,13 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>70</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>95</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -15876,13 +15976,13 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>95</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>70</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
@@ -15891,28 +15991,28 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>70</v>
       </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>90</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -15921,13 +16021,13 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -15936,13 +16036,13 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>40</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>45</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
@@ -15951,13 +16051,13 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>50</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>85</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
@@ -15966,13 +16066,13 @@
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15981,13 +16081,13 @@
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>70</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>80</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -15996,13 +16096,13 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>80</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>60</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -16011,13 +16111,13 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>100</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>100</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -16026,13 +16126,13 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>40</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -16041,13 +16141,13 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>95</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>80</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -16056,13 +16156,13 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>85</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>60</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
@@ -16071,13 +16171,13 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>90</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>90</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -16109,7 +16209,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16287,15 +16387,15 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16578,7 +16678,6 @@
         <v>45</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E29" s="1">
@@ -16687,656 +16786,531 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D71657-1154-46F8-94FC-8CA1B46E9CC3}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>55</v>
+      <c r="B2" s="1">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>65</v>
       </c>
       <c r="D2" s="1">
-        <f>IF(C2&gt;B2,C2,B2)</f>
-        <v>55</v>
-      </c>
-      <c r="E2" s="1">
-        <v>65</v>
-      </c>
-      <c r="F2" s="1">
-        <f>AVERAGE(D2:E2)</f>
+        <f>AVERAGE(B2:C2)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>85</v>
       </c>
+      <c r="C3" s="1">
+        <v>30</v>
+      </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
-        <v>85</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F34" si="1">AVERAGE(D3:E3)</f>
+        <f t="shared" ref="D3:D34" si="0">AVERAGE(B3:C3)</f>
         <v>57.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>80</v>
+      </c>
+      <c r="C7" s="1">
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E7" s="1">
-        <v>85</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E9" s="1">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E11" s="1">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E12" s="1">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>70</v>
+      </c>
+      <c r="C13" s="1">
+        <v>75</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E13" s="1">
-        <v>75</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="1">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>25</v>
+      </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
         <v>100</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E18" s="1">
-        <v>40</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>50</v>
+      </c>
+      <c r="C19" s="1">
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E19" s="1">
-        <v>65</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>100</v>
+      </c>
+      <c r="C20" s="1">
+        <v>65</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E20" s="1">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
         <v>100</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>65</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E22" s="1">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>100</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25" s="1">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
         <v>50</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>95</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E28" s="1">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="1"/>
         <v>72.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
+      <c r="B29" s="1">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>70</v>
+      </c>
+      <c r="C30" s="1">
+        <v>55</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E30" s="1">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31">
-        <v>55</v>
+      <c r="B31" s="1">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E31" s="1">
-        <v>40</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>90</v>
+      </c>
+      <c r="C32" s="1">
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E32" s="1">
-        <v>95</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>90</v>
+      </c>
+      <c r="C33" s="1">
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="E33" s="1">
-        <v>80</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
+      <c r="B34" s="1">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1">
+        <v>100</v>
+      </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F34">
+  <conditionalFormatting sqref="B2:D34">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>

--- a/1des/chamada.xlsx
+++ b/1des/chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C5E39-0615-415E-A346-823160A444C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08080AD8-51E9-4299-B290-32D381577529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="20685" yWindow="150" windowWidth="7605" windowHeight="15315" firstSheet="1" activeTab="2" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4574" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4572" uniqueCount="65">
   <si>
     <t>Ana Maria Duarte Campelo</t>
   </si>
@@ -14895,8 +14895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643C73D0-CDBB-4A7D-912C-7FC0A3BE6CDB}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15305,18 +15305,18 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1">
         <v>35</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -15662,8 +15662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38785FFD-197A-4686-97CC-56F46B772A88}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15827,14 +15827,14 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -16206,567 +16206,428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CC97E-7048-4DC6-A2AF-8E9D4B6F4F4C}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>80</v>
       </c>
-      <c r="D2" s="1">
-        <f>IF(C2&gt;B2,C2,B2)</f>
+      <c r="C2" s="1">
+        <f>B2</f>
         <v>80</v>
       </c>
-      <c r="E2" s="1">
-        <f>D2</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D34" si="0">IF(C3&gt;B3,C3,B3)</f>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C34" si="0">B3</f>
         <v>60</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E34" si="1">D3</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>70</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>90</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>85</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>90</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>50</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>80</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>90</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>60</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>100</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>50</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>50</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>95</v>
       </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>80</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>70</v>
       </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>95</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>75</v>
       </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>100</v>
       </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>65</v>
       </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1">
-        <v>45</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>95</v>
       </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>50</v>
       </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>75</v>
       </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>55</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B33" s="1">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>80</v>
       </c>
-      <c r="D34" s="1">
+      <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E34">
+  <conditionalFormatting sqref="B2:C34">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -16789,7 +16650,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
